--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DDA251-BDC8-4DE6-98BC-ADE8F9100DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FC2353-0A68-4D28-B536-67F7587B4E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="132">
   <si>
     <t>名字</t>
   </si>
@@ -340,6 +340,206 @@
   </si>
   <si>
     <t>valueChanges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dodgeChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critMultiple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorRegeneration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>takeDamageMultiple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyDamageMultiple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightingDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acidDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDefenseRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireDefenseRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceDefenseRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightingDefenseRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acidDefenseRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机体值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能范围增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供电力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击倍数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成的伤害倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的伤害倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理属性伤害增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧属性伤害增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻属性伤害增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电击属性伤害增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸蚀属性伤害增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理属性伤害减免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧属性伤害减免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻属性伤害减免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电击属性伤害减免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸蚀属性伤害减免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 30,maxHealth + 100,moveSpeed + 10,electricPower + 5,armorRegeneration+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHealth + 10,moveSpeed - 1,addRange + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHealth + 5,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHealth + 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHealth + 5,moveSpeed - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -347,7 +547,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,12 +561,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFB5CEA8"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -401,17 +595,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -693,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -707,14 +905,15 @@
     <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
     <col min="8" max="8" width="15.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="35.5" customWidth="1"/>
-    <col min="11" max="11" width="17.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1"/>
+    <col min="9" max="9" width="35.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -737,15 +936,18 @@
       <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,15 +972,18 @@
       <c r="H2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -803,15 +1008,18 @@
       <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -830,20 +1038,23 @@
       <c r="F4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="I4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -862,20 +1073,23 @@
       <c r="F5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="I5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -894,20 +1108,23 @@
       <c r="F6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="I6" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -923,20 +1140,23 @@
       <c r="E7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="I7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -955,95 +1175,259 @@
       <c r="F8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="I8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K9" s="1" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K10" s="1" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K11" s="1" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M12" s="1" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K19" s="2"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{70049EC0-6AD3-4E6A-BE5E-82D066390A45}">
-      <formula1>$K$5:$K$12</formula1>
+      <formula1>$L$5:$L$12</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F1048576 G1:G1048576" xr:uid="{887B8EE1-75F9-4DD5-A9B3-34D09B7ABD53}">
-      <formula1>$M$5:$M$12</formula1>
+      <formula1>$N$5:$N$12</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FC2353-0A68-4D28-B536-67F7587B4E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B2F863-239C-4027-82A7-E9B52538AA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38790" yWindow="6750" windowWidth="26295" windowHeight="19365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -511,10 +511,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxArmor + 30,maxHealth + 100,moveSpeed + 10,electricPower + 5,armorRegeneration+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>maxHealth + 10,moveSpeed - 1,addRange + 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -540,6 +536,10 @@
   </si>
   <si>
     <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 30,maxHealth + 100,moveSpeed + 10,electricPower + 5,armorRegeneration + 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -894,7 +894,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -940,7 +940,7 @@
         <v>80</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -976,7 +976,7 @@
         <v>81</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1012,7 +1012,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1039,7 +1039,7 @@
         <v>58</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>30</v>
@@ -1074,7 +1074,7 @@
         <v>62</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>47</v>
@@ -1109,7 +1109,7 @@
         <v>60</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>49</v>
@@ -1141,7 +1141,7 @@
         <v>51</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>50</v>
@@ -1176,7 +1176,7 @@
         <v>65</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J8" s="5">
         <v>1</v>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B2F863-239C-4027-82A7-E9B52538AA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CAB404-5E19-4503-9198-9B3BD6BC6AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38790" yWindow="6750" windowWidth="26295" windowHeight="19365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="131">
   <si>
     <t>名字</t>
   </si>
@@ -124,10 +124,6 @@
   </si>
   <si>
     <t>c_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -893,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -934,13 +930,13 @@
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -970,13 +966,13 @@
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1012,7 +1008,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1024,31 +1020,31 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>4</v>
@@ -1059,34 +1055,34 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1094,34 +1090,34 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1129,31 +1125,31 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1161,87 +1157,87 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J8" s="5">
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="N8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1254,170 +1250,170 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L23" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L24" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L27" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L30" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L31" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L34" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L36" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L38" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L39" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L40" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1439,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F63A76-963D-497B-A3BF-0225CA276110}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1476,7 +1472,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -1501,10 +1497,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -1512,24 +1508,21 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -1537,10 +1530,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -1548,10 +1541,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -1559,10 +1552,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -1570,10 +1563,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -1581,10 +1574,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -1592,10 +1585,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -1603,10 +1596,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -1614,10 +1607,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1625,10 +1618,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1636,10 +1629,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -1647,10 +1640,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
@@ -1658,10 +1651,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CAB404-5E19-4503-9198-9B3BD6BC6AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CFD036-3797-4548-9CD4-D76905A98307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -515,10 +515,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxHealth + 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>maxHealth + 5,moveSpeed - 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -536,6 +532,10 @@
   </si>
   <si>
     <t>maxArmor + 30,maxHealth + 100,moveSpeed + 10,electricPower + 5,armorRegeneration + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHealth + 5,fireDamage + 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -889,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -936,7 +936,7 @@
         <v>79</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -972,7 +972,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1008,7 +1008,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1035,7 +1035,7 @@
         <v>57</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>29</v>
@@ -1137,7 +1137,7 @@
         <v>50</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>49</v>
@@ -1172,7 +1172,7 @@
         <v>64</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J8" s="5">
         <v>1</v>
@@ -1435,7 +1435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F63A76-963D-497B-A3BF-0225CA276110}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CFD036-3797-4548-9CD4-D76905A98307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC903EF2-6601-40EA-A34C-5E2FB4A8C8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,11 +531,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxArmor + 30,maxHealth + 100,moveSpeed + 10,electricPower + 5,armorRegeneration + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>maxHealth + 5,fireDamage + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 30,maxHealth + 100,maxMana + 100,moveSpeed + 10,electricPower + 5,armorRegeneration + 3,manaRegeneration + 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -890,7 +890,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1015,7 +1015,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="57" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>57</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>29</v>
@@ -1137,7 +1137,7 @@
         <v>50</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>49</v>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC903EF2-6601-40EA-A34C-5E2FB4A8C8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFCA512-D39D-4641-AAB5-8C3703D38E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33495" yWindow="9315" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="134">
   <si>
     <t>名字</t>
   </si>
@@ -537,6 +537,17 @@
   <si>
     <t>maxArmor + 30,maxHealth + 100,maxMana + 100,moveSpeed + 10,electricPower + 5,armorRegeneration + 3,manaRegeneration + 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2;6,2;9,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2;3,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2;2,2</t>
   </si>
 </sst>
 </file>
@@ -889,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1435,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F63A76-963D-497B-A3BF-0225CA276110}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1505,6 +1516,9 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1516,6 +1530,9 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1537,6 +1554,9 @@
       </c>
       <c r="C7" t="s">
         <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFCA512-D39D-4641-AAB5-8C3703D38E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759E0677-544C-4713-9E0F-FDB6D0F7FE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33495" yWindow="9315" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="154">
   <si>
     <t>名字</t>
   </si>
@@ -77,16 +77,6 @@
     <t>羁绊3</t>
   </si>
   <si>
-    <t>type1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type2</t>
-  </si>
-  <si>
-    <t>type3</t>
-  </si>
-  <si>
     <t>图标路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -548,6 +538,93 @@
   </si>
   <si>
     <t>1,2;2,2</t>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backpack</t>
+  </si>
+  <si>
+    <t>Backpack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cockpit</t>
+  </si>
+  <si>
+    <t>Cockpit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cockpit_Platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cockpit_Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget_Attach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget_Replace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HalfShoulder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TopPlatform</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -898,29 +975,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="37.125" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="15.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="35.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="20.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
+    <col min="3" max="3" width="49.625" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="15.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -929,32 +1007,35 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>79</v>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -965,32 +1046,35 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>80</v>
+        <v>135</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="L2" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1001,10 +1085,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
@@ -1013,428 +1097,497 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L3" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" ht="57" x14ac:dyDescent="0.2">
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="57" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="O4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>49</v>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="J8" s="5">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L14" s="3"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L15" s="3"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L16" s="1" t="s">
+      <c r="N16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="M17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="M18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="M19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="17" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L17" s="1" t="s">
+      <c r="P19" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="M20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="18" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L18" s="1" t="s">
+      <c r="P20" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="P21" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="M22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="19" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L19" s="1" t="s">
+      <c r="P22" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="M23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="20" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L20" s="1" t="s">
+      <c r="P23" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="M24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="22" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L22" s="1" t="s">
+      <c r="P24" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="M26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="23" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L23" s="1" t="s">
+      <c r="P26" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="M27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="24" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L24" s="1" t="s">
+      <c r="P27" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="M28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="26" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L26" s="1" t="s">
+      <c r="P28" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="P29" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="M30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L27" s="1" t="s">
+    <row r="31" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="M31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L28" s="1" t="s">
+    <row r="32" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="M32" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L30" s="1" t="s">
+    <row r="33" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M33" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L31" s="1" t="s">
+    <row r="34" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L32" s="1" t="s">
+    <row r="36" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L33" s="1" t="s">
+    <row r="37" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M37" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L34" s="1" t="s">
+    <row r="38" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M38" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L36" s="1" t="s">
+    <row r="39" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L37" s="1" t="s">
+    <row r="40" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M40" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="N40" s="1" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L39" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L40" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{70049EC0-6AD3-4E6A-BE5E-82D066390A45}">
-      <formula1>$L$5:$L$12</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F1048576" xr:uid="{70049EC0-6AD3-4E6A-BE5E-82D066390A45}">
+      <formula1>$M$5:$M$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F1048576 G1:G1048576" xr:uid="{887B8EE1-75F9-4DD5-A9B3-34D09B7ABD53}">
-      <formula1>$N$5:$N$12</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G1048576 H4:H1048576" xr:uid="{887B8EE1-75F9-4DD5-A9B3-34D09B7ABD53}">
+      <formula1>$O$5:$O$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{B7B2F877-0113-499B-ACFE-18AE178D0392}">
+      <formula1>$P$16:$P$29</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1446,7 +1599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F63A76-963D-497B-A3BF-0225CA276110}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1463,30 +1616,30 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1500,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -1508,176 +1661,176 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EC743F-0A8B-4425-8335-04174A377243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA0C1D5-D196-498C-B8C8-19CAA1363DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="6795" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
-    <sheet name="ConstructorRarity" sheetId="6" r:id="rId2"/>
-    <sheet name="ConstructorBonusType" sheetId="5" r:id="rId3"/>
+    <sheet name="ConstructorSlotType" sheetId="7" r:id="rId2"/>
+    <sheet name="ConstructorPainting" sheetId="6" r:id="rId3"/>
+    <sheet name="ConstructorBonusType" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="494">
   <si>
     <t>名字</t>
   </si>
@@ -257,26 +258,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Constructor/Base/Chassis_Carrier_Lvl1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab/Constructor/Cockpit/Cockpit_Bot_Round_Lvl1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Constructor/Backpack/Backpack_Box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Constructor/TopPlatform/Top_Weapon_Platform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopPlatform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab/Constructor/Weapon/Weapon_Bazooka_Lvl1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -525,10 +510,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cockpit_Platform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cockpit_Weapon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -541,25 +522,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HalfShoulder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Shield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SubBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopPlatform</t>
-  </si>
-  <si>
     <t>Weapon</t>
   </si>
   <si>
@@ -599,10 +565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rarity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>颜色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -623,70 +585,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_2</t>
-  </si>
-  <si>
-    <t>0_3</t>
-  </si>
-  <si>
-    <t>1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_2</t>
-  </si>
-  <si>
-    <t>1_3</t>
-  </si>
-  <si>
-    <t>2_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_2</t>
-  </si>
-  <si>
-    <t>2_3</t>
-  </si>
-  <si>
-    <t>3_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_2</t>
-  </si>
-  <si>
-    <t>3_3</t>
-  </si>
-  <si>
-    <t>4_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4_2</t>
-  </si>
-  <si>
-    <t>4_3</t>
-  </si>
-  <si>
-    <t>5_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5_2</t>
-  </si>
-  <si>
-    <t>5_3</t>
-  </si>
-  <si>
-    <t>#DDDDDD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#33CC33</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -695,10 +593,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#6600FF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#FF6600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -798,179 +692,9 @@
     <t>5</t>
   </si>
   <si>
-    <t>0_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 10,maxHealth + 20,maxMana + 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 20,maxHealth + 40,maxMana + 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>armorRegeneration + 3,manaRegeneration + 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Constructor/Base/Chassis_Carrier_Lvl2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Power</t>
   </si>
   <si>
-    <t>maxArmor + 30,maxHealth + 50,maxMana + 30,moveSpeed + 5,electricPower + 2,armorRegeneration + 3,manaRegeneration + 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Constructor/Base/Chassis_Tank_Lvl1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 40,maxHealth + 60,maxMana + 30,moveSpeed + 5,electricPower + 2,armorRegeneration + 5,manaRegeneration + 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>armorRegeneration + 5,manaRegeneration + 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 15,maxHealth + 30,maxMana + 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 20,maxHealth + 30,maxMana + 30,moveSpeed + 6,electricPower + 2,armorRegeneration + 4,manaRegeneration + 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Constructor/Base/Chassis_Tank_Lvl2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>armorRegeneration + 8,manaRegeneration + 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 30,maxHealth + 50,maxMana + 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>armorRegeneration + 12,manaRegeneration + 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>armorRegeneration + 5,manaRegeneration + 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 20,maxHealth + 50,maxMana + 30,moveSpeed + 6,electricPower + 2,armorRegeneration + 5,manaRegeneration + 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 5,maxHealth + 20,maxMana + 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 5,moveSpeed + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 10,maxHealth + 30,maxMana + 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 5,maxHealth + 10,maxMana + 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 10,moveSpeed + 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 5,maxHealth + 30,maxMana + 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 10,maxHealth + 40,maxMana + 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 5,maxHealth + 20,maxMana + 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Constructor/Base/Chassis_Tank_Lvl3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 30,maxHealth + 40,maxMana + 30,moveSpeed + 6,electricPower + 3,armorRegeneration + 5,manaRegeneration + 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 10,maxHealth + 20,maxMana + 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 10,moveSpeed + 4,maxMana + 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>armorRegeneration + 10,manaRegeneration + 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>0_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>maxHealth + 10,moveSpeed - 1,electricPower + 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1007,19 +731,1200 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Thinker1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standard Extension Platform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standard Expansion Backpack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bazooka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaintingType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂装类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无涂装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Materials/Constructs/Humanoids_Mat_Grey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Materials/Constructs/Spiders_Mat_Grey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Materials/Constructs/Turrets_Mat_Grey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#7D7D7D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>White</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 60,maxHealth + 120,maxMana + 50,moveSpeed + 5,electricPower + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 30,maxHealth + 50,maxMana + 30,moveSpeed + 5,electricPower + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 20,maxHealth + 40,maxMana + 30,moveSpeed + 4,electricPower + 1,dodgeChange + 0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salticidae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tarantula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heteropoda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 30,maxHealth + 80,maxMana + 50,moveSpeed + 5,electricPower + 1,dodgeChange + 0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 60,maxHealth + 200,maxMana + 80,moveSpeed + 4,electricPower + 1,dodgeChange + 0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>Porter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>maxArmor + 20,maxHealth + 30,maxMana + 30,moveSpeed + 4,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewCentury</t>
+  </si>
+  <si>
+    <t>Cerberus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hunter1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hunter2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 40,maxHealth + 60,maxMana + 50,moveSpeed + 4,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 80,maxHealth + 150,maxMana + 90,moveSpeed + 4,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 100,maxHealth + 300,maxMana + 120,moveSpeed + 4,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heidelberg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ochre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amaterasu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 50,maxHealth + 100,maxMana + 80,moveSpeed + 3,electricPower + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 100,maxHealth + 200,maxMana + 160,moveSpeed + 3,electricPower + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 200,maxHealth + 400,maxMana + 320,moveSpeed + 3,electricPower + 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 60,maxHealth + 120,maxMana + 50,moveSpeed + 8,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 120,maxHealth + 240,maxMana + 100,moveSpeed + 8,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 240,maxHealth + 480,maxMana + 200,moveSpeed + 8,electricPower + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit/Cockpit_Bot_Round_Lvl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 10,maxHealth + 10,moveSpeed - 1,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit/Cockpit_Bot_Spy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit/Cockpit_Bot_Wedge_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit/Cockpit_Bot_Wedge_Lvl2</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit/Cockpit_Bulldog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit/Cockpit_Flybot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit/Cockpit_Flyer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit/Cockpit_Gunbot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit/Cockpit_Gunner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit/Cockpit_Humanoid_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit/Cockpit_Humanoid_Lvl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit/Cockpit_Humanoid_Lvl3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit/Cockpit_Moto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit/Cockpit_Rabbit_No_Interior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit/Cockpit_Rhino_No_Interior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit/Cockpit_Roadhog_No_Interior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit/Cockpit_Shuttle_No_Interior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit/Cockpit_Trooper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit/Cockpit_Trucker_No_Interior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thinker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edge100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edge300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanguard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pilot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EliteGuardian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Titan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Titan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Titan3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Behemoth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprinter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roadhog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentinel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricPower + 1,maxmana + 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_Box_Container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_Box_Container_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_Dish_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_Dish_Lvl2</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_Dish_Lvl3</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_Energy_Shield_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_Energy_Shield_Lvl2</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_Energy_Shield_Lvl3</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_Gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_Hussar_Lt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_Hussar_Med</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_Lt_Motor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_Med_Frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_Med_Safari</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_MineLayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_Rack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_Radar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_Radio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_Shield_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_Shield_Lvl2</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_Tank_Lt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_Tank_Med</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_Tank_Hvy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antenna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmmunitionPack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmmunitionPack+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyShieldGenerator1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyShieldGenerator2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyShieldGenerator3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldGenerator1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldGenerator2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldGenerator3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scanner100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scanner300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scanner400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackExtensionPlatform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HossarL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HossarM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerDrivePack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MedicalPack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MedicalProPack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExplosivePack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RackPack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interferencer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioPack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerPack100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerPack200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerPack300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserWizard</t>
+  </si>
+  <si>
+    <t>SeatPlatform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeatPlatform3X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoolPlatform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoolPlatform+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit_Weapon/Cockpit_Weapon_DoubleGun_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cockpit_Weapon</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit_Weapon/Cockpit_Weapon_DoubleGun_Lvl2</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit_Weapon/Cockpit_Weapon_DoubleGun_Lvl3</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit_Weapon/Cockpit_Weapon_Mortar_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit_Weapon/Cockpit_Weapon_Mortar_Lvl2</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit_Weapon/Cockpit_Weapon_Mortar_Lvl3</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit_Weapon/Cockpit_Weapon_Raygun_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit_Weapon/Cockpit_Weapon_Raygun_Lvl2</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Cockpit_Weapon/Cockpit_Weapon_Raygun_Lvl3</t>
+  </si>
+  <si>
+    <t>Laser</t>
+  </si>
+  <si>
+    <t>adaptTypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适配种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forbiddenChildrenSlotTypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用子物体槽位类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用父物体槽位类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forbiddenParentsSlotTypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isForbiddenAllChildrenSlots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isForbiddenAllParentsSlots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否禁用所有子物体所有槽位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否禁用所有父物体所有槽位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底盘内嵌式驾驶仓槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底盘顶部扩展槽1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底盘顶部扩展槽2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底盘顶部扩展槽3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶仓侧边扩展槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用背包槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用武器槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用侧边扩展槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用天线槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用侧箱槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GunGuardian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod</t>
+  </si>
+  <si>
+    <t>Chassis</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Chassis/Chassis_Carrier_Lvl1</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Chassis/Chassis_Carrier_Lvl2</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Chassis/Chassis_Tank_Lvl1</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Chassis/Chassis_Tank_Lvl2</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Chassis/Chassis_Tank_Lvl3</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Chassis/Legs_Spider_Lt</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Chassis/Legs_Spider_Med</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Chassis/Legs_Spider_Hvy</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Chassis/Legs_Tracks_Lvl0</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Chassis/Legs_Tracks_Lvl1</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Chassis/Legs_Tracks_Lvl2</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Chassis/Legs_Tracks_Lvl3</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Chassis/Walker_Legs_Lt</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Chassis/Walker_Legs_Med</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Chassis/Walker_Legs_Hvy</t>
+  </si>
+  <si>
+    <t>Sidepod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Backpack/Backpack_Shield_Lvl3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Armor_Ammo_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cockpit,Cockpit_Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧箱侧面扩展槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 10,maxHealth + 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Armor_Ammo_Lvl2</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Armor_Ammo_Lvl3</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Armor_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Armor_Lvl2</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Armor_Lvl3</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Barrier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Bot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Cobra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Diablo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Extender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Hog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Ox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Plates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Rhino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Saucer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Skinny_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Tank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Visor_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Visor_Lvl2</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Visor_Lvl3</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Visor_Simple_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Visor_Simple_Lvl2</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Sidepod/HalfShoulder_Visor_Simple_Lvl3</t>
+  </si>
+  <si>
+    <t>Sidepod_Armor_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod_Armor_Lvl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod_Armor_Lvl3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod_Barrier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod_Bot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod_Cobra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod_Diablo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod_Battery_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod_Battery_Lvl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod_Battery_Lvl3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CW_DoubleGun_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CW_DoubleGun_Lvl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CW_DoubleGun_Lvl3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CW_Mortar_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CW_Mortar_Lvl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CW_Mortar_Lvl3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CW_Raygun_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CW_Raygun_Lvl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CW_Raygun_Lvl3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod_Extender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod_Ox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod_Plates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod_Hog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod_Rhino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod_Saucer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod_Skinny_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod_Tank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod_Visor_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod_Visor_Lvl2</t>
+  </si>
+  <si>
+    <t>Sidepod_Visor_Lvl3</t>
+  </si>
+  <si>
+    <t>Sidepod_Visor_Simple_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod_Visor_Simple_Lvl2</t>
+  </si>
+  <si>
+    <t>Sidepod_Visor_Simple_Lvl3</t>
+  </si>
+  <si>
+    <t>WeaponPlatform</t>
+  </si>
+  <si>
+    <t>WeaponPlatform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cockpit,Cockpit_Weapon,Base,WeaponPlatform</t>
+  </si>
+  <si>
+    <t>Cockpit,Cockpit_Weapon,Base,WeaponPlatform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用武器平台扩展槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StandardPlatform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StandardPlatform+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/WeaponPlatform/Cockpit_Gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/WeaponPlatform/Cockpit_Gun_2x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/WeaponPlatform/Cockpit_Gun_Flat_Part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/WeaponPlatform/Cockpit_Gun_Mount_2x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/WeaponPlatform/Top_Weapon_Platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/WeaponPlatform/Top_Weapon_Platform_2X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cockpit,Cockpit_Weapon,Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 20,maxHealth + 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_Battery_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底座内嵌式驾驶仓槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod,Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Base/Shoulders_Armor_Ammo_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底座侧边扩展槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod,Weapon,Arm,Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon,Arm,Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_Battery_Lvl2</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Base/Shoulders_Armor_Ammo_Lvl2</t>
+  </si>
+  <si>
+    <t>Base_Battery_Lvl3</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Base/Shoulders_Armor_Ammo_Lvl3</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Base/Shoulders_Armor_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Base/Shoulders_Armor_Lvl2</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Base/Shoulders_Armor_Lvl3</t>
+  </si>
+  <si>
+    <t>Base_Armor_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_Armor_Lvl2</t>
+  </si>
+  <si>
+    <t>Base_Armor_Lvl3</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Base/Shoulders_Diablo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Base/Shoulders_Hog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Base/Shoulders_Med_Bot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Base/Shoulders_Med_Cobra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Base/Shoulders_Med_Tank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Base/Shoulders_Ox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Base/Shoulders_Plates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Base/Shoulders_Rhino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Base/Shoulders_Saucer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Base/Shoulders_Skinny_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_Diablo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_Hog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_Bot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_Cobra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_Tank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_Ox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_Plates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_Rhino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_Saucer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_Skinny_Up</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1027,7 +1932,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1052,14 +1957,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFDDDDDD"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF33CC33"/>
       <name val="等线"/>
       <family val="2"/>
@@ -1068,14 +1965,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0099FF"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF6600FF"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1097,8 +1986,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7D7D7D"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1110,8 +2031,19 @@
         <fgColor theme="6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1119,14 +2051,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -1140,16 +2090,27 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 3" xfId="1" builtinId="37"/>
   </cellStyles>
@@ -1157,6 +2118,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF000000"/>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7D7D7D"/>
       <color rgb="FFEE0000"/>
       <color rgb="FFFF6600"/>
       <color rgb="FF6600FF"/>
@@ -1439,16 +2403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="49.875" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="68.5" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="6.25" customWidth="1"/>
     <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
@@ -1472,7 +2436,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -1480,25 +2444,25 @@
       <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="11"/>
+      <c r="G1" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="15"/>
       <c r="I1" s="1" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
+        <v>105</v>
+      </c>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1511,35 +2475,35 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1573,30 +2537,30 @@
         <v>17</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-    </row>
-    <row r="4" spans="1:21" ht="42.75" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+    </row>
+    <row r="4" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>365</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>36</v>
@@ -1605,10 +2569,10 @@
         <v>48</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>21</v>
@@ -1617,33 +2581,33 @@
         <v>4</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>366</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>36</v>
@@ -1651,8 +2615,11 @@
       <c r="G5" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="I5" s="1" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>206</v>
@@ -1670,40 +2637,40 @@
         <v>28</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>367</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>39</v>
@@ -1718,41 +2685,44 @@
         <v>29</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>368</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="I7" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>40</v>
@@ -1767,41 +2737,44 @@
         <v>30</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>369</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="I8" s="1" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>42</v>
@@ -1816,41 +2789,41 @@
         <v>31</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>370</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>45</v>
@@ -1865,44 +2838,41 @@
         <v>32</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:21" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>371</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="E10">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>46</v>
@@ -1917,43 +2887,43 @@
         <v>34</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>372</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>47</v>
@@ -1970,36 +2940,36 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="C12" t="s">
-        <v>209</v>
+        <v>373</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>50</v>
@@ -2008,1364 +2978,3330 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>374</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>375</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>376</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="E15">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:21" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>377</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>378</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="C18" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="H18" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="I18" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P18" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="M19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>250</v>
-      </c>
-      <c r="C19" t="s">
-        <v>212</v>
-      </c>
-      <c r="D19" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>250</v>
-      </c>
-      <c r="C20" t="s">
-        <v>212</v>
-      </c>
-      <c r="D20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" t="s">
-        <v>212</v>
-      </c>
-      <c r="D21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>251</v>
-      </c>
-      <c r="C22" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22">
-        <v>16</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C23" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E23">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E24">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>131</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E25">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>132</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C26" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E26">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C27" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E27">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>361</v>
+      </c>
+      <c r="C28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28">
+        <v>40</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B28" t="s">
-        <v>252</v>
-      </c>
-      <c r="C28" t="s">
-        <v>231</v>
-      </c>
-      <c r="D28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28">
-        <v>20</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C29" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E29">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="C30" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E30">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C31" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E31">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
+        <v>267</v>
+      </c>
+      <c r="C32" t="s">
+        <v>249</v>
+      </c>
+      <c r="D32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32">
+        <v>50</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C33" t="s">
+        <v>250</v>
+      </c>
+      <c r="D33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" t="s">
+        <v>251</v>
+      </c>
+      <c r="D34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34">
+        <v>20</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>269</v>
+      </c>
+      <c r="C35" t="s">
         <v>252</v>
       </c>
-      <c r="C32" t="s">
-        <v>231</v>
-      </c>
-      <c r="D32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32">
-        <v>20</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>56</v>
-      </c>
-      <c r="B33" t="s">
-        <v>252</v>
-      </c>
-      <c r="C33" t="s">
-        <v>231</v>
-      </c>
-      <c r="D33" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33">
-        <v>20</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35">
+        <v>30</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
+        <v>272</v>
+      </c>
+      <c r="C36" t="s">
         <v>253</v>
       </c>
-      <c r="C36" t="s">
-        <v>60</v>
-      </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="H36" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="I36" s="1" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>254</v>
       </c>
       <c r="D37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>239</v>
+        <v>185</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>255</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>240</v>
+        <v>165</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>256</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="H39" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="I39" s="1" t="s">
-        <v>241</v>
+        <v>165</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>205</v>
-      </c>
-      <c r="B40" t="s">
-        <v>253</v>
-      </c>
-      <c r="C40" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" t="s">
-        <v>125</v>
-      </c>
-      <c r="E40">
-        <v>5</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>245</v>
-      </c>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="14"/>
       <c r="M40" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>206</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>276</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>245</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>301</v>
+      </c>
+      <c r="C42" t="s">
+        <v>277</v>
+      </c>
+      <c r="D42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>301</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>278</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>48</v>
+        <v>217</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>302</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>279</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>48</v>
+        <v>217</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>239</v>
+        <v>185</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>303</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>280</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>48</v>
+        <v>217</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>240</v>
+        <v>185</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="D46" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>48</v>
+        <v>216</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>241</v>
+        <v>185</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>305</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>282</v>
       </c>
       <c r="D47" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>48</v>
+        <v>216</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>306</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>255</v>
+        <v>304</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="D48" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>311</v>
+      </c>
+      <c r="C49" t="s">
+        <v>284</v>
+      </c>
+      <c r="D49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="I49" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>312</v>
+      </c>
+      <c r="C50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>313</v>
+      </c>
+      <c r="C51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>314</v>
+      </c>
+      <c r="C52" t="s">
+        <v>287</v>
+      </c>
+      <c r="D52" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>48</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>400</v>
-      </c>
-      <c r="B50" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" t="s">
-        <v>135</v>
-      </c>
-      <c r="E50">
-        <v>5</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>501</v>
-      </c>
-      <c r="B52" t="s">
-        <v>256</v>
-      </c>
-      <c r="C52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" t="s">
-        <v>136</v>
-      </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="K52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>502</v>
-      </c>
       <c r="B53" t="s">
-        <v>256</v>
+        <v>315</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>288</v>
       </c>
       <c r="D53" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="K53" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>503</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>289</v>
       </c>
       <c r="D54" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K54" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>504</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>256</v>
+        <v>317</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>290</v>
       </c>
       <c r="D55" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="I55" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>51</v>
+      </c>
+      <c r="B56" t="s">
+        <v>318</v>
+      </c>
+      <c r="C56" t="s">
+        <v>291</v>
+      </c>
+      <c r="D56" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>319</v>
+      </c>
+      <c r="C57" t="s">
+        <v>292</v>
+      </c>
+      <c r="D57" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
+        <v>320</v>
+      </c>
+      <c r="C58" t="s">
+        <v>293</v>
+      </c>
+      <c r="D58" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58">
+        <v>10</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>54</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K55" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>505</v>
-      </c>
-      <c r="B56" t="s">
-        <v>256</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B59" t="s">
+        <v>305</v>
+      </c>
+      <c r="C59" t="s">
+        <v>294</v>
+      </c>
+      <c r="D59" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>306</v>
+      </c>
+      <c r="C60" t="s">
+        <v>295</v>
+      </c>
+      <c r="D60" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>56</v>
+      </c>
+      <c r="B61" t="s">
+        <v>307</v>
+      </c>
+      <c r="C61" t="s">
+        <v>381</v>
+      </c>
+      <c r="D61" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>57</v>
+      </c>
+      <c r="B62" t="s">
+        <v>321</v>
+      </c>
+      <c r="C62" t="s">
+        <v>296</v>
+      </c>
+      <c r="D62" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>58</v>
+      </c>
+      <c r="B63" t="s">
+        <v>322</v>
+      </c>
+      <c r="C63" t="s">
+        <v>297</v>
+      </c>
+      <c r="D63" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63">
+        <v>10</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>59</v>
+      </c>
+      <c r="B64" t="s">
+        <v>323</v>
+      </c>
+      <c r="C64" t="s">
+        <v>298</v>
+      </c>
+      <c r="D64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="14"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>60</v>
+      </c>
+      <c r="B66" t="s">
+        <v>326</v>
+      </c>
+      <c r="C66" t="s">
+        <v>449</v>
+      </c>
+      <c r="D66" t="s">
+        <v>443</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>61</v>
+      </c>
+      <c r="B67" t="s">
+        <v>327</v>
+      </c>
+      <c r="C67" t="s">
+        <v>450</v>
+      </c>
+      <c r="D67" t="s">
+        <v>442</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>62</v>
+      </c>
+      <c r="B68" t="s">
+        <v>325</v>
+      </c>
+      <c r="C68" t="s">
+        <v>451</v>
+      </c>
+      <c r="D68" t="s">
+        <v>442</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>63</v>
+      </c>
+      <c r="B69" t="s">
+        <v>328</v>
+      </c>
+      <c r="C69" t="s">
+        <v>452</v>
+      </c>
+      <c r="D69" t="s">
+        <v>442</v>
+      </c>
+      <c r="E69">
+        <v>10</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>64</v>
       </c>
-      <c r="D56" t="s">
-        <v>136</v>
-      </c>
-      <c r="E56">
+      <c r="B70" t="s">
+        <v>447</v>
+      </c>
+      <c r="C70" t="s">
+        <v>453</v>
+      </c>
+      <c r="D70" t="s">
+        <v>442</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>65</v>
+      </c>
+      <c r="B71" t="s">
+        <v>448</v>
+      </c>
+      <c r="C71" t="s">
+        <v>454</v>
+      </c>
+      <c r="D71" t="s">
+        <v>442</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="14"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>66</v>
+      </c>
+      <c r="B73" t="s">
+        <v>419</v>
+      </c>
+      <c r="C73" t="s">
+        <v>329</v>
+      </c>
+      <c r="D73" t="s">
+        <v>330</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>67</v>
+      </c>
+      <c r="B74" t="s">
+        <v>420</v>
+      </c>
+      <c r="C74" t="s">
+        <v>331</v>
+      </c>
+      <c r="D74" t="s">
+        <v>330</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>68</v>
+      </c>
+      <c r="B75" t="s">
+        <v>421</v>
+      </c>
+      <c r="C75" t="s">
+        <v>332</v>
+      </c>
+      <c r="D75" t="s">
+        <v>330</v>
+      </c>
+      <c r="E75">
+        <v>10</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>69</v>
+      </c>
+      <c r="B76" t="s">
+        <v>422</v>
+      </c>
+      <c r="C76" t="s">
+        <v>333</v>
+      </c>
+      <c r="D76" t="s">
+        <v>330</v>
+      </c>
+      <c r="E76">
+        <v>10</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>70</v>
+      </c>
+      <c r="B77" t="s">
+        <v>423</v>
+      </c>
+      <c r="C77" t="s">
+        <v>334</v>
+      </c>
+      <c r="D77" t="s">
+        <v>330</v>
+      </c>
+      <c r="E77">
+        <v>10</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>71</v>
+      </c>
+      <c r="B78" t="s">
+        <v>424</v>
+      </c>
+      <c r="C78" t="s">
+        <v>335</v>
+      </c>
+      <c r="D78" t="s">
+        <v>330</v>
+      </c>
+      <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>72</v>
+      </c>
+      <c r="B79" t="s">
+        <v>425</v>
+      </c>
+      <c r="C79" t="s">
+        <v>336</v>
+      </c>
+      <c r="D79" t="s">
+        <v>330</v>
+      </c>
+      <c r="E79">
+        <v>10</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>73</v>
+      </c>
+      <c r="B80" t="s">
+        <v>426</v>
+      </c>
+      <c r="C80" t="s">
+        <v>337</v>
+      </c>
+      <c r="D80" t="s">
+        <v>330</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>74</v>
+      </c>
+      <c r="B81" t="s">
+        <v>427</v>
+      </c>
+      <c r="C81" t="s">
+        <v>338</v>
+      </c>
+      <c r="D81" t="s">
+        <v>330</v>
+      </c>
+      <c r="E81">
+        <v>10</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="14"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>75</v>
+      </c>
+      <c r="B83" t="s">
+        <v>416</v>
+      </c>
+      <c r="C83" t="s">
+        <v>382</v>
+      </c>
+      <c r="D83" t="s">
+        <v>380</v>
+      </c>
+      <c r="E83">
+        <v>10</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>76</v>
+      </c>
+      <c r="B84" t="s">
+        <v>417</v>
+      </c>
+      <c r="C84" t="s">
+        <v>386</v>
+      </c>
+      <c r="D84" t="s">
+        <v>380</v>
+      </c>
+      <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>77</v>
+      </c>
+      <c r="B85" t="s">
+        <v>418</v>
+      </c>
+      <c r="C85" t="s">
+        <v>387</v>
+      </c>
+      <c r="D85" t="s">
+        <v>380</v>
+      </c>
+      <c r="E85">
+        <v>10</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>78</v>
+      </c>
+      <c r="B86" t="s">
+        <v>409</v>
+      </c>
+      <c r="C86" t="s">
+        <v>388</v>
+      </c>
+      <c r="D86" t="s">
+        <v>380</v>
+      </c>
+      <c r="E86">
+        <v>10</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>79</v>
+      </c>
+      <c r="B87" t="s">
+        <v>410</v>
+      </c>
+      <c r="C87" t="s">
+        <v>389</v>
+      </c>
+      <c r="D87" t="s">
+        <v>380</v>
+      </c>
+      <c r="E87">
+        <v>10</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>80</v>
+      </c>
+      <c r="B88" t="s">
+        <v>411</v>
+      </c>
+      <c r="C88" t="s">
+        <v>390</v>
+      </c>
+      <c r="D88" t="s">
+        <v>380</v>
+      </c>
+      <c r="E88">
+        <v>10</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>81</v>
+      </c>
+      <c r="B89" t="s">
+        <v>412</v>
+      </c>
+      <c r="C89" t="s">
+        <v>391</v>
+      </c>
+      <c r="D89" t="s">
+        <v>380</v>
+      </c>
+      <c r="E89">
+        <v>10</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>82</v>
+      </c>
+      <c r="B90" t="s">
+        <v>413</v>
+      </c>
+      <c r="C90" t="s">
+        <v>392</v>
+      </c>
+      <c r="D90" t="s">
+        <v>380</v>
+      </c>
+      <c r="E90">
+        <v>10</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>83</v>
+      </c>
+      <c r="B91" t="s">
+        <v>414</v>
+      </c>
+      <c r="C91" t="s">
+        <v>393</v>
+      </c>
+      <c r="D91" t="s">
+        <v>380</v>
+      </c>
+      <c r="E91">
+        <v>10</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>84</v>
+      </c>
+      <c r="B92" t="s">
+        <v>415</v>
+      </c>
+      <c r="C92" t="s">
+        <v>394</v>
+      </c>
+      <c r="D92" t="s">
+        <v>380</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>85</v>
+      </c>
+      <c r="B93" t="s">
+        <v>428</v>
+      </c>
+      <c r="C93" t="s">
+        <v>395</v>
+      </c>
+      <c r="D93" t="s">
+        <v>380</v>
+      </c>
+      <c r="E93">
+        <v>10</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>86</v>
+      </c>
+      <c r="B94" t="s">
+        <v>431</v>
+      </c>
+      <c r="C94" t="s">
+        <v>396</v>
+      </c>
+      <c r="D94" t="s">
+        <v>380</v>
+      </c>
+      <c r="E94">
+        <v>10</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>87</v>
+      </c>
+      <c r="B95" t="s">
+        <v>429</v>
+      </c>
+      <c r="C95" t="s">
+        <v>397</v>
+      </c>
+      <c r="D95" t="s">
+        <v>380</v>
+      </c>
+      <c r="E95">
+        <v>10</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>88</v>
+      </c>
+      <c r="B96" t="s">
+        <v>430</v>
+      </c>
+      <c r="C96" t="s">
+        <v>398</v>
+      </c>
+      <c r="D96" t="s">
+        <v>380</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>89</v>
+      </c>
+      <c r="B97" t="s">
+        <v>432</v>
+      </c>
+      <c r="C97" t="s">
+        <v>399</v>
+      </c>
+      <c r="D97" t="s">
+        <v>380</v>
+      </c>
+      <c r="E97">
+        <v>10</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>90</v>
+      </c>
+      <c r="B98" t="s">
+        <v>433</v>
+      </c>
+      <c r="C98" t="s">
+        <v>400</v>
+      </c>
+      <c r="D98" t="s">
+        <v>380</v>
+      </c>
+      <c r="E98">
+        <v>10</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>91</v>
+      </c>
+      <c r="B99" t="s">
+        <v>434</v>
+      </c>
+      <c r="C99" t="s">
+        <v>401</v>
+      </c>
+      <c r="D99" t="s">
+        <v>380</v>
+      </c>
+      <c r="E99">
+        <v>10</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>92</v>
+      </c>
+      <c r="B100" t="s">
+        <v>435</v>
+      </c>
+      <c r="C100" t="s">
+        <v>402</v>
+      </c>
+      <c r="D100" t="s">
+        <v>380</v>
+      </c>
+      <c r="E100">
+        <v>10</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>93</v>
+      </c>
+      <c r="B101" t="s">
+        <v>436</v>
+      </c>
+      <c r="C101" t="s">
+        <v>403</v>
+      </c>
+      <c r="D101" t="s">
+        <v>380</v>
+      </c>
+      <c r="E101">
+        <v>10</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>94</v>
+      </c>
+      <c r="B102" t="s">
+        <v>437</v>
+      </c>
+      <c r="C102" t="s">
+        <v>404</v>
+      </c>
+      <c r="D102" t="s">
+        <v>380</v>
+      </c>
+      <c r="E102">
+        <v>10</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>95</v>
+      </c>
+      <c r="B103" t="s">
+        <v>438</v>
+      </c>
+      <c r="C103" t="s">
+        <v>405</v>
+      </c>
+      <c r="D103" t="s">
+        <v>380</v>
+      </c>
+      <c r="E103">
+        <v>10</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>96</v>
+      </c>
+      <c r="B104" t="s">
+        <v>439</v>
+      </c>
+      <c r="C104" t="s">
+        <v>406</v>
+      </c>
+      <c r="D104" t="s">
+        <v>380</v>
+      </c>
+      <c r="E104">
+        <v>10</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>97</v>
+      </c>
+      <c r="B105" t="s">
+        <v>440</v>
+      </c>
+      <c r="C105" t="s">
+        <v>407</v>
+      </c>
+      <c r="D105" t="s">
+        <v>380</v>
+      </c>
+      <c r="E105">
+        <v>10</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>98</v>
+      </c>
+      <c r="B106" t="s">
+        <v>441</v>
+      </c>
+      <c r="C106" t="s">
+        <v>408</v>
+      </c>
+      <c r="D106" t="s">
+        <v>380</v>
+      </c>
+      <c r="E106">
+        <v>10</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="14"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>99</v>
+      </c>
+      <c r="B108" t="s">
+        <v>457</v>
+      </c>
+      <c r="C108" t="s">
+        <v>460</v>
+      </c>
+      <c r="D108" t="s">
+        <v>120</v>
+      </c>
+      <c r="E108">
+        <v>10</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>100</v>
+      </c>
+      <c r="B109" t="s">
+        <v>464</v>
+      </c>
+      <c r="C109" t="s">
+        <v>465</v>
+      </c>
+      <c r="D109" t="s">
+        <v>120</v>
+      </c>
+      <c r="E109">
+        <v>10</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>101</v>
+      </c>
+      <c r="B110" t="s">
+        <v>466</v>
+      </c>
+      <c r="C110" t="s">
+        <v>467</v>
+      </c>
+      <c r="D110" t="s">
+        <v>120</v>
+      </c>
+      <c r="E110">
+        <v>10</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>102</v>
+      </c>
+      <c r="B111" t="s">
+        <v>471</v>
+      </c>
+      <c r="C111" t="s">
+        <v>468</v>
+      </c>
+      <c r="D111" t="s">
+        <v>120</v>
+      </c>
+      <c r="E111">
+        <v>10</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>103</v>
+      </c>
+      <c r="B112" t="s">
+        <v>472</v>
+      </c>
+      <c r="C112" t="s">
+        <v>469</v>
+      </c>
+      <c r="D112" t="s">
+        <v>120</v>
+      </c>
+      <c r="E112">
+        <v>10</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>104</v>
+      </c>
+      <c r="B113" t="s">
+        <v>473</v>
+      </c>
+      <c r="C113" t="s">
+        <v>470</v>
+      </c>
+      <c r="D113" t="s">
+        <v>120</v>
+      </c>
+      <c r="E113">
+        <v>10</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>105</v>
+      </c>
+      <c r="B114" t="s">
+        <v>484</v>
+      </c>
+      <c r="C114" t="s">
+        <v>474</v>
+      </c>
+      <c r="D114" t="s">
+        <v>120</v>
+      </c>
+      <c r="E114">
+        <v>10</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>106</v>
+      </c>
+      <c r="B115" t="s">
+        <v>485</v>
+      </c>
+      <c r="C115" t="s">
+        <v>475</v>
+      </c>
+      <c r="D115" t="s">
+        <v>120</v>
+      </c>
+      <c r="E115">
+        <v>10</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>107</v>
+      </c>
+      <c r="B116" t="s">
+        <v>486</v>
+      </c>
+      <c r="C116" t="s">
+        <v>476</v>
+      </c>
+      <c r="D116" t="s">
+        <v>120</v>
+      </c>
+      <c r="E116">
+        <v>10</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>108</v>
+      </c>
+      <c r="B117" t="s">
+        <v>487</v>
+      </c>
+      <c r="C117" t="s">
+        <v>477</v>
+      </c>
+      <c r="D117" t="s">
+        <v>120</v>
+      </c>
+      <c r="E117">
+        <v>10</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>109</v>
+      </c>
+      <c r="B118" t="s">
+        <v>488</v>
+      </c>
+      <c r="C118" t="s">
+        <v>478</v>
+      </c>
+      <c r="D118" t="s">
+        <v>120</v>
+      </c>
+      <c r="E118">
+        <v>10</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>110</v>
+      </c>
+      <c r="B119" t="s">
+        <v>489</v>
+      </c>
+      <c r="C119" t="s">
+        <v>479</v>
+      </c>
+      <c r="D119" t="s">
+        <v>120</v>
+      </c>
+      <c r="E119">
+        <v>10</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>111</v>
+      </c>
+      <c r="B120" t="s">
+        <v>490</v>
+      </c>
+      <c r="C120" t="s">
+        <v>480</v>
+      </c>
+      <c r="D120" t="s">
+        <v>120</v>
+      </c>
+      <c r="E120">
+        <v>10</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>112</v>
+      </c>
+      <c r="B121" t="s">
+        <v>491</v>
+      </c>
+      <c r="C121" t="s">
+        <v>481</v>
+      </c>
+      <c r="D121" t="s">
+        <v>120</v>
+      </c>
+      <c r="E121">
+        <v>10</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>113</v>
+      </c>
+      <c r="B122" t="s">
+        <v>492</v>
+      </c>
+      <c r="C122" t="s">
+        <v>482</v>
+      </c>
+      <c r="D122" t="s">
+        <v>120</v>
+      </c>
+      <c r="E122">
+        <v>10</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>114</v>
+      </c>
+      <c r="B123" t="s">
+        <v>493</v>
+      </c>
+      <c r="C123" t="s">
+        <v>483</v>
+      </c>
+      <c r="D123" t="s">
+        <v>120</v>
+      </c>
+      <c r="E123">
+        <v>10</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>501</v>
+      </c>
+      <c r="B131" t="s">
+        <v>180</v>
+      </c>
+      <c r="C131" t="s">
+        <v>60</v>
+      </c>
+      <c r="D131" t="s">
+        <v>127</v>
+      </c>
+      <c r="E131">
         <v>3</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F131" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="K56" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>506</v>
-      </c>
-      <c r="B57" t="s">
-        <v>256</v>
-      </c>
-      <c r="C57" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" t="s">
-        <v>136</v>
-      </c>
-      <c r="E57">
-        <v>3</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K57" s="4">
+      <c r="I131" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K131" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3376,14 +6312,14 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F33 F36:F41 F43:F48 F50:F1048576" xr:uid="{70049EC0-6AD3-4E6A-BE5E-82D066390A45}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G73:G81 H74:H81 G83:H106 G108:H129 G131:H1048576 G4:H71" xr:uid="{887B8EE1-75F9-4DD5-A9B3-34D09B7ABD53}">
+      <formula1>$O$5:$O$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F131:F1048576 F4:F129" xr:uid="{70049EC0-6AD3-4E6A-BE5E-82D066390A45}">
       <formula1>$M$5:$M$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:H33 G36:H41 G43:H48 G50:H52 H54:H1048576 G53:G1048576" xr:uid="{887B8EE1-75F9-4DD5-A9B3-34D09B7ABD53}">
-      <formula1>$O$5:$O$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D33 D36:D41 D43:D48 D50:D1048576" xr:uid="{B7B2F877-0113-499B-ACFE-18AE178D0392}">
-      <formula1>$P$16:$P$29</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D131:D1048576 D1:D129" xr:uid="{B7B2F877-0113-499B-ACFE-18AE178D0392}">
+      <formula1>$P$16:$P$28</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3392,335 +6328,371 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5352FAA9-AA17-46B4-94C4-2154F637437F}">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951DF8F7-72B0-488B-B4D5-B6A179D17BB0}">
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="43.25" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="25.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="32.625" customWidth="1"/>
+    <col min="7" max="7" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>151</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" t="s">
-        <v>191</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" t="s">
-        <v>192</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G3" t="s">
+        <v>350</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1005</v>
+      </c>
+      <c r="B9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>1007</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1008</v>
+      </c>
+      <c r="B12" t="s">
+        <v>446</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1009</v>
+      </c>
+      <c r="B13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1010</v>
+      </c>
+      <c r="B14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1011</v>
+      </c>
+      <c r="B15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1012</v>
+      </c>
+      <c r="B16" t="s">
+        <v>458</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D16">
+        <v>1005</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1013</v>
+      </c>
+      <c r="B17" t="s">
+        <v>461</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D17"/>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3729,11 +6701,535 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5352FAA9-AA17-46B4-94C4-2154F637437F}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="43.25" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F63A76-963D-497B-A3BF-0225CA276110}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3803,7 +7299,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3817,7 +7313,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3842,7 +7338,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA0C1D5-D196-498C-B8C8-19CAA1363DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A93887-444C-44B6-90DE-8E299C5688D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="6795" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="524">
   <si>
     <t>名字</t>
   </si>
@@ -1925,6 +1925,124 @@
   </si>
   <si>
     <t>Base_Skinny_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chassis's Embedded Cockpit Slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal Backpack Slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chassis's  Top Slot1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chassis's  Top Slot2</t>
+  </si>
+  <si>
+    <t>Chassis's  Top Slot3</t>
+  </si>
+  <si>
+    <t>Cockpit's Sidepod Slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal Weapon Slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal Sidepod Slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal WeaponPlatform Slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal Antenna Slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod's Side Slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base's Embedded Cockpit Slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base's Sidepod Slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供槽位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1001,1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,1005,1005,1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,1005,1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,1006,1006,1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,1006,1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,1010,1010,1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1006,1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012,1013,1013</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2076,7 +2194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -2098,14 +2216,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2403,31 +2527,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
-  <dimension ref="A1:U131"/>
+  <dimension ref="A1:V131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="68.5" customWidth="1"/>
+    <col min="3" max="3" width="60.125" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="6.25" customWidth="1"/>
     <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="6.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="40.625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="11.875" customWidth="1"/>
+    <col min="11" max="11" width="24.375" style="19" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="20.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -2444,27 +2570,30 @@
       <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="15"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="1" t="s">
         <v>182</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2495,17 +2624,20 @@
       <c r="J2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2536,17 +2668,20 @@
       <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-    </row>
-    <row r="4" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="L3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+    </row>
+    <row r="4" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2574,26 +2709,29 @@
       <c r="J4" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="K4" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2624,27 +2762,30 @@
       <c r="J5" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="K5" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2672,28 +2813,31 @@
       <c r="J6" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="K6" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2724,28 +2868,31 @@
       <c r="J7" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="K7" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2776,28 +2923,31 @@
       <c r="J8" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="K8" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:21" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2825,28 +2975,31 @@
       <c r="J9" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="K9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2874,27 +3027,30 @@
       <c r="J10" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="K10" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2925,22 +3081,25 @@
       <c r="J11" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="K11" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2971,14 +3130,17 @@
       <c r="J12" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="K12" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3006,8 +3168,11 @@
       <c r="J13" s="4" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="K13" s="19" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3035,10 +3200,13 @@
       <c r="J14" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="K14" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3066,10 +3234,13 @@
       <c r="J15" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="K15" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3097,17 +3268,20 @@
       <c r="J16" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="K16" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3135,17 +3309,20 @@
       <c r="J17" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="K17" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3176,17 +3353,20 @@
       <c r="J18" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="K18" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -3197,17 +3377,18 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="14"/>
-      <c r="M19" s="1" t="s">
+      <c r="K19" s="20"/>
+      <c r="N19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
@@ -3235,17 +3416,20 @@
       <c r="J20" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="K20" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
@@ -3273,11 +3457,14 @@
       <c r="J21" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="K21" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
@@ -3308,17 +3495,20 @@
       <c r="J22" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="K22" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>19</v>
       </c>
@@ -3349,17 +3539,20 @@
       <c r="J23" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="K23" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
@@ -3390,17 +3583,20 @@
       <c r="J24" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="K24" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21</v>
       </c>
@@ -3431,11 +3627,14 @@
       <c r="J25" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="K25" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q25" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22</v>
       </c>
@@ -3463,17 +3662,20 @@
       <c r="J26" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="K26" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
@@ -3501,17 +3703,20 @@
       <c r="J27" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="K27" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24</v>
       </c>
@@ -3542,17 +3747,20 @@
       <c r="J28" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="K28" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
@@ -3583,8 +3791,11 @@
       <c r="J29" s="4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K29" s="19" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>26</v>
       </c>
@@ -3612,14 +3823,17 @@
       <c r="J30" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="K30" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>27</v>
       </c>
@@ -3647,14 +3861,17 @@
       <c r="J31" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="K31" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="O31" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>28</v>
       </c>
@@ -3685,14 +3902,17 @@
       <c r="J32" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="K32" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>29</v>
       </c>
@@ -3720,14 +3940,17 @@
       <c r="J33" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="K33" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="N33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="O33" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30</v>
       </c>
@@ -3755,14 +3978,17 @@
       <c r="J34" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="K34" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31</v>
       </c>
@@ -3793,8 +4019,11 @@
       <c r="J35" s="4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K35" s="19" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>32</v>
       </c>
@@ -3825,14 +4054,17 @@
       <c r="J36" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="K36" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="N36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="O36" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>33</v>
       </c>
@@ -3860,14 +4092,17 @@
       <c r="J37" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="K37" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="N37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="O37" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>34</v>
       </c>
@@ -3895,14 +4130,17 @@
       <c r="J38" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="K38" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="N38" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="O38" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>35</v>
       </c>
@@ -3933,14 +4171,17 @@
       <c r="J39" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="K39" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="N39" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="O39" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -3951,14 +4192,15 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="14"/>
-      <c r="M40" s="1" t="s">
+      <c r="K40" s="20"/>
+      <c r="N40" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="O40" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>36</v>
       </c>
@@ -3987,7 +4229,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>37</v>
       </c>
@@ -4016,7 +4258,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>38</v>
       </c>
@@ -4045,7 +4287,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>39</v>
       </c>
@@ -4074,7 +4316,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>40</v>
       </c>
@@ -4103,7 +4345,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>41</v>
       </c>
@@ -4135,7 +4377,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>42</v>
       </c>
@@ -4167,7 +4409,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>43</v>
       </c>
@@ -4199,7 +4441,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>44</v>
       </c>
@@ -4224,8 +4466,11 @@
       <c r="J49" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49" s="19" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>45</v>
       </c>
@@ -4253,8 +4498,11 @@
       <c r="J50" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K50" s="19" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>46</v>
       </c>
@@ -4282,8 +4530,11 @@
       <c r="J51" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K51" s="19" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>47</v>
       </c>
@@ -4312,7 +4563,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>48</v>
       </c>
@@ -4340,8 +4591,11 @@
       <c r="J53" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K53" s="19" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>49</v>
       </c>
@@ -4369,8 +4623,11 @@
       <c r="J54" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K54" s="19" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>50</v>
       </c>
@@ -4396,7 +4653,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>51</v>
       </c>
@@ -4425,7 +4682,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>52</v>
       </c>
@@ -4454,7 +4711,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>53</v>
       </c>
@@ -4483,7 +4740,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>54</v>
       </c>
@@ -4512,7 +4769,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>55</v>
       </c>
@@ -4541,7 +4798,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>56</v>
       </c>
@@ -4570,7 +4827,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>57</v>
       </c>
@@ -4598,8 +4855,11 @@
       <c r="J62" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K62" s="19" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>58</v>
       </c>
@@ -4627,8 +4887,11 @@
       <c r="J63" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K63" s="19" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>59</v>
       </c>
@@ -4656,8 +4919,11 @@
       <c r="J64" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K64" s="19" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -4668,8 +4934,9 @@
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
       <c r="J65" s="14"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K65" s="20"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>60</v>
       </c>
@@ -4691,8 +4958,11 @@
       <c r="I66" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K66" s="19" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>61</v>
       </c>
@@ -4714,8 +4984,11 @@
       <c r="I67" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K67" s="19" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>62</v>
       </c>
@@ -4737,8 +5010,11 @@
       <c r="I68" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K68" s="19" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>63</v>
       </c>
@@ -4760,8 +5036,11 @@
       <c r="I69" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K69" s="19" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>64</v>
       </c>
@@ -4783,8 +5062,11 @@
       <c r="I70" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K70" s="19" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>65</v>
       </c>
@@ -4806,8 +5088,11 @@
       <c r="I71" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K71" s="19" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -4818,8 +5103,9 @@
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
       <c r="J72" s="14"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K72" s="20"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>66</v>
       </c>
@@ -4847,8 +5133,11 @@
       <c r="J73" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K73" s="19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>67</v>
       </c>
@@ -4876,8 +5165,11 @@
       <c r="J74" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K74" s="19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>68</v>
       </c>
@@ -4905,8 +5197,11 @@
       <c r="J75" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K75" s="19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>69</v>
       </c>
@@ -4934,8 +5229,11 @@
       <c r="J76" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K76" s="19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>70</v>
       </c>
@@ -4963,8 +5261,11 @@
       <c r="J77" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K77" s="19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>71</v>
       </c>
@@ -4992,8 +5293,11 @@
       <c r="J78" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K78" s="19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>72</v>
       </c>
@@ -5024,8 +5328,11 @@
       <c r="J79" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K79" s="19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>73</v>
       </c>
@@ -5056,8 +5363,11 @@
       <c r="J80" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K80" s="19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>74</v>
       </c>
@@ -5088,8 +5398,11 @@
       <c r="J81" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K81" s="19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -5100,8 +5413,9 @@
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
       <c r="J82" s="14"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K82" s="20"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>75</v>
       </c>
@@ -5130,7 +5444,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>76</v>
       </c>
@@ -5159,7 +5473,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>77</v>
       </c>
@@ -5188,7 +5502,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>78</v>
       </c>
@@ -5216,8 +5530,11 @@
       <c r="J86" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K86" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>79</v>
       </c>
@@ -5245,8 +5562,11 @@
       <c r="J87" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K87" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>80</v>
       </c>
@@ -5274,8 +5594,11 @@
       <c r="J88" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K88" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>81</v>
       </c>
@@ -5303,8 +5626,11 @@
       <c r="J89" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K89" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>82</v>
       </c>
@@ -5332,8 +5658,11 @@
       <c r="J90" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K90" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>83</v>
       </c>
@@ -5361,8 +5690,11 @@
       <c r="J91" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K91" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>84</v>
       </c>
@@ -5390,8 +5722,11 @@
       <c r="J92" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K92" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>85</v>
       </c>
@@ -5419,8 +5754,11 @@
       <c r="J93" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K93" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>86</v>
       </c>
@@ -5448,8 +5786,11 @@
       <c r="J94" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K94" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>87</v>
       </c>
@@ -5477,8 +5818,11 @@
       <c r="J95" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K95" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>88</v>
       </c>
@@ -5506,8 +5850,11 @@
       <c r="J96" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K96" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>89</v>
       </c>
@@ -5535,8 +5882,11 @@
       <c r="J97" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K97" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>90</v>
       </c>
@@ -5564,8 +5914,11 @@
       <c r="J98" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K98" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>91</v>
       </c>
@@ -5593,8 +5946,11 @@
       <c r="J99" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K99" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>92</v>
       </c>
@@ -5622,8 +5978,11 @@
       <c r="J100" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K100" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>93</v>
       </c>
@@ -5651,8 +6010,11 @@
       <c r="J101" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K101" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>94</v>
       </c>
@@ -5680,8 +6042,11 @@
       <c r="J102" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K102" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>95</v>
       </c>
@@ -5709,8 +6074,11 @@
       <c r="J103" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K103" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>96</v>
       </c>
@@ -5738,8 +6106,11 @@
       <c r="J104" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K104" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>97</v>
       </c>
@@ -5767,8 +6138,11 @@
       <c r="J105" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K105" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>98</v>
       </c>
@@ -5796,8 +6170,11 @@
       <c r="J106" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K106" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -5808,8 +6185,9 @@
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
       <c r="J107" s="14"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K107" s="20"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>99</v>
       </c>
@@ -5837,8 +6215,11 @@
       <c r="J108" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K108" s="19" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>100</v>
       </c>
@@ -5866,8 +6247,11 @@
       <c r="J109" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K109" s="19" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>101</v>
       </c>
@@ -5895,8 +6279,11 @@
       <c r="J110" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K110" s="19" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>102</v>
       </c>
@@ -5924,8 +6311,11 @@
       <c r="J111" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K111" s="19" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>103</v>
       </c>
@@ -5953,8 +6343,11 @@
       <c r="J112" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K112" s="19" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>104</v>
       </c>
@@ -5982,8 +6375,11 @@
       <c r="J113" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K113" s="19" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>105</v>
       </c>
@@ -6011,8 +6407,11 @@
       <c r="J114" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K114" s="19" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>106</v>
       </c>
@@ -6040,8 +6439,11 @@
       <c r="J115" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K115" s="19" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>107</v>
       </c>
@@ -6069,8 +6471,11 @@
       <c r="J116" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K116" s="19" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>108</v>
       </c>
@@ -6098,8 +6503,11 @@
       <c r="J117" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K117" s="19" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>109</v>
       </c>
@@ -6127,8 +6535,11 @@
       <c r="J118" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K118" s="19" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>110</v>
       </c>
@@ -6156,8 +6567,11 @@
       <c r="J119" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K119" s="19" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>111</v>
       </c>
@@ -6185,8 +6599,11 @@
       <c r="J120" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K120" s="19" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>112</v>
       </c>
@@ -6214,8 +6631,11 @@
       <c r="J121" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K121" s="19" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>113</v>
       </c>
@@ -6243,8 +6663,11 @@
       <c r="J122" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K122" s="19" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>114</v>
       </c>
@@ -6272,8 +6695,24 @@
       <c r="J123" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K123" s="19" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="20"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>501</v>
       </c>
@@ -6301,25 +6740,25 @@
       <c r="J131" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="K131" s="4">
+      <c r="L131" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="M1:R3"/>
+    <mergeCell ref="N1:S3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G73:G81 H74:H81 G83:H106 G108:H129 G131:H1048576 G4:H71" xr:uid="{887B8EE1-75F9-4DD5-A9B3-34D09B7ABD53}">
-      <formula1>$O$5:$O$12</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G73:G81 G4:H71 G131:H1048576 G108:H129 G83:H106 H74:H81" xr:uid="{887B8EE1-75F9-4DD5-A9B3-34D09B7ABD53}">
+      <formula1>$P$5:$P$12</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F131:F1048576 F4:F129" xr:uid="{70049EC0-6AD3-4E6A-BE5E-82D066390A45}">
-      <formula1>$M$5:$M$12</formula1>
+      <formula1>$N$5:$N$12</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D131:D1048576 D1:D129" xr:uid="{B7B2F877-0113-499B-ACFE-18AE178D0392}">
-      <formula1>$P$16:$P$28</formula1>
+      <formula1>$Q$16:$Q$28</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6329,368 +6768,420 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951DF8F7-72B0-488B-B4D5-B6A179D17BB0}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="25.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="32.625" customWidth="1"/>
-    <col min="7" max="7" width="29.75" customWidth="1"/>
+    <col min="2" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="32.625" customWidth="1"/>
+    <col min="8" max="8" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>348</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>346</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F3" t="s">
-        <v>350</v>
+      <c r="F3" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="G3" t="s">
         <v>350</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="H3" t="s">
+        <v>350</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1000</v>
       </c>
       <c r="B4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C4" t="s">
         <v>351</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="F4" t="b">
+      <c r="G4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" t="b">
+      <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1001</v>
       </c>
       <c r="B5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C5" t="s">
         <v>356</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1002</v>
       </c>
       <c r="B6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C6" t="s">
         <v>352</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>444</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1003</v>
       </c>
       <c r="B7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C7" t="s">
         <v>353</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1004</v>
       </c>
       <c r="B8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C8" t="s">
         <v>354</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1005</v>
       </c>
       <c r="B9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C9" t="s">
         <v>355</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1006</v>
       </c>
       <c r="B10" t="s">
+        <v>500</v>
+      </c>
+      <c r="C10" t="s">
         <v>357</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+    <row r="11" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>1007</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" t="s">
+        <v>501</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
+      <c r="D11" s="16" t="s">
+        <v>380</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1008</v>
       </c>
       <c r="B12" t="s">
+        <v>502</v>
+      </c>
+      <c r="C12" t="s">
         <v>446</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
+      <c r="D12" s="4" t="s">
+        <v>443</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1009</v>
       </c>
       <c r="B13" t="s">
+        <v>503</v>
+      </c>
+      <c r="C13" t="s">
         <v>359</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1010</v>
       </c>
       <c r="B14" t="s">
+        <v>501</v>
+      </c>
+      <c r="C14" t="s">
         <v>360</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1011</v>
       </c>
       <c r="B15" t="s">
+        <v>504</v>
+      </c>
+      <c r="C15" t="s">
         <v>384</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1012</v>
       </c>
       <c r="B16" t="s">
+        <v>505</v>
+      </c>
+      <c r="C16" t="s">
         <v>458</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1005</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1013</v>
       </c>
       <c r="B17" t="s">
+        <v>506</v>
+      </c>
+      <c r="C17" t="s">
         <v>461</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="D17"/>
-      <c r="F17" t="b">
+      <c r="E17"/>
+      <c r="G17" t="b">
         <v>0</v>
       </c>
-      <c r="G17" t="b">
+      <c r="H17" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A93887-444C-44B6-90DE-8E299C5688D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE5B880-61C2-4225-8E42-0EF2DE8BA880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6795" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39540" yWindow="-5175" windowWidth="36030" windowHeight="31110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="572">
   <si>
     <t>名字</t>
   </si>
@@ -514,14 +514,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gadget_Attach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gadget_Replace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Shield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2044,6 +2036,192 @@
   <si>
     <t>1012,1013,1013</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Arm/Arm_Weapon_Lt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm</t>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Arm/Arm_Weapon_Med</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Arm/Arm_Weapon_Hvy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Arm/Arms_NoHand_lt_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Arm/Arms_NoHand_Med_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Arm/Arms_NoHand_Hvy_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm_Weapon_Lt</t>
+  </si>
+  <si>
+    <t>Arm_Weapon_Med</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm_Weapon_Hvy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm_NoHand_lt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm_NoHand_Med</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm_NoHand_Hvy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手臂侧面扩展槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon,Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm's Side Slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手臂替换扩展槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm's Hand Slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chassis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Gadget/Gadget_Hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Gadget/Gadget_Hand_Gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Gadget/Gadget_Hand_Saw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Gadget/Gadget_Weapon_Flamethrower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Gadget/Gadget_Weapon_Launcher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Gadget/Gadget_Weapon_Minigun_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Gadget/Gadget_Weapon_Minigun_Lvl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Gadget/Gadget_Weapon_Minigun_Lvl3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Gadget/Gadget_Weapon_Shocker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Gadget/Gadget_Weapon_Shotgun_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Gadget/Gadget_Weapon_Shotgun_Lvl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Constructor/Gadget/Gadget_Weapon_Shotgun_Lvl3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget_Hand</t>
+  </si>
+  <si>
+    <t>Gadget_Hand_Gun</t>
+  </si>
+  <si>
+    <t>Gadget_Hand_Saw</t>
+  </si>
+  <si>
+    <t>Gadget_Weapon_Flamethrower</t>
+  </si>
+  <si>
+    <t>Gadget_Weapon_Launcher</t>
+  </si>
+  <si>
+    <t>Gadget_Weapon_Minigun_Lvl1</t>
+  </si>
+  <si>
+    <t>Gadget_Weapon_Minigun_Lvl2</t>
+  </si>
+  <si>
+    <t>Gadget_Weapon_Minigun_Lvl3</t>
+  </si>
+  <si>
+    <t>Gadget_Weapon_Shocker</t>
+  </si>
+  <si>
+    <t>Gadget_Weapon_Shotgun_Lvl1</t>
+  </si>
+  <si>
+    <t>Gadget_Weapon_Shotgun_Lvl2</t>
+  </si>
+  <si>
+    <t>Gadget_Weapon_Shotgun_Lvl3</t>
   </si>
 </sst>
 </file>
@@ -2221,16 +2399,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2527,10 +2705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
-  <dimension ref="A1:V131"/>
+  <dimension ref="A1:V146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K134" sqref="K134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2544,7 +2722,7 @@
     <col min="7" max="8" width="9" style="1"/>
     <col min="9" max="9" width="3.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="40.625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="24.375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="24.375" style="17" customWidth="1"/>
     <col min="12" max="12" width="10.375" style="4" customWidth="1"/>
     <col min="14" max="14" width="20.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="13.875" style="1" customWidth="1"/>
@@ -2570,28 +2748,28 @@
       <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="17"/>
+      <c r="G1" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="19"/>
       <c r="I1" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>507</v>
+      <c r="K1" s="17" t="s">
+        <v>505</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2619,23 +2797,23 @@
         <v>115</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="19" t="s">
-        <v>508</v>
+      <c r="K2" s="17" t="s">
+        <v>506</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -2668,31 +2846,31 @@
       <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="17" t="s">
         <v>107</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
     </row>
     <row r="4" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -2704,13 +2882,13 @@
         <v>48</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>509</v>
+        <v>205</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>507</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>21</v>
@@ -2719,13 +2897,13 @@
         <v>4</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>4</v>
@@ -2736,13 +2914,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -2754,16 +2932,16 @@
         <v>48</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>509</v>
+        <v>204</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>507</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>37</v>
@@ -2778,10 +2956,10 @@
         <v>28</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U5" s="1"/>
     </row>
@@ -2790,13 +2968,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -2808,13 +2986,13 @@
         <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>510</v>
+        <v>231</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>508</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>39</v>
@@ -2829,10 +3007,10 @@
         <v>29</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -2842,13 +3020,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E7">
         <v>40</v>
@@ -2860,16 +3038,16 @@
         <v>48</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>510</v>
+        <v>232</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>508</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>40</v>
@@ -2884,10 +3062,10 @@
         <v>30</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -2897,13 +3075,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -2915,16 +3093,16 @@
         <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>511</v>
+        <v>233</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>509</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>42</v>
@@ -2939,10 +3117,10 @@
         <v>31</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
@@ -2952,13 +3130,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -2970,13 +3148,13 @@
         <v>48</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>511</v>
+        <v>206</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>509</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>45</v>
@@ -2991,10 +3169,10 @@
         <v>32</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -3004,13 +3182,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E10">
         <v>30</v>
@@ -3022,13 +3200,13 @@
         <v>48</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>511</v>
+        <v>210</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>509</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>46</v>
@@ -3043,10 +3221,10 @@
         <v>34</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V10" s="1"/>
     </row>
@@ -3055,13 +3233,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E11">
         <v>40</v>
@@ -3073,16 +3251,16 @@
         <v>48</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>511</v>
+        <v>211</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>509</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>47</v>
@@ -3104,34 +3282,34 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>511</v>
+        <v>217</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>509</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>50</v>
@@ -3145,31 +3323,31 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E13">
         <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>511</v>
+        <v>222</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
@@ -3177,31 +3355,31 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E14">
         <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>511</v>
+        <v>223</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>509</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
@@ -3211,31 +3389,31 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E15">
         <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>511</v>
+        <v>224</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>509</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
@@ -3245,13 +3423,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C16" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D16" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E16">
         <v>30</v>
@@ -3263,13 +3441,13 @@
         <v>48</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>512</v>
+        <v>228</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>510</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>63</v>
@@ -3286,13 +3464,13 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E17">
         <v>40</v>
@@ -3304,13 +3482,13 @@
         <v>48</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>512</v>
+        <v>229</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>510</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>64</v>
@@ -3327,13 +3505,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D18" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E18">
         <v>50</v>
@@ -3348,13 +3526,13 @@
         <v>51</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>512</v>
+        <v>230</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>510</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>65</v>
@@ -3363,7 +3541,7 @@
         <v>86</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -3377,7 +3555,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="20"/>
+      <c r="K19" s="18"/>
       <c r="N19" s="1" t="s">
         <v>66</v>
       </c>
@@ -3393,7 +3571,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C20" t="s">
         <v>59</v>
@@ -3411,13 +3589,13 @@
         <v>51</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>513</v>
+        <v>169</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>511</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>67</v>
@@ -3426,7 +3604,7 @@
         <v>88</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
@@ -3434,10 +3612,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D21" t="s">
         <v>121</v>
@@ -3452,13 +3630,13 @@
         <v>51</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>513</v>
+        <v>235</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>511</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>123</v>
@@ -3469,10 +3647,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D22" t="s">
         <v>121</v>
@@ -3487,16 +3665,16 @@
         <v>51</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>513</v>
+        <v>235</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>511</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>68</v>
@@ -3505,7 +3683,7 @@
         <v>89</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>124</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -3513,10 +3691,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D23" t="s">
         <v>121</v>
@@ -3534,13 +3712,13 @@
         <v>48</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>513</v>
+        <v>170</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>511</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>69</v>
@@ -3549,7 +3727,7 @@
         <v>90</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>125</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -3557,10 +3735,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D24" t="s">
         <v>121</v>
@@ -3578,13 +3756,13 @@
         <v>48</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>513</v>
+        <v>273</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>511</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>70</v>
@@ -3593,7 +3771,7 @@
         <v>91</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -3601,10 +3779,10 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D25" t="s">
         <v>121</v>
@@ -3619,30 +3797,30 @@
         <v>51</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>514</v>
+        <v>170</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>512</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C26" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D26" t="s">
         <v>121</v>
@@ -3657,13 +3835,13 @@
         <v>51</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>513</v>
+        <v>170</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>511</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>71</v>
@@ -3672,18 +3850,18 @@
         <v>92</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s">
         <v>121</v>
@@ -3698,13 +3876,13 @@
         <v>51</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>513</v>
+        <v>170</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>511</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>72</v>
@@ -3713,18 +3891,18 @@
         <v>93</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D28" t="s">
         <v>121</v>
@@ -3742,13 +3920,13 @@
         <v>54</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>513</v>
+        <v>170</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>511</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>73</v>
@@ -3756,19 +3934,16 @@
       <c r="O28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C29" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D29" t="s">
         <v>121</v>
@@ -3786,13 +3961,13 @@
         <v>54</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>513</v>
+        <v>170</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -3800,10 +3975,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D30" t="s">
         <v>121</v>
@@ -3818,13 +3993,13 @@
         <v>51</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>514</v>
+        <v>170</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>512</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>74</v>
@@ -3838,10 +4013,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D31" t="s">
         <v>121</v>
@@ -3856,13 +4031,13 @@
         <v>51</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>514</v>
+        <v>170</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>512</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>75</v>
@@ -3876,10 +4051,10 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D32" t="s">
         <v>121</v>
@@ -3894,16 +4069,16 @@
         <v>51</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>514</v>
+      <c r="K32" s="17" t="s">
+        <v>512</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>76</v>
@@ -3917,10 +4092,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D33" t="s">
         <v>121</v>
@@ -3929,19 +4104,19 @@
         <v>10</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>513</v>
+        <v>170</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>511</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>77</v>
@@ -3955,10 +4130,10 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C34" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D34" t="s">
         <v>121</v>
@@ -3967,19 +4142,19 @@
         <v>20</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>513</v>
+        <v>170</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>511</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>78</v>
@@ -3993,10 +4168,10 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C35" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D35" t="s">
         <v>121</v>
@@ -4005,22 +4180,22 @@
         <v>30</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K35" s="19" t="s">
-        <v>513</v>
+        <v>170</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -4028,10 +4203,10 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D36" t="s">
         <v>121</v>
@@ -4040,22 +4215,22 @@
         <v>40</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K36" s="19" t="s">
-        <v>513</v>
+        <v>170</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>511</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>79</v>
@@ -4069,10 +4244,10 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D37" t="s">
         <v>121</v>
@@ -4081,19 +4256,19 @@
         <v>30</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>513</v>
+        <v>170</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>511</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>80</v>
@@ -4107,10 +4282,10 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D38" t="s">
         <v>121</v>
@@ -4119,19 +4294,19 @@
         <v>40</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K38" s="19" t="s">
-        <v>513</v>
+        <v>170</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>511</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>81</v>
@@ -4140,15 +4315,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C39" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D39" t="s">
         <v>121</v>
@@ -4157,7 +4332,7 @@
         <v>50</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>51</v>
@@ -4166,13 +4341,13 @@
         <v>48</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K39" s="19" t="s">
-        <v>513</v>
+        <v>170</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>511</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>82</v>
@@ -4192,7 +4367,7 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="14"/>
-      <c r="K40" s="20"/>
+      <c r="K40" s="18"/>
       <c r="N40" s="1" t="s">
         <v>83</v>
       </c>
@@ -4205,10 +4380,10 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C41" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D41" t="s">
         <v>117</v>
@@ -4223,10 +4398,10 @@
         <v>54</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -4234,10 +4409,10 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C42" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D42" t="s">
         <v>117</v>
@@ -4252,10 +4427,10 @@
         <v>54</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -4263,10 +4438,10 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C43" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D43" t="s">
         <v>117</v>
@@ -4278,13 +4453,13 @@
         <v>36</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -4292,10 +4467,10 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D44" t="s">
         <v>117</v>
@@ -4307,13 +4482,13 @@
         <v>36</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -4321,10 +4496,10 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C45" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D45" t="s">
         <v>117</v>
@@ -4336,13 +4511,13 @@
         <v>36</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -4350,10 +4525,10 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C46" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D46" t="s">
         <v>117</v>
@@ -4362,19 +4537,19 @@
         <v>10</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="I46" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -4382,10 +4557,10 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C47" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D47" t="s">
         <v>117</v>
@@ -4394,19 +4569,19 @@
         <v>10</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="I47" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -4414,10 +4589,10 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C48" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D48" t="s">
         <v>117</v>
@@ -4426,19 +4601,19 @@
         <v>10</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="I48" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -4446,10 +4621,10 @@
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C49" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D49" t="s">
         <v>117</v>
@@ -4461,13 +4636,13 @@
         <v>41</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="K49" s="19" t="s">
-        <v>515</v>
+        <v>171</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -4475,10 +4650,10 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C50" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D50" t="s">
         <v>117</v>
@@ -4493,13 +4668,13 @@
         <v>51</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="K50" s="19" t="s">
-        <v>516</v>
+        <v>171</v>
+      </c>
+      <c r="K50" s="17" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -4507,10 +4682,10 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C51" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D51" t="s">
         <v>117</v>
@@ -4525,13 +4700,13 @@
         <v>51</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="K51" s="19" t="s">
-        <v>516</v>
+        <v>171</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -4539,10 +4714,10 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C52" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D52" t="s">
         <v>117</v>
@@ -4551,16 +4726,16 @@
         <v>10</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -4568,10 +4743,10 @@
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C53" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D53" t="s">
         <v>117</v>
@@ -4583,16 +4758,16 @@
         <v>44</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="K53" s="19" t="s">
-        <v>516</v>
+        <v>171</v>
+      </c>
+      <c r="K53" s="17" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -4600,10 +4775,10 @@
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C54" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D54" t="s">
         <v>117</v>
@@ -4615,16 +4790,16 @@
         <v>44</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="K54" s="19" t="s">
-        <v>516</v>
+        <v>171</v>
+      </c>
+      <c r="K54" s="17" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -4632,10 +4807,10 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C55" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D55" t="s">
         <v>117</v>
@@ -4647,10 +4822,10 @@
         <v>44</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -4658,10 +4833,10 @@
         <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C56" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D56" t="s">
         <v>117</v>
@@ -4670,16 +4845,16 @@
         <v>10</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -4687,10 +4862,10 @@
         <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C57" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D57" t="s">
         <v>117</v>
@@ -4699,16 +4874,16 @@
         <v>10</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -4716,10 +4891,10 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C58" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D58" t="s">
         <v>117</v>
@@ -4728,16 +4903,16 @@
         <v>10</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -4745,10 +4920,10 @@
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C59" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D59" t="s">
         <v>117</v>
@@ -4760,13 +4935,13 @@
         <v>41</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -4774,10 +4949,10 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C60" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D60" t="s">
         <v>117</v>
@@ -4789,13 +4964,13 @@
         <v>41</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -4803,10 +4978,10 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C61" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D61" t="s">
         <v>117</v>
@@ -4818,13 +4993,13 @@
         <v>41</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -4832,10 +5007,10 @@
         <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C62" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D62" t="s">
         <v>117</v>
@@ -4844,19 +5019,19 @@
         <v>10</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="K62" s="19" t="s">
-        <v>516</v>
+        <v>171</v>
+      </c>
+      <c r="K62" s="17" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -4864,10 +5039,10 @@
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C63" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D63" t="s">
         <v>117</v>
@@ -4876,19 +5051,19 @@
         <v>10</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="K63" s="19" t="s">
-        <v>516</v>
+        <v>171</v>
+      </c>
+      <c r="K63" s="17" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -4896,10 +5071,10 @@
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C64" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D64" t="s">
         <v>117</v>
@@ -4908,19 +5083,19 @@
         <v>10</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="K64" s="19" t="s">
-        <v>516</v>
+        <v>171</v>
+      </c>
+      <c r="K64" s="17" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -4934,20 +5109,20 @@
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
       <c r="J65" s="14"/>
-      <c r="K65" s="20"/>
+      <c r="K65" s="18"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C66" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D66" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E66">
         <v>10</v>
@@ -4956,10 +5131,10 @@
         <v>41</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K66" s="19" t="s">
-        <v>517</v>
+        <v>181</v>
+      </c>
+      <c r="K66" s="17" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -4967,13 +5142,13 @@
         <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C67" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D67" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E67">
         <v>10</v>
@@ -4982,10 +5157,10 @@
         <v>41</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K67" s="19" t="s">
-        <v>518</v>
+        <v>181</v>
+      </c>
+      <c r="K67" s="17" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -4993,13 +5168,13 @@
         <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C68" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D68" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E68">
         <v>10</v>
@@ -5008,10 +5183,10 @@
         <v>41</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K68" s="19" t="s">
-        <v>519</v>
+        <v>181</v>
+      </c>
+      <c r="K68" s="17" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -5019,13 +5194,13 @@
         <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C69" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E69">
         <v>10</v>
@@ -5034,10 +5209,10 @@
         <v>41</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K69" s="19" t="s">
-        <v>520</v>
+        <v>182</v>
+      </c>
+      <c r="K69" s="17" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -5045,13 +5220,13 @@
         <v>64</v>
       </c>
       <c r="B70" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C70" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D70" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E70">
         <v>5</v>
@@ -5060,10 +5235,10 @@
         <v>41</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K70" s="19" t="s">
-        <v>515</v>
+        <v>181</v>
+      </c>
+      <c r="K70" s="17" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -5071,13 +5246,13 @@
         <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C71" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D71" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E71">
         <v>5</v>
@@ -5086,10 +5261,10 @@
         <v>41</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K71" s="19" t="s">
-        <v>520</v>
+        <v>181</v>
+      </c>
+      <c r="K71" s="17" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -5103,20 +5278,20 @@
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
       <c r="J72" s="14"/>
-      <c r="K72" s="20"/>
+      <c r="K72" s="18"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C73" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D73" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E73">
         <v>10</v>
@@ -5128,13 +5303,13 @@
         <v>54</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="K73" s="19" t="s">
-        <v>514</v>
+        <v>360</v>
+      </c>
+      <c r="K73" s="17" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -5142,13 +5317,13 @@
         <v>67</v>
       </c>
       <c r="B74" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C74" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D74" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E74">
         <v>10</v>
@@ -5160,13 +5335,13 @@
         <v>54</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="K74" s="19" t="s">
-        <v>514</v>
+        <v>360</v>
+      </c>
+      <c r="K74" s="17" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -5174,13 +5349,13 @@
         <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C75" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D75" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E75">
         <v>10</v>
@@ -5192,13 +5367,13 @@
         <v>54</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="K75" s="19" t="s">
-        <v>514</v>
+        <v>360</v>
+      </c>
+      <c r="K75" s="17" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
@@ -5206,13 +5381,13 @@
         <v>69</v>
       </c>
       <c r="B76" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C76" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D76" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E76">
         <v>10</v>
@@ -5224,13 +5399,13 @@
         <v>54</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="K76" s="19" t="s">
-        <v>514</v>
+        <v>360</v>
+      </c>
+      <c r="K76" s="17" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
@@ -5238,13 +5413,13 @@
         <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C77" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D77" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E77">
         <v>10</v>
@@ -5256,13 +5431,13 @@
         <v>54</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="K77" s="19" t="s">
-        <v>514</v>
+        <v>360</v>
+      </c>
+      <c r="K77" s="17" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
@@ -5270,13 +5445,13 @@
         <v>71</v>
       </c>
       <c r="B78" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C78" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D78" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E78">
         <v>10</v>
@@ -5288,13 +5463,13 @@
         <v>54</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="K78" s="19" t="s">
-        <v>514</v>
+        <v>360</v>
+      </c>
+      <c r="K78" s="17" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -5302,34 +5477,34 @@
         <v>72</v>
       </c>
       <c r="B79" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C79" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D79" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E79">
         <v>10</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="K79" s="19" t="s">
-        <v>514</v>
+        <v>360</v>
+      </c>
+      <c r="K79" s="17" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
@@ -5337,34 +5512,34 @@
         <v>73</v>
       </c>
       <c r="B80" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C80" t="s">
+        <v>335</v>
+      </c>
+      <c r="D80" t="s">
+        <v>328</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D80" t="s">
-        <v>330</v>
-      </c>
-      <c r="E80">
-        <v>10</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="I80" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="K80" s="19" t="s">
-        <v>514</v>
+        <v>360</v>
+      </c>
+      <c r="K80" s="17" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -5372,34 +5547,34 @@
         <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C81" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D81" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E81">
         <v>10</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="K81" s="19" t="s">
-        <v>514</v>
+        <v>360</v>
+      </c>
+      <c r="K81" s="17" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -5413,20 +5588,20 @@
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
       <c r="J82" s="14"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="18"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>75</v>
       </c>
       <c r="B83" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C83" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D83" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E83">
         <v>10</v>
@@ -5435,13 +5610,13 @@
         <v>36</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
@@ -5449,13 +5624,13 @@
         <v>76</v>
       </c>
       <c r="B84" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C84" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D84" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E84">
         <v>10</v>
@@ -5464,13 +5639,13 @@
         <v>36</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
@@ -5478,13 +5653,13 @@
         <v>77</v>
       </c>
       <c r="B85" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C85" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D85" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E85">
         <v>10</v>
@@ -5493,13 +5668,13 @@
         <v>36</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
@@ -5507,13 +5682,13 @@
         <v>78</v>
       </c>
       <c r="B86" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C86" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D86" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E86">
         <v>10</v>
@@ -5522,16 +5697,16 @@
         <v>36</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K86" s="19" t="s">
-        <v>521</v>
+        <v>383</v>
+      </c>
+      <c r="K86" s="17" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
@@ -5539,13 +5714,13 @@
         <v>79</v>
       </c>
       <c r="B87" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C87" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D87" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E87">
         <v>10</v>
@@ -5554,16 +5729,16 @@
         <v>36</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K87" s="19" t="s">
-        <v>521</v>
+        <v>383</v>
+      </c>
+      <c r="K87" s="17" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
@@ -5571,13 +5746,13 @@
         <v>80</v>
       </c>
       <c r="B88" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C88" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D88" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E88">
         <v>10</v>
@@ -5586,16 +5761,16 @@
         <v>36</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K88" s="19" t="s">
-        <v>521</v>
+        <v>383</v>
+      </c>
+      <c r="K88" s="17" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
@@ -5603,13 +5778,13 @@
         <v>81</v>
       </c>
       <c r="B89" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C89" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D89" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E89">
         <v>10</v>
@@ -5618,16 +5793,16 @@
         <v>36</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K89" s="19" t="s">
-        <v>521</v>
+        <v>383</v>
+      </c>
+      <c r="K89" s="17" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -5635,13 +5810,13 @@
         <v>82</v>
       </c>
       <c r="B90" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C90" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D90" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E90">
         <v>10</v>
@@ -5650,16 +5825,16 @@
         <v>36</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K90" s="19" t="s">
-        <v>521</v>
+        <v>383</v>
+      </c>
+      <c r="K90" s="17" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -5667,13 +5842,13 @@
         <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C91" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D91" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E91">
         <v>10</v>
@@ -5682,16 +5857,16 @@
         <v>36</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K91" s="19" t="s">
-        <v>521</v>
+        <v>383</v>
+      </c>
+      <c r="K91" s="17" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -5699,13 +5874,13 @@
         <v>84</v>
       </c>
       <c r="B92" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C92" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D92" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E92">
         <v>10</v>
@@ -5714,16 +5889,16 @@
         <v>36</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K92" s="19" t="s">
-        <v>521</v>
+        <v>383</v>
+      </c>
+      <c r="K92" s="17" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -5731,13 +5906,13 @@
         <v>85</v>
       </c>
       <c r="B93" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C93" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D93" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E93">
         <v>10</v>
@@ -5746,16 +5921,16 @@
         <v>36</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K93" s="19" t="s">
-        <v>521</v>
+        <v>383</v>
+      </c>
+      <c r="K93" s="17" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
@@ -5763,13 +5938,13 @@
         <v>86</v>
       </c>
       <c r="B94" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C94" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D94" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E94">
         <v>10</v>
@@ -5778,16 +5953,16 @@
         <v>36</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K94" s="19" t="s">
-        <v>521</v>
+        <v>383</v>
+      </c>
+      <c r="K94" s="17" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
@@ -5795,13 +5970,13 @@
         <v>87</v>
       </c>
       <c r="B95" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C95" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D95" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E95">
         <v>10</v>
@@ -5810,16 +5985,16 @@
         <v>36</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K95" s="19" t="s">
-        <v>521</v>
+        <v>383</v>
+      </c>
+      <c r="K95" s="17" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -5827,13 +6002,13 @@
         <v>88</v>
       </c>
       <c r="B96" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C96" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D96" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E96">
         <v>10</v>
@@ -5842,16 +6017,16 @@
         <v>36</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K96" s="19" t="s">
-        <v>521</v>
+        <v>383</v>
+      </c>
+      <c r="K96" s="17" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -5859,13 +6034,13 @@
         <v>89</v>
       </c>
       <c r="B97" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C97" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D97" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E97">
         <v>10</v>
@@ -5874,16 +6049,16 @@
         <v>36</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K97" s="19" t="s">
-        <v>521</v>
+        <v>383</v>
+      </c>
+      <c r="K97" s="17" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -5891,13 +6066,13 @@
         <v>90</v>
       </c>
       <c r="B98" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C98" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D98" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E98">
         <v>10</v>
@@ -5906,16 +6081,16 @@
         <v>36</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K98" s="19" t="s">
-        <v>521</v>
+        <v>383</v>
+      </c>
+      <c r="K98" s="17" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
@@ -5923,13 +6098,13 @@
         <v>91</v>
       </c>
       <c r="B99" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C99" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D99" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E99">
         <v>10</v>
@@ -5938,16 +6113,16 @@
         <v>36</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K99" s="19" t="s">
-        <v>521</v>
+        <v>383</v>
+      </c>
+      <c r="K99" s="17" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
@@ -5955,13 +6130,13 @@
         <v>92</v>
       </c>
       <c r="B100" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C100" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D100" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E100">
         <v>10</v>
@@ -5970,16 +6145,16 @@
         <v>36</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K100" s="19" t="s">
-        <v>521</v>
+        <v>383</v>
+      </c>
+      <c r="K100" s="17" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -5987,13 +6162,13 @@
         <v>93</v>
       </c>
       <c r="B101" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C101" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D101" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E101">
         <v>10</v>
@@ -6002,16 +6177,16 @@
         <v>36</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K101" s="19" t="s">
-        <v>521</v>
+        <v>383</v>
+      </c>
+      <c r="K101" s="17" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -6019,13 +6194,13 @@
         <v>94</v>
       </c>
       <c r="B102" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C102" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D102" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E102">
         <v>10</v>
@@ -6034,16 +6209,16 @@
         <v>36</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K102" s="19" t="s">
-        <v>521</v>
+        <v>383</v>
+      </c>
+      <c r="K102" s="17" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
@@ -6051,13 +6226,13 @@
         <v>95</v>
       </c>
       <c r="B103" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C103" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D103" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E103">
         <v>10</v>
@@ -6066,16 +6241,16 @@
         <v>36</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K103" s="19" t="s">
-        <v>521</v>
+        <v>383</v>
+      </c>
+      <c r="K103" s="17" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -6083,13 +6258,13 @@
         <v>96</v>
       </c>
       <c r="B104" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C104" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D104" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E104">
         <v>10</v>
@@ -6098,16 +6273,16 @@
         <v>36</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K104" s="19" t="s">
-        <v>521</v>
+        <v>383</v>
+      </c>
+      <c r="K104" s="17" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -6115,13 +6290,13 @@
         <v>97</v>
       </c>
       <c r="B105" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C105" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D105" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E105">
         <v>10</v>
@@ -6130,16 +6305,16 @@
         <v>36</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K105" s="19" t="s">
-        <v>521</v>
+        <v>383</v>
+      </c>
+      <c r="K105" s="17" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
@@ -6147,13 +6322,13 @@
         <v>98</v>
       </c>
       <c r="B106" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C106" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D106" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E106">
         <v>10</v>
@@ -6162,16 +6337,16 @@
         <v>36</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K106" s="19" t="s">
-        <v>521</v>
+        <v>383</v>
+      </c>
+      <c r="K106" s="17" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
@@ -6185,17 +6360,17 @@
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
       <c r="J107" s="14"/>
-      <c r="K107" s="20"/>
+      <c r="K107" s="18"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>99</v>
       </c>
       <c r="B108" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C108" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D108" t="s">
         <v>120</v>
@@ -6207,16 +6382,16 @@
         <v>36</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K108" s="19" t="s">
-        <v>522</v>
+        <v>454</v>
+      </c>
+      <c r="K108" s="17" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -6224,10 +6399,10 @@
         <v>100</v>
       </c>
       <c r="B109" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C109" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D109" t="s">
         <v>120</v>
@@ -6239,16 +6414,16 @@
         <v>36</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K109" s="19" t="s">
-        <v>522</v>
+        <v>454</v>
+      </c>
+      <c r="K109" s="17" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
@@ -6256,10 +6431,10 @@
         <v>101</v>
       </c>
       <c r="B110" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C110" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D110" t="s">
         <v>120</v>
@@ -6271,16 +6446,16 @@
         <v>36</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K110" s="19" t="s">
-        <v>522</v>
+        <v>454</v>
+      </c>
+      <c r="K110" s="17" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -6288,10 +6463,10 @@
         <v>102</v>
       </c>
       <c r="B111" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C111" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D111" t="s">
         <v>120</v>
@@ -6303,16 +6478,16 @@
         <v>36</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K111" s="19" t="s">
-        <v>523</v>
+        <v>454</v>
+      </c>
+      <c r="K111" s="17" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
@@ -6320,10 +6495,10 @@
         <v>103</v>
       </c>
       <c r="B112" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C112" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D112" t="s">
         <v>120</v>
@@ -6335,16 +6510,16 @@
         <v>36</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K112" s="19" t="s">
-        <v>523</v>
+        <v>454</v>
+      </c>
+      <c r="K112" s="17" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
@@ -6352,10 +6527,10 @@
         <v>104</v>
       </c>
       <c r="B113" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C113" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D113" t="s">
         <v>120</v>
@@ -6367,16 +6542,16 @@
         <v>36</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K113" s="19" t="s">
-        <v>523</v>
+        <v>454</v>
+      </c>
+      <c r="K113" s="17" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
@@ -6384,10 +6559,10 @@
         <v>105</v>
       </c>
       <c r="B114" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C114" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D114" t="s">
         <v>120</v>
@@ -6399,16 +6574,16 @@
         <v>36</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K114" s="19" t="s">
-        <v>523</v>
+        <v>454</v>
+      </c>
+      <c r="K114" s="17" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -6416,10 +6591,10 @@
         <v>106</v>
       </c>
       <c r="B115" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C115" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D115" t="s">
         <v>120</v>
@@ -6431,16 +6606,16 @@
         <v>36</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K115" s="19" t="s">
-        <v>523</v>
+        <v>454</v>
+      </c>
+      <c r="K115" s="17" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
@@ -6448,10 +6623,10 @@
         <v>107</v>
       </c>
       <c r="B116" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C116" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D116" t="s">
         <v>120</v>
@@ -6463,16 +6638,16 @@
         <v>36</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K116" s="19" t="s">
-        <v>523</v>
+        <v>454</v>
+      </c>
+      <c r="K116" s="17" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
@@ -6480,10 +6655,10 @@
         <v>108</v>
       </c>
       <c r="B117" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C117" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D117" t="s">
         <v>120</v>
@@ -6495,16 +6670,16 @@
         <v>36</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K117" s="19" t="s">
-        <v>523</v>
+        <v>454</v>
+      </c>
+      <c r="K117" s="17" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -6512,10 +6687,10 @@
         <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C118" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D118" t="s">
         <v>120</v>
@@ -6527,16 +6702,16 @@
         <v>36</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K118" s="19" t="s">
-        <v>523</v>
+        <v>454</v>
+      </c>
+      <c r="K118" s="17" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
@@ -6544,10 +6719,10 @@
         <v>110</v>
       </c>
       <c r="B119" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C119" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D119" t="s">
         <v>120</v>
@@ -6559,16 +6734,16 @@
         <v>36</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K119" s="19" t="s">
-        <v>523</v>
+        <v>454</v>
+      </c>
+      <c r="K119" s="17" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
@@ -6576,10 +6751,10 @@
         <v>111</v>
       </c>
       <c r="B120" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C120" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D120" t="s">
         <v>120</v>
@@ -6591,16 +6766,16 @@
         <v>36</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K120" s="19" t="s">
-        <v>523</v>
+        <v>454</v>
+      </c>
+      <c r="K120" s="17" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
@@ -6608,10 +6783,10 @@
         <v>112</v>
       </c>
       <c r="B121" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C121" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D121" t="s">
         <v>120</v>
@@ -6623,16 +6798,16 @@
         <v>36</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K121" s="19" t="s">
-        <v>523</v>
+        <v>454</v>
+      </c>
+      <c r="K121" s="17" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
@@ -6640,10 +6815,10 @@
         <v>113</v>
       </c>
       <c r="B122" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C122" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D122" t="s">
         <v>120</v>
@@ -6655,16 +6830,16 @@
         <v>36</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K122" s="19" t="s">
-        <v>523</v>
+        <v>454</v>
+      </c>
+      <c r="K122" s="17" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
@@ -6672,10 +6847,10 @@
         <v>114</v>
       </c>
       <c r="B123" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C123" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D123" t="s">
         <v>120</v>
@@ -6687,16 +6862,16 @@
         <v>36</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K123" s="19" t="s">
-        <v>523</v>
+        <v>454</v>
+      </c>
+      <c r="K123" s="17" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -6710,37 +6885,603 @@
       <c r="H124" s="13"/>
       <c r="I124" s="13"/>
       <c r="J124" s="14"/>
-      <c r="K124" s="20"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A131">
+      <c r="K124" s="18"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>115</v>
+      </c>
+      <c r="B125" t="s">
+        <v>529</v>
+      </c>
+      <c r="C125" t="s">
+        <v>522</v>
+      </c>
+      <c r="D125" t="s">
+        <v>523</v>
+      </c>
+      <c r="E125">
+        <v>10</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="K125" s="17" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>116</v>
+      </c>
+      <c r="B126" t="s">
+        <v>530</v>
+      </c>
+      <c r="C126" t="s">
+        <v>524</v>
+      </c>
+      <c r="D126" t="s">
+        <v>523</v>
+      </c>
+      <c r="E126">
+        <v>10</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="K126" s="17" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>117</v>
+      </c>
+      <c r="B127" t="s">
+        <v>531</v>
+      </c>
+      <c r="C127" t="s">
+        <v>525</v>
+      </c>
+      <c r="D127" t="s">
+        <v>523</v>
+      </c>
+      <c r="E127">
+        <v>10</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="K127" s="17" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>118</v>
+      </c>
+      <c r="B128" t="s">
+        <v>532</v>
+      </c>
+      <c r="C128" t="s">
+        <v>526</v>
+      </c>
+      <c r="D128" t="s">
+        <v>523</v>
+      </c>
+      <c r="E128">
+        <v>10</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="K128" s="17" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>119</v>
+      </c>
+      <c r="B129" t="s">
+        <v>533</v>
+      </c>
+      <c r="C129" t="s">
+        <v>527</v>
+      </c>
+      <c r="D129" t="s">
+        <v>523</v>
+      </c>
+      <c r="E129">
+        <v>10</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="K129" s="17" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>120</v>
+      </c>
+      <c r="B130" t="s">
+        <v>534</v>
+      </c>
+      <c r="C130" t="s">
+        <v>528</v>
+      </c>
+      <c r="D130" t="s">
+        <v>546</v>
+      </c>
+      <c r="E130">
+        <v>10</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="K130" s="17" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" s="12"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="18"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>121</v>
+      </c>
+      <c r="B132" t="s">
+        <v>560</v>
+      </c>
+      <c r="C132" t="s">
+        <v>548</v>
+      </c>
+      <c r="D132" t="s">
+        <v>547</v>
+      </c>
+      <c r="E132">
+        <v>10</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>122</v>
+      </c>
+      <c r="B133" t="s">
+        <v>561</v>
+      </c>
+      <c r="C133" t="s">
+        <v>549</v>
+      </c>
+      <c r="D133" t="s">
+        <v>547</v>
+      </c>
+      <c r="E133">
+        <v>10</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>123</v>
+      </c>
+      <c r="B134" t="s">
+        <v>562</v>
+      </c>
+      <c r="C134" t="s">
+        <v>550</v>
+      </c>
+      <c r="D134" t="s">
+        <v>547</v>
+      </c>
+      <c r="E134">
+        <v>10</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>124</v>
+      </c>
+      <c r="B135" t="s">
+        <v>563</v>
+      </c>
+      <c r="C135" t="s">
+        <v>551</v>
+      </c>
+      <c r="D135" t="s">
+        <v>547</v>
+      </c>
+      <c r="E135">
+        <v>10</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>125</v>
+      </c>
+      <c r="B136" t="s">
+        <v>564</v>
+      </c>
+      <c r="C136" t="s">
+        <v>552</v>
+      </c>
+      <c r="D136" t="s">
+        <v>547</v>
+      </c>
+      <c r="E136">
+        <v>10</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>126</v>
+      </c>
+      <c r="B137" t="s">
+        <v>565</v>
+      </c>
+      <c r="C137" t="s">
+        <v>553</v>
+      </c>
+      <c r="D137" t="s">
+        <v>547</v>
+      </c>
+      <c r="E137">
+        <v>10</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>127</v>
+      </c>
+      <c r="B138" t="s">
+        <v>566</v>
+      </c>
+      <c r="C138" t="s">
+        <v>554</v>
+      </c>
+      <c r="D138" t="s">
+        <v>547</v>
+      </c>
+      <c r="E138">
+        <v>10</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>128</v>
+      </c>
+      <c r="B139" t="s">
+        <v>567</v>
+      </c>
+      <c r="C139" t="s">
+        <v>555</v>
+      </c>
+      <c r="D139" t="s">
+        <v>547</v>
+      </c>
+      <c r="E139">
+        <v>10</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>129</v>
+      </c>
+      <c r="B140" t="s">
+        <v>568</v>
+      </c>
+      <c r="C140" t="s">
+        <v>556</v>
+      </c>
+      <c r="D140" t="s">
+        <v>547</v>
+      </c>
+      <c r="E140">
+        <v>10</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>130</v>
+      </c>
+      <c r="B141" t="s">
+        <v>569</v>
+      </c>
+      <c r="C141" t="s">
+        <v>557</v>
+      </c>
+      <c r="D141" t="s">
+        <v>547</v>
+      </c>
+      <c r="E141">
+        <v>10</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>131</v>
+      </c>
+      <c r="B142" t="s">
+        <v>570</v>
+      </c>
+      <c r="C142" t="s">
+        <v>558</v>
+      </c>
+      <c r="D142" t="s">
+        <v>547</v>
+      </c>
+      <c r="E142">
+        <v>10</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>132</v>
+      </c>
+      <c r="B143" t="s">
+        <v>571</v>
+      </c>
+      <c r="C143" t="s">
+        <v>559</v>
+      </c>
+      <c r="D143" t="s">
+        <v>547</v>
+      </c>
+      <c r="E143">
+        <v>10</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" s="12"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="14"/>
+      <c r="K144" s="18"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A146">
         <v>501</v>
       </c>
-      <c r="B131" t="s">
-        <v>180</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="B146" t="s">
+        <v>178</v>
+      </c>
+      <c r="C146" t="s">
         <v>60</v>
       </c>
-      <c r="D131" t="s">
-        <v>127</v>
-      </c>
-      <c r="E131">
+      <c r="D146" t="s">
+        <v>125</v>
+      </c>
+      <c r="E146">
         <v>3</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F146" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G146" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I131" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J131" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="L131" s="4">
+      <c r="I146" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L146" s="4">
         <v>1</v>
       </c>
     </row>
@@ -6751,14 +7492,14 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G73:G81 G4:H71 G131:H1048576 G108:H129 G83:H106 H74:H81" xr:uid="{887B8EE1-75F9-4DD5-A9B3-34D09B7ABD53}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G73:G81 G4:H71 G108:H130 G83:H106 H74:H81 G132:H1048576" xr:uid="{887B8EE1-75F9-4DD5-A9B3-34D09B7ABD53}">
       <formula1>$P$5:$P$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F131:F1048576 F4:F129" xr:uid="{70049EC0-6AD3-4E6A-BE5E-82D066390A45}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F130 F132:F1048576" xr:uid="{70049EC0-6AD3-4E6A-BE5E-82D066390A45}">
       <formula1>$N$5:$N$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D131:D1048576 D1:D129" xr:uid="{B7B2F877-0113-499B-ACFE-18AE178D0392}">
-      <formula1>$Q$16:$Q$28</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D130 D132:D1048576" xr:uid="{B7B2F877-0113-499B-ACFE-18AE178D0392}">
+      <formula1>$Q$16:$Q$27</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6768,10 +7509,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951DF8F7-72B0-488B-B4D5-B6A179D17BB0}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E37" sqref="E37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6794,19 +7535,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>343</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -6820,19 +7561,19 @@
         <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="F2" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" t="s">
         <v>345</v>
-      </c>
-      <c r="G2" t="s">
-        <v>346</v>
-      </c>
-      <c r="H2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -6855,10 +7596,10 @@
         <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>116</v>
@@ -6869,13 +7610,13 @@
         <v>1000</v>
       </c>
       <c r="B4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -6892,10 +7633,10 @@
         <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>118</v>
@@ -6907,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>364</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -6915,13 +7656,13 @@
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -6938,13 +7679,13 @@
         <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -6953,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -6961,13 +7702,13 @@
         <v>1004</v>
       </c>
       <c r="B8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -6984,13 +7725,13 @@
         <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -6999,7 +7740,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>124</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -7007,13 +7748,13 @@
         <v>1006</v>
       </c>
       <c r="B10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -7022,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>125</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7030,13 +7771,13 @@
         <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -7045,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>380</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -7053,13 +7794,13 @@
         <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -7068,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>299</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -7076,13 +7817,13 @@
         <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -7091,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>126</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -7099,13 +7840,13 @@
         <v>1010</v>
       </c>
       <c r="B14" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -7114,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -7122,13 +7863,13 @@
         <v>1011</v>
       </c>
       <c r="B15" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -7136,22 +7877,20 @@
       <c r="H15" t="b">
         <v>0</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C16" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E16">
         <v>1005</v>
@@ -7164,24 +7903,65 @@
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E17"/>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1014</v>
+      </c>
+      <c r="B18" t="s">
+        <v>538</v>
+      </c>
+      <c r="C18" t="s">
+        <v>536</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1015</v>
+      </c>
+      <c r="B19" t="s">
+        <v>540</v>
+      </c>
+      <c r="C19" t="s">
+        <v>539</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7217,15 +7997,15 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>112</v>
@@ -7237,10 +8017,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -7271,16 +8051,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" t="s">
         <v>186</v>
       </c>
-      <c r="D4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" t="s">
-        <v>188</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -7291,16 +8071,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" t="s">
         <v>187</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -7311,16 +8091,16 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -7331,16 +8111,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -7353,16 +8133,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -7375,16 +8155,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -7397,16 +8177,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -7419,16 +8199,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -7441,16 +8221,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -7463,16 +8243,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -7485,16 +8265,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -7505,16 +8285,16 @@
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -7525,16 +8305,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -7545,16 +8325,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -7565,16 +8345,16 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -7585,16 +8365,16 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -7605,16 +8385,16 @@
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -7625,16 +8405,16 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -7645,16 +8425,16 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -7665,16 +8445,16 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -7685,16 +8465,16 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8E9DF6-199E-47E1-A7BB-9FE420760973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD2FEBE-2751-42D3-8A5E-CF7118CE5E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6795" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="726">
   <si>
     <t>名字</t>
   </si>
@@ -384,17 +384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,2;6,2;9,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2;3,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2;2,2</t>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -614,18 +603,10 @@
     <t>5</t>
   </si>
   <si>
-    <t>maxHealth + 10,moveSpeed - 1,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>electricPower + 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxMana + 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GM100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1037,10 +1018,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>physicalDamage + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sidepod</t>
   </si>
   <si>
@@ -1830,26 +1807,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxArmor + 10,moveSpeed - 1,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Materials</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>electricPower + 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>physicalDamage + 1,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalDamage + 3,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>maxArmor + 15,maxHealth + 20,moveSpeed - 1,electricPower + 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1902,10 +1863,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chassis/Chassis_Carrier_Lvl1</t>
   </si>
   <si>
@@ -2441,6 +2398,246 @@
   </si>
   <si>
     <t>Shield/Weapon_TankShield_Lvl3</t>
+  </si>
+  <si>
+    <t>Antenna/Antenna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antenna</t>
+  </si>
+  <si>
+    <t>Antenna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antenna/Antenna_Long_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antenna/Antenna_Long_2</t>
+  </si>
+  <si>
+    <t>Antenna/Antenna_Short_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antenna/Antenna_Short_2</t>
+  </si>
+  <si>
+    <t>Antenna_Long_1</t>
+  </si>
+  <si>
+    <t>Antenna_Long_2</t>
+  </si>
+  <si>
+    <t>Antenna_Short_1</t>
+  </si>
+  <si>
+    <t>Antenna_Short_2</t>
+  </si>
+  <si>
+    <t>addRange + 2,physicalDamage + 5,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addRange + 1,physicalDamage + 2,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricPower + 2,moveSpeed - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricPower + 3,moveSpeed - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricPower + 4,moveSpeed - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricPower + 2,moveSpeed + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricPower + 1,moveSpeed + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 30,maxHealth + 40,moveSpeed - 1,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addRange + 1,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorRegeneration + 2,moveSpeed - 1,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorRegeneration + 5,moveSpeed - 1,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDefenseRate + 0.1electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDefenseRate + 0.2,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMana + 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMana + 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMana + 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMana + 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMana + 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMana + 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMana + 15,moveSpeed + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMana + 30,moveSpeed + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMana + 15,maxArmor + 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMana + 30,maxArmor + 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHealth + 20</t>
+  </si>
+  <si>
+    <t>maxHealth + 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHealth + 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage + 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireDamage + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage + 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireDamage + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireDamage + 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHealth + 40,maxArmor + 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightingDamage + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightingDamage + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightingDamage + 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manaRegeneration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castDelayDecr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargingDelayDecr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法延迟减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充能延迟减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6;3,7;3,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,9;3,10;3,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,12;3,13;1,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,15;3,16;3,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,18;2,19;2,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,21;3,22;3,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,27;2,28;1,29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2606,15 +2803,15 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2909,10 +3106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
-  <dimension ref="A1:V198"/>
+  <dimension ref="A1:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="J184" sqref="J184"/>
+    <sheetView topLeftCell="E38" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23:O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2944,7 +3141,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -2952,28 +3149,28 @@
       <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="17"/>
+      <c r="G1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="20"/>
       <c r="I1" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2986,38 +3183,38 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -3056,43 +3253,43 @@
       <c r="L3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E4" s="19">
+        <v>253</v>
+      </c>
+      <c r="E4" s="17">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>21</v>
@@ -3101,13 +3298,13 @@
         <v>4</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>4</v>
@@ -3118,34 +3315,31 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="D5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E5" s="20">
+        <v>253</v>
+      </c>
+      <c r="E5" s="18">
         <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>30</v>
@@ -3154,16 +3348,16 @@
         <v>22</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="U5" s="1"/>
     </row>
@@ -3172,31 +3366,31 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="D6" t="s">
-        <v>259</v>
-      </c>
-      <c r="E6" s="19">
+        <v>253</v>
+      </c>
+      <c r="E6" s="17">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>32</v>
@@ -3205,16 +3399,16 @@
         <v>23</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -3224,34 +3418,31 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="D7" t="s">
-        <v>259</v>
-      </c>
-      <c r="E7" s="20">
+        <v>253</v>
+      </c>
+      <c r="E7" s="18">
         <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>33</v>
@@ -3260,16 +3451,16 @@
         <v>24</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -3279,34 +3470,34 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="D8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E8" s="21">
+        <v>253</v>
+      </c>
+      <c r="E8" s="19">
         <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>35</v>
@@ -3321,10 +3512,10 @@
         <v>28</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
@@ -3334,31 +3525,31 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="19">
+        <v>253</v>
+      </c>
+      <c r="E9" s="17">
         <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>38</v>
@@ -3367,16 +3558,16 @@
         <v>25</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -3386,31 +3577,31 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="D10" t="s">
-        <v>259</v>
-      </c>
-      <c r="E10" s="20">
+        <v>253</v>
+      </c>
+      <c r="E10" s="18">
         <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>39</v>
@@ -3419,16 +3610,16 @@
         <v>27</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="V10" s="1"/>
     </row>
@@ -3437,34 +3628,34 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
-      </c>
-      <c r="E11" s="21">
+        <v>253</v>
+      </c>
+      <c r="E11" s="19">
         <v>100</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>40</v>
@@ -3473,10 +3664,10 @@
         <v>26</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -3486,40 +3677,37 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="D12" t="s">
-        <v>259</v>
-      </c>
-      <c r="E12" s="19">
+        <v>253</v>
+      </c>
+      <c r="E12" s="17">
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>189</v>
+        <v>429</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
@@ -3527,31 +3715,31 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C13" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="D13" t="s">
-        <v>259</v>
-      </c>
-      <c r="E13" s="20">
+        <v>253</v>
+      </c>
+      <c r="E13" s="18">
         <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
@@ -3559,31 +3747,31 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="D14" t="s">
-        <v>259</v>
-      </c>
-      <c r="E14" s="20">
+        <v>253</v>
+      </c>
+      <c r="E14" s="18">
         <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
@@ -3593,31 +3781,31 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D15" t="s">
-        <v>259</v>
-      </c>
-      <c r="E15" s="21">
+        <v>253</v>
+      </c>
+      <c r="E15" s="19">
         <v>100</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
@@ -3627,31 +3815,31 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C16" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D16" t="s">
-        <v>259</v>
-      </c>
-      <c r="E16" s="19">
+        <v>253</v>
+      </c>
+      <c r="E16" s="17">
         <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>45</v>
@@ -3660,7 +3848,7 @@
         <v>66</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
@@ -3668,31 +3856,31 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C17" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="D17" t="s">
-        <v>259</v>
-      </c>
-      <c r="E17" s="20">
+        <v>253</v>
+      </c>
+      <c r="E17" s="18">
         <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>46</v>
@@ -3701,7 +3889,7 @@
         <v>67</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
@@ -3709,43 +3897,43 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D18" t="s">
-        <v>259</v>
-      </c>
-      <c r="E18" s="21">
+        <v>253</v>
+      </c>
+      <c r="E18" s="19">
         <v>100</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>47</v>
+        <v>711</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>68</v>
+        <v>712</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -3761,29 +3949,29 @@
       <c r="J19" s="14"/>
       <c r="K19" s="16"/>
       <c r="N19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C20" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="19">
+        <v>100</v>
+      </c>
+      <c r="E20" s="17">
         <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -3793,22 +3981,22 @@
         <v>41</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
@@ -3816,15 +4004,15 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="19">
+        <v>100</v>
+      </c>
+      <c r="E21" s="17">
         <v>10</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -3834,16 +4022,22 @@
         <v>41</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>477</v>
+        <v>685</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>335</v>
+        <v>329</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -3851,15 +4045,15 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C22" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="20">
+        <v>100</v>
+      </c>
+      <c r="E22" s="18">
         <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -3868,26 +4062,17 @@
       <c r="G22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>437</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>71</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -3895,15 +4080,15 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C23" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="19">
+        <v>100</v>
+      </c>
+      <c r="E23" s="17">
         <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -3912,26 +4097,23 @@
       <c r="G23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>480</v>
+        <v>147</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>51</v>
+        <v>715</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>72</v>
+        <v>717</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -3939,15 +4121,15 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C24" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="20">
+        <v>100</v>
+      </c>
+      <c r="E24" s="18">
         <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -3956,26 +4138,23 @@
       <c r="G24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>481</v>
+        <v>683</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>52</v>
+        <v>716</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>73</v>
+        <v>718</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
@@ -3983,15 +4162,15 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C25" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="20">
+        <v>100</v>
+      </c>
+      <c r="E25" s="18">
         <v>30</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -4000,77 +4179,77 @@
       <c r="G25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>478</v>
-      </c>
       <c r="I25" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C26" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="21">
         <v>100</v>
       </c>
+      <c r="E26" s="19">
+        <v>100</v>
+      </c>
       <c r="F26" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="H26" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="I26" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>151</v>
+        <v>682</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C27" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="21">
+        <v>100</v>
+      </c>
+      <c r="E27" s="19">
         <v>100</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -4079,23 +4258,26 @@
       <c r="G27" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="H27" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="I27" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>151</v>
+        <v>675</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -4103,16 +4285,16 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C28" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="20">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="E28" s="17">
+        <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>34</v>
@@ -4120,39 +4302,36 @@
       <c r="G28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>151</v>
+        <v>684</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C29" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="20">
+        <v>100</v>
+      </c>
+      <c r="E29" s="18">
         <v>30</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -4161,17 +4340,14 @@
       <c r="G29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="I29" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>151</v>
+        <v>676</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -4179,15 +4355,15 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C30" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="19">
+        <v>100</v>
+      </c>
+      <c r="E30" s="17">
         <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -4197,19 +4373,19 @@
         <v>41</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>151</v>
+        <v>677</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -4217,15 +4393,15 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C31" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="20">
+        <v>100</v>
+      </c>
+      <c r="E31" s="18">
         <v>30</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -4235,19 +4411,19 @@
         <v>41</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>151</v>
+        <v>678</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>57</v>
+        <v>713</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>78</v>
+        <v>714</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -4255,15 +4431,15 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C32" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="21">
+        <v>100</v>
+      </c>
+      <c r="E32" s="19">
         <v>100</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -4273,22 +4449,22 @@
         <v>41</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>151</v>
+        <v>679</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -4296,37 +4472,40 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C33" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="21">
         <v>100</v>
       </c>
+      <c r="E33" s="19">
+        <v>100</v>
+      </c>
       <c r="F33" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="H33" s="1" t="s">
+        <v>434</v>
+      </c>
       <c r="I33" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>151</v>
+        <v>680</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -4334,72 +4513,69 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C34" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="20">
+        <v>100</v>
+      </c>
+      <c r="E34" s="18">
         <v>30</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>151</v>
+        <v>681</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C35" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="21">
         <v>100</v>
       </c>
+      <c r="E35" s="19">
+        <v>100</v>
+      </c>
       <c r="F35" s="1" t="s">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="I35" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>151</v>
+        <v>686</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>335</v>
+        <v>329</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -4407,40 +4583,37 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C36" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" s="20">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="E36" s="17">
+        <v>10</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="I36" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -4448,37 +4621,37 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C37" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="20">
+        <v>100</v>
+      </c>
+      <c r="E37" s="18">
         <v>30</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>151</v>
+        <v>687</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -4486,37 +4659,40 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C38" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="21">
         <v>100</v>
       </c>
+      <c r="E38" s="19">
+        <v>100</v>
+      </c>
       <c r="F38" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="H38" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="I38" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>151</v>
+        <v>688</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -4524,37 +4700,37 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C39" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="19">
+        <v>100</v>
+      </c>
+      <c r="E39" s="17">
         <v>10</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -4569,40 +4745,40 @@
       <c r="I40" s="13"/>
       <c r="J40" s="14"/>
       <c r="K40" s="16"/>
-      <c r="N40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C41" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="D41" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="19">
+        <v>96</v>
+      </c>
+      <c r="E41" s="17">
         <v>10</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>152</v>
+        <v>689</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -4610,28 +4786,34 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C42" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="D42" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="19">
-        <v>10</v>
+        <v>96</v>
+      </c>
+      <c r="E42" s="18">
+        <v>30</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>152</v>
+        <v>691</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -4639,28 +4821,34 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C43" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" s="19">
+        <v>96</v>
+      </c>
+      <c r="E43" s="17">
         <v>10</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>152</v>
+        <v>689</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -4668,28 +4856,34 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C44" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" s="20">
+        <v>96</v>
+      </c>
+      <c r="E44" s="18">
         <v>30</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>152</v>
+        <v>693</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -4697,28 +4891,37 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C45" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45" s="21">
+        <v>96</v>
+      </c>
+      <c r="E45" s="19">
         <v>100</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>152</v>
+        <v>694</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -4726,28 +4929,34 @@
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C49" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="21">
+        <v>96</v>
+      </c>
+      <c r="E49" s="19">
         <v>100</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="G49" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="I49" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>152</v>
+        <v>691</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -4755,31 +4964,31 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C50" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="D50" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="20">
+        <v>96</v>
+      </c>
+      <c r="E50" s="18">
         <v>30</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>41</v>
+        <v>434</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>152</v>
+        <v>696</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -4787,31 +4996,34 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C51" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="D51" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" s="21">
+        <v>96</v>
+      </c>
+      <c r="E51" s="19">
         <v>100</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="H51" s="1" t="s">
+        <v>434</v>
+      </c>
       <c r="I51" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>152</v>
+        <v>695</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -4819,28 +5031,28 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C52" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E52" s="19">
+        <v>96</v>
+      </c>
+      <c r="E52" s="17">
         <v>10</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>152</v>
+        <v>689</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -4848,31 +5060,31 @@
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C53" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="D53" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" s="19">
+        <v>96</v>
+      </c>
+      <c r="E53" s="17">
         <v>10</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>152</v>
+        <v>689</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -4880,31 +5092,31 @@
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C54" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="D54" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" s="20">
+        <v>96</v>
+      </c>
+      <c r="E54" s="18">
         <v>30</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>152</v>
+        <v>697</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -4912,28 +5124,31 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C55" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="D55" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="20">
-        <v>30</v>
+        <v>96</v>
+      </c>
+      <c r="E55" s="19">
+        <v>100</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>452</v>
+        <v>437</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>446</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>152</v>
+        <v>698</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -4941,28 +5156,28 @@
         <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C56" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="D56" t="s">
-        <v>99</v>
-      </c>
-      <c r="E56" s="19">
+        <v>96</v>
+      </c>
+      <c r="E56" s="17">
         <v>10</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>152</v>
+        <v>689</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -4970,28 +5185,31 @@
         <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C57" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="D57" t="s">
-        <v>99</v>
-      </c>
-      <c r="E57" s="20">
-        <v>30</v>
+        <v>96</v>
+      </c>
+      <c r="E57" s="19">
+        <v>100</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>152</v>
+        <v>690</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -4999,28 +5217,28 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C58" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="D58" t="s">
-        <v>99</v>
-      </c>
-      <c r="E58" s="19">
-        <v>10</v>
+        <v>96</v>
+      </c>
+      <c r="E58" s="18">
+        <v>30</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>152</v>
+        <v>693</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -5028,31 +5246,31 @@
         <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C62" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="D62" t="s">
-        <v>99</v>
-      </c>
-      <c r="E62" s="19">
+        <v>96</v>
+      </c>
+      <c r="E62" s="17">
         <v>10</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>495</v>
+        <v>31</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>152</v>
+        <v>689</v>
       </c>
       <c r="K62" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -5060,31 +5278,31 @@
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C63" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="D63" t="s">
-        <v>99</v>
-      </c>
-      <c r="E63" s="20">
+        <v>96</v>
+      </c>
+      <c r="E63" s="18">
         <v>30</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>152</v>
+        <v>691</v>
       </c>
       <c r="K63" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -5092,34 +5310,37 @@
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C64" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
-      </c>
-      <c r="E64" s="21">
+        <v>96</v>
+      </c>
+      <c r="E64" s="19">
         <v>100</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>152</v>
+        <v>692</v>
       </c>
       <c r="K64" s="15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -5132,163 +5353,181 @@
       <c r="J65" s="14"/>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C66" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="D66" t="s">
-        <v>289</v>
-      </c>
-      <c r="E66" s="21">
+        <v>283</v>
+      </c>
+      <c r="E66" s="19">
         <v>100</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>699</v>
       </c>
       <c r="K66" s="15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C67" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="D67" t="s">
-        <v>288</v>
-      </c>
-      <c r="E67" s="21">
+        <v>282</v>
+      </c>
+      <c r="E67" s="19">
         <v>100</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>700</v>
       </c>
       <c r="K67" s="15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C68" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="D68" t="s">
-        <v>288</v>
-      </c>
-      <c r="E68" s="21">
+        <v>282</v>
+      </c>
+      <c r="E68" s="19">
         <v>100</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>701</v>
       </c>
       <c r="K68" s="15" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C69" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="D69" t="s">
-        <v>288</v>
-      </c>
-      <c r="E69" s="21">
+        <v>282</v>
+      </c>
+      <c r="E69" s="19">
         <v>100</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>700</v>
       </c>
       <c r="K69" s="15" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>64</v>
       </c>
       <c r="B70" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C70" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="D70" t="s">
-        <v>288</v>
-      </c>
-      <c r="E70" s="20">
-        <v>30</v>
+        <v>282</v>
+      </c>
+      <c r="E70" s="19">
+        <v>100</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>707</v>
       </c>
       <c r="K70" s="15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C71" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="D71" t="s">
-        <v>288</v>
-      </c>
-      <c r="E71" s="21">
+        <v>282</v>
+      </c>
+      <c r="E71" s="19">
         <v>100</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>700</v>
       </c>
       <c r="K71" s="15" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -5301,304 +5540,331 @@
       <c r="J72" s="14"/>
       <c r="K72" s="16"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="C73" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="D73" t="s">
-        <v>236</v>
-      </c>
-      <c r="E73" s="19">
+        <v>231</v>
+      </c>
+      <c r="E73" s="17">
         <v>10</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>257</v>
+        <v>684</v>
       </c>
       <c r="K73" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="L73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>67</v>
       </c>
       <c r="B74" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="C74" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="D74" t="s">
-        <v>236</v>
-      </c>
-      <c r="E74" s="20">
+        <v>231</v>
+      </c>
+      <c r="E74" s="18">
         <v>30</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>257</v>
+        <v>702</v>
       </c>
       <c r="K74" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="L74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="C75" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="D75" t="s">
-        <v>236</v>
-      </c>
-      <c r="E75" s="21">
+        <v>231</v>
+      </c>
+      <c r="E75" s="19">
         <v>100</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>257</v>
+        <v>704</v>
       </c>
       <c r="K75" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="L75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>69</v>
       </c>
       <c r="B76" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C76" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="D76" t="s">
-        <v>236</v>
-      </c>
-      <c r="E76" s="19">
+        <v>231</v>
+      </c>
+      <c r="E76" s="17">
         <v>10</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>257</v>
+        <v>703</v>
       </c>
       <c r="K76" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="L76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="C77" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="D77" t="s">
-        <v>236</v>
-      </c>
-      <c r="E77" s="20">
+        <v>231</v>
+      </c>
+      <c r="E77" s="18">
         <v>30</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>257</v>
+        <v>705</v>
       </c>
       <c r="K77" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="L77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>71</v>
       </c>
       <c r="B78" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="C78" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="D78" t="s">
-        <v>236</v>
-      </c>
-      <c r="E78" s="21">
+        <v>231</v>
+      </c>
+      <c r="E78" s="19">
         <v>100</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>257</v>
+        <v>706</v>
       </c>
       <c r="K78" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="L78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>72</v>
       </c>
       <c r="B79" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="C79" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="D79" t="s">
-        <v>236</v>
-      </c>
-      <c r="E79" s="19">
+        <v>231</v>
+      </c>
+      <c r="E79" s="17">
         <v>10</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>257</v>
+        <v>708</v>
       </c>
       <c r="K79" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="L79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>73</v>
       </c>
       <c r="B80" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C80" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="D80" t="s">
-        <v>236</v>
-      </c>
-      <c r="E80" s="20">
+        <v>231</v>
+      </c>
+      <c r="E80" s="18">
         <v>30</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>257</v>
+        <v>709</v>
       </c>
       <c r="K80" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="L80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C81" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="D81" t="s">
-        <v>236</v>
-      </c>
-      <c r="E81" s="21">
+        <v>231</v>
+      </c>
+      <c r="E81" s="19">
         <v>100</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>257</v>
+        <v>710</v>
       </c>
       <c r="K81" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="L81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -5611,443 +5877,443 @@
       <c r="J82" s="14"/>
       <c r="K82" s="16"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>75</v>
       </c>
       <c r="B83" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C83" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="D83" t="s">
-        <v>260</v>
-      </c>
-      <c r="E83" s="19">
+        <v>254</v>
+      </c>
+      <c r="E83" s="17">
         <v>10</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>76</v>
       </c>
       <c r="B84" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C84" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="D84" t="s">
-        <v>260</v>
-      </c>
-      <c r="E84" s="20">
+        <v>254</v>
+      </c>
+      <c r="E84" s="18">
         <v>30</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>77</v>
       </c>
       <c r="B85" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C85" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="D85" t="s">
-        <v>260</v>
-      </c>
-      <c r="E85" s="21">
+        <v>254</v>
+      </c>
+      <c r="E85" s="19">
         <v>100</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>78</v>
       </c>
       <c r="B86" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C86" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="D86" t="s">
-        <v>260</v>
-      </c>
-      <c r="E86" s="19">
+        <v>254</v>
+      </c>
+      <c r="E86" s="17">
         <v>10</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K86" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>79</v>
       </c>
       <c r="B87" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C87" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="D87" t="s">
-        <v>260</v>
-      </c>
-      <c r="E87" s="20">
+        <v>254</v>
+      </c>
+      <c r="E87" s="18">
         <v>30</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K87" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>80</v>
       </c>
       <c r="B88" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C88" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="D88" t="s">
-        <v>260</v>
-      </c>
-      <c r="E88" s="21">
+        <v>254</v>
+      </c>
+      <c r="E88" s="19">
         <v>100</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K88" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>81</v>
       </c>
       <c r="B89" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C89" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="D89" t="s">
-        <v>260</v>
-      </c>
-      <c r="E89" s="19">
+        <v>254</v>
+      </c>
+      <c r="E89" s="17">
         <v>10</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K89" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>82</v>
       </c>
       <c r="B90" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C90" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="D90" t="s">
-        <v>260</v>
-      </c>
-      <c r="E90" s="20">
+        <v>254</v>
+      </c>
+      <c r="E90" s="18">
         <v>30</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K90" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C91" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="D91" t="s">
-        <v>260</v>
-      </c>
-      <c r="E91" s="21">
+        <v>254</v>
+      </c>
+      <c r="E91" s="19">
         <v>100</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K91" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>84</v>
       </c>
       <c r="B92" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C92" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="D92" t="s">
-        <v>260</v>
-      </c>
-      <c r="E92" s="20">
+        <v>254</v>
+      </c>
+      <c r="E92" s="18">
         <v>30</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K92" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>85</v>
       </c>
       <c r="B93" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C93" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="D93" t="s">
-        <v>260</v>
-      </c>
-      <c r="E93" s="19">
+        <v>254</v>
+      </c>
+      <c r="E93" s="17">
         <v>10</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K93" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>86</v>
       </c>
       <c r="B94" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C94" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="D94" t="s">
-        <v>260</v>
-      </c>
-      <c r="E94" s="19">
+        <v>254</v>
+      </c>
+      <c r="E94" s="17">
         <v>10</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K94" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>87</v>
       </c>
       <c r="B95" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C95" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D95" t="s">
-        <v>260</v>
-      </c>
-      <c r="E95" s="20">
+        <v>254</v>
+      </c>
+      <c r="E95" s="18">
         <v>30</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K95" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>88</v>
       </c>
       <c r="B96" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C96" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D96" t="s">
-        <v>260</v>
-      </c>
-      <c r="E96" s="20">
+        <v>254</v>
+      </c>
+      <c r="E96" s="18">
         <v>30</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K96" s="15" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -6055,31 +6321,31 @@
         <v>89</v>
       </c>
       <c r="B97" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C97" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="D97" t="s">
-        <v>260</v>
-      </c>
-      <c r="E97" s="20">
+        <v>254</v>
+      </c>
+      <c r="E97" s="18">
         <v>30</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K97" s="15" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -6087,31 +6353,31 @@
         <v>90</v>
       </c>
       <c r="B98" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C98" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="D98" t="s">
-        <v>260</v>
-      </c>
-      <c r="E98" s="20">
+        <v>254</v>
+      </c>
+      <c r="E98" s="18">
         <v>30</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K98" s="15" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
@@ -6119,31 +6385,31 @@
         <v>91</v>
       </c>
       <c r="B99" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C99" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="D99" t="s">
-        <v>260</v>
-      </c>
-      <c r="E99" s="19">
+        <v>254</v>
+      </c>
+      <c r="E99" s="17">
         <v>10</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K99" s="15" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
@@ -6151,31 +6417,31 @@
         <v>92</v>
       </c>
       <c r="B100" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C100" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="D100" t="s">
-        <v>260</v>
-      </c>
-      <c r="E100" s="21">
+        <v>254</v>
+      </c>
+      <c r="E100" s="19">
         <v>100</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K100" s="15" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -6183,31 +6449,31 @@
         <v>93</v>
       </c>
       <c r="B101" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C101" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="D101" t="s">
-        <v>260</v>
-      </c>
-      <c r="E101" s="19">
+        <v>254</v>
+      </c>
+      <c r="E101" s="17">
         <v>10</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K101" s="15" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -6215,31 +6481,31 @@
         <v>94</v>
       </c>
       <c r="B102" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C102" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="D102" t="s">
-        <v>260</v>
-      </c>
-      <c r="E102" s="20">
+        <v>254</v>
+      </c>
+      <c r="E102" s="18">
         <v>30</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K102" s="15" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
@@ -6247,31 +6513,31 @@
         <v>95</v>
       </c>
       <c r="B103" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C103" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="D103" t="s">
-        <v>260</v>
-      </c>
-      <c r="E103" s="21">
+        <v>254</v>
+      </c>
+      <c r="E103" s="19">
         <v>100</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K103" s="15" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -6279,31 +6545,31 @@
         <v>96</v>
       </c>
       <c r="B104" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C104" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="D104" t="s">
-        <v>260</v>
-      </c>
-      <c r="E104" s="19">
+        <v>254</v>
+      </c>
+      <c r="E104" s="17">
         <v>10</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K104" s="15" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -6311,31 +6577,31 @@
         <v>97</v>
       </c>
       <c r="B105" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C105" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="D105" t="s">
-        <v>260</v>
-      </c>
-      <c r="E105" s="20">
+        <v>254</v>
+      </c>
+      <c r="E105" s="18">
         <v>30</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K105" s="15" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
@@ -6343,31 +6609,31 @@
         <v>98</v>
       </c>
       <c r="B106" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C106" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="D106" t="s">
-        <v>260</v>
-      </c>
-      <c r="E106" s="21">
+        <v>254</v>
+      </c>
+      <c r="E106" s="19">
         <v>100</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K106" s="15" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
@@ -6388,31 +6654,31 @@
         <v>99</v>
       </c>
       <c r="B108" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C108" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="D108" t="s">
-        <v>102</v>
-      </c>
-      <c r="E108" s="19">
+        <v>99</v>
+      </c>
+      <c r="E108" s="17">
         <v>10</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K108" s="15" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -6420,31 +6686,31 @@
         <v>100</v>
       </c>
       <c r="B109" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C109" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="D109" t="s">
-        <v>102</v>
-      </c>
-      <c r="E109" s="20">
+        <v>99</v>
+      </c>
+      <c r="E109" s="18">
         <v>30</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K109" s="15" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
@@ -6452,31 +6718,31 @@
         <v>101</v>
       </c>
       <c r="B110" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C110" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="D110" t="s">
-        <v>102</v>
-      </c>
-      <c r="E110" s="21">
+        <v>99</v>
+      </c>
+      <c r="E110" s="19">
         <v>100</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K110" s="15" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -6484,31 +6750,31 @@
         <v>102</v>
       </c>
       <c r="B111" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C111" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="D111" t="s">
-        <v>102</v>
-      </c>
-      <c r="E111" s="19">
+        <v>99</v>
+      </c>
+      <c r="E111" s="17">
         <v>10</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K111" s="15" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
@@ -6516,31 +6782,31 @@
         <v>103</v>
       </c>
       <c r="B112" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C112" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="D112" t="s">
-        <v>102</v>
-      </c>
-      <c r="E112" s="20">
+        <v>99</v>
+      </c>
+      <c r="E112" s="18">
         <v>30</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K112" s="15" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
@@ -6548,31 +6814,31 @@
         <v>104</v>
       </c>
       <c r="B113" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C113" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="D113" t="s">
-        <v>102</v>
-      </c>
-      <c r="E113" s="21">
+        <v>99</v>
+      </c>
+      <c r="E113" s="19">
         <v>100</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K113" s="15" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
@@ -6580,31 +6846,31 @@
         <v>105</v>
       </c>
       <c r="B114" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C114" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="D114" t="s">
-        <v>102</v>
-      </c>
-      <c r="E114" s="20">
+        <v>99</v>
+      </c>
+      <c r="E114" s="18">
         <v>30</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K114" s="15" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -6612,31 +6878,31 @@
         <v>106</v>
       </c>
       <c r="B115" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C115" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="D115" t="s">
-        <v>102</v>
-      </c>
-      <c r="E115" s="19">
+        <v>99</v>
+      </c>
+      <c r="E115" s="17">
         <v>10</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K115" s="15" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
@@ -6644,31 +6910,31 @@
         <v>107</v>
       </c>
       <c r="B116" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C116" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="D116" t="s">
-        <v>102</v>
-      </c>
-      <c r="E116" s="20">
+        <v>99</v>
+      </c>
+      <c r="E116" s="18">
         <v>30</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K116" s="15" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
@@ -6676,31 +6942,31 @@
         <v>108</v>
       </c>
       <c r="B117" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C117" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="D117" t="s">
-        <v>102</v>
-      </c>
-      <c r="E117" s="21">
+        <v>99</v>
+      </c>
+      <c r="E117" s="19">
         <v>100</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K117" s="15" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -6708,31 +6974,31 @@
         <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C118" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="D118" t="s">
-        <v>102</v>
-      </c>
-      <c r="E118" s="21">
+        <v>99</v>
+      </c>
+      <c r="E118" s="19">
         <v>100</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K118" s="15" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
@@ -6740,31 +7006,31 @@
         <v>110</v>
       </c>
       <c r="B119" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C119" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="D119" t="s">
-        <v>102</v>
-      </c>
-      <c r="E119" s="20">
+        <v>99</v>
+      </c>
+      <c r="E119" s="18">
         <v>30</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K119" s="15" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
@@ -6772,31 +7038,31 @@
         <v>111</v>
       </c>
       <c r="B120" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C120" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="D120" t="s">
-        <v>102</v>
-      </c>
-      <c r="E120" s="20">
+        <v>99</v>
+      </c>
+      <c r="E120" s="18">
         <v>30</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K120" s="15" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
@@ -6804,31 +7070,31 @@
         <v>112</v>
       </c>
       <c r="B121" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C121" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="D121" t="s">
-        <v>102</v>
-      </c>
-      <c r="E121" s="20">
+        <v>99</v>
+      </c>
+      <c r="E121" s="18">
         <v>30</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K121" s="15" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
@@ -6836,31 +7102,31 @@
         <v>113</v>
       </c>
       <c r="B122" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C122" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="D122" t="s">
-        <v>102</v>
-      </c>
-      <c r="E122" s="20">
+        <v>99</v>
+      </c>
+      <c r="E122" s="18">
         <v>30</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K122" s="15" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
@@ -6868,31 +7134,31 @@
         <v>114</v>
       </c>
       <c r="B123" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C123" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="D123" t="s">
-        <v>102</v>
-      </c>
-      <c r="E123" s="19">
+        <v>99</v>
+      </c>
+      <c r="E123" s="17">
         <v>10</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K123" s="15" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -6913,31 +7179,31 @@
         <v>115</v>
       </c>
       <c r="B125" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C125" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="D125" t="s">
-        <v>346</v>
-      </c>
-      <c r="E125" s="19">
+        <v>340</v>
+      </c>
+      <c r="E125" s="17">
         <v>10</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K125" s="15" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
@@ -6945,31 +7211,31 @@
         <v>116</v>
       </c>
       <c r="B126" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C126" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="D126" t="s">
-        <v>346</v>
-      </c>
-      <c r="E126" s="20">
+        <v>340</v>
+      </c>
+      <c r="E126" s="18">
         <v>30</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K126" s="15" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
@@ -6977,31 +7243,31 @@
         <v>117</v>
       </c>
       <c r="B127" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C127" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="D127" t="s">
-        <v>346</v>
-      </c>
-      <c r="E127" s="21">
+        <v>340</v>
+      </c>
+      <c r="E127" s="19">
         <v>100</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K127" s="15" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
@@ -7009,98 +7275,98 @@
         <v>118</v>
       </c>
       <c r="B128" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C128" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="D128" t="s">
-        <v>346</v>
-      </c>
-      <c r="E128" s="19">
+        <v>340</v>
+      </c>
+      <c r="E128" s="17">
         <v>10</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K128" s="15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>119</v>
       </c>
       <c r="B129" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C129" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="D129" t="s">
-        <v>346</v>
-      </c>
-      <c r="E129" s="20">
+        <v>340</v>
+      </c>
+      <c r="E129" s="18">
         <v>30</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K129" s="15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C130" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="D130" t="s">
-        <v>364</v>
-      </c>
-      <c r="E130" s="21">
+        <v>358</v>
+      </c>
+      <c r="E130" s="19">
         <v>100</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K130" s="15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -7113,355 +7379,382 @@
       <c r="J131" s="14"/>
       <c r="K131" s="16"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>121</v>
       </c>
       <c r="B132" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C132" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="D132" t="s">
-        <v>365</v>
-      </c>
-      <c r="E132" s="19">
+        <v>359</v>
+      </c>
+      <c r="E132" s="17">
         <v>10</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>122</v>
       </c>
       <c r="B133" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C133" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="D133" t="s">
-        <v>365</v>
-      </c>
-      <c r="E133" s="19">
+        <v>359</v>
+      </c>
+      <c r="E133" s="17">
         <v>10</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="L133" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>123</v>
       </c>
       <c r="B134" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C134" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="D134" t="s">
-        <v>365</v>
-      </c>
-      <c r="E134" s="19">
+        <v>359</v>
+      </c>
+      <c r="E134" s="17">
         <v>10</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>124</v>
       </c>
       <c r="B135" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C135" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="D135" t="s">
-        <v>365</v>
-      </c>
-      <c r="E135" s="20">
+        <v>359</v>
+      </c>
+      <c r="E135" s="18">
         <v>30</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="L135" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>125</v>
       </c>
       <c r="B136" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C136" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D136" t="s">
-        <v>365</v>
-      </c>
-      <c r="E136" s="20">
+        <v>359</v>
+      </c>
+      <c r="E136" s="18">
         <v>30</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="L136" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>126</v>
       </c>
       <c r="B137" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C137" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D137" t="s">
-        <v>365</v>
-      </c>
-      <c r="E137" s="19">
+        <v>359</v>
+      </c>
+      <c r="E137" s="17">
         <v>10</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="L137" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>127</v>
       </c>
       <c r="B138" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C138" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="D138" t="s">
-        <v>365</v>
-      </c>
-      <c r="E138" s="20">
+        <v>359</v>
+      </c>
+      <c r="E138" s="18">
         <v>30</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="L138" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>128</v>
       </c>
       <c r="B139" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C139" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="D139" t="s">
-        <v>365</v>
-      </c>
-      <c r="E139" s="21">
+        <v>359</v>
+      </c>
+      <c r="E139" s="19">
         <v>100</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="L139" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>129</v>
       </c>
       <c r="B140" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C140" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D140" t="s">
-        <v>365</v>
-      </c>
-      <c r="E140" s="20">
+        <v>359</v>
+      </c>
+      <c r="E140" s="18">
         <v>30</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>130</v>
       </c>
       <c r="B141" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C141" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="D141" t="s">
-        <v>365</v>
-      </c>
-      <c r="E141" s="19">
+        <v>359</v>
+      </c>
+      <c r="E141" s="17">
         <v>10</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="L141" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>131</v>
       </c>
       <c r="B142" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C142" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="D142" t="s">
-        <v>365</v>
-      </c>
-      <c r="E142" s="20">
+        <v>359</v>
+      </c>
+      <c r="E142" s="18">
         <v>30</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="L142" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>132</v>
       </c>
       <c r="B143" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C143" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="D143" t="s">
-        <v>365</v>
-      </c>
-      <c r="E143" s="21">
+        <v>359</v>
+      </c>
+      <c r="E143" s="19">
         <v>100</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="L143" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="12"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -7479,25 +7772,25 @@
         <v>133</v>
       </c>
       <c r="B145" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C145" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="D145" t="s">
-        <v>107</v>
-      </c>
-      <c r="E145" s="19">
+        <v>104</v>
+      </c>
+      <c r="E145" s="17">
         <v>10</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L145" s="4">
         <v>1</v>
@@ -7508,25 +7801,25 @@
         <v>134</v>
       </c>
       <c r="B146" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C146" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="D146" t="s">
-        <v>107</v>
-      </c>
-      <c r="E146" s="20">
+        <v>104</v>
+      </c>
+      <c r="E146" s="18">
         <v>30</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L146" s="4">
         <v>1</v>
@@ -7537,25 +7830,25 @@
         <v>135</v>
       </c>
       <c r="B147" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C147" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="D147" t="s">
-        <v>107</v>
-      </c>
-      <c r="E147" s="21">
+        <v>104</v>
+      </c>
+      <c r="E147" s="19">
         <v>100</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L147" s="4">
         <v>1</v>
@@ -7566,25 +7859,25 @@
         <v>136</v>
       </c>
       <c r="B148" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C148" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="D148" t="s">
-        <v>107</v>
-      </c>
-      <c r="E148" s="19">
+        <v>104</v>
+      </c>
+      <c r="E148" s="17">
         <v>10</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L148" s="4">
         <v>1</v>
@@ -7595,25 +7888,25 @@
         <v>137</v>
       </c>
       <c r="B149" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C149" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="D149" t="s">
-        <v>107</v>
-      </c>
-      <c r="E149" s="20">
+        <v>104</v>
+      </c>
+      <c r="E149" s="18">
         <v>30</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L149" s="4">
         <v>1</v>
@@ -7624,25 +7917,25 @@
         <v>138</v>
       </c>
       <c r="B150" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C150" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="D150" t="s">
-        <v>107</v>
-      </c>
-      <c r="E150" s="21">
+        <v>104</v>
+      </c>
+      <c r="E150" s="19">
         <v>100</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L150" s="4">
         <v>1</v>
@@ -7653,25 +7946,25 @@
         <v>139</v>
       </c>
       <c r="B151" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C151" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="D151" t="s">
-        <v>107</v>
-      </c>
-      <c r="E151" s="19">
+        <v>104</v>
+      </c>
+      <c r="E151" s="17">
         <v>10</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L151" s="4">
         <v>1</v>
@@ -7682,25 +7975,25 @@
         <v>140</v>
       </c>
       <c r="B152" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C152" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="D152" t="s">
-        <v>107</v>
-      </c>
-      <c r="E152" s="19">
+        <v>104</v>
+      </c>
+      <c r="E152" s="17">
         <v>10</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L152" s="4">
         <v>1</v>
@@ -7711,25 +8004,25 @@
         <v>141</v>
       </c>
       <c r="B153" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C153" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="D153" t="s">
-        <v>107</v>
-      </c>
-      <c r="E153" s="20">
+        <v>104</v>
+      </c>
+      <c r="E153" s="18">
         <v>30</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L153" s="4">
         <v>1</v>
@@ -7740,25 +8033,25 @@
         <v>142</v>
       </c>
       <c r="B154" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C154" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="D154" t="s">
-        <v>107</v>
-      </c>
-      <c r="E154" s="20">
+        <v>104</v>
+      </c>
+      <c r="E154" s="18">
         <v>30</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L154" s="4">
         <v>1</v>
@@ -7769,25 +8062,25 @@
         <v>143</v>
       </c>
       <c r="B155" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C155" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="D155" t="s">
-        <v>107</v>
-      </c>
-      <c r="E155" s="21">
+        <v>104</v>
+      </c>
+      <c r="E155" s="19">
         <v>100</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L155" s="4">
         <v>1</v>
@@ -7798,25 +8091,25 @@
         <v>144</v>
       </c>
       <c r="B156" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C156" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D156" t="s">
-        <v>107</v>
-      </c>
-      <c r="E156" s="19">
+        <v>104</v>
+      </c>
+      <c r="E156" s="17">
         <v>10</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L156" s="4">
         <v>1</v>
@@ -7827,25 +8120,25 @@
         <v>145</v>
       </c>
       <c r="B157" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C157" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="D157" t="s">
-        <v>107</v>
-      </c>
-      <c r="E157" s="20">
+        <v>104</v>
+      </c>
+      <c r="E157" s="18">
         <v>30</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L157" s="4">
         <v>1</v>
@@ -7856,25 +8149,25 @@
         <v>146</v>
       </c>
       <c r="B158" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C158" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="D158" t="s">
-        <v>107</v>
-      </c>
-      <c r="E158" s="21">
+        <v>104</v>
+      </c>
+      <c r="E158" s="19">
         <v>100</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L158" s="4">
         <v>1</v>
@@ -7885,25 +8178,25 @@
         <v>147</v>
       </c>
       <c r="B159" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C159" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="D159" t="s">
-        <v>107</v>
-      </c>
-      <c r="E159" s="19">
+        <v>104</v>
+      </c>
+      <c r="E159" s="17">
         <v>10</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L159" s="4">
         <v>1</v>
@@ -7914,25 +8207,25 @@
         <v>148</v>
       </c>
       <c r="B160" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C160" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="D160" t="s">
-        <v>107</v>
-      </c>
-      <c r="E160" s="20">
+        <v>104</v>
+      </c>
+      <c r="E160" s="18">
         <v>30</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L160" s="4">
         <v>1</v>
@@ -7943,25 +8236,25 @@
         <v>149</v>
       </c>
       <c r="B161" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C161" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="D161" t="s">
-        <v>107</v>
-      </c>
-      <c r="E161" s="21">
+        <v>104</v>
+      </c>
+      <c r="E161" s="19">
         <v>100</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L161" s="4">
         <v>1</v>
@@ -7972,25 +8265,25 @@
         <v>150</v>
       </c>
       <c r="B162" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C162" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="D162" t="s">
-        <v>107</v>
-      </c>
-      <c r="E162" s="19">
+        <v>104</v>
+      </c>
+      <c r="E162" s="17">
         <v>10</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L162" s="4">
         <v>1</v>
@@ -8001,25 +8294,25 @@
         <v>151</v>
       </c>
       <c r="B163" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C163" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="D163" t="s">
-        <v>107</v>
-      </c>
-      <c r="E163" s="20">
+        <v>104</v>
+      </c>
+      <c r="E163" s="18">
         <v>30</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L163" s="4">
         <v>1</v>
@@ -8030,25 +8323,25 @@
         <v>152</v>
       </c>
       <c r="B164" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C164" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="D164" t="s">
-        <v>107</v>
-      </c>
-      <c r="E164" s="21">
+        <v>104</v>
+      </c>
+      <c r="E164" s="19">
         <v>100</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L164" s="4">
         <v>1</v>
@@ -8059,25 +8352,25 @@
         <v>153</v>
       </c>
       <c r="B165" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C165" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="D165" t="s">
-        <v>107</v>
-      </c>
-      <c r="E165" s="19">
+        <v>104</v>
+      </c>
+      <c r="E165" s="17">
         <v>10</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L165" s="4">
         <v>1</v>
@@ -8088,25 +8381,25 @@
         <v>154</v>
       </c>
       <c r="B166" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C166" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="D166" t="s">
-        <v>107</v>
-      </c>
-      <c r="E166" s="19">
+        <v>104</v>
+      </c>
+      <c r="E166" s="17">
         <v>10</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L166" s="4">
         <v>1</v>
@@ -8117,25 +8410,25 @@
         <v>155</v>
       </c>
       <c r="B167" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C167" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="D167" t="s">
-        <v>107</v>
-      </c>
-      <c r="E167" s="20">
+        <v>104</v>
+      </c>
+      <c r="E167" s="18">
         <v>30</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L167" s="4">
         <v>1</v>
@@ -8146,25 +8439,25 @@
         <v>156</v>
       </c>
       <c r="B168" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C168" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="D168" t="s">
-        <v>107</v>
-      </c>
-      <c r="E168" s="20">
+        <v>104</v>
+      </c>
+      <c r="E168" s="18">
         <v>30</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L168" s="4">
         <v>1</v>
@@ -8175,28 +8468,28 @@
         <v>157</v>
       </c>
       <c r="B169" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C169" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="D169" t="s">
-        <v>107</v>
-      </c>
-      <c r="E169" s="21">
+        <v>104</v>
+      </c>
+      <c r="E169" s="19">
         <v>100</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K169" s="15" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L169" s="4">
         <v>1</v>
@@ -8207,25 +8500,25 @@
         <v>158</v>
       </c>
       <c r="B170" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C170" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="D170" t="s">
-        <v>107</v>
-      </c>
-      <c r="E170" s="19">
+        <v>104</v>
+      </c>
+      <c r="E170" s="17">
         <v>10</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L170" s="4">
         <v>1</v>
@@ -8236,25 +8529,25 @@
         <v>159</v>
       </c>
       <c r="B171" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C171" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="D171" t="s">
-        <v>107</v>
-      </c>
-      <c r="E171" s="19">
+        <v>104</v>
+      </c>
+      <c r="E171" s="17">
         <v>10</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L171" s="4">
         <v>1</v>
@@ -8265,25 +8558,25 @@
         <v>160</v>
       </c>
       <c r="B172" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C172" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="D172" t="s">
-        <v>107</v>
-      </c>
-      <c r="E172" s="20">
+        <v>104</v>
+      </c>
+      <c r="E172" s="18">
         <v>30</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L172" s="4">
         <v>1</v>
@@ -8294,25 +8587,25 @@
         <v>161</v>
       </c>
       <c r="B173" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C173" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="D173" t="s">
-        <v>107</v>
-      </c>
-      <c r="E173" s="20">
+        <v>104</v>
+      </c>
+      <c r="E173" s="18">
         <v>30</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L173" s="4">
         <v>1</v>
@@ -8323,25 +8616,25 @@
         <v>162</v>
       </c>
       <c r="B174" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C174" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="D174" t="s">
-        <v>107</v>
-      </c>
-      <c r="E174" s="21">
+        <v>104</v>
+      </c>
+      <c r="E174" s="19">
         <v>100</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L174" s="4">
         <v>1</v>
@@ -8352,25 +8645,25 @@
         <v>163</v>
       </c>
       <c r="B175" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C175" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="D175" t="s">
-        <v>107</v>
-      </c>
-      <c r="E175" s="19">
+        <v>104</v>
+      </c>
+      <c r="E175" s="17">
         <v>10</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L175" s="4">
         <v>1</v>
@@ -8381,25 +8674,25 @@
         <v>164</v>
       </c>
       <c r="B176" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C176" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="D176" t="s">
-        <v>107</v>
-      </c>
-      <c r="E176" s="19">
+        <v>104</v>
+      </c>
+      <c r="E176" s="17">
         <v>10</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L176" s="4">
         <v>1</v>
@@ -8410,25 +8703,25 @@
         <v>165</v>
       </c>
       <c r="B177" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C177" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="D177" t="s">
-        <v>107</v>
-      </c>
-      <c r="E177" s="20">
+        <v>104</v>
+      </c>
+      <c r="E177" s="18">
         <v>30</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L177" s="4">
         <v>1</v>
@@ -8439,25 +8732,25 @@
         <v>166</v>
       </c>
       <c r="B178" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C178" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="D178" t="s">
-        <v>107</v>
-      </c>
-      <c r="E178" s="20">
+        <v>104</v>
+      </c>
+      <c r="E178" s="18">
         <v>30</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L178" s="4">
         <v>1</v>
@@ -8468,25 +8761,25 @@
         <v>167</v>
       </c>
       <c r="B179" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C179" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="D179" t="s">
-        <v>107</v>
-      </c>
-      <c r="E179" s="21">
+        <v>104</v>
+      </c>
+      <c r="E179" s="19">
         <v>100</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L179" s="4">
         <v>1</v>
@@ -8497,25 +8790,25 @@
         <v>168</v>
       </c>
       <c r="B180" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C180" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="D180" t="s">
-        <v>107</v>
-      </c>
-      <c r="E180" s="19">
+        <v>104</v>
+      </c>
+      <c r="E180" s="17">
         <v>10</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L180" s="4">
         <v>1</v>
@@ -8526,25 +8819,25 @@
         <v>169</v>
       </c>
       <c r="B181" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C181" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="D181" t="s">
-        <v>107</v>
-      </c>
-      <c r="E181" s="19">
+        <v>104</v>
+      </c>
+      <c r="E181" s="17">
         <v>10</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L181" s="4">
         <v>1</v>
@@ -8555,25 +8848,25 @@
         <v>170</v>
       </c>
       <c r="B182" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C182" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="D182" t="s">
-        <v>107</v>
-      </c>
-      <c r="E182" s="20">
+        <v>104</v>
+      </c>
+      <c r="E182" s="18">
         <v>30</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L182" s="4">
         <v>1</v>
@@ -8584,25 +8877,25 @@
         <v>171</v>
       </c>
       <c r="B183" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C183" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="D183" t="s">
-        <v>107</v>
-      </c>
-      <c r="E183" s="20">
+        <v>104</v>
+      </c>
+      <c r="E183" s="18">
         <v>30</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L183" s="4">
         <v>1</v>
@@ -8613,25 +8906,25 @@
         <v>172</v>
       </c>
       <c r="B184" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C184" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="D184" t="s">
-        <v>107</v>
-      </c>
-      <c r="E184" s="21">
+        <v>104</v>
+      </c>
+      <c r="E184" s="19">
         <v>100</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L184" s="4">
         <v>1</v>
@@ -8642,25 +8935,25 @@
         <v>173</v>
       </c>
       <c r="B185" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C185" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="D185" t="s">
-        <v>107</v>
-      </c>
-      <c r="E185" s="19">
+        <v>104</v>
+      </c>
+      <c r="E185" s="17">
         <v>10</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L185" s="4">
         <v>1</v>
@@ -8671,25 +8964,25 @@
         <v>174</v>
       </c>
       <c r="B186" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C186" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="D186" t="s">
-        <v>107</v>
-      </c>
-      <c r="E186" s="20">
+        <v>104</v>
+      </c>
+      <c r="E186" s="18">
         <v>30</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L186" s="4">
         <v>1</v>
@@ -8700,25 +8993,25 @@
         <v>175</v>
       </c>
       <c r="B187" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C187" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="D187" t="s">
-        <v>107</v>
-      </c>
-      <c r="E187" s="21">
+        <v>104</v>
+      </c>
+      <c r="E187" s="19">
         <v>100</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L187" s="4">
         <v>1</v>
@@ -8742,28 +9035,28 @@
         <v>176</v>
       </c>
       <c r="B189" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C189" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="D189" t="s">
-        <v>423</v>
-      </c>
-      <c r="E189" s="19">
+        <v>417</v>
+      </c>
+      <c r="E189" s="17">
         <v>10</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
@@ -8771,28 +9064,28 @@
         <v>177</v>
       </c>
       <c r="B190" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C190" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="D190" t="s">
-        <v>423</v>
-      </c>
-      <c r="E190" s="20">
+        <v>417</v>
+      </c>
+      <c r="E190" s="18">
         <v>30</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
@@ -8800,28 +9093,28 @@
         <v>178</v>
       </c>
       <c r="B191" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C191" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="D191" t="s">
-        <v>423</v>
-      </c>
-      <c r="E191" s="21">
+        <v>417</v>
+      </c>
+      <c r="E191" s="19">
         <v>100</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -8829,28 +9122,28 @@
         <v>179</v>
       </c>
       <c r="B192" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C192" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="D192" t="s">
-        <v>423</v>
-      </c>
-      <c r="E192" s="19">
+        <v>417</v>
+      </c>
+      <c r="E192" s="17">
         <v>10</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
@@ -8858,28 +9151,28 @@
         <v>180</v>
       </c>
       <c r="B193" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C193" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="D193" t="s">
-        <v>423</v>
-      </c>
-      <c r="E193" s="20">
+        <v>417</v>
+      </c>
+      <c r="E193" s="18">
         <v>30</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
@@ -8887,28 +9180,28 @@
         <v>181</v>
       </c>
       <c r="B194" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C194" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="D194" t="s">
-        <v>423</v>
-      </c>
-      <c r="E194" s="21">
+        <v>417</v>
+      </c>
+      <c r="E194" s="19">
         <v>100</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
@@ -8916,28 +9209,28 @@
         <v>182</v>
       </c>
       <c r="B195" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C195" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="D195" t="s">
-        <v>423</v>
-      </c>
-      <c r="E195" s="19">
+        <v>417</v>
+      </c>
+      <c r="E195" s="17">
         <v>10</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
@@ -8945,31 +9238,31 @@
         <v>183</v>
       </c>
       <c r="B196" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C196" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="D196" t="s">
-        <v>423</v>
-      </c>
-      <c r="E196" s="19">
+        <v>417</v>
+      </c>
+      <c r="E196" s="17">
         <v>10</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K196" s="15" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
@@ -8977,31 +9270,31 @@
         <v>184</v>
       </c>
       <c r="B197" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C197" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="D197" t="s">
-        <v>423</v>
-      </c>
-      <c r="E197" s="20">
+        <v>417</v>
+      </c>
+      <c r="E197" s="18">
         <v>30</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K197" s="15" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
@@ -9009,31 +9302,174 @@
         <v>185</v>
       </c>
       <c r="B198" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C198" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="D198" t="s">
-        <v>423</v>
-      </c>
-      <c r="E198" s="21">
+        <v>417</v>
+      </c>
+      <c r="E198" s="19">
         <v>100</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K198" s="15" t="s">
-        <v>434</v>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A199" s="12"/>
+      <c r="B199" s="12"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="13"/>
+      <c r="G199" s="13"/>
+      <c r="H199" s="13"/>
+      <c r="I199" s="13"/>
+      <c r="J199" s="14"/>
+      <c r="K199" s="16"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>186</v>
+      </c>
+      <c r="B200" t="s">
+        <v>666</v>
+      </c>
+      <c r="C200" t="s">
+        <v>664</v>
+      </c>
+      <c r="D200" t="s">
+        <v>665</v>
+      </c>
+      <c r="E200" s="17">
+        <v>10</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>187</v>
+      </c>
+      <c r="B201" t="s">
+        <v>671</v>
+      </c>
+      <c r="C201" t="s">
+        <v>667</v>
+      </c>
+      <c r="D201" t="s">
+        <v>665</v>
+      </c>
+      <c r="E201" s="18">
+        <v>30</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>188</v>
+      </c>
+      <c r="B202" t="s">
+        <v>672</v>
+      </c>
+      <c r="C202" t="s">
+        <v>668</v>
+      </c>
+      <c r="D202" t="s">
+        <v>665</v>
+      </c>
+      <c r="E202" s="18">
+        <v>30</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>189</v>
+      </c>
+      <c r="B203" t="s">
+        <v>673</v>
+      </c>
+      <c r="C203" t="s">
+        <v>669</v>
+      </c>
+      <c r="D203" t="s">
+        <v>665</v>
+      </c>
+      <c r="E203" s="17">
+        <v>10</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>190</v>
+      </c>
+      <c r="B204" t="s">
+        <v>674</v>
+      </c>
+      <c r="C204" t="s">
+        <v>670</v>
+      </c>
+      <c r="D204" t="s">
+        <v>665</v>
+      </c>
+      <c r="E204" s="17">
+        <v>10</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -9062,9 +9498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951DF8F7-72B0-488B-B4D5-B6A179D17BB0}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9086,19 +9520,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1" t="s">
         <v>240</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" t="s">
         <v>241</v>
-      </c>
-      <c r="G1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -9112,19 +9546,19 @@
         <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" t="s">
         <v>239</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -9147,13 +9581,13 @@
         <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -9161,13 +9595,13 @@
         <v>1000</v>
       </c>
       <c r="B4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -9176,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -9184,13 +9618,13 @@
         <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -9199,7 +9633,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -9207,13 +9641,13 @@
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -9222,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -9230,13 +9664,13 @@
         <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -9245,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -9253,13 +9687,13 @@
         <v>1004</v>
       </c>
       <c r="B8" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -9268,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -9276,13 +9710,13 @@
         <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C9" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -9291,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -9299,13 +9733,13 @@
         <v>1006</v>
       </c>
       <c r="B10" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -9314,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -9322,13 +9756,13 @@
         <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C11" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E11" s="4">
         <v>1006</v>
@@ -9340,7 +9774,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -9348,13 +9782,13 @@
         <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C12" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -9363,7 +9797,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -9371,13 +9805,13 @@
         <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C13" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -9386,7 +9820,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -9394,13 +9828,13 @@
         <v>1010</v>
       </c>
       <c r="B14" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C14" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -9409,7 +9843,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -9417,13 +9851,13 @@
         <v>1011</v>
       </c>
       <c r="B15" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C15" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -9438,13 +9872,13 @@
         <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C16" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E16">
         <v>1005</v>
@@ -9462,13 +9896,13 @@
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C17" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E17"/>
       <c r="G17" t="b">
@@ -9483,13 +9917,13 @@
         <v>1014</v>
       </c>
       <c r="B18" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C18" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -9504,13 +9938,13 @@
         <v>1015</v>
       </c>
       <c r="B19" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C19" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -9529,9 +9963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5352FAA9-AA17-46B4-94C4-2154F637437F}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9551,18 +9983,18 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -9571,10 +10003,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -9605,16 +10037,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="D4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -9625,16 +10057,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="D5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -9645,16 +10077,16 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="D6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -9665,16 +10097,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -9687,16 +10119,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -9709,16 +10141,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -9731,16 +10163,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -9753,16 +10185,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -9775,16 +10207,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -9797,16 +10229,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -9819,16 +10251,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -9839,16 +10271,16 @@
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -9859,16 +10291,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -9879,16 +10311,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -9899,16 +10331,16 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -9919,16 +10351,16 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -9939,16 +10371,16 @@
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -9959,16 +10391,16 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -9979,16 +10411,16 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -9999,16 +10431,16 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -10019,16 +10451,16 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -10053,8 +10485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F63A76-963D-497B-A3BF-0225CA276110}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10125,7 +10557,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>90</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -10139,7 +10571,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>720</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -10152,6 +10584,9 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -10164,7 +10599,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>92</v>
+        <v>722</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -10177,6 +10612,9 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -10188,6 +10626,9 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -10199,6 +10640,9 @@
       <c r="C10" t="s">
         <v>16</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -10206,10 +10650,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -10217,10 +10661,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -10228,10 +10672,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -10250,10 +10694,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -10261,10 +10705,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -10272,10 +10716,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -10283,10 +10727,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD2FEBE-2751-42D3-8A5E-CF7118CE5E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2190388A-75C3-4002-AF16-96ECF604D9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
+    <workbookView minimized="1" xWindow="3735" yWindow="3990" windowWidth="36030" windowHeight="17325" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="731">
   <si>
     <t>名字</t>
   </si>
@@ -224,14 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dodgeChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>critChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>critMultiple</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,26 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>physicalDefenseRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fireDefenseRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iceDefenseRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lightingDefenseRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acidDefenseRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>护盾值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>闪避率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暴击率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2485,14 +2453,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>physicalDefenseRate + 0.1electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalDefenseRate + 0.2,electricPower + 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>maxMana + 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2596,48 +2556,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>castDelayDecr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargingDelayDecr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法延迟减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充能延迟减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,6;3,7;3,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,9;3,10;3,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,12;3,13;1,14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,15;3,16;3,17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,18;2,19;2,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,21;3,22;3,23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,27;2,28;1,29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>2,6;2,7;2,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,9;2,10;2,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,12;1,13;1,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,15;2,16;2,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,18;1,19;1,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,21;2,22;2,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,27;1,28;1,29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,30;3,31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,34;3,35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,38;3,39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,40;3,41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,42;3,43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargingDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充能延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamageApplyRate</t>
+  </si>
+  <si>
+    <t>fireDamageApplyRate</t>
+  </si>
+  <si>
+    <t>iceDamageApplyRate</t>
+  </si>
+  <si>
+    <t>lightingDamageApplyRate</t>
+  </si>
+  <si>
+    <t>acidDamageApplyRate</t>
+  </si>
+  <si>
+    <t>electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonCritChange</t>
   </si>
 </sst>
 </file>
@@ -3108,8 +3122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
   <dimension ref="A1:V204"/>
   <sheetViews>
-    <sheetView topLeftCell="E38" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23:O45"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3141,7 +3155,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -3150,20 +3164,20 @@
         <v>21</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H1" s="20"/>
       <c r="I1" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="N1" s="21"/>
       <c r="O1" s="21"/>
@@ -3183,31 +3197,31 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
@@ -3248,10 +3262,10 @@
         <v>17</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
@@ -3265,13 +3279,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="D4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E4" s="17">
         <v>10</v>
@@ -3280,16 +3294,16 @@
         <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>21</v>
@@ -3298,13 +3312,13 @@
         <v>4</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>4</v>
@@ -3315,13 +3329,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E5" s="18">
         <v>30</v>
@@ -3330,16 +3344,16 @@
         <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>30</v>
@@ -3348,16 +3362,16 @@
         <v>22</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="U5" s="1"/>
     </row>
@@ -3366,13 +3380,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D6" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E6" s="17">
         <v>10</v>
@@ -3381,16 +3395,16 @@
         <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>32</v>
@@ -3399,16 +3413,16 @@
         <v>23</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -3418,13 +3432,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E7" s="18">
         <v>30</v>
@@ -3433,16 +3447,16 @@
         <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>33</v>
@@ -3451,16 +3465,16 @@
         <v>24</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -3470,13 +3484,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D8" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E8" s="19">
         <v>100</v>
@@ -3485,19 +3499,19 @@
         <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>35</v>
@@ -3512,10 +3526,10 @@
         <v>28</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
@@ -3525,13 +3539,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D9" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E9" s="17">
         <v>10</v>
@@ -3540,16 +3554,16 @@
         <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>38</v>
@@ -3558,16 +3572,16 @@
         <v>25</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -3577,13 +3591,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D10" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E10" s="18">
         <v>30</v>
@@ -3592,16 +3606,16 @@
         <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>39</v>
@@ -3610,16 +3624,16 @@
         <v>27</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="V10" s="1"/>
     </row>
@@ -3628,13 +3642,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="D11" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E11" s="19">
         <v>100</v>
@@ -3643,19 +3657,19 @@
         <v>31</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>437</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>40</v>
@@ -3664,10 +3678,10 @@
         <v>26</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -3677,37 +3691,37 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="D12" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E12" s="17">
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
@@ -3715,31 +3729,31 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="D13" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E13" s="18">
         <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
@@ -3747,31 +3761,31 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C14" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D14" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E14" s="18">
         <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
@@ -3781,31 +3795,31 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D15" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E15" s="19">
         <v>100</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
@@ -3815,13 +3829,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="D16" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E16" s="17">
         <v>10</v>
@@ -3830,25 +3844,25 @@
         <v>37</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
@@ -3856,40 +3870,40 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C17" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D17" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E17" s="18">
         <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
@@ -3897,13 +3911,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D18" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E18" s="19">
         <v>100</v>
@@ -3912,28 +3926,28 @@
         <v>37</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -3952,10 +3966,10 @@
         <v>47</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -3963,13 +3977,13 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C20" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E20" s="17">
         <v>10</v>
@@ -3981,22 +3995,22 @@
         <v>41</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
@@ -4004,13 +4018,13 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C21" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E21" s="17">
         <v>10</v>
@@ -4022,22 +4036,22 @@
         <v>41</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>49</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -4045,13 +4059,13 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C22" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E22" s="18">
         <v>30</v>
@@ -4063,16 +4077,16 @@
         <v>41</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -4080,13 +4094,13 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E23" s="17">
         <v>10</v>
@@ -4098,22 +4112,22 @@
         <v>41</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -4121,13 +4135,13 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C24" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E24" s="18">
         <v>30</v>
@@ -4139,22 +4153,22 @@
         <v>41</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
@@ -4162,13 +4176,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C25" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E25" s="18">
         <v>30</v>
@@ -4180,16 +4194,16 @@
         <v>41</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
@@ -4197,13 +4211,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C26" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E26" s="19">
         <v>100</v>
@@ -4215,25 +4229,25 @@
         <v>41</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>50</v>
+        <v>721</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>71</v>
+        <v>722</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
@@ -4241,13 +4255,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C27" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E27" s="19">
         <v>100</v>
@@ -4259,25 +4273,25 @@
         <v>41</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>51</v>
+        <v>730</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -4285,13 +4299,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C28" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E28" s="17">
         <v>10</v>
@@ -4303,19 +4317,19 @@
         <v>41</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
@@ -4323,13 +4337,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C29" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E29" s="18">
         <v>30</v>
@@ -4341,13 +4355,13 @@
         <v>41</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -4355,13 +4369,13 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C30" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E30" s="17">
         <v>10</v>
@@ -4373,19 +4387,19 @@
         <v>41</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -4393,13 +4407,13 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C31" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E31" s="18">
         <v>30</v>
@@ -4411,19 +4425,19 @@
         <v>41</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -4431,13 +4445,13 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C32" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E32" s="19">
         <v>100</v>
@@ -4449,22 +4463,22 @@
         <v>41</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -4472,40 +4486,40 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C33" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E33" s="19">
         <v>100</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -4513,31 +4527,31 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C34" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E34" s="18">
         <v>30</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
@@ -4545,13 +4559,13 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C35" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E35" s="19">
         <v>100</v>
@@ -4563,19 +4577,19 @@
         <v>41</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -4583,37 +4597,37 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C36" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E36" s="17">
         <v>10</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -4621,37 +4635,37 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C37" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E37" s="18">
         <v>30</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>687</v>
+        <v>728</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -4659,40 +4673,40 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C38" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E38" s="19">
         <v>100</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>688</v>
+        <v>729</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -4700,37 +4714,37 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C39" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E39" s="17">
         <v>10</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -4751,13 +4765,13 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C41" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E41" s="17">
         <v>10</v>
@@ -4766,19 +4780,19 @@
         <v>34</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>61</v>
+        <v>723</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -4786,13 +4800,13 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C42" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E42" s="18">
         <v>30</v>
@@ -4801,19 +4815,19 @@
         <v>34</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>62</v>
+        <v>724</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -4821,13 +4835,13 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C43" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E43" s="17">
         <v>10</v>
@@ -4836,19 +4850,19 @@
         <v>29</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>63</v>
+        <v>725</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -4856,13 +4870,13 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C44" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E44" s="18">
         <v>30</v>
@@ -4871,19 +4885,19 @@
         <v>29</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>64</v>
+        <v>726</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -4891,13 +4905,13 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C45" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E45" s="19">
         <v>100</v>
@@ -4906,22 +4920,22 @@
         <v>29</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>65</v>
+        <v>727</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -4929,13 +4943,13 @@
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C49" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E49" s="19">
         <v>100</v>
@@ -4944,19 +4958,19 @@
         <v>34</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -4964,31 +4978,31 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C50" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E50" s="18">
         <v>30</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -4996,34 +5010,34 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C51" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E51" s="19">
         <v>100</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -5031,28 +5045,28 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C52" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E52" s="17">
         <v>10</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -5060,13 +5074,13 @@
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C53" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E53" s="17">
         <v>10</v>
@@ -5075,16 +5089,16 @@
         <v>37</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -5092,13 +5106,13 @@
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C54" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E54" s="18">
         <v>30</v>
@@ -5107,16 +5121,16 @@
         <v>37</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -5124,13 +5138,13 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C55" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D55" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E55" s="19">
         <v>100</v>
@@ -5139,16 +5153,16 @@
         <v>37</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -5156,28 +5170,28 @@
         <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C56" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D56" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E56" s="17">
         <v>10</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -5185,31 +5199,31 @@
         <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C57" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D57" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E57" s="19">
         <v>100</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -5217,28 +5231,28 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C58" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D58" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E58" s="18">
         <v>30</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -5246,13 +5260,13 @@
         <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C62" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D62" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E62" s="17">
         <v>10</v>
@@ -5261,16 +5275,16 @@
         <v>31</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="K62" s="15" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -5278,13 +5292,13 @@
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C63" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E63" s="18">
         <v>30</v>
@@ -5293,16 +5307,16 @@
         <v>31</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="K63" s="15" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -5310,13 +5324,13 @@
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C64" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D64" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E64" s="19">
         <v>100</v>
@@ -5325,19 +5339,19 @@
         <v>31</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="K64" s="15" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -5358,13 +5372,13 @@
         <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C66" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="D66" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E66" s="19">
         <v>100</v>
@@ -5373,13 +5387,13 @@
         <v>29</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="K66" s="15" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -5387,13 +5401,13 @@
         <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C67" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="D67" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E67" s="19">
         <v>100</v>
@@ -5402,13 +5416,13 @@
         <v>31</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="K67" s="15" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -5416,28 +5430,28 @@
         <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C68" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D68" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E68" s="19">
         <v>100</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="K68" s="15" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -5445,13 +5459,13 @@
         <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C69" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D69" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E69" s="19">
         <v>100</v>
@@ -5460,13 +5474,13 @@
         <v>34</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="K69" s="15" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -5474,13 +5488,13 @@
         <v>64</v>
       </c>
       <c r="B70" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C70" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D70" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E70" s="19">
         <v>100</v>
@@ -5489,13 +5503,13 @@
         <v>37</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="K70" s="15" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -5503,28 +5517,28 @@
         <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C71" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D71" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E71" s="19">
         <v>100</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="K71" s="15" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -5545,13 +5559,13 @@
         <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C73" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="D73" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E73" s="17">
         <v>10</v>
@@ -5560,16 +5574,16 @@
         <v>34</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="K73" s="15" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="L73" s="4">
         <v>1</v>
@@ -5580,13 +5594,13 @@
         <v>67</v>
       </c>
       <c r="B74" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C74" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D74" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E74" s="18">
         <v>30</v>
@@ -5595,16 +5609,16 @@
         <v>34</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="K74" s="15" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="L74" s="4">
         <v>1</v>
@@ -5615,13 +5629,13 @@
         <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C75" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D75" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E75" s="19">
         <v>100</v>
@@ -5630,16 +5644,16 @@
         <v>34</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="K75" s="15" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="L75" s="4">
         <v>1</v>
@@ -5650,13 +5664,13 @@
         <v>69</v>
       </c>
       <c r="B76" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C76" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="D76" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E76" s="17">
         <v>10</v>
@@ -5665,16 +5679,16 @@
         <v>31</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="K76" s="15" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="L76" s="4">
         <v>1</v>
@@ -5685,13 +5699,13 @@
         <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C77" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D77" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E77" s="18">
         <v>30</v>
@@ -5700,16 +5714,16 @@
         <v>31</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="K77" s="15" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="L77" s="4">
         <v>1</v>
@@ -5720,13 +5734,13 @@
         <v>71</v>
       </c>
       <c r="B78" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C78" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D78" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E78" s="19">
         <v>100</v>
@@ -5735,16 +5749,16 @@
         <v>31</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="K78" s="15" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="L78" s="4">
         <v>1</v>
@@ -5755,34 +5769,34 @@
         <v>72</v>
       </c>
       <c r="B79" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C79" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="D79" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E79" s="17">
         <v>10</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="K79" s="15" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="L79" s="4">
         <v>1</v>
@@ -5793,34 +5807,34 @@
         <v>73</v>
       </c>
       <c r="B80" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C80" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="D80" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E80" s="18">
         <v>30</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="K80" s="15" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="L80" s="4">
         <v>1</v>
@@ -5831,34 +5845,34 @@
         <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C81" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D81" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E81" s="19">
         <v>100</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="K81" s="15" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="L81" s="4">
         <v>1</v>
@@ -5882,28 +5896,28 @@
         <v>75</v>
       </c>
       <c r="B83" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C83" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D83" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E83" s="17">
         <v>10</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -5911,28 +5925,28 @@
         <v>76</v>
       </c>
       <c r="B84" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C84" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D84" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E84" s="18">
         <v>30</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -5940,28 +5954,28 @@
         <v>77</v>
       </c>
       <c r="B85" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C85" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D85" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E85" s="19">
         <v>100</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -5969,13 +5983,13 @@
         <v>78</v>
       </c>
       <c r="B86" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C86" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="D86" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E86" s="17">
         <v>10</v>
@@ -5984,16 +5998,16 @@
         <v>29</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K86" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -6001,13 +6015,13 @@
         <v>79</v>
       </c>
       <c r="B87" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C87" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D87" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E87" s="18">
         <v>30</v>
@@ -6016,16 +6030,16 @@
         <v>29</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K87" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -6033,13 +6047,13 @@
         <v>80</v>
       </c>
       <c r="B88" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C88" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="D88" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E88" s="19">
         <v>100</v>
@@ -6048,16 +6062,16 @@
         <v>29</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K88" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -6065,13 +6079,13 @@
         <v>81</v>
       </c>
       <c r="B89" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C89" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="D89" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E89" s="17">
         <v>10</v>
@@ -6080,16 +6094,16 @@
         <v>34</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K89" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -6097,13 +6111,13 @@
         <v>82</v>
       </c>
       <c r="B90" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C90" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D90" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E90" s="18">
         <v>30</v>
@@ -6112,16 +6126,16 @@
         <v>34</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K90" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -6129,13 +6143,13 @@
         <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C91" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="D91" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E91" s="19">
         <v>100</v>
@@ -6144,16 +6158,16 @@
         <v>34</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K91" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -6161,13 +6175,13 @@
         <v>84</v>
       </c>
       <c r="B92" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C92" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D92" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E92" s="18">
         <v>30</v>
@@ -6176,16 +6190,16 @@
         <v>31</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K92" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -6193,13 +6207,13 @@
         <v>85</v>
       </c>
       <c r="B93" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C93" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="D93" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E93" s="17">
         <v>10</v>
@@ -6208,16 +6222,16 @@
         <v>34</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K93" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -6225,13 +6239,13 @@
         <v>86</v>
       </c>
       <c r="B94" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C94" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D94" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E94" s="17">
         <v>10</v>
@@ -6240,16 +6254,16 @@
         <v>31</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K94" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -6257,13 +6271,13 @@
         <v>87</v>
       </c>
       <c r="B95" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C95" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="D95" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E95" s="18">
         <v>30</v>
@@ -6272,16 +6286,16 @@
         <v>31</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K95" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -6289,13 +6303,13 @@
         <v>88</v>
       </c>
       <c r="B96" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C96" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D96" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E96" s="18">
         <v>30</v>
@@ -6304,16 +6318,16 @@
         <v>31</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K96" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -6321,13 +6335,13 @@
         <v>89</v>
       </c>
       <c r="B97" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C97" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="D97" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E97" s="18">
         <v>30</v>
@@ -6336,16 +6350,16 @@
         <v>31</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K97" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -6353,13 +6367,13 @@
         <v>90</v>
       </c>
       <c r="B98" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C98" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D98" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E98" s="18">
         <v>30</v>
@@ -6368,16 +6382,16 @@
         <v>37</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K98" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
@@ -6385,13 +6399,13 @@
         <v>91</v>
       </c>
       <c r="B99" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C99" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D99" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E99" s="17">
         <v>10</v>
@@ -6400,16 +6414,16 @@
         <v>37</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K99" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
@@ -6417,13 +6431,13 @@
         <v>92</v>
       </c>
       <c r="B100" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C100" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="D100" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E100" s="19">
         <v>100</v>
@@ -6432,16 +6446,16 @@
         <v>37</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K100" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -6449,31 +6463,31 @@
         <v>93</v>
       </c>
       <c r="B101" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C101" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D101" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E101" s="17">
         <v>10</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K101" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -6481,31 +6495,31 @@
         <v>94</v>
       </c>
       <c r="B102" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C102" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="D102" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E102" s="18">
         <v>30</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K102" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
@@ -6513,31 +6527,31 @@
         <v>95</v>
       </c>
       <c r="B103" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C103" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="D103" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E103" s="19">
         <v>100</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K103" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -6545,31 +6559,31 @@
         <v>96</v>
       </c>
       <c r="B104" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C104" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D104" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E104" s="17">
         <v>10</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K104" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -6577,31 +6591,31 @@
         <v>97</v>
       </c>
       <c r="B105" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C105" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="D105" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E105" s="18">
         <v>30</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K105" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
@@ -6609,31 +6623,31 @@
         <v>98</v>
       </c>
       <c r="B106" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C106" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D106" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E106" s="19">
         <v>100</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K106" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
@@ -6654,31 +6668,31 @@
         <v>99</v>
       </c>
       <c r="B108" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C108" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="D108" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E108" s="17">
         <v>10</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K108" s="15" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -6686,31 +6700,31 @@
         <v>100</v>
       </c>
       <c r="B109" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C109" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="D109" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E109" s="18">
         <v>30</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K109" s="15" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
@@ -6718,31 +6732,31 @@
         <v>101</v>
       </c>
       <c r="B110" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C110" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="D110" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E110" s="19">
         <v>100</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K110" s="15" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -6750,13 +6764,13 @@
         <v>102</v>
       </c>
       <c r="B111" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C111" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="D111" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E111" s="17">
         <v>10</v>
@@ -6765,16 +6779,16 @@
         <v>29</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K111" s="15" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
@@ -6782,13 +6796,13 @@
         <v>103</v>
       </c>
       <c r="B112" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C112" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="D112" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E112" s="18">
         <v>30</v>
@@ -6797,16 +6811,16 @@
         <v>29</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K112" s="15" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
@@ -6814,13 +6828,13 @@
         <v>104</v>
       </c>
       <c r="B113" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C113" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D113" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E113" s="19">
         <v>100</v>
@@ -6829,16 +6843,16 @@
         <v>29</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K113" s="15" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
@@ -6846,13 +6860,13 @@
         <v>105</v>
       </c>
       <c r="B114" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C114" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="D114" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E114" s="18">
         <v>30</v>
@@ -6861,16 +6875,16 @@
         <v>31</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K114" s="15" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -6878,13 +6892,13 @@
         <v>106</v>
       </c>
       <c r="B115" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C115" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D115" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E115" s="17">
         <v>10</v>
@@ -6893,16 +6907,16 @@
         <v>31</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K115" s="15" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
@@ -6910,13 +6924,13 @@
         <v>107</v>
       </c>
       <c r="B116" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C116" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="D116" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E116" s="18">
         <v>30</v>
@@ -6925,16 +6939,16 @@
         <v>34</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K116" s="15" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
@@ -6942,13 +6956,13 @@
         <v>108</v>
       </c>
       <c r="B117" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C117" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D117" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E117" s="19">
         <v>100</v>
@@ -6957,16 +6971,16 @@
         <v>34</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K117" s="15" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -6974,13 +6988,13 @@
         <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C118" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="D118" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E118" s="19">
         <v>100</v>
@@ -6989,16 +7003,16 @@
         <v>37</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K118" s="15" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
@@ -7006,13 +7020,13 @@
         <v>110</v>
       </c>
       <c r="B119" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C119" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D119" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E119" s="18">
         <v>30</v>
@@ -7021,16 +7035,16 @@
         <v>31</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K119" s="15" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
@@ -7038,13 +7052,13 @@
         <v>111</v>
       </c>
       <c r="B120" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C120" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="D120" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E120" s="18">
         <v>30</v>
@@ -7053,16 +7067,16 @@
         <v>31</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K120" s="15" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
@@ -7070,13 +7084,13 @@
         <v>112</v>
       </c>
       <c r="B121" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C121" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="D121" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E121" s="18">
         <v>30</v>
@@ -7085,16 +7099,16 @@
         <v>31</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K121" s="15" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
@@ -7102,13 +7116,13 @@
         <v>113</v>
       </c>
       <c r="B122" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C122" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="D122" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E122" s="18">
         <v>30</v>
@@ -7117,16 +7131,16 @@
         <v>37</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K122" s="15" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
@@ -7134,13 +7148,13 @@
         <v>114</v>
       </c>
       <c r="B123" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C123" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D123" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E123" s="17">
         <v>10</v>
@@ -7149,16 +7163,16 @@
         <v>37</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K123" s="15" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -7179,13 +7193,13 @@
         <v>115</v>
       </c>
       <c r="B125" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C125" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="D125" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="E125" s="17">
         <v>10</v>
@@ -7194,16 +7208,16 @@
         <v>29</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K125" s="15" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
@@ -7211,13 +7225,13 @@
         <v>116</v>
       </c>
       <c r="B126" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C126" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="D126" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="E126" s="18">
         <v>30</v>
@@ -7226,16 +7240,16 @@
         <v>29</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K126" s="15" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
@@ -7243,13 +7257,13 @@
         <v>117</v>
       </c>
       <c r="B127" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C127" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="D127" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="E127" s="19">
         <v>100</v>
@@ -7258,16 +7272,16 @@
         <v>29</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K127" s="15" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
@@ -7275,13 +7289,13 @@
         <v>118</v>
       </c>
       <c r="B128" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C128" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="D128" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="E128" s="17">
         <v>10</v>
@@ -7290,16 +7304,16 @@
         <v>29</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K128" s="15" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -7307,13 +7321,13 @@
         <v>119</v>
       </c>
       <c r="B129" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C129" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="D129" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="E129" s="18">
         <v>30</v>
@@ -7322,16 +7336,16 @@
         <v>29</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K129" s="15" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -7339,13 +7353,13 @@
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C130" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D130" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E130" s="19">
         <v>100</v>
@@ -7354,16 +7368,16 @@
         <v>29</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K130" s="15" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -7384,13 +7398,13 @@
         <v>121</v>
       </c>
       <c r="B132" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C132" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="D132" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E132" s="17">
         <v>10</v>
@@ -7399,13 +7413,13 @@
         <v>29</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -7413,13 +7427,13 @@
         <v>122</v>
       </c>
       <c r="B133" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C133" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="D133" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E133" s="17">
         <v>10</v>
@@ -7428,13 +7442,13 @@
         <v>29</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L133" s="4">
         <v>1</v>
@@ -7445,13 +7459,13 @@
         <v>123</v>
       </c>
       <c r="B134" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C134" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="D134" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E134" s="17">
         <v>10</v>
@@ -7460,13 +7474,13 @@
         <v>29</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -7474,13 +7488,13 @@
         <v>124</v>
       </c>
       <c r="B135" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C135" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="D135" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E135" s="18">
         <v>30</v>
@@ -7489,13 +7503,13 @@
         <v>29</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L135" s="4">
         <v>1</v>
@@ -7506,13 +7520,13 @@
         <v>125</v>
       </c>
       <c r="B136" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C136" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="D136" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E136" s="18">
         <v>30</v>
@@ -7521,13 +7535,13 @@
         <v>29</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L136" s="4">
         <v>1</v>
@@ -7538,13 +7552,13 @@
         <v>126</v>
       </c>
       <c r="B137" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C137" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="D137" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E137" s="17">
         <v>10</v>
@@ -7553,13 +7567,13 @@
         <v>29</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L137" s="4">
         <v>1</v>
@@ -7570,13 +7584,13 @@
         <v>127</v>
       </c>
       <c r="B138" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C138" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="D138" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E138" s="18">
         <v>30</v>
@@ -7585,13 +7599,13 @@
         <v>29</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L138" s="4">
         <v>1</v>
@@ -7602,13 +7616,13 @@
         <v>128</v>
       </c>
       <c r="B139" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C139" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="D139" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E139" s="19">
         <v>100</v>
@@ -7617,13 +7631,13 @@
         <v>29</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L139" s="4">
         <v>1</v>
@@ -7634,13 +7648,13 @@
         <v>129</v>
       </c>
       <c r="B140" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C140" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="D140" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E140" s="18">
         <v>30</v>
@@ -7649,13 +7663,13 @@
         <v>29</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -7663,13 +7677,13 @@
         <v>130</v>
       </c>
       <c r="B141" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C141" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D141" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E141" s="17">
         <v>10</v>
@@ -7678,13 +7692,13 @@
         <v>29</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L141" s="4">
         <v>1</v>
@@ -7695,13 +7709,13 @@
         <v>131</v>
       </c>
       <c r="B142" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C142" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="D142" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E142" s="18">
         <v>30</v>
@@ -7710,13 +7724,13 @@
         <v>29</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L142" s="4">
         <v>1</v>
@@ -7727,13 +7741,13 @@
         <v>132</v>
       </c>
       <c r="B143" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C143" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="D143" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E143" s="19">
         <v>100</v>
@@ -7742,13 +7756,13 @@
         <v>29</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L143" s="4">
         <v>1</v>
@@ -7772,13 +7786,13 @@
         <v>133</v>
       </c>
       <c r="B145" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C145" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="D145" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E145" s="17">
         <v>10</v>
@@ -7787,10 +7801,10 @@
         <v>37</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L145" s="4">
         <v>1</v>
@@ -7801,13 +7815,13 @@
         <v>134</v>
       </c>
       <c r="B146" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C146" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="D146" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E146" s="18">
         <v>30</v>
@@ -7816,10 +7830,10 @@
         <v>37</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L146" s="4">
         <v>1</v>
@@ -7830,13 +7844,13 @@
         <v>135</v>
       </c>
       <c r="B147" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C147" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="D147" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E147" s="19">
         <v>100</v>
@@ -7845,10 +7859,10 @@
         <v>37</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L147" s="4">
         <v>1</v>
@@ -7859,13 +7873,13 @@
         <v>136</v>
       </c>
       <c r="B148" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C148" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="D148" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E148" s="17">
         <v>10</v>
@@ -7874,10 +7888,10 @@
         <v>37</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L148" s="4">
         <v>1</v>
@@ -7888,13 +7902,13 @@
         <v>137</v>
       </c>
       <c r="B149" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C149" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="D149" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E149" s="18">
         <v>30</v>
@@ -7903,10 +7917,10 @@
         <v>37</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L149" s="4">
         <v>1</v>
@@ -7917,13 +7931,13 @@
         <v>138</v>
       </c>
       <c r="B150" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C150" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="D150" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E150" s="19">
         <v>100</v>
@@ -7932,10 +7946,10 @@
         <v>37</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L150" s="4">
         <v>1</v>
@@ -7946,13 +7960,13 @@
         <v>139</v>
       </c>
       <c r="B151" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C151" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="D151" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E151" s="17">
         <v>10</v>
@@ -7961,10 +7975,10 @@
         <v>37</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L151" s="4">
         <v>1</v>
@@ -7975,13 +7989,13 @@
         <v>140</v>
       </c>
       <c r="B152" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C152" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="D152" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E152" s="17">
         <v>10</v>
@@ -7990,10 +8004,10 @@
         <v>37</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L152" s="4">
         <v>1</v>
@@ -8004,13 +8018,13 @@
         <v>141</v>
       </c>
       <c r="B153" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C153" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="D153" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E153" s="18">
         <v>30</v>
@@ -8019,10 +8033,10 @@
         <v>37</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L153" s="4">
         <v>1</v>
@@ -8033,13 +8047,13 @@
         <v>142</v>
       </c>
       <c r="B154" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C154" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="D154" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E154" s="18">
         <v>30</v>
@@ -8048,10 +8062,10 @@
         <v>37</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L154" s="4">
         <v>1</v>
@@ -8062,13 +8076,13 @@
         <v>143</v>
       </c>
       <c r="B155" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C155" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="D155" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E155" s="19">
         <v>100</v>
@@ -8077,10 +8091,10 @@
         <v>37</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L155" s="4">
         <v>1</v>
@@ -8091,13 +8105,13 @@
         <v>144</v>
       </c>
       <c r="B156" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C156" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="D156" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E156" s="17">
         <v>10</v>
@@ -8106,10 +8120,10 @@
         <v>37</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L156" s="4">
         <v>1</v>
@@ -8120,13 +8134,13 @@
         <v>145</v>
       </c>
       <c r="B157" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C157" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="D157" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E157" s="18">
         <v>30</v>
@@ -8135,10 +8149,10 @@
         <v>37</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L157" s="4">
         <v>1</v>
@@ -8149,13 +8163,13 @@
         <v>146</v>
       </c>
       <c r="B158" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C158" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="D158" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E158" s="19">
         <v>100</v>
@@ -8164,10 +8178,10 @@
         <v>37</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L158" s="4">
         <v>1</v>
@@ -8178,13 +8192,13 @@
         <v>147</v>
       </c>
       <c r="B159" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C159" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="D159" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E159" s="17">
         <v>10</v>
@@ -8193,10 +8207,10 @@
         <v>37</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L159" s="4">
         <v>1</v>
@@ -8207,13 +8221,13 @@
         <v>148</v>
       </c>
       <c r="B160" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C160" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="D160" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E160" s="18">
         <v>30</v>
@@ -8222,10 +8236,10 @@
         <v>37</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L160" s="4">
         <v>1</v>
@@ -8236,13 +8250,13 @@
         <v>149</v>
       </c>
       <c r="B161" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C161" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="D161" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E161" s="19">
         <v>100</v>
@@ -8251,10 +8265,10 @@
         <v>37</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L161" s="4">
         <v>1</v>
@@ -8265,13 +8279,13 @@
         <v>150</v>
       </c>
       <c r="B162" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C162" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="D162" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E162" s="17">
         <v>10</v>
@@ -8280,10 +8294,10 @@
         <v>37</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L162" s="4">
         <v>1</v>
@@ -8294,13 +8308,13 @@
         <v>151</v>
       </c>
       <c r="B163" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C163" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="D163" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E163" s="18">
         <v>30</v>
@@ -8309,10 +8323,10 @@
         <v>37</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L163" s="4">
         <v>1</v>
@@ -8323,13 +8337,13 @@
         <v>152</v>
       </c>
       <c r="B164" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C164" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="D164" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E164" s="19">
         <v>100</v>
@@ -8338,10 +8352,10 @@
         <v>37</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L164" s="4">
         <v>1</v>
@@ -8352,13 +8366,13 @@
         <v>153</v>
       </c>
       <c r="B165" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C165" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="D165" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E165" s="17">
         <v>10</v>
@@ -8367,10 +8381,10 @@
         <v>37</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L165" s="4">
         <v>1</v>
@@ -8381,13 +8395,13 @@
         <v>154</v>
       </c>
       <c r="B166" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C166" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="D166" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E166" s="17">
         <v>10</v>
@@ -8396,10 +8410,10 @@
         <v>37</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L166" s="4">
         <v>1</v>
@@ -8410,13 +8424,13 @@
         <v>155</v>
       </c>
       <c r="B167" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C167" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="D167" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E167" s="18">
         <v>30</v>
@@ -8425,10 +8439,10 @@
         <v>37</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L167" s="4">
         <v>1</v>
@@ -8439,13 +8453,13 @@
         <v>156</v>
       </c>
       <c r="B168" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C168" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="D168" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E168" s="18">
         <v>30</v>
@@ -8454,10 +8468,10 @@
         <v>37</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L168" s="4">
         <v>1</v>
@@ -8468,13 +8482,13 @@
         <v>157</v>
       </c>
       <c r="B169" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C169" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="D169" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E169" s="19">
         <v>100</v>
@@ -8483,13 +8497,13 @@
         <v>37</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="K169" s="15" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="L169" s="4">
         <v>1</v>
@@ -8500,13 +8514,13 @@
         <v>158</v>
       </c>
       <c r="B170" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C170" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="D170" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E170" s="17">
         <v>10</v>
@@ -8515,10 +8529,10 @@
         <v>37</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L170" s="4">
         <v>1</v>
@@ -8529,13 +8543,13 @@
         <v>159</v>
       </c>
       <c r="B171" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C171" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="D171" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E171" s="17">
         <v>10</v>
@@ -8544,10 +8558,10 @@
         <v>37</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L171" s="4">
         <v>1</v>
@@ -8558,13 +8572,13 @@
         <v>160</v>
       </c>
       <c r="B172" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C172" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="D172" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E172" s="18">
         <v>30</v>
@@ -8573,10 +8587,10 @@
         <v>37</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L172" s="4">
         <v>1</v>
@@ -8587,13 +8601,13 @@
         <v>161</v>
       </c>
       <c r="B173" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C173" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="D173" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E173" s="18">
         <v>30</v>
@@ -8602,10 +8616,10 @@
         <v>37</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L173" s="4">
         <v>1</v>
@@ -8616,13 +8630,13 @@
         <v>162</v>
       </c>
       <c r="B174" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C174" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="D174" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E174" s="19">
         <v>100</v>
@@ -8631,10 +8645,10 @@
         <v>37</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L174" s="4">
         <v>1</v>
@@ -8645,13 +8659,13 @@
         <v>163</v>
       </c>
       <c r="B175" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C175" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="D175" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E175" s="17">
         <v>10</v>
@@ -8660,10 +8674,10 @@
         <v>37</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L175" s="4">
         <v>1</v>
@@ -8674,13 +8688,13 @@
         <v>164</v>
       </c>
       <c r="B176" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C176" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="D176" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E176" s="17">
         <v>10</v>
@@ -8689,10 +8703,10 @@
         <v>37</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L176" s="4">
         <v>1</v>
@@ -8703,13 +8717,13 @@
         <v>165</v>
       </c>
       <c r="B177" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C177" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="D177" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E177" s="18">
         <v>30</v>
@@ -8718,10 +8732,10 @@
         <v>37</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L177" s="4">
         <v>1</v>
@@ -8732,13 +8746,13 @@
         <v>166</v>
       </c>
       <c r="B178" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C178" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="D178" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E178" s="18">
         <v>30</v>
@@ -8747,10 +8761,10 @@
         <v>37</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L178" s="4">
         <v>1</v>
@@ -8761,13 +8775,13 @@
         <v>167</v>
       </c>
       <c r="B179" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C179" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="D179" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E179" s="19">
         <v>100</v>
@@ -8776,10 +8790,10 @@
         <v>37</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L179" s="4">
         <v>1</v>
@@ -8790,13 +8804,13 @@
         <v>168</v>
       </c>
       <c r="B180" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C180" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="D180" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E180" s="17">
         <v>10</v>
@@ -8805,10 +8819,10 @@
         <v>37</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L180" s="4">
         <v>1</v>
@@ -8819,13 +8833,13 @@
         <v>169</v>
       </c>
       <c r="B181" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C181" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="D181" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E181" s="17">
         <v>10</v>
@@ -8834,10 +8848,10 @@
         <v>37</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L181" s="4">
         <v>1</v>
@@ -8848,13 +8862,13 @@
         <v>170</v>
       </c>
       <c r="B182" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C182" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D182" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E182" s="18">
         <v>30</v>
@@ -8863,10 +8877,10 @@
         <v>37</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L182" s="4">
         <v>1</v>
@@ -8877,13 +8891,13 @@
         <v>171</v>
       </c>
       <c r="B183" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C183" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="D183" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E183" s="18">
         <v>30</v>
@@ -8892,10 +8906,10 @@
         <v>37</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L183" s="4">
         <v>1</v>
@@ -8906,13 +8920,13 @@
         <v>172</v>
       </c>
       <c r="B184" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C184" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="D184" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E184" s="19">
         <v>100</v>
@@ -8921,10 +8935,10 @@
         <v>37</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L184" s="4">
         <v>1</v>
@@ -8935,13 +8949,13 @@
         <v>173</v>
       </c>
       <c r="B185" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C185" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="D185" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E185" s="17">
         <v>10</v>
@@ -8950,10 +8964,10 @@
         <v>37</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L185" s="4">
         <v>1</v>
@@ -8964,13 +8978,13 @@
         <v>174</v>
       </c>
       <c r="B186" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C186" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="D186" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E186" s="18">
         <v>30</v>
@@ -8979,10 +8993,10 @@
         <v>37</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L186" s="4">
         <v>1</v>
@@ -8993,13 +9007,13 @@
         <v>175</v>
       </c>
       <c r="B187" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C187" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="D187" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E187" s="19">
         <v>100</v>
@@ -9008,10 +9022,10 @@
         <v>37</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L187" s="4">
         <v>1</v>
@@ -9035,13 +9049,13 @@
         <v>176</v>
       </c>
       <c r="B189" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C189" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="D189" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E189" s="17">
         <v>10</v>
@@ -9050,13 +9064,13 @@
         <v>37</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
@@ -9064,13 +9078,13 @@
         <v>177</v>
       </c>
       <c r="B190" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C190" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="D190" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E190" s="18">
         <v>30</v>
@@ -9079,13 +9093,13 @@
         <v>37</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
@@ -9093,13 +9107,13 @@
         <v>178</v>
       </c>
       <c r="B191" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C191" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="D191" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E191" s="19">
         <v>100</v>
@@ -9108,13 +9122,13 @@
         <v>37</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -9122,13 +9136,13 @@
         <v>179</v>
       </c>
       <c r="B192" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C192" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D192" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E192" s="17">
         <v>10</v>
@@ -9137,13 +9151,13 @@
         <v>37</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
@@ -9151,13 +9165,13 @@
         <v>180</v>
       </c>
       <c r="B193" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C193" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="D193" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E193" s="18">
         <v>30</v>
@@ -9166,13 +9180,13 @@
         <v>37</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
@@ -9180,13 +9194,13 @@
         <v>181</v>
       </c>
       <c r="B194" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C194" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="D194" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E194" s="19">
         <v>100</v>
@@ -9195,13 +9209,13 @@
         <v>37</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
@@ -9209,13 +9223,13 @@
         <v>182</v>
       </c>
       <c r="B195" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C195" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="D195" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E195" s="17">
         <v>10</v>
@@ -9224,13 +9238,13 @@
         <v>37</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
@@ -9238,13 +9252,13 @@
         <v>183</v>
       </c>
       <c r="B196" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C196" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="D196" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E196" s="17">
         <v>10</v>
@@ -9253,16 +9267,16 @@
         <v>37</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="K196" s="15" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
@@ -9270,13 +9284,13 @@
         <v>184</v>
       </c>
       <c r="B197" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C197" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="D197" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E197" s="18">
         <v>30</v>
@@ -9285,16 +9299,16 @@
         <v>37</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="K197" s="15" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
@@ -9302,13 +9316,13 @@
         <v>185</v>
       </c>
       <c r="B198" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C198" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="D198" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E198" s="19">
         <v>100</v>
@@ -9317,16 +9331,16 @@
         <v>37</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="K198" s="15" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
@@ -9347,13 +9361,13 @@
         <v>186</v>
       </c>
       <c r="B200" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="C200" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="D200" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="E200" s="17">
         <v>10</v>
@@ -9362,10 +9376,10 @@
         <v>37</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
@@ -9373,13 +9387,13 @@
         <v>187</v>
       </c>
       <c r="B201" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="C201" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="D201" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="E201" s="18">
         <v>30</v>
@@ -9388,10 +9402,10 @@
         <v>37</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
@@ -9399,13 +9413,13 @@
         <v>188</v>
       </c>
       <c r="B202" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="C202" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="D202" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="E202" s="18">
         <v>30</v>
@@ -9414,10 +9428,10 @@
         <v>37</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
@@ -9425,13 +9439,13 @@
         <v>189</v>
       </c>
       <c r="B203" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="C203" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="D203" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="E203" s="17">
         <v>10</v>
@@ -9440,10 +9454,10 @@
         <v>37</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
@@ -9451,13 +9465,13 @@
         <v>190</v>
       </c>
       <c r="B204" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="C204" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="D204" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="E204" s="17">
         <v>10</v>
@@ -9466,10 +9480,10 @@
         <v>37</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -9520,19 +9534,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" t="s">
         <v>233</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -9546,19 +9560,19 @@
         <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -9575,19 +9589,19 @@
         <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="H3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -9595,13 +9609,13 @@
         <v>1000</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -9610,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -9618,13 +9632,13 @@
         <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -9633,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -9641,13 +9655,13 @@
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C6" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -9656,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -9664,13 +9678,13 @@
         <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -9679,7 +9693,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -9687,13 +9701,13 @@
         <v>1004</v>
       </c>
       <c r="B8" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C8" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -9702,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -9710,13 +9724,13 @@
         <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C9" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -9725,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -9733,13 +9747,13 @@
         <v>1006</v>
       </c>
       <c r="B10" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -9748,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -9756,13 +9770,13 @@
         <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C11" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E11" s="4">
         <v>1006</v>
@@ -9774,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -9782,13 +9796,13 @@
         <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C12" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -9797,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -9805,13 +9819,13 @@
         <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C13" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -9820,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -9828,13 +9842,13 @@
         <v>1010</v>
       </c>
       <c r="B14" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C14" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -9843,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -9851,13 +9865,13 @@
         <v>1011</v>
       </c>
       <c r="B15" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C15" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -9872,13 +9886,13 @@
         <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C16" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E16">
         <v>1005</v>
@@ -9896,13 +9910,13 @@
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C17" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E17"/>
       <c r="G17" t="b">
@@ -9917,13 +9931,13 @@
         <v>1014</v>
       </c>
       <c r="B18" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C18" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -9938,13 +9952,13 @@
         <v>1015</v>
       </c>
       <c r="B19" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C19" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -9983,18 +9997,18 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -10003,10 +10017,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -10037,16 +10051,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -10057,16 +10071,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -10077,16 +10091,16 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -10097,16 +10111,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -10119,16 +10133,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -10141,16 +10155,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -10163,16 +10177,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -10185,16 +10199,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -10207,16 +10221,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -10229,16 +10243,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -10251,16 +10265,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -10271,16 +10285,16 @@
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E15" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -10291,16 +10305,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -10311,16 +10325,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -10331,16 +10345,16 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -10351,16 +10365,16 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -10371,16 +10385,16 @@
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -10391,16 +10405,16 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -10411,16 +10425,16 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -10431,16 +10445,16 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -10451,16 +10465,16 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -10485,8 +10499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F63A76-963D-497B-A3BF-0225CA276110}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10557,7 +10571,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -10571,7 +10585,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -10585,7 +10599,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -10599,7 +10613,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -10613,7 +10627,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -10627,7 +10641,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -10641,7 +10655,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -10650,35 +10664,44 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -10691,24 +10714,30 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -10716,10 +10745,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -10727,10 +10756,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13286B05-8A10-4B63-9564-B9E81D9D28F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631341AD-E277-432D-AEC2-0B8ACF916203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19406" windowHeight="11606" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
+    <workbookView xWindow="39795" yWindow="-5655" windowWidth="36030" windowHeight="15060" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="ConstructorPainting" sheetId="6" r:id="rId3"/>
     <sheet name="ConstructorBonusType" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2594,216 +2594,217 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>acidDamage + 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceDamage + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceDamage + 3</t>
+  </si>
+  <si>
+    <t>iceDamage + 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightingDamage + 3</t>
+  </si>
+  <si>
+    <t>lightingDamage + 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightingDamage + 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage + 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage + 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage + 24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Shield I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Shield II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Shield III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nimbus Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mecha Shield I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mecha Shield II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mecha Shield III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 30,moveSpeed - 1,fireDamageApplyRate * -0.1,iceDamageApplyRate * -0.1,lightingDamageApplyRate * -0.1,acidDamageApplyRate * -0.1,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 50,moveSpeed - 1,fireDamageApplyRate * -0.15,iceDamageApplyRate * -0.15,lightingDamageApplyRate * -0.15,acidDamageApplyRate * -0.15,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 80,moveSpeed - 1,fireDamageApplyRate * -0.2,iceDamageApplyRate * -0.2,lightingDamageApplyRate * -0.2,acidDamageApplyRate * -0.2,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 60,moveSpeed - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 40,moveSpeed - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 120,moveSpeed - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 30,physicalDamageApplyRate * -0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cockpit_Weapon/Cockpit_Weapon_DoubleGun_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cockpit_Weapon/Cockpit_Weapon_DoubleGun_Lvl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cockpit_Weapon/Cockpit_Weapon_DoubleGun_Lvl3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cockpit_Weapon/Cockpit_Weapon_Mortar_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cockpit_Weapon/Cockpit_Weapon_Raygun_Lvl3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon/Weapon_DoubleGun_lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon/Weapon_GLauncher_lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Shock_Rifle_lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightingDamage + 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightingDamage + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rocket Cannon I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rocket Cannon II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rocket Cannon III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS-G Machine Gun I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid Plasma Rifle I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid Plasma Rifle II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid Plasma Rifle III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightingDamage + 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Sniper_lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>acidDamage + 3</t>
-  </si>
-  <si>
-    <t>acidDamage + 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iceDamage + 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iceDamage + 3</t>
-  </si>
-  <si>
-    <t>iceDamage + 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lightingDamage + 3</t>
-  </si>
-  <si>
-    <t>lightingDamage + 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lightingDamage + 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalDamage + 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalDamage + 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalDamage + 24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energy Shield I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energy Shield II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energy Shield III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nimbus Shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mecha Shield I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mecha Shield II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mecha Shield III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 30,moveSpeed - 1,fireDamageApplyRate * -0.1,iceDamageApplyRate * -0.1,lightingDamageApplyRate * -0.1,acidDamageApplyRate * -0.1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 50,moveSpeed - 1,fireDamageApplyRate * -0.15,iceDamageApplyRate * -0.15,lightingDamageApplyRate * -0.15,acidDamageApplyRate * -0.15,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 80,moveSpeed - 1,fireDamageApplyRate * -0.2,iceDamageApplyRate * -0.2,lightingDamageApplyRate * -0.2,acidDamageApplyRate * -0.2,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 60,moveSpeed - 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 40,moveSpeed - 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 120,moveSpeed - 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 30,physicalDamageApplyRate * -0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cockpit_Weapon/Cockpit_Weapon_DoubleGun_Lvl1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cockpit_Weapon/Cockpit_Weapon_DoubleGun_Lvl2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cockpit_Weapon/Cockpit_Weapon_DoubleGun_Lvl3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cockpit_Weapon/Cockpit_Weapon_Mortar_Lvl1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cockpit_Weapon/Cockpit_Weapon_Raygun_Lvl3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon/Weapon_DoubleGun_lvl1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon/Weapon_GLauncher_lvl1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Shock_Rifle_lvl1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lightingDamage + 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lightingDamage + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rocket Cannon I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rocket Cannon II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rocket Cannon III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS-G Machine Gun I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acid Plasma Rifle I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acid Plasma Rifle II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acid Plasma Rifle III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lightingDamage + 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Sniper_lvl1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3275,31 +3276,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
   <dimension ref="A1:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N145" sqref="N145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
     <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="6.2109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="6.25" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="3.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="41.78515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="24.35546875" style="15" customWidth="1"/>
-    <col min="12" max="12" width="10.35546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="3.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="41.75" style="4" customWidth="1"/>
+    <col min="11" max="11" width="24.375" style="15" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="4" customWidth="1"/>
     <col min="14" max="14" width="20.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="11.85546875" customWidth="1"/>
+    <col min="18" max="18" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -3339,7 +3340,7 @@
       <c r="R1" s="21"/>
       <c r="S1" s="21"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3383,7 +3384,7 @@
       <c r="R2" s="21"/>
       <c r="S2" s="21"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3427,7 +3428,7 @@
       <c r="R3" s="21"/>
       <c r="S3" s="21"/>
     </row>
-    <row r="4" spans="1:22" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3477,7 +3478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3528,7 +3529,7 @@
       </c>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3580,7 +3581,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3632,7 +3633,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3687,7 +3688,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3739,7 +3740,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3790,7 +3791,7 @@
       </c>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:22" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3839,7 +3840,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:22" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3877,7 +3878,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3909,7 +3910,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3943,7 +3944,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:22" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3977,7 +3978,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:22" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -4018,7 +4019,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -4059,7 +4060,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -4103,7 +4104,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -4125,7 +4126,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
@@ -4166,7 +4167,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
@@ -4207,7 +4208,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
@@ -4242,7 +4243,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>19</v>
       </c>
@@ -4283,7 +4284,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
@@ -4324,7 +4325,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21</v>
       </c>
@@ -4359,7 +4360,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22</v>
       </c>
@@ -4403,7 +4404,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
@@ -4447,7 +4448,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24</v>
       </c>
@@ -4485,7 +4486,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
@@ -4517,7 +4518,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>26</v>
       </c>
@@ -4555,7 +4556,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>27</v>
       </c>
@@ -4593,7 +4594,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>28</v>
       </c>
@@ -4634,7 +4635,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>29</v>
       </c>
@@ -4675,7 +4676,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30</v>
       </c>
@@ -4707,7 +4708,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31</v>
       </c>
@@ -4745,7 +4746,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>32</v>
       </c>
@@ -4783,7 +4784,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>33</v>
       </c>
@@ -4821,7 +4822,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>34</v>
       </c>
@@ -4862,7 +4863,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>35</v>
       </c>
@@ -4900,7 +4901,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -4913,7 +4914,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>36</v>
       </c>
@@ -4948,7 +4949,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>37</v>
       </c>
@@ -4983,7 +4984,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>38</v>
       </c>
@@ -5018,7 +5019,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>39</v>
       </c>
@@ -5053,7 +5054,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>40</v>
       </c>
@@ -5091,7 +5092,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>44</v>
       </c>
@@ -5126,7 +5127,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>45</v>
       </c>
@@ -5158,7 +5159,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>46</v>
       </c>
@@ -5193,7 +5194,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>47</v>
       </c>
@@ -5222,7 +5223,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>48</v>
       </c>
@@ -5254,7 +5255,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>49</v>
       </c>
@@ -5286,7 +5287,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>50</v>
       </c>
@@ -5318,7 +5319,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>51</v>
       </c>
@@ -5347,7 +5348,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>52</v>
       </c>
@@ -5379,7 +5380,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>53</v>
       </c>
@@ -5408,7 +5409,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>57</v>
       </c>
@@ -5440,7 +5441,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>58</v>
       </c>
@@ -5472,7 +5473,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>59</v>
       </c>
@@ -5507,7 +5508,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -5520,7 +5521,7 @@
       <c r="J65" s="14"/>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>60</v>
       </c>
@@ -5549,7 +5550,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>61</v>
       </c>
@@ -5578,7 +5579,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>62</v>
       </c>
@@ -5607,7 +5608,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>63</v>
       </c>
@@ -5636,7 +5637,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>64</v>
       </c>
@@ -5665,7 +5666,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>65</v>
       </c>
@@ -5694,7 +5695,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -5707,7 +5708,7 @@
       <c r="J72" s="14"/>
       <c r="K72" s="16"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>66</v>
       </c>
@@ -5715,7 +5716,7 @@
         <v>580</v>
       </c>
       <c r="C73" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D73" t="s">
         <v>94</v>
@@ -5736,10 +5737,10 @@
         <v>257</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>67</v>
       </c>
@@ -5747,7 +5748,7 @@
         <v>579</v>
       </c>
       <c r="C74" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D74" t="s">
         <v>201</v>
@@ -5771,10 +5772,10 @@
         <v>257</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>68</v>
       </c>
@@ -5782,7 +5783,7 @@
         <v>578</v>
       </c>
       <c r="C75" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D75" t="s">
         <v>201</v>
@@ -5800,16 +5801,16 @@
         <v>144</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K75" s="15" t="s">
         <v>257</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>69</v>
       </c>
@@ -5817,7 +5818,7 @@
         <v>322</v>
       </c>
       <c r="C76" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D76" t="s">
         <v>201</v>
@@ -5841,7 +5842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>70</v>
       </c>
@@ -5876,7 +5877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>71</v>
       </c>
@@ -5911,7 +5912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>72</v>
       </c>
@@ -5946,7 +5947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>73</v>
       </c>
@@ -5984,7 +5985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>74</v>
       </c>
@@ -5992,7 +5993,7 @@
         <v>577</v>
       </c>
       <c r="C81" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D81" t="s">
         <v>201</v>
@@ -6013,7 +6014,7 @@
         <v>144</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K81" s="15" t="s">
         <v>257</v>
@@ -6022,7 +6023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -6035,7 +6036,7 @@
       <c r="J82" s="14"/>
       <c r="K82" s="16"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>75</v>
       </c>
@@ -6064,7 +6065,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>76</v>
       </c>
@@ -6093,7 +6094,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>77</v>
       </c>
@@ -6125,7 +6126,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>78</v>
       </c>
@@ -6157,7 +6158,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>79</v>
       </c>
@@ -6189,7 +6190,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>80</v>
       </c>
@@ -6224,7 +6225,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>81</v>
       </c>
@@ -6256,7 +6257,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>82</v>
       </c>
@@ -6288,7 +6289,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>83</v>
       </c>
@@ -6323,7 +6324,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>84</v>
       </c>
@@ -6355,7 +6356,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>85</v>
       </c>
@@ -6387,7 +6388,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>86</v>
       </c>
@@ -6419,7 +6420,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>87</v>
       </c>
@@ -6451,7 +6452,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>88</v>
       </c>
@@ -6483,7 +6484,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>89</v>
       </c>
@@ -6515,7 +6516,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>90</v>
       </c>
@@ -6547,7 +6548,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>91</v>
       </c>
@@ -6579,7 +6580,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>92</v>
       </c>
@@ -6614,7 +6615,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>93</v>
       </c>
@@ -6646,7 +6647,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>94</v>
       </c>
@@ -6678,7 +6679,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>95</v>
       </c>
@@ -6713,7 +6714,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>96</v>
       </c>
@@ -6745,7 +6746,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>97</v>
       </c>
@@ -6777,7 +6778,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>98</v>
       </c>
@@ -6812,7 +6813,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -6825,7 +6826,7 @@
       <c r="J107" s="14"/>
       <c r="K107" s="16"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>99</v>
       </c>
@@ -6857,7 +6858,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>100</v>
       </c>
@@ -6889,7 +6890,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>101</v>
       </c>
@@ -6924,7 +6925,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>102</v>
       </c>
@@ -6956,7 +6957,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>103</v>
       </c>
@@ -6988,7 +6989,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>104</v>
       </c>
@@ -7023,7 +7024,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>105</v>
       </c>
@@ -7055,7 +7056,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>106</v>
       </c>
@@ -7087,7 +7088,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>107</v>
       </c>
@@ -7119,7 +7120,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>108</v>
       </c>
@@ -7154,7 +7155,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>109</v>
       </c>
@@ -7189,7 +7190,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>110</v>
       </c>
@@ -7221,7 +7222,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>111</v>
       </c>
@@ -7253,7 +7254,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>112</v>
       </c>
@@ -7285,7 +7286,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>113</v>
       </c>
@@ -7317,7 +7318,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>114</v>
       </c>
@@ -7349,7 +7350,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -7362,7 +7363,7 @@
       <c r="J124" s="14"/>
       <c r="K124" s="16"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>115</v>
       </c>
@@ -7394,7 +7395,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>116</v>
       </c>
@@ -7426,7 +7427,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>117</v>
       </c>
@@ -7461,7 +7462,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>118</v>
       </c>
@@ -7493,7 +7494,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>119</v>
       </c>
@@ -7525,7 +7526,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>120</v>
       </c>
@@ -7560,7 +7561,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -7573,7 +7574,7 @@
       <c r="J131" s="14"/>
       <c r="K131" s="16"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>121</v>
       </c>
@@ -7599,7 +7600,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>122</v>
       </c>
@@ -7628,10 +7629,10 @@
         <v>652</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>123</v>
       </c>
@@ -7660,7 +7661,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>124</v>
       </c>
@@ -7692,7 +7693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>125</v>
       </c>
@@ -7724,7 +7725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>126</v>
       </c>
@@ -7753,7 +7754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>127</v>
       </c>
@@ -7785,7 +7786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>128</v>
       </c>
@@ -7814,13 +7815,13 @@
         <v>268</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L139" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>129</v>
       </c>
@@ -7846,13 +7847,13 @@
         <v>268</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L140" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>130</v>
       </c>
@@ -7881,7 +7882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>131</v>
       </c>
@@ -7913,7 +7914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>132</v>
       </c>
@@ -7948,7 +7949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="12"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -7961,12 +7962,12 @@
       <c r="J144" s="14"/>
       <c r="K144" s="16"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>133</v>
       </c>
       <c r="B145" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C145" t="s">
         <v>440</v>
@@ -7990,12 +7991,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>134</v>
       </c>
       <c r="B146" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C146" t="s">
         <v>441</v>
@@ -8022,12 +8023,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>135</v>
       </c>
       <c r="B147" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C147" t="s">
         <v>442</v>
@@ -8051,13 +8052,13 @@
         <v>144</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L147" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>136</v>
       </c>
@@ -8086,7 +8087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>137</v>
       </c>
@@ -8115,7 +8116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>138</v>
       </c>
@@ -8147,7 +8148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>139</v>
       </c>
@@ -8155,7 +8156,7 @@
         <v>657</v>
       </c>
       <c r="C151" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D151" t="s">
         <v>96</v>
@@ -8179,7 +8180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>140</v>
       </c>
@@ -8211,7 +8212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>141</v>
       </c>
@@ -8243,7 +8244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>142</v>
       </c>
@@ -8275,7 +8276,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>143</v>
       </c>
@@ -8304,21 +8305,21 @@
         <v>143</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L155" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>144</v>
       </c>
       <c r="B156" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C156" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D156" t="s">
         <v>96</v>
@@ -8339,7 +8340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>145</v>
       </c>
@@ -8371,7 +8372,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>146</v>
       </c>
@@ -8400,18 +8401,18 @@
         <v>143</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L158" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>147</v>
       </c>
       <c r="B159" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C159" t="s">
         <v>452</v>
@@ -8435,12 +8436,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>148</v>
       </c>
       <c r="B160" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C160" t="s">
         <v>453</v>
@@ -8461,18 +8462,18 @@
         <v>144</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>693</v>
+        <v>746</v>
       </c>
       <c r="L160" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>149</v>
       </c>
       <c r="B161" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C161" t="s">
         <v>454</v>
@@ -8496,13 +8497,13 @@
         <v>144</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L161" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>150</v>
       </c>
@@ -8528,13 +8529,13 @@
         <v>144</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L162" s="4">
         <v>37</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>151</v>
       </c>
@@ -8560,13 +8561,13 @@
         <v>144</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L163" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>152</v>
       </c>
@@ -8595,13 +8596,13 @@
         <v>144</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L164" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>153</v>
       </c>
@@ -8609,7 +8610,7 @@
         <v>667</v>
       </c>
       <c r="C165" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D165" t="s">
         <v>96</v>
@@ -8630,7 +8631,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>154</v>
       </c>
@@ -8662,7 +8663,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>155</v>
       </c>
@@ -8688,13 +8689,13 @@
         <v>143</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L167" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>156</v>
       </c>
@@ -8726,7 +8727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>157</v>
       </c>
@@ -8755,7 +8756,7 @@
         <v>143</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K169" s="15" t="s">
         <v>281</v>
@@ -8764,7 +8765,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>158</v>
       </c>
@@ -8796,7 +8797,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>159</v>
       </c>
@@ -8822,13 +8823,13 @@
         <v>143</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L171" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>160</v>
       </c>
@@ -8860,7 +8861,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>161</v>
       </c>
@@ -8886,13 +8887,13 @@
         <v>143</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L173" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>162</v>
       </c>
@@ -8921,13 +8922,13 @@
         <v>143</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L174" s="4">
         <v>49</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>163</v>
       </c>
@@ -8956,7 +8957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>164</v>
       </c>
@@ -8988,7 +8989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>165</v>
       </c>
@@ -9020,7 +9021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>166</v>
       </c>
@@ -9052,7 +9053,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>167</v>
       </c>
@@ -9087,7 +9088,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>168</v>
       </c>
@@ -9095,7 +9096,7 @@
         <v>686</v>
       </c>
       <c r="C180" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D180" t="s">
         <v>96</v>
@@ -9119,7 +9120,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>169</v>
       </c>
@@ -9151,7 +9152,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>170</v>
       </c>
@@ -9183,7 +9184,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>171</v>
       </c>
@@ -9215,7 +9216,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>172</v>
       </c>
@@ -9244,22 +9245,22 @@
         <v>143</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L184">
         <v>56</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E185" s="17"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E186" s="18"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E187" s="19"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="12"/>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
@@ -9272,12 +9273,12 @@
       <c r="J188" s="14"/>
       <c r="K188" s="16"/>
     </row>
-    <row r="189" spans="1:12" ht="70.75" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>176</v>
       </c>
       <c r="B189" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C189" t="s">
         <v>476</v>
@@ -9298,15 +9299,15 @@
         <v>144</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" ht="70.75" x14ac:dyDescent="0.35">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>177</v>
       </c>
       <c r="B190" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C190" t="s">
         <v>477</v>
@@ -9327,15 +9328,15 @@
         <v>144</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" ht="70.75" x14ac:dyDescent="0.35">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>178</v>
       </c>
       <c r="B191" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C191" t="s">
         <v>478</v>
@@ -9359,15 +9360,15 @@
         <v>144</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>179</v>
       </c>
       <c r="B192" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C192" t="s">
         <v>479</v>
@@ -9388,15 +9389,15 @@
         <v>144</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>180</v>
       </c>
       <c r="B193" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C193" t="s">
         <v>480</v>
@@ -9417,15 +9418,15 @@
         <v>144</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>181</v>
       </c>
       <c r="B194" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C194" t="s">
         <v>481</v>
@@ -9449,15 +9450,15 @@
         <v>144</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>182</v>
       </c>
       <c r="B195" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C195" t="s">
         <v>482</v>
@@ -9478,15 +9479,15 @@
         <v>144</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>183</v>
       </c>
       <c r="B196" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C196" t="s">
         <v>483</v>
@@ -9507,18 +9508,18 @@
         <v>144</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K196" s="15" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>184</v>
       </c>
       <c r="B197" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C197" t="s">
         <v>484</v>
@@ -9539,18 +9540,18 @@
         <v>144</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K197" s="15" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>185</v>
       </c>
       <c r="B198" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C198" t="s">
         <v>485</v>
@@ -9574,13 +9575,13 @@
         <v>144</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K198" s="15" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="12"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
@@ -9593,7 +9594,7 @@
       <c r="J199" s="14"/>
       <c r="K199" s="16"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>186</v>
       </c>
@@ -9619,7 +9620,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>187</v>
       </c>
@@ -9645,7 +9646,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>188</v>
       </c>
@@ -9671,7 +9672,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>189</v>
       </c>
@@ -9697,7 +9698,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>190</v>
       </c>
@@ -9751,18 +9752,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.640625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.2109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.25" style="4" customWidth="1"/>
     <col min="6" max="6" width="27.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.640625" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.625" customWidth="1"/>
+    <col min="8" max="8" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -9786,7 +9787,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -9812,7 +9813,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -9841,7 +9842,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -9864,7 +9865,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -9887,7 +9888,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -9910,7 +9911,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1003</v>
       </c>
@@ -9933,7 +9934,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1004</v>
       </c>
@@ -9956,7 +9957,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1005</v>
       </c>
@@ -9979,7 +9980,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1006</v>
       </c>
@@ -10002,7 +10003,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1007</v>
       </c>
@@ -10028,7 +10029,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1008</v>
       </c>
@@ -10051,7 +10052,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1009</v>
       </c>
@@ -10074,7 +10075,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1010</v>
       </c>
@@ -10097,7 +10098,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1011</v>
       </c>
@@ -10118,7 +10119,7 @@
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1012</v>
       </c>
@@ -10142,7 +10143,7 @@
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1013</v>
       </c>
@@ -10163,7 +10164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1014</v>
       </c>
@@ -10184,7 +10185,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1015</v>
       </c>
@@ -10216,15 +10217,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="43.2109375" customWidth="1"/>
-    <col min="6" max="6" width="11.2109375" customWidth="1"/>
+    <col min="1" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="43.25" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" t="s">
@@ -10240,7 +10241,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>110</v>
       </c>
@@ -10260,7 +10261,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -10280,7 +10281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -10300,7 +10301,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -10320,7 +10321,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -10340,7 +10341,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -10362,7 +10363,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -10384,7 +10385,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -10406,7 +10407,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -10428,7 +10429,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -10450,7 +10451,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -10472,7 +10473,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -10494,7 +10495,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -10514,7 +10515,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -10534,7 +10535,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -10554,7 +10555,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -10574,7 +10575,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -10594,7 +10595,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -10614,7 +10615,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -10634,7 +10635,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -10654,7 +10655,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -10674,7 +10675,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -10694,7 +10695,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -10714,15 +10715,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
@@ -10740,15 +10741,15 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.640625" customWidth="1"/>
-    <col min="3" max="3" width="28.2109375" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="37.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -10763,7 +10764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -10780,7 +10781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -10797,7 +10798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -10811,7 +10812,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -10825,7 +10826,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -10839,7 +10840,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -10853,7 +10854,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -10867,7 +10868,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -10881,7 +10882,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -10895,11 +10896,11 @@
         <v>537</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>285</v>
       </c>
@@ -10913,7 +10914,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>296</v>
       </c>
@@ -10927,7 +10928,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>287</v>
       </c>
@@ -10941,7 +10942,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -10955,7 +10956,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>290</v>
       </c>
@@ -10969,7 +10970,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>293</v>
       </c>
@@ -10983,7 +10984,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>299</v>
       </c>
@@ -10997,7 +10998,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>302</v>
       </c>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314A3046-F6B2-4799-9808-F6A68EFD64B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05261022-75A4-4C73-920C-2CD9E6C80264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
+    <workbookView xWindow="35415" yWindow="9270" windowWidth="9075" windowHeight="11385" firstSheet="4" activeTab="4" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -3075,13 +3075,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3379,7 +3379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
   <dimension ref="A1:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G178" sqref="G178"/>
     </sheetView>
   </sheetViews>
@@ -3420,10 +3420,10 @@
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="22"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="1" t="s">
         <v>141</v>
       </c>
@@ -3436,12 +3436,12 @@
       <c r="L1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3480,12 +3480,12 @@
       <c r="L2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -3524,12 +3524,12 @@
       <c r="L3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
     </row>
     <row r="4" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -11168,10 +11168,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595AF412-15AC-4C77-928F-77193CE9ED81}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11180,14 +11180,14 @@
     <col min="2" max="2" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>761</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11204,100 +11204,241 @@
         <v>765</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <f>B4*ConstructorLevel!$B$4</f>
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <f>B4*ConstructorLevel!$B$8</f>
+        <v>72</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <f>B5*ConstructorLevel!$B$4</f>
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <f>B5*ConstructorLevel!$B$8</f>
+        <v>96</v>
+      </c>
+      <c r="F5">
+        <v>500</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f>B6*ConstructorLevel!$B$4</f>
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <f>B6*ConstructorLevel!$B$8</f>
+        <v>360</v>
+      </c>
+      <c r="F6">
+        <v>800</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B7">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <f>B7*ConstructorLevel!$B$4</f>
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <f>B7*ConstructorLevel!$B$8</f>
+        <v>180</v>
+      </c>
+      <c r="F7">
+        <v>1200</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <f>B8*ConstructorLevel!$B$4</f>
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <f>B8*ConstructorLevel!$B$8</f>
+        <v>96</v>
+      </c>
+      <c r="F8">
+        <v>1600</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <f>B9*ConstructorLevel!$B$4</f>
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <f>B9*ConstructorLevel!$B$8</f>
+        <v>240</v>
+      </c>
+      <c r="F9">
+        <v>2000</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f>B10*ConstructorLevel!$B$4</f>
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <f>B10*ConstructorLevel!$B$8</f>
+        <v>120</v>
+      </c>
+      <c r="F10">
+        <v>3000</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B11">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <f>B11*ConstructorLevel!$B$4</f>
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <f>B11*ConstructorLevel!$B$8</f>
+        <v>72</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <f>B12*ConstructorLevel!$B$4</f>
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <f>B12*ConstructorLevel!$B$8</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <f>B13*ConstructorLevel!$B$4</f>
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <f>B13*ConstructorLevel!$B$8</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B14">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <f>B14*ConstructorLevel!$B$4</f>
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <f>B14*ConstructorLevel!$B$8</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B15">
         <v>1</v>
+      </c>
+      <c r="C15">
+        <f>B15*ConstructorLevel!$B$4</f>
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <f>B15*ConstructorLevel!$B$8</f>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -11311,7 +11452,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11390,7 +11531,7 @@
       <c r="B7">
         <v>80</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="22" t="s">
         <v>764</v>
       </c>
     </row>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05261022-75A4-4C73-920C-2CD9E6C80264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545E63E6-0B18-4DD3-A865-A245868CA8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35415" yWindow="9270" windowWidth="9075" windowHeight="11385" firstSheet="4" activeTab="4" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -3379,8 +3379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
   <dimension ref="A1:V204"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G178" sqref="G178"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3612,6 +3612,9 @@
       <c r="K5" s="15" t="s">
         <v>324</v>
       </c>
+      <c r="L5" s="4">
+        <v>201</v>
+      </c>
       <c r="N5" s="1" t="s">
         <v>29</v>
       </c>
@@ -3715,6 +3718,9 @@
       <c r="K7" s="15" t="s">
         <v>325</v>
       </c>
+      <c r="L7" s="4">
+        <v>202</v>
+      </c>
       <c r="N7" s="1" t="s">
         <v>32</v>
       </c>
@@ -3753,7 +3759,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>283</v>
@@ -3769,6 +3775,9 @@
       </c>
       <c r="K8" s="15" t="s">
         <v>253</v>
+      </c>
+      <c r="L8" s="4">
+        <v>206</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>34</v>
@@ -3874,6 +3883,9 @@
       <c r="K10" s="15" t="s">
         <v>253</v>
       </c>
+      <c r="L10" s="4">
+        <v>204</v>
+      </c>
       <c r="N10" s="1" t="s">
         <v>38</v>
       </c>
@@ -3928,6 +3940,9 @@
       <c r="K11" s="15" t="s">
         <v>253</v>
       </c>
+      <c r="L11" s="4">
+        <v>205</v>
+      </c>
       <c r="N11" s="1" t="s">
         <v>39</v>
       </c>
@@ -4153,6 +4168,9 @@
       <c r="K17" s="15" t="s">
         <v>254</v>
       </c>
+      <c r="L17" s="4">
+        <v>207</v>
+      </c>
       <c r="N17" s="1" t="s">
         <v>45</v>
       </c>
@@ -4196,6 +4214,9 @@
       </c>
       <c r="K18" s="15" t="s">
         <v>254</v>
+      </c>
+      <c r="L18" s="4">
+        <v>203</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>507</v>
@@ -10840,7 +10861,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11170,8 +11191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595AF412-15AC-4C77-928F-77193CE9ED81}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545E63E6-0B18-4DD3-A865-A245868CA8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3DBA71-8D45-44C6-A55E-656EA6541A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -2528,18 +2528,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gadget Shot Rifle I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gadget Shot Rifle II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gadget Shot Rifle III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Shot Rifle II</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2884,6 +2872,18 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget Shotgun I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget Shotgun II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget Shotgun III</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3379,8 +3379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
   <dimension ref="A1:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3391,7 +3391,8 @@
     <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="6.25" customWidth="1"/>
     <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="1"/>
+    <col min="7" max="7" width="9.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="3.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="41.75" style="4" customWidth="1"/>
     <col min="11" max="11" width="24.375" style="15" customWidth="1"/>
@@ -3415,7 +3416,7 @@
         <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
@@ -3457,7 +3458,7 @@
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>83</v>
@@ -5840,7 +5841,7 @@
         <v>577</v>
       </c>
       <c r="C73" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D73" t="s">
         <v>93</v>
@@ -5861,7 +5862,7 @@
         <v>256</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -5872,7 +5873,7 @@
         <v>576</v>
       </c>
       <c r="C74" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D74" t="s">
         <v>200</v>
@@ -5896,7 +5897,7 @@
         <v>256</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -5907,7 +5908,7 @@
         <v>575</v>
       </c>
       <c r="C75" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D75" t="s">
         <v>200</v>
@@ -5925,13 +5926,13 @@
         <v>143</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="K75" s="15" t="s">
         <v>256</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -5942,7 +5943,7 @@
         <v>321</v>
       </c>
       <c r="C76" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D76" t="s">
         <v>200</v>
@@ -6117,7 +6118,7 @@
         <v>574</v>
       </c>
       <c r="C81" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D81" t="s">
         <v>200</v>
@@ -6138,7 +6139,7 @@
         <v>143</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="K81" s="15" t="s">
         <v>256</v>
@@ -7753,7 +7754,7 @@
         <v>649</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -7939,7 +7940,7 @@
         <v>267</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="L139" s="4">
         <v>15</v>
@@ -7971,7 +7972,7 @@
         <v>267</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="L140" s="4">
         <v>16</v>
@@ -7982,7 +7983,7 @@
         <v>130</v>
       </c>
       <c r="B141" t="s">
-        <v>676</v>
+        <v>763</v>
       </c>
       <c r="C141" t="s">
         <v>436</v>
@@ -8002,8 +8003,8 @@
       <c r="I141" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="L141" s="4">
-        <v>17</v>
+      <c r="L141">
+        <v>57</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -8011,7 +8012,7 @@
         <v>131</v>
       </c>
       <c r="B142" t="s">
-        <v>677</v>
+        <v>764</v>
       </c>
       <c r="C142" t="s">
         <v>437</v>
@@ -8034,8 +8035,8 @@
       <c r="J142" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="L142" s="4">
-        <v>18</v>
+      <c r="L142">
+        <v>58</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -8043,7 +8044,7 @@
         <v>132</v>
       </c>
       <c r="B143" t="s">
-        <v>678</v>
+        <v>765</v>
       </c>
       <c r="C143" t="s">
         <v>438</v>
@@ -8069,8 +8070,8 @@
       <c r="J143" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="L143" s="4">
-        <v>19</v>
+      <c r="L143">
+        <v>59</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -8091,7 +8092,7 @@
         <v>133</v>
       </c>
       <c r="B145" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C145" t="s">
         <v>439</v>
@@ -8120,7 +8121,7 @@
         <v>134</v>
       </c>
       <c r="B146" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C146" t="s">
         <v>440</v>
@@ -8152,7 +8153,7 @@
         <v>135</v>
       </c>
       <c r="B147" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C147" t="s">
         <v>441</v>
@@ -8176,7 +8177,7 @@
         <v>143</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="L147" s="4">
         <v>22</v>
@@ -8280,7 +8281,7 @@
         <v>654</v>
       </c>
       <c r="C151" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D151" t="s">
         <v>95</v>
@@ -8429,7 +8430,7 @@
         <v>142</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="L155" s="4">
         <v>30</v>
@@ -8440,10 +8441,10 @@
         <v>144</v>
       </c>
       <c r="B156" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C156" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D156" t="s">
         <v>95</v>
@@ -8525,7 +8526,7 @@
         <v>142</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="L158" s="4">
         <v>33</v>
@@ -8536,7 +8537,7 @@
         <v>147</v>
       </c>
       <c r="B159" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C159" t="s">
         <v>451</v>
@@ -8565,7 +8566,7 @@
         <v>148</v>
       </c>
       <c r="B160" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C160" t="s">
         <v>452</v>
@@ -8586,7 +8587,7 @@
         <v>143</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="L160" s="4">
         <v>35</v>
@@ -8597,7 +8598,7 @@
         <v>149</v>
       </c>
       <c r="B161" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C161" t="s">
         <v>453</v>
@@ -8621,7 +8622,7 @@
         <v>143</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="L161" s="4">
         <v>36</v>
@@ -8653,7 +8654,7 @@
         <v>143</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="L162" s="4">
         <v>37</v>
@@ -8685,7 +8686,7 @@
         <v>143</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="L163" s="4">
         <v>38</v>
@@ -8720,7 +8721,7 @@
         <v>143</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="L164" s="4">
         <v>39</v>
@@ -8734,7 +8735,7 @@
         <v>664</v>
       </c>
       <c r="C165" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D165" t="s">
         <v>95</v>
@@ -8781,7 +8782,7 @@
         <v>142</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="L166" s="4">
         <v>41</v>
@@ -8813,7 +8814,7 @@
         <v>142</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="L167" s="4">
         <v>42</v>
@@ -8845,7 +8846,7 @@
         <v>142</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="L168" s="4">
         <v>43</v>
@@ -8880,7 +8881,7 @@
         <v>142</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="K169" s="15" t="s">
         <v>280</v>
@@ -8915,7 +8916,7 @@
         <v>142</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="L170" s="4">
         <v>45</v>
@@ -8947,7 +8948,7 @@
         <v>142</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="L171" s="4">
         <v>46</v>
@@ -8979,7 +8980,7 @@
         <v>142</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="L172" s="4">
         <v>47</v>
@@ -9011,7 +9012,7 @@
         <v>142</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="L173" s="4">
         <v>48</v>
@@ -9046,7 +9047,7 @@
         <v>142</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="L174" s="4">
         <v>49</v>
@@ -9086,7 +9087,7 @@
         <v>164</v>
       </c>
       <c r="B176" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C176" t="s">
         <v>467</v>
@@ -9118,7 +9119,7 @@
         <v>165</v>
       </c>
       <c r="B177" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C177" t="s">
         <v>468</v>
@@ -9150,7 +9151,7 @@
         <v>166</v>
       </c>
       <c r="B178" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C178" t="s">
         <v>469</v>
@@ -9182,7 +9183,7 @@
         <v>167</v>
       </c>
       <c r="B179" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C179" t="s">
         <v>470</v>
@@ -9217,10 +9218,10 @@
         <v>168</v>
       </c>
       <c r="B180" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C180" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D180" t="s">
         <v>95</v>
@@ -9246,7 +9247,7 @@
         <v>169</v>
       </c>
       <c r="B181" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C181" t="s">
         <v>471</v>
@@ -9267,7 +9268,7 @@
         <v>142</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="L181">
         <v>53</v>
@@ -9278,7 +9279,7 @@
         <v>170</v>
       </c>
       <c r="B182" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C182" t="s">
         <v>472</v>
@@ -9310,7 +9311,7 @@
         <v>171</v>
       </c>
       <c r="B183" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C183" t="s">
         <v>473</v>
@@ -9331,7 +9332,7 @@
         <v>142</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="L183">
         <v>55</v>
@@ -9342,7 +9343,7 @@
         <v>172</v>
       </c>
       <c r="B184" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C184" t="s">
         <v>474</v>
@@ -9366,7 +9367,7 @@
         <v>142</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L184">
         <v>56</v>
@@ -9399,7 +9400,7 @@
         <v>176</v>
       </c>
       <c r="B189" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C189" t="s">
         <v>475</v>
@@ -9420,7 +9421,7 @@
         <v>143</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
@@ -9428,7 +9429,7 @@
         <v>177</v>
       </c>
       <c r="B190" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C190" t="s">
         <v>476</v>
@@ -9449,7 +9450,7 @@
         <v>143</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
@@ -9457,7 +9458,7 @@
         <v>178</v>
       </c>
       <c r="B191" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C191" t="s">
         <v>477</v>
@@ -9481,7 +9482,7 @@
         <v>143</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -9489,7 +9490,7 @@
         <v>179</v>
       </c>
       <c r="B192" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C192" t="s">
         <v>478</v>
@@ -9510,7 +9511,7 @@
         <v>143</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
@@ -9518,7 +9519,7 @@
         <v>180</v>
       </c>
       <c r="B193" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C193" t="s">
         <v>479</v>
@@ -9539,7 +9540,7 @@
         <v>143</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
@@ -9547,7 +9548,7 @@
         <v>181</v>
       </c>
       <c r="B194" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C194" t="s">
         <v>480</v>
@@ -9571,7 +9572,7 @@
         <v>143</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
@@ -9579,7 +9580,7 @@
         <v>182</v>
       </c>
       <c r="B195" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C195" t="s">
         <v>481</v>
@@ -9600,7 +9601,7 @@
         <v>143</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
@@ -9608,7 +9609,7 @@
         <v>183</v>
       </c>
       <c r="B196" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C196" t="s">
         <v>482</v>
@@ -9629,7 +9630,7 @@
         <v>143</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="K196" s="15" t="s">
         <v>282</v>
@@ -9640,7 +9641,7 @@
         <v>184</v>
       </c>
       <c r="B197" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C197" t="s">
         <v>483</v>
@@ -9661,7 +9662,7 @@
         <v>143</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="K197" s="15" t="s">
         <v>282</v>
@@ -9672,7 +9673,7 @@
         <v>185</v>
       </c>
       <c r="B198" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C198" t="s">
         <v>484</v>
@@ -9696,7 +9697,7 @@
         <v>143</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="K198" s="15" t="s">
         <v>282</v>
@@ -10336,8 +10337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5352FAA9-AA17-46B4-94C4-2154F637437F}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10935,7 +10936,7 @@
         <v>511</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -10952,7 +10953,7 @@
         <v>512</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -10969,7 +10970,7 @@
         <v>513</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -10986,7 +10987,7 @@
         <v>514</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -11003,7 +11004,7 @@
         <v>515</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -11020,7 +11021,7 @@
         <v>529</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -11037,7 +11038,7 @@
         <v>535</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -11058,7 +11059,7 @@
         <v>530</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -11075,7 +11076,7 @@
         <v>516</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -11092,7 +11093,7 @@
         <v>531</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -11109,7 +11110,7 @@
         <v>532</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -11126,7 +11127,7 @@
         <v>534</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -11143,7 +11144,7 @@
         <v>533</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -11160,7 +11161,7 @@
         <v>536</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -11177,7 +11178,7 @@
         <v>537</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -11204,7 +11205,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -11222,7 +11223,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -11484,7 +11485,7 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C1" t="s">
         <v>105</v>
@@ -11553,7 +11554,7 @@
         <v>80</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3DBA71-8D45-44C6-A55E-656EA6541A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54B0F12-8278-4D2F-92DE-BD41046980CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="783">
   <si>
     <t>名字</t>
   </si>
@@ -569,10 +569,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -677,10 +673,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxArmor + 30,maxHealth + 50,maxMana + 30,moveSpeed + 5,electricPower + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Salticidae</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1230,50 +1222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxArmor + 30,maxHealth + 50,maxMana + 40,moveSpeed + 8,electricPower + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 20,maxHealth + 40,maxMana + 30,moveSpeed + 4,electricPower + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 15,maxHealth + 30,maxMana + 100,moveSpeed + 6,electricPower + 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 60,maxHealth + 100,maxMana + 40,moveSpeed + 8,electricPower + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 60,maxHealth + 100,maxMana + 30,moveSpeed + 5,electricPower + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 100,maxHealth + 200,maxMana + 40,moveSpeed + 8,electricPower + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 40,maxHealth + 80,maxMana + 30,moveSpeed + 4,electricPower + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 80,maxHealth + 160,maxMana + 30,moveSpeed + 4,electricPower + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 30,maxHealth + 60,maxMana + 100,moveSpeed + 6,electricPower + 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 50,maxHealth + 40,maxMana + 100,moveSpeed + 4,electricPower + 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 100,maxHealth + 120,maxMana + 100,moveSpeed + 4,electricPower + 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>electricPower + 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1981,18 +1929,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxArmor + 40,maxHealth + 60,maxMana + 20,moveSpeed + 4,electricPower + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 80,maxHealth + 120,maxMana + 20,moveSpeed + 4,electricPower + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 150,maxHealth + 240,maxMana + 20,moveSpeed + 4,electricPower + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>physicalDamage + 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2884,6 +2820,138 @@
   </si>
   <si>
     <t>Gadget Shotgun III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 30,maxHealth + 50,maxMana + 30,moveSpeed + 5,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 60,maxHealth + 100,maxMana + 30,moveSpeed + 5,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 30,maxHealth + 50,maxMana + 40,moveSpeed + 8,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 60,maxHealth + 100,maxMana + 40,moveSpeed + 8,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 100,maxHealth + 200,maxMana + 40,moveSpeed + 8,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 20,maxHealth + 40,maxMana + 30,moveSpeed + 4,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 40,maxHealth + 80,maxMana + 30,moveSpeed + 4,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 80,maxHealth + 160,maxMana + 30,moveSpeed + 4,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 40,maxHealth + 60,maxMana + 20,moveSpeed + 4,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 80,maxHealth + 120,maxMana + 20,moveSpeed + 4,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 150,maxHealth + 240,maxMana + 20,moveSpeed + 4,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHealth + 20,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHealth + 50,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 10,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 40,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 20,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 60,electricPower + 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critMultiple + 1,electricPower + 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critMultiple + 0.3,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critMultiple + 0.5,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHealth + 120,electricPower + 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitRate * -0.1,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitRate * -0.15,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitRate * -0.2,electricPower + 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricPower + 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricPower + 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorRegeneration + 2,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorRegeneration + 9,electricPower + 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorRegeneration + 4,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 55,maxHealth + 20,maxMana + 30,moveSpeed + 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 100,maxHealth + 60,maxMana + 40,moveSpeed + 6,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 80,maxHealth + 70,maxMana + 40,moveSpeed + 4,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 200,maxHealth + 100,maxMana + 40,moveSpeed + 4,electricPower + 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3379,8 +3447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
   <dimension ref="A1:V204"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J134" sqref="J134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3416,7 +3484,7 @@
         <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
@@ -3426,13 +3494,13 @@
       </c>
       <c r="H1" s="23"/>
       <c r="I1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>78</v>
@@ -3458,7 +3526,7 @@
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>83</v>
@@ -3470,13 +3538,13 @@
         <v>85</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>79</v>
@@ -3537,13 +3605,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="C4" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E4" s="17">
         <v>1</v>
@@ -3552,16 +3620,16 @@
         <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>165</v>
+        <v>750</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>20</v>
@@ -3587,13 +3655,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="C5" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E5" s="18">
         <v>2</v>
@@ -3602,19 +3670,16 @@
         <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>312</v>
+        <v>751</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="L5" s="4">
-        <v>201</v>
+        <v>311</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>29</v>
@@ -3623,10 +3688,10 @@
         <v>21</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>132</v>
@@ -3641,13 +3706,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="C6" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E6" s="17">
         <v>1</v>
@@ -3656,16 +3721,16 @@
         <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>308</v>
+        <v>752</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>31</v>
@@ -3674,10 +3739,10 @@
         <v>22</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>133</v>
@@ -3693,13 +3758,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="C7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E7" s="18">
         <v>2</v>
@@ -3708,19 +3773,16 @@
         <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>311</v>
+        <v>753</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="L7" s="4">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>32</v>
@@ -3729,10 +3791,10 @@
         <v>23</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>134</v>
@@ -3748,13 +3810,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E8" s="19">
         <v>3</v>
@@ -3763,22 +3825,19 @@
         <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>313</v>
+        <v>754</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="L8" s="4">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>34</v>
@@ -3806,13 +3865,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E9" s="17">
         <v>1</v>
@@ -3821,16 +3880,16 @@
         <v>30</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>309</v>
+        <v>755</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>37</v>
@@ -3839,10 +3898,10 @@
         <v>24</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>136</v>
@@ -3858,13 +3917,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E10" s="18">
         <v>2</v>
@@ -3873,19 +3932,16 @@
         <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>314</v>
+        <v>756</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="L10" s="4">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>38</v>
@@ -3894,10 +3950,10 @@
         <v>26</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>137</v>
@@ -3912,13 +3968,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E11" s="19">
         <v>3</v>
@@ -3927,22 +3983,19 @@
         <v>30</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>315</v>
+        <v>757</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="L11" s="4">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>39</v>
@@ -3951,10 +4004,10 @@
         <v>25</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -3964,37 +4017,37 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="D12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E12" s="17">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>310</v>
+        <v>779</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
@@ -4002,31 +4055,31 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="C13" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E13" s="18">
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>316</v>
+        <v>780</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
@@ -4034,31 +4087,31 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="C14" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E14" s="18">
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>317</v>
+        <v>781</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
@@ -4068,31 +4121,31 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E15" s="19">
         <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>318</v>
+        <v>782</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
@@ -4102,13 +4155,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E16" s="17">
         <v>1</v>
@@ -4117,16 +4170,16 @@
         <v>36</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>539</v>
+        <v>758</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>44</v>
@@ -4143,34 +4196,31 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C17" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="D17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E17" s="18">
         <v>2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>540</v>
+        <v>759</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="L17" s="4">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>45</v>
@@ -4187,13 +4237,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C18" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="D18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E18" s="19">
         <v>3</v>
@@ -4202,31 +4252,28 @@
         <v>36</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>541</v>
+        <v>760</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="L18" s="4">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -4256,10 +4303,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C20" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D20" t="s">
         <v>91</v>
@@ -4274,13 +4321,13 @@
         <v>40</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>138</v>
+        <v>761</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>47</v>
@@ -4289,7 +4336,7 @@
         <v>61</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -4297,10 +4344,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C21" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="D21" t="s">
         <v>91</v>
@@ -4315,13 +4362,13 @@
         <v>40</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>138</v>
+        <v>306</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>48</v>
@@ -4338,10 +4385,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="D22" t="s">
         <v>91</v>
@@ -4356,16 +4403,17 @@
         <v>40</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>319</v>
+        <v>762</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>255</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="L22"/>
       <c r="Q22" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -4373,10 +4421,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="C23" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D23" t="s">
         <v>91</v>
@@ -4391,22 +4439,22 @@
         <v>40</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>138</v>
+        <v>763</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -4414,10 +4462,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="C24" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="D24" t="s">
         <v>91</v>
@@ -4432,22 +4480,22 @@
         <v>40</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>319</v>
+        <v>764</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -4455,10 +4503,10 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C25" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="D25" t="s">
         <v>91</v>
@@ -4473,13 +4521,13 @@
         <v>40</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>319</v>
+        <v>765</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>94</v>
@@ -4490,10 +4538,10 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C26" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="D26" t="s">
         <v>91</v>
@@ -4508,22 +4556,22 @@
         <v>40</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>319</v>
+        <v>766</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>89</v>
@@ -4534,10 +4582,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C27" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D27" t="s">
         <v>91</v>
@@ -4552,19 +4600,19 @@
         <v>40</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>319</v>
+        <v>767</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>63</v>
@@ -4578,10 +4626,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C28" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="D28" t="s">
         <v>91</v>
@@ -4596,13 +4644,13 @@
         <v>40</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>138</v>
+        <v>768</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>49</v>
@@ -4616,10 +4664,10 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C29" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="D29" t="s">
         <v>91</v>
@@ -4634,13 +4682,13 @@
         <v>40</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>319</v>
+        <v>769</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -4648,10 +4696,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="C30" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="D30" t="s">
         <v>91</v>
@@ -4666,13 +4714,13 @@
         <v>40</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>138</v>
+        <v>771</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>50</v>
@@ -4686,10 +4734,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C31" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="D31" t="s">
         <v>91</v>
@@ -4704,19 +4752,19 @@
         <v>40</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>319</v>
+        <v>772</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -4724,10 +4772,10 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="C32" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="D32" t="s">
         <v>91</v>
@@ -4742,16 +4790,16 @@
         <v>40</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>319</v>
+        <v>773</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>51</v>
@@ -4765,10 +4813,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C33" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="D33" t="s">
         <v>91</v>
@@ -4777,22 +4825,22 @@
         <v>3</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>319</v>
+        <v>774</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>52</v>
@@ -4806,10 +4854,10 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C34" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D34" t="s">
         <v>91</v>
@@ -4818,19 +4866,19 @@
         <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>319</v>
+        <v>775</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -4838,10 +4886,10 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C35" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="D35" t="s">
         <v>91</v>
@@ -4856,13 +4904,13 @@
         <v>40</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>319</v>
+        <v>770</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>53</v>
@@ -4876,10 +4924,10 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C36" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="D36" t="s">
         <v>91</v>
@@ -4888,19 +4936,19 @@
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>138</v>
+        <v>306</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>54</v>
@@ -4914,10 +4962,10 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C37" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="D37" t="s">
         <v>91</v>
@@ -4926,19 +4974,19 @@
         <v>2</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>319</v>
+        <v>778</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>55</v>
@@ -4952,10 +5000,10 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C38" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="D38" t="s">
         <v>91</v>
@@ -4964,22 +5012,22 @@
         <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>133</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>319</v>
+        <v>777</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>56</v>
@@ -4993,10 +5041,10 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C39" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="D39" t="s">
         <v>91</v>
@@ -5005,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>40</v>
@@ -5014,10 +5062,10 @@
         <v>133</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>138</v>
+        <v>776</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>57</v>
@@ -5044,10 +5092,10 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="C41" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="D41" t="s">
         <v>87</v>
@@ -5059,16 +5107,16 @@
         <v>33</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>73</v>
@@ -5079,10 +5127,10 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="C42" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="D42" t="s">
         <v>87</v>
@@ -5094,16 +5142,16 @@
         <v>33</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>74</v>
@@ -5114,10 +5162,10 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C43" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="D43" t="s">
         <v>87</v>
@@ -5129,16 +5177,16 @@
         <v>28</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>75</v>
@@ -5149,10 +5197,10 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="C44" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="D44" t="s">
         <v>87</v>
@@ -5164,16 +5212,16 @@
         <v>28</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>76</v>
@@ -5184,10 +5232,10 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="C45" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="D45" t="s">
         <v>87</v>
@@ -5199,19 +5247,19 @@
         <v>28</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>77</v>
@@ -5222,10 +5270,10 @@
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C49" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D49" t="s">
         <v>87</v>
@@ -5237,19 +5285,19 @@
         <v>33</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -5257,10 +5305,10 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="C50" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="D50" t="s">
         <v>87</v>
@@ -5269,19 +5317,19 @@
         <v>2</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -5289,10 +5337,10 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="C51" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D51" t="s">
         <v>87</v>
@@ -5301,22 +5349,22 @@
         <v>3</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -5324,10 +5372,10 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C52" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="D52" t="s">
         <v>87</v>
@@ -5336,16 +5384,16 @@
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>134</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -5353,10 +5401,10 @@
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C53" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="D53" t="s">
         <v>87</v>
@@ -5368,16 +5416,16 @@
         <v>36</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>134</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -5385,10 +5433,10 @@
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C54" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="D54" t="s">
         <v>87</v>
@@ -5400,16 +5448,16 @@
         <v>36</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>134</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -5417,10 +5465,10 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C55" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="D55" t="s">
         <v>87</v>
@@ -5432,16 +5480,16 @@
         <v>36</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -5449,10 +5497,10 @@
         <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C56" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="D56" t="s">
         <v>87</v>
@@ -5461,16 +5509,16 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -5478,10 +5526,10 @@
         <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C57" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="D57" t="s">
         <v>87</v>
@@ -5490,19 +5538,19 @@
         <v>3</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -5510,10 +5558,10 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C58" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="D58" t="s">
         <v>87</v>
@@ -5522,16 +5570,16 @@
         <v>2</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -5539,10 +5587,10 @@
         <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="C62" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="D62" t="s">
         <v>87</v>
@@ -5554,16 +5602,16 @@
         <v>30</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="K62" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -5571,10 +5619,10 @@
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="C63" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="D63" t="s">
         <v>87</v>
@@ -5586,16 +5634,16 @@
         <v>30</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="K63" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -5603,10 +5651,10 @@
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="C64" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="D64" t="s">
         <v>87</v>
@@ -5618,19 +5666,19 @@
         <v>30</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="K64" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -5651,13 +5699,13 @@
         <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="C66" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="D66" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E66" s="19">
         <v>3</v>
@@ -5666,13 +5714,13 @@
         <v>28</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="K66" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -5680,13 +5728,13 @@
         <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="C67" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="D67" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E67" s="19">
         <v>3</v>
@@ -5695,13 +5743,13 @@
         <v>30</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K67" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -5709,13 +5757,13 @@
         <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="C68" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="D68" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E68" s="19">
         <v>3</v>
@@ -5724,13 +5772,13 @@
         <v>28</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="K68" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -5738,13 +5786,13 @@
         <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="C69" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="D69" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E69" s="19">
         <v>3</v>
@@ -5753,13 +5801,13 @@
         <v>30</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K69" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -5767,13 +5815,13 @@
         <v>64</v>
       </c>
       <c r="B70" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="C70" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="D70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E70" s="19">
         <v>3</v>
@@ -5782,13 +5830,13 @@
         <v>36</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="K70" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -5796,13 +5844,13 @@
         <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="C71" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="D71" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E71" s="19">
         <v>3</v>
@@ -5811,13 +5859,13 @@
         <v>36</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="K71" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -5838,10 +5886,10 @@
         <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C73" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="D73" t="s">
         <v>93</v>
@@ -5853,16 +5901,16 @@
         <v>33</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K73" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -5870,13 +5918,13 @@
         <v>67</v>
       </c>
       <c r="B74" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="C74" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="D74" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E74" s="18">
         <v>2</v>
@@ -5885,19 +5933,19 @@
         <v>33</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="K74" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -5905,13 +5953,13 @@
         <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="C75" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="D75" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E75" s="19">
         <v>3</v>
@@ -5920,19 +5968,19 @@
         <v>33</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="K75" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -5940,13 +5988,13 @@
         <v>69</v>
       </c>
       <c r="B76" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="C76" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="D76" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E76" s="17">
         <v>1</v>
@@ -5955,13 +6003,13 @@
         <v>30</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K76" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L76" s="4">
         <v>4</v>
@@ -5972,13 +6020,13 @@
         <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C77" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="D77" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E77" s="18">
         <v>2</v>
@@ -5987,16 +6035,16 @@
         <v>30</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="K77" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L77" s="4">
         <v>5</v>
@@ -6007,13 +6055,13 @@
         <v>71</v>
       </c>
       <c r="B78" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="C78" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="D78" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E78" s="19">
         <v>3</v>
@@ -6022,16 +6070,16 @@
         <v>30</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="K78" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L78" s="4">
         <v>6</v>
@@ -6042,31 +6090,31 @@
         <v>72</v>
       </c>
       <c r="B79" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="C79" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D79" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E79" s="17">
         <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K79" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L79" s="4">
         <v>7</v>
@@ -6077,34 +6125,34 @@
         <v>73</v>
       </c>
       <c r="B80" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C80" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="D80" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E80" s="18">
         <v>2</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="K80" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L80" s="4">
         <v>8</v>
@@ -6115,34 +6163,34 @@
         <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="C81" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="D81" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E81" s="19">
         <v>3</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="K81" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L81" s="4">
         <v>9</v>
@@ -6166,28 +6214,28 @@
         <v>75</v>
       </c>
       <c r="B83" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="C83" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="D83" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E83" s="17">
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -6195,28 +6243,28 @@
         <v>76</v>
       </c>
       <c r="B84" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="C84" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="D84" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E84" s="18">
         <v>2</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -6224,31 +6272,31 @@
         <v>77</v>
       </c>
       <c r="B85" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="C85" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="D85" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E85" s="19">
         <v>3</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -6256,13 +6304,13 @@
         <v>78</v>
       </c>
       <c r="B86" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="C86" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="D86" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E86" s="17">
         <v>1</v>
@@ -6271,16 +6319,16 @@
         <v>28</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="K86" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -6288,13 +6336,13 @@
         <v>79</v>
       </c>
       <c r="B87" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="C87" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="D87" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E87" s="18">
         <v>2</v>
@@ -6303,16 +6351,16 @@
         <v>28</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="K87" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -6320,13 +6368,13 @@
         <v>80</v>
       </c>
       <c r="B88" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="C88" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="D88" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E88" s="19">
         <v>3</v>
@@ -6335,19 +6383,19 @@
         <v>28</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="K88" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -6355,31 +6403,31 @@
         <v>81</v>
       </c>
       <c r="B89" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="C89" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="D89" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E89" s="17">
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="K89" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -6387,31 +6435,31 @@
         <v>82</v>
       </c>
       <c r="B90" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C90" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="D90" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E90" s="18">
         <v>2</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="K90" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -6419,34 +6467,34 @@
         <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="C91" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="D91" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E91" s="19">
         <v>3</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G91" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H91" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H91" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="I91" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="K91" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -6454,13 +6502,13 @@
         <v>84</v>
       </c>
       <c r="B92" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="C92" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D92" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E92" s="18">
         <v>2</v>
@@ -6469,16 +6517,16 @@
         <v>30</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="K92" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -6486,31 +6534,31 @@
         <v>85</v>
       </c>
       <c r="B93" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="C93" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D93" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E93" s="17">
         <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="K93" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -6518,13 +6566,13 @@
         <v>86</v>
       </c>
       <c r="B94" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="C94" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="D94" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E94" s="17">
         <v>1</v>
@@ -6533,16 +6581,16 @@
         <v>30</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="K94" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -6550,13 +6598,13 @@
         <v>87</v>
       </c>
       <c r="B95" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="C95" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="D95" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E95" s="18">
         <v>2</v>
@@ -6565,16 +6613,16 @@
         <v>30</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="K95" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -6582,13 +6630,13 @@
         <v>88</v>
       </c>
       <c r="B96" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="C96" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="D96" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E96" s="18">
         <v>2</v>
@@ -6597,16 +6645,16 @@
         <v>30</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="K96" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -6614,13 +6662,13 @@
         <v>89</v>
       </c>
       <c r="B97" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="C97" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D97" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E97" s="18">
         <v>2</v>
@@ -6629,16 +6677,16 @@
         <v>30</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="K97" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -6646,13 +6694,13 @@
         <v>90</v>
       </c>
       <c r="B98" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="C98" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="D98" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E98" s="18">
         <v>2</v>
@@ -6664,13 +6712,13 @@
         <v>40</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="K98" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
@@ -6678,13 +6726,13 @@
         <v>91</v>
       </c>
       <c r="B99" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="C99" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="D99" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E99" s="17">
         <v>1</v>
@@ -6696,13 +6744,13 @@
         <v>40</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="K99" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
@@ -6710,13 +6758,13 @@
         <v>92</v>
       </c>
       <c r="B100" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="C100" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="D100" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E100" s="19">
         <v>3</v>
@@ -6728,16 +6776,16 @@
         <v>40</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="K100" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -6745,13 +6793,13 @@
         <v>93</v>
       </c>
       <c r="B101" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="C101" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="D101" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E101" s="17">
         <v>1</v>
@@ -6760,16 +6808,16 @@
         <v>33</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="K101" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -6777,13 +6825,13 @@
         <v>94</v>
       </c>
       <c r="B102" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="C102" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="D102" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E102" s="18">
         <v>2</v>
@@ -6792,16 +6840,16 @@
         <v>33</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="K102" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
@@ -6809,13 +6857,13 @@
         <v>95</v>
       </c>
       <c r="B103" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="C103" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="D103" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E103" s="19">
         <v>3</v>
@@ -6824,19 +6872,19 @@
         <v>33</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="K103" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -6844,13 +6892,13 @@
         <v>96</v>
       </c>
       <c r="B104" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="C104" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="D104" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E104" s="17">
         <v>1</v>
@@ -6859,16 +6907,16 @@
         <v>33</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="K104" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -6876,13 +6924,13 @@
         <v>97</v>
       </c>
       <c r="B105" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="C105" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="D105" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E105" s="18">
         <v>2</v>
@@ -6891,16 +6939,16 @@
         <v>33</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="K105" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
@@ -6908,13 +6956,13 @@
         <v>98</v>
       </c>
       <c r="B106" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="C106" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="D106" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E106" s="19">
         <v>3</v>
@@ -6923,19 +6971,19 @@
         <v>33</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="K106" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
@@ -6956,10 +7004,10 @@
         <v>99</v>
       </c>
       <c r="B108" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="C108" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="D108" t="s">
         <v>90</v>
@@ -6968,19 +7016,19 @@
         <v>1</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="K108" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -6988,10 +7036,10 @@
         <v>100</v>
       </c>
       <c r="B109" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="C109" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="D109" t="s">
         <v>90</v>
@@ -7000,19 +7048,19 @@
         <v>2</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="K109" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
@@ -7020,10 +7068,10 @@
         <v>101</v>
       </c>
       <c r="B110" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="C110" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="D110" t="s">
         <v>90</v>
@@ -7032,22 +7080,22 @@
         <v>3</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="K110" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -7055,10 +7103,10 @@
         <v>102</v>
       </c>
       <c r="B111" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="C111" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D111" t="s">
         <v>90</v>
@@ -7070,16 +7118,16 @@
         <v>28</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="K111" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
@@ -7087,10 +7135,10 @@
         <v>103</v>
       </c>
       <c r="B112" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="C112" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D112" t="s">
         <v>90</v>
@@ -7102,16 +7150,16 @@
         <v>28</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="K112" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
@@ -7119,10 +7167,10 @@
         <v>104</v>
       </c>
       <c r="B113" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="C113" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D113" t="s">
         <v>90</v>
@@ -7134,19 +7182,19 @@
         <v>28</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="K113" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
@@ -7154,10 +7202,10 @@
         <v>105</v>
       </c>
       <c r="B114" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="C114" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="D114" t="s">
         <v>90</v>
@@ -7169,16 +7217,16 @@
         <v>30</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="K114" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -7186,10 +7234,10 @@
         <v>106</v>
       </c>
       <c r="B115" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="C115" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="D115" t="s">
         <v>90</v>
@@ -7201,16 +7249,16 @@
         <v>30</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="K115" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
@@ -7218,10 +7266,10 @@
         <v>107</v>
       </c>
       <c r="B116" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="C116" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D116" t="s">
         <v>90</v>
@@ -7230,19 +7278,19 @@
         <v>2</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="K116" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
@@ -7250,10 +7298,10 @@
         <v>108</v>
       </c>
       <c r="B117" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="C117" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="D117" t="s">
         <v>90</v>
@@ -7262,22 +7310,22 @@
         <v>3</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G117" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H117" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H117" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="I117" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="K117" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -7285,10 +7333,10 @@
         <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="C118" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="D118" t="s">
         <v>90</v>
@@ -7303,16 +7351,16 @@
         <v>40</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="K118" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
@@ -7320,10 +7368,10 @@
         <v>110</v>
       </c>
       <c r="B119" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="C119" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="D119" t="s">
         <v>90</v>
@@ -7335,16 +7383,16 @@
         <v>30</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="K119" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
@@ -7352,10 +7400,10 @@
         <v>111</v>
       </c>
       <c r="B120" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="C120" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="D120" t="s">
         <v>90</v>
@@ -7367,16 +7415,16 @@
         <v>30</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="K120" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
@@ -7384,10 +7432,10 @@
         <v>112</v>
       </c>
       <c r="B121" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="C121" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="D121" t="s">
         <v>90</v>
@@ -7399,16 +7447,16 @@
         <v>30</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="K121" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
@@ -7416,10 +7464,10 @@
         <v>113</v>
       </c>
       <c r="B122" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="C122" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="D122" t="s">
         <v>90</v>
@@ -7434,13 +7482,13 @@
         <v>40</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="K122" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
@@ -7448,10 +7496,10 @@
         <v>114</v>
       </c>
       <c r="B123" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="C123" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="D123" t="s">
         <v>90</v>
@@ -7466,13 +7514,13 @@
         <v>40</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="K123" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -7493,13 +7541,13 @@
         <v>115</v>
       </c>
       <c r="B125" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C125" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="D125" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E125" s="17">
         <v>1</v>
@@ -7508,16 +7556,16 @@
         <v>28</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K125" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
@@ -7525,13 +7573,13 @@
         <v>116</v>
       </c>
       <c r="B126" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="C126" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="D126" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E126" s="18">
         <v>2</v>
@@ -7540,16 +7588,16 @@
         <v>28</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="K126" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
@@ -7557,13 +7605,13 @@
         <v>117</v>
       </c>
       <c r="B127" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="C127" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="D127" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E127" s="19">
         <v>3</v>
@@ -7572,19 +7620,19 @@
         <v>28</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="K127" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
@@ -7592,13 +7640,13 @@
         <v>118</v>
       </c>
       <c r="B128" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="C128" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="D128" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E128" s="17">
         <v>1</v>
@@ -7607,16 +7655,16 @@
         <v>36</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K128" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -7624,13 +7672,13 @@
         <v>119</v>
       </c>
       <c r="B129" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="C129" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="D129" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E129" s="18">
         <v>2</v>
@@ -7639,16 +7687,16 @@
         <v>36</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K129" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -7656,13 +7704,13 @@
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="C130" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D130" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E130" s="19">
         <v>3</v>
@@ -7671,19 +7719,19 @@
         <v>36</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K130" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -7704,13 +7752,13 @@
         <v>121</v>
       </c>
       <c r="B132" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="C132" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="D132" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E132" s="17">
         <v>1</v>
@@ -7719,10 +7767,10 @@
         <v>36</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -7730,13 +7778,13 @@
         <v>122</v>
       </c>
       <c r="B133" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="C133" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="D133" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E133" s="17">
         <v>1</v>
@@ -7745,16 +7793,16 @@
         <v>33</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -7762,13 +7810,13 @@
         <v>123</v>
       </c>
       <c r="B134" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="C134" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="D134" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E134" s="17">
         <v>1</v>
@@ -7777,13 +7825,16 @@
         <v>28</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>647</v>
+        <v>631</v>
+      </c>
+      <c r="L134" s="4">
+        <v>110</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -7791,13 +7842,13 @@
         <v>124</v>
       </c>
       <c r="B135" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="C135" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="D135" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E135" s="18">
         <v>2</v>
@@ -7806,13 +7857,13 @@
         <v>33</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="L135" s="4">
         <v>11</v>
@@ -7823,13 +7874,13 @@
         <v>125</v>
       </c>
       <c r="B136" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C136" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="D136" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E136" s="18">
         <v>2</v>
@@ -7838,13 +7889,13 @@
         <v>33</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="L136" s="4">
         <v>12</v>
@@ -7855,13 +7906,13 @@
         <v>126</v>
       </c>
       <c r="B137" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C137" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="D137" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E137" s="17">
         <v>1</v>
@@ -7870,10 +7921,10 @@
         <v>33</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L137" s="4">
         <v>13</v>
@@ -7884,13 +7935,13 @@
         <v>127</v>
       </c>
       <c r="B138" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="C138" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="D138" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E138" s="18">
         <v>2</v>
@@ -7899,13 +7950,13 @@
         <v>33</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="L138" s="4">
         <v>14</v>
@@ -7916,13 +7967,13 @@
         <v>128</v>
       </c>
       <c r="B139" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="C139" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="D139" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E139" s="19">
         <v>3</v>
@@ -7931,16 +7982,16 @@
         <v>33</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="L139" s="4">
         <v>15</v>
@@ -7951,28 +8002,28 @@
         <v>129</v>
       </c>
       <c r="B140" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="C140" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="D140" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E140" s="18">
         <v>2</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="L140" s="4">
         <v>16</v>
@@ -7983,13 +8034,13 @@
         <v>130</v>
       </c>
       <c r="B141" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="C141" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="D141" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E141" s="17">
         <v>1</v>
@@ -7998,10 +8049,10 @@
         <v>33</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L141">
         <v>57</v>
@@ -8012,13 +8063,13 @@
         <v>131</v>
       </c>
       <c r="B142" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="C142" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="D142" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E142" s="18">
         <v>2</v>
@@ -8027,13 +8078,13 @@
         <v>33</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="L142">
         <v>58</v>
@@ -8044,13 +8095,13 @@
         <v>132</v>
       </c>
       <c r="B143" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="C143" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="D143" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E143" s="19">
         <v>3</v>
@@ -8059,16 +8110,16 @@
         <v>33</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="L143">
         <v>59</v>
@@ -8092,10 +8143,10 @@
         <v>133</v>
       </c>
       <c r="B145" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="C145" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="D145" t="s">
         <v>95</v>
@@ -8107,10 +8158,10 @@
         <v>33</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L145" s="4">
         <v>20</v>
@@ -8121,10 +8172,10 @@
         <v>134</v>
       </c>
       <c r="B146" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="C146" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="D146" t="s">
         <v>95</v>
@@ -8136,13 +8187,13 @@
         <v>33</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="L146" s="4">
         <v>21</v>
@@ -8153,10 +8204,10 @@
         <v>135</v>
       </c>
       <c r="B147" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="C147" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="D147" t="s">
         <v>95</v>
@@ -8168,16 +8219,16 @@
         <v>33</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="L147" s="4">
         <v>22</v>
@@ -8188,10 +8239,10 @@
         <v>136</v>
       </c>
       <c r="B148" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="C148" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="D148" t="s">
         <v>95</v>
@@ -8203,10 +8254,10 @@
         <v>33</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L148" s="4">
         <v>23</v>
@@ -8217,10 +8268,10 @@
         <v>137</v>
       </c>
       <c r="B149" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="C149" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="D149" t="s">
         <v>95</v>
@@ -8232,10 +8283,10 @@
         <v>33</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L149" s="4">
         <v>24</v>
@@ -8246,10 +8297,10 @@
         <v>138</v>
       </c>
       <c r="B150" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="C150" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="D150" t="s">
         <v>95</v>
@@ -8261,13 +8312,13 @@
         <v>33</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L150" s="4">
         <v>25</v>
@@ -8278,10 +8329,10 @@
         <v>139</v>
       </c>
       <c r="B151" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="C151" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="D151" t="s">
         <v>95</v>
@@ -8293,13 +8344,13 @@
         <v>33</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="L151" s="4">
         <v>26</v>
@@ -8310,10 +8361,10 @@
         <v>140</v>
       </c>
       <c r="B152" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="C152" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="D152" t="s">
         <v>95</v>
@@ -8325,13 +8376,13 @@
         <v>33</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="L152" s="4">
         <v>27</v>
@@ -8342,10 +8393,10 @@
         <v>141</v>
       </c>
       <c r="B153" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="C153" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="D153" t="s">
         <v>95</v>
@@ -8357,13 +8408,13 @@
         <v>33</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="L153" s="4">
         <v>28</v>
@@ -8374,10 +8425,10 @@
         <v>142</v>
       </c>
       <c r="B154" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="C154" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="D154" t="s">
         <v>95</v>
@@ -8389,13 +8440,13 @@
         <v>33</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="L154" s="4">
         <v>29</v>
@@ -8406,10 +8457,10 @@
         <v>143</v>
       </c>
       <c r="B155" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="C155" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="D155" t="s">
         <v>95</v>
@@ -8421,16 +8472,16 @@
         <v>33</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="L155" s="4">
         <v>30</v>
@@ -8441,10 +8492,10 @@
         <v>144</v>
       </c>
       <c r="B156" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="C156" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="D156" t="s">
         <v>95</v>
@@ -8456,10 +8507,10 @@
         <v>33</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L156" s="4">
         <v>31</v>
@@ -8470,10 +8521,10 @@
         <v>145</v>
       </c>
       <c r="B157" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="C157" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="D157" t="s">
         <v>95</v>
@@ -8485,13 +8536,13 @@
         <v>33</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="L157" s="4">
         <v>32</v>
@@ -8502,10 +8553,10 @@
         <v>146</v>
       </c>
       <c r="B158" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="C158" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D158" t="s">
         <v>95</v>
@@ -8517,16 +8568,16 @@
         <v>33</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="L158" s="4">
         <v>33</v>
@@ -8537,10 +8588,10 @@
         <v>147</v>
       </c>
       <c r="B159" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="C159" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="D159" t="s">
         <v>95</v>
@@ -8549,13 +8600,13 @@
         <v>1</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L159" s="4">
         <v>34</v>
@@ -8566,10 +8617,10 @@
         <v>148</v>
       </c>
       <c r="B160" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="C160" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="D160" t="s">
         <v>95</v>
@@ -8578,16 +8629,16 @@
         <v>2</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="L160" s="4">
         <v>35</v>
@@ -8598,10 +8649,10 @@
         <v>149</v>
       </c>
       <c r="B161" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="C161" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="D161" t="s">
         <v>95</v>
@@ -8610,19 +8661,19 @@
         <v>3</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="L161" s="4">
         <v>36</v>
@@ -8633,10 +8684,10 @@
         <v>150</v>
       </c>
       <c r="B162" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="C162" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="D162" t="s">
         <v>95</v>
@@ -8645,16 +8696,16 @@
         <v>1</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="L162" s="4">
         <v>37</v>
@@ -8665,10 +8716,10 @@
         <v>151</v>
       </c>
       <c r="B163" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="C163" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="D163" t="s">
         <v>95</v>
@@ -8677,16 +8728,16 @@
         <v>2</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="L163" s="4">
         <v>38</v>
@@ -8697,10 +8748,10 @@
         <v>152</v>
       </c>
       <c r="B164" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="C164" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="D164" t="s">
         <v>95</v>
@@ -8709,19 +8760,19 @@
         <v>3</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="L164" s="4">
         <v>39</v>
@@ -8732,10 +8783,10 @@
         <v>153</v>
       </c>
       <c r="B165" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="C165" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="D165" t="s">
         <v>95</v>
@@ -8744,13 +8795,13 @@
         <v>1</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L165" s="4">
         <v>40</v>
@@ -8761,10 +8812,10 @@
         <v>154</v>
       </c>
       <c r="B166" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="C166" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="D166" t="s">
         <v>95</v>
@@ -8773,16 +8824,16 @@
         <v>2</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="L166" s="4">
         <v>41</v>
@@ -8793,10 +8844,10 @@
         <v>155</v>
       </c>
       <c r="B167" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="C167" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="D167" t="s">
         <v>95</v>
@@ -8805,16 +8856,16 @@
         <v>3</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="L167" s="4">
         <v>42</v>
@@ -8825,10 +8876,10 @@
         <v>156</v>
       </c>
       <c r="B168" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="C168" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="D168" t="s">
         <v>95</v>
@@ -8837,16 +8888,16 @@
         <v>4</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="L168" s="4">
         <v>43</v>
@@ -8857,10 +8908,10 @@
         <v>157</v>
       </c>
       <c r="B169" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="C169" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="D169" t="s">
         <v>95</v>
@@ -8872,19 +8923,19 @@
         <v>32</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="K169" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L169" s="4">
         <v>44</v>
@@ -8895,10 +8946,10 @@
         <v>158</v>
       </c>
       <c r="B170" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="C170" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="D170" t="s">
         <v>95</v>
@@ -8907,16 +8958,16 @@
         <v>1</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="L170" s="4">
         <v>45</v>
@@ -8927,10 +8978,10 @@
         <v>159</v>
       </c>
       <c r="B171" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="C171" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="D171" t="s">
         <v>95</v>
@@ -8939,16 +8990,16 @@
         <v>2</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="L171" s="4">
         <v>46</v>
@@ -8959,10 +9010,10 @@
         <v>160</v>
       </c>
       <c r="B172" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="C172" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="D172" t="s">
         <v>95</v>
@@ -8971,16 +9022,16 @@
         <v>3</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="L172" s="4">
         <v>47</v>
@@ -8991,10 +9042,10 @@
         <v>161</v>
       </c>
       <c r="B173" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="C173" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="D173" t="s">
         <v>95</v>
@@ -9003,16 +9054,16 @@
         <v>4</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="L173" s="4">
         <v>48</v>
@@ -9023,10 +9074,10 @@
         <v>162</v>
       </c>
       <c r="B174" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="C174" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="D174" t="s">
         <v>95</v>
@@ -9035,19 +9086,19 @@
         <v>5</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="L174" s="4">
         <v>49</v>
@@ -9058,10 +9109,10 @@
         <v>163</v>
       </c>
       <c r="B175" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="C175" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="D175" t="s">
         <v>95</v>
@@ -9073,10 +9124,10 @@
         <v>33</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L175" s="4">
         <v>17</v>
@@ -9087,10 +9138,10 @@
         <v>164</v>
       </c>
       <c r="B176" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="C176" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="D176" t="s">
         <v>95</v>
@@ -9102,13 +9153,13 @@
         <v>33</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J176" s="4" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="L176" s="4">
         <v>18</v>
@@ -9119,10 +9170,10 @@
         <v>165</v>
       </c>
       <c r="B177" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="C177" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="D177" t="s">
         <v>95</v>
@@ -9134,13 +9185,13 @@
         <v>33</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="L177" s="4">
         <v>19</v>
@@ -9151,10 +9202,10 @@
         <v>166</v>
       </c>
       <c r="B178" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="C178" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="D178" t="s">
         <v>95</v>
@@ -9166,13 +9217,13 @@
         <v>33</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J178" s="4" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="L178">
         <v>50</v>
@@ -9183,10 +9234,10 @@
         <v>167</v>
       </c>
       <c r="B179" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="C179" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="D179" t="s">
         <v>95</v>
@@ -9198,16 +9249,16 @@
         <v>33</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="L179">
         <v>51</v>
@@ -9218,10 +9269,10 @@
         <v>168</v>
       </c>
       <c r="B180" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="C180" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="D180" t="s">
         <v>95</v>
@@ -9233,10 +9284,10 @@
         <v>33</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L180">
         <v>52</v>
@@ -9247,10 +9298,10 @@
         <v>169</v>
       </c>
       <c r="B181" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="C181" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D181" t="s">
         <v>95</v>
@@ -9262,13 +9313,13 @@
         <v>33</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="L181">
         <v>53</v>
@@ -9279,10 +9330,10 @@
         <v>170</v>
       </c>
       <c r="B182" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="C182" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="D182" t="s">
         <v>95</v>
@@ -9294,13 +9345,13 @@
         <v>33</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="L182">
         <v>54</v>
@@ -9311,10 +9362,10 @@
         <v>171</v>
       </c>
       <c r="B183" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="C183" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D183" t="s">
         <v>95</v>
@@ -9326,13 +9377,13 @@
         <v>33</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="L183">
         <v>55</v>
@@ -9343,10 +9394,10 @@
         <v>172</v>
       </c>
       <c r="B184" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="C184" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="D184" t="s">
         <v>95</v>
@@ -9358,16 +9409,16 @@
         <v>33</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="L184">
         <v>56</v>
@@ -9400,28 +9451,28 @@
         <v>176</v>
       </c>
       <c r="B189" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="C189" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="D189" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E189" s="17">
         <v>1</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
@@ -9429,28 +9480,28 @@
         <v>177</v>
       </c>
       <c r="B190" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="C190" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="D190" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E190" s="18">
         <v>2</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
@@ -9458,31 +9509,31 @@
         <v>178</v>
       </c>
       <c r="B191" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="C191" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D191" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E191" s="19">
         <v>3</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -9490,13 +9541,13 @@
         <v>179</v>
       </c>
       <c r="B192" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="C192" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D192" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E192" s="17">
         <v>1</v>
@@ -9505,13 +9556,13 @@
         <v>30</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
@@ -9519,13 +9570,13 @@
         <v>180</v>
       </c>
       <c r="B193" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="C193" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="D193" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E193" s="18">
         <v>2</v>
@@ -9534,13 +9585,13 @@
         <v>30</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
@@ -9548,13 +9599,13 @@
         <v>181</v>
       </c>
       <c r="B194" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="C194" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D194" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E194" s="19">
         <v>3</v>
@@ -9563,16 +9614,16 @@
         <v>30</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
@@ -9580,13 +9631,13 @@
         <v>182</v>
       </c>
       <c r="B195" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="C195" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="D195" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E195" s="18">
         <v>2</v>
@@ -9595,13 +9646,13 @@
         <v>36</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
@@ -9609,13 +9660,13 @@
         <v>183</v>
       </c>
       <c r="B196" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="C196" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="D196" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E196" s="17">
         <v>1</v>
@@ -9624,16 +9675,16 @@
         <v>28</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="K196" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
@@ -9641,13 +9692,13 @@
         <v>184</v>
       </c>
       <c r="B197" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="C197" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="D197" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E197" s="18">
         <v>2</v>
@@ -9656,16 +9707,16 @@
         <v>28</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="K197" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
@@ -9673,13 +9724,13 @@
         <v>185</v>
       </c>
       <c r="B198" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="C198" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="D198" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E198" s="19">
         <v>3</v>
@@ -9688,19 +9739,19 @@
         <v>28</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="K198" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
@@ -9721,13 +9772,13 @@
         <v>186</v>
       </c>
       <c r="B200" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C200" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="D200" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="E200" s="17">
         <v>1</v>
@@ -9736,10 +9787,10 @@
         <v>36</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
@@ -9747,13 +9798,13 @@
         <v>187</v>
       </c>
       <c r="B201" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="C201" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="D201" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="E201" s="18">
         <v>2</v>
@@ -9762,10 +9813,10 @@
         <v>36</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
@@ -9773,13 +9824,13 @@
         <v>188</v>
       </c>
       <c r="B202" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="C202" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="D202" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="E202" s="18">
         <v>2</v>
@@ -9788,10 +9839,10 @@
         <v>36</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
@@ -9799,13 +9850,13 @@
         <v>189</v>
       </c>
       <c r="B203" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="C203" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D203" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="E203" s="17">
         <v>1</v>
@@ -9814,10 +9865,10 @@
         <v>36</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
@@ -9825,13 +9876,13 @@
         <v>190</v>
       </c>
       <c r="B204" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="C204" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="D204" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="E204" s="17">
         <v>1</v>
@@ -9840,10 +9891,10 @@
         <v>36</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -9894,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -9920,19 +9971,19 @@
         <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="F2" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" t="s">
         <v>206</v>
-      </c>
-      <c r="G2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -9955,10 +10006,10 @@
         <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>86</v>
@@ -9969,13 +10020,13 @@
         <v>1000</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -9992,10 +10043,10 @@
         <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>88</v>
@@ -10007,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -10015,13 +10066,13 @@
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -10038,13 +10089,13 @@
         <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -10053,7 +10104,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -10061,13 +10112,13 @@
         <v>1004</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -10084,13 +10135,13 @@
         <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -10099,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -10107,10 +10158,10 @@
         <v>1006</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>96</v>
@@ -10122,7 +10173,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -10130,10 +10181,10 @@
         <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>88</v>
@@ -10148,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -10156,13 +10207,13 @@
         <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -10179,13 +10230,13 @@
         <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -10194,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -10202,13 +10253,13 @@
         <v>1010</v>
       </c>
       <c r="B14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -10225,13 +10276,13 @@
         <v>1011</v>
       </c>
       <c r="B15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -10246,13 +10297,13 @@
         <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E16">
         <v>1005</v>
@@ -10270,13 +10321,13 @@
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E17"/>
       <c r="G17" t="b">
@@ -10291,13 +10342,13 @@
         <v>1014</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -10312,13 +10363,13 @@
         <v>1015</v>
       </c>
       <c r="B19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -10337,7 +10388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5352FAA9-AA17-46B4-94C4-2154F637437F}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -10413,16 +10464,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" t="s">
         <v>145</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>146</v>
       </c>
-      <c r="E4" t="s">
-        <v>147</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -10433,16 +10484,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" t="s">
         <v>145</v>
       </c>
-      <c r="D5" t="s">
-        <v>146</v>
-      </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -10453,16 +10504,16 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
         <v>145</v>
       </c>
-      <c r="D6" t="s">
-        <v>146</v>
-      </c>
       <c r="E6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -10473,16 +10524,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E7" t="s">
         <v>114</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -10495,16 +10546,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
         <v>115</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -10517,16 +10568,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E9" t="s">
         <v>116</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -10539,10 +10590,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E10" t="s">
         <v>117</v>
@@ -10561,10 +10612,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" t="s">
         <v>118</v>
@@ -10583,10 +10634,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" t="s">
         <v>119</v>
@@ -10605,10 +10656,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
         <v>120</v>
@@ -10627,10 +10678,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E14" t="s">
         <v>121</v>
@@ -10647,10 +10698,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E15" t="s">
         <v>122</v>
@@ -10667,16 +10718,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E16" t="s">
         <v>123</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -10687,16 +10738,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E17" t="s">
         <v>124</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -10707,16 +10758,16 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E18" t="s">
         <v>125</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -10727,10 +10778,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s">
         <v>126</v>
@@ -10747,10 +10798,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" t="s">
         <v>127</v>
@@ -10767,10 +10818,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E21" t="s">
         <v>128</v>
@@ -10787,10 +10838,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E22" t="s">
         <v>129</v>
@@ -10807,10 +10858,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E23" t="s">
         <v>130</v>
@@ -10827,10 +10878,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E24" t="s">
         <v>131</v>
@@ -10862,7 +10913,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10933,10 +10984,10 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -10950,10 +11001,10 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -10967,10 +11018,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -10984,10 +11035,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -11001,10 +11052,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -11018,10 +11069,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -11035,10 +11086,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -11047,53 +11098,53 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -11107,78 +11158,78 @@
         <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>
@@ -11205,7 +11256,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -11223,7 +11274,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -11272,7 +11323,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -11316,7 +11367,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -11360,7 +11411,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -11382,7 +11433,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B11">
         <v>0.6</v>
@@ -11401,7 +11452,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B12">
         <v>0.5</v>
@@ -11485,7 +11536,7 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="C1" t="s">
         <v>105</v>
@@ -11521,7 +11572,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -11554,7 +11605,7 @@
         <v>80</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54B0F12-8278-4D2F-92DE-BD41046980CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C5BB5A-E9BB-4AA5-9935-965AA35C191C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="ConstructorMechType" sheetId="8" r:id="rId5"/>
     <sheet name="ConstructorLevel" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2571,18 +2571,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxArmor + 30,moveSpeed - 1,fireDamageApplyRate * -0.1,iceDamageApplyRate * -0.1,lightingDamageApplyRate * -0.1,acidDamageApplyRate * -0.1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 50,moveSpeed - 1,fireDamageApplyRate * -0.15,iceDamageApplyRate * -0.15,lightingDamageApplyRate * -0.15,acidDamageApplyRate * -0.15,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 80,moveSpeed - 1,fireDamageApplyRate * -0.2,iceDamageApplyRate * -0.2,lightingDamageApplyRate * -0.2,acidDamageApplyRate * -0.2,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>maxArmor + 60,moveSpeed - 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2952,6 +2940,18 @@
   </si>
   <si>
     <t>maxArmor + 200,maxHealth + 100,maxMana + 40,moveSpeed + 4,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 50,moveSpeed - 1,fireDamageApplyRate * -0.15,iceDamageApplyRate * -0.15,lightingDamageApplyRate * -0.15,acidDamageApplyRate * -0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 30,moveSpeed - 1,fireDamageApplyRate * -0.1,iceDamageApplyRate * -0.1,lightingDamageApplyRate * -0.1,acidDamageApplyRate * -0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 80,moveSpeed - 1,fireDamageApplyRate * -0.2,iceDamageApplyRate * -0.2,lightingDamageApplyRate * -0.2,acidDamageApplyRate * -0.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3447,8 +3447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
   <dimension ref="A1:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J134" sqref="J134"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J178" sqref="J178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3484,7 +3484,7 @@
         <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
@@ -3526,7 +3526,7 @@
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>83</v>
@@ -3626,7 +3626,7 @@
         <v>141</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>311</v>
@@ -3676,7 +3676,7 @@
         <v>141</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>311</v>
@@ -3727,7 +3727,7 @@
         <v>141</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>312</v>
@@ -3779,7 +3779,7 @@
         <v>141</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>312</v>
@@ -3834,7 +3834,7 @@
         <v>141</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>251</v>
@@ -3886,7 +3886,7 @@
         <v>141</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>251</v>
@@ -3938,7 +3938,7 @@
         <v>141</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>251</v>
@@ -3992,7 +3992,7 @@
         <v>141</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>251</v>
@@ -4038,7 +4038,7 @@
         <v>141</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>251</v>
@@ -4076,7 +4076,7 @@
         <v>141</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>251</v>
@@ -4108,7 +4108,7 @@
         <v>141</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>251</v>
@@ -4142,7 +4142,7 @@
         <v>141</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>251</v>
@@ -4176,7 +4176,7 @@
         <v>143</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>252</v>
@@ -4217,7 +4217,7 @@
         <v>143</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>252</v>
@@ -4261,7 +4261,7 @@
         <v>143</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>252</v>
@@ -4324,7 +4324,7 @@
         <v>142</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>253</v>
@@ -4406,7 +4406,7 @@
         <v>142</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>253</v>
@@ -4442,7 +4442,7 @@
         <v>142</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>253</v>
@@ -4483,7 +4483,7 @@
         <v>142</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="K24" s="15" t="s">
         <v>253</v>
@@ -4524,7 +4524,7 @@
         <v>143</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>254</v>
@@ -4562,7 +4562,7 @@
         <v>141</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="K26" s="15" t="s">
         <v>253</v>
@@ -4606,7 +4606,7 @@
         <v>141</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>253</v>
@@ -4647,7 +4647,7 @@
         <v>141</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="K28" s="15" t="s">
         <v>253</v>
@@ -4685,7 +4685,7 @@
         <v>141</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="K29" s="15" t="s">
         <v>253</v>
@@ -4717,7 +4717,7 @@
         <v>143</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="K30" s="15" t="s">
         <v>254</v>
@@ -4755,7 +4755,7 @@
         <v>143</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="K31" s="15" t="s">
         <v>254</v>
@@ -4796,7 +4796,7 @@
         <v>143</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="K32" s="15" t="s">
         <v>254</v>
@@ -4837,7 +4837,7 @@
         <v>141</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="K33" s="15" t="s">
         <v>253</v>
@@ -4875,7 +4875,7 @@
         <v>143</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="K34" s="15" t="s">
         <v>253</v>
@@ -4907,7 +4907,7 @@
         <v>143</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K35" s="15" t="s">
         <v>253</v>
@@ -4983,7 +4983,7 @@
         <v>143</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="K37" s="15" t="s">
         <v>253</v>
@@ -5024,7 +5024,7 @@
         <v>133</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="K38" s="15" t="s">
         <v>253</v>
@@ -5062,7 +5062,7 @@
         <v>133</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="K39" s="15" t="s">
         <v>253</v>
@@ -5889,7 +5889,7 @@
         <v>561</v>
       </c>
       <c r="C73" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D73" t="s">
         <v>93</v>
@@ -5910,7 +5910,7 @@
         <v>254</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -5921,7 +5921,7 @@
         <v>560</v>
       </c>
       <c r="C74" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D74" t="s">
         <v>198</v>
@@ -5945,7 +5945,7 @@
         <v>254</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -5956,7 +5956,7 @@
         <v>559</v>
       </c>
       <c r="C75" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D75" t="s">
         <v>198</v>
@@ -5980,7 +5980,7 @@
         <v>254</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -5991,7 +5991,7 @@
         <v>308</v>
       </c>
       <c r="C76" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D76" t="s">
         <v>198</v>
@@ -6166,7 +6166,7 @@
         <v>558</v>
       </c>
       <c r="C81" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D81" t="s">
         <v>198</v>
@@ -6187,7 +6187,7 @@
         <v>142</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="K81" s="15" t="s">
         <v>254</v>
@@ -7802,7 +7802,7 @@
         <v>633</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -8023,7 +8023,7 @@
         <v>265</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="L140" s="4">
         <v>16</v>
@@ -8034,7 +8034,7 @@
         <v>130</v>
       </c>
       <c r="B141" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C141" t="s">
         <v>423</v>
@@ -8063,7 +8063,7 @@
         <v>131</v>
       </c>
       <c r="B142" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C142" t="s">
         <v>424</v>
@@ -8095,7 +8095,7 @@
         <v>132</v>
       </c>
       <c r="B143" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C143" t="s">
         <v>425</v>
@@ -8143,7 +8143,7 @@
         <v>133</v>
       </c>
       <c r="B145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C145" t="s">
         <v>426</v>
@@ -8172,7 +8172,7 @@
         <v>134</v>
       </c>
       <c r="B146" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C146" t="s">
         <v>427</v>
@@ -8204,7 +8204,7 @@
         <v>135</v>
       </c>
       <c r="B147" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C147" t="s">
         <v>428</v>
@@ -8332,7 +8332,7 @@
         <v>638</v>
       </c>
       <c r="C151" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D151" t="s">
         <v>95</v>
@@ -8492,10 +8492,10 @@
         <v>144</v>
       </c>
       <c r="B156" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C156" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D156" t="s">
         <v>95</v>
@@ -8588,7 +8588,7 @@
         <v>147</v>
       </c>
       <c r="B159" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C159" t="s">
         <v>438</v>
@@ -8617,7 +8617,7 @@
         <v>148</v>
       </c>
       <c r="B160" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C160" t="s">
         <v>439</v>
@@ -8638,7 +8638,7 @@
         <v>142</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="L160" s="4">
         <v>35</v>
@@ -8649,7 +8649,7 @@
         <v>149</v>
       </c>
       <c r="B161" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C161" t="s">
         <v>440</v>
@@ -8786,7 +8786,7 @@
         <v>648</v>
       </c>
       <c r="C165" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D165" t="s">
         <v>95</v>
@@ -8833,7 +8833,7 @@
         <v>141</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="L166" s="4">
         <v>41</v>
@@ -8865,7 +8865,7 @@
         <v>141</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="L167" s="4">
         <v>42</v>
@@ -8897,7 +8897,7 @@
         <v>141</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="L168" s="4">
         <v>43</v>
@@ -8932,7 +8932,7 @@
         <v>141</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="K169" s="15" t="s">
         <v>278</v>
@@ -8967,7 +8967,7 @@
         <v>141</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="L170" s="4">
         <v>45</v>
@@ -8999,7 +8999,7 @@
         <v>141</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="L171" s="4">
         <v>46</v>
@@ -9063,7 +9063,7 @@
         <v>141</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="L173" s="4">
         <v>48</v>
@@ -9098,7 +9098,7 @@
         <v>141</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="L174" s="4">
         <v>49</v>
@@ -9272,7 +9272,7 @@
         <v>664</v>
       </c>
       <c r="C180" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D180" t="s">
         <v>95</v>
@@ -9472,7 +9472,7 @@
         <v>142</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>687</v>
+        <v>781</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
@@ -9501,7 +9501,7 @@
         <v>142</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>688</v>
+        <v>780</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
@@ -9533,7 +9533,7 @@
         <v>142</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>689</v>
+        <v>782</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -9562,7 +9562,7 @@
         <v>142</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
@@ -9591,7 +9591,7 @@
         <v>142</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
@@ -9623,7 +9623,7 @@
         <v>142</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
@@ -9652,7 +9652,7 @@
         <v>142</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
@@ -9681,7 +9681,7 @@
         <v>142</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="K196" s="15" t="s">
         <v>280</v>
@@ -9713,7 +9713,7 @@
         <v>142</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="K197" s="15" t="s">
         <v>280</v>
@@ -9748,7 +9748,7 @@
         <v>142</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="K198" s="15" t="s">
         <v>280</v>
@@ -10987,7 +10987,7 @@
         <v>498</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -11004,7 +11004,7 @@
         <v>499</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -11021,7 +11021,7 @@
         <v>500</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -11038,7 +11038,7 @@
         <v>501</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -11055,7 +11055,7 @@
         <v>502</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -11072,7 +11072,7 @@
         <v>516</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -11089,7 +11089,7 @@
         <v>522</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -11110,7 +11110,7 @@
         <v>517</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -11127,7 +11127,7 @@
         <v>503</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -11144,7 +11144,7 @@
         <v>518</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -11161,7 +11161,7 @@
         <v>519</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -11178,7 +11178,7 @@
         <v>521</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -11195,7 +11195,7 @@
         <v>520</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -11212,7 +11212,7 @@
         <v>523</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -11229,7 +11229,7 @@
         <v>524</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -11256,7 +11256,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -11274,7 +11274,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -11536,7 +11536,7 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C1" t="s">
         <v>105</v>
@@ -11605,7 +11605,7 @@
         <v>80</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C5BB5A-E9BB-4AA5-9935-965AA35C191C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849C55E9-987E-4749-B74F-D414563B5567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
+    <workbookView xWindow="28680" yWindow="6075" windowWidth="29040" windowHeight="15840" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="ConstructorMechType" sheetId="8" r:id="rId5"/>
     <sheet name="ConstructorLevel" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3447,8 +3447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
   <dimension ref="A1:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J178" sqref="J178"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L134" sqref="L134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7547,7 +7547,7 @@
         <v>414</v>
       </c>
       <c r="D125" t="s">
-        <v>264</v>
+        <v>86</v>
       </c>
       <c r="E125" s="17">
         <v>1</v>
@@ -7834,7 +7834,7 @@
         <v>631</v>
       </c>
       <c r="L134" s="4">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849C55E9-987E-4749-B74F-D414563B5567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1406F311-DD0C-4348-868E-5DAD6A72D110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6075" windowWidth="29040" windowHeight="15840" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="ConstructorMechType" sheetId="8" r:id="rId5"/>
     <sheet name="ConstructorLevel" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="785">
   <si>
     <t>名字</t>
   </si>
@@ -2952,6 +2952,14 @@
   </si>
   <si>
     <t>maxArmor + 80,moveSpeed - 1,fireDamageApplyRate * -0.2,iceDamageApplyRate * -0.2,lightingDamageApplyRate * -0.2,acidDamageApplyRate * -0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124,125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage + 2,electricPower + 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3448,7 +3456,7 @@
   <dimension ref="A1:V204"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L134" sqref="L134"/>
+      <selection activeCell="J137" sqref="J137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3464,7 +3472,7 @@
     <col min="9" max="9" width="3.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="41.75" style="4" customWidth="1"/>
     <col min="11" max="11" width="24.375" style="15" customWidth="1"/>
-    <col min="12" max="12" width="10.375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="15" customWidth="1"/>
     <col min="14" max="14" width="20.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="13.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.625" style="1" customWidth="1"/>
@@ -3502,7 +3510,7 @@
       <c r="K1" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="15" t="s">
         <v>78</v>
       </c>
       <c r="N1" s="24"/>
@@ -3546,7 +3554,7 @@
       <c r="K2" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="15" t="s">
         <v>79</v>
       </c>
       <c r="N2" s="24"/>
@@ -3590,7 +3598,7 @@
       <c r="K3" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="15" t="s">
         <v>80</v>
       </c>
       <c r="N3" s="24"/>
@@ -4411,7 +4419,7 @@
       <c r="K22" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="L22"/>
+      <c r="L22" s="1"/>
       <c r="Q22" s="1" t="s">
         <v>273</v>
       </c>
@@ -5909,7 +5917,7 @@
       <c r="K73" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="L73" s="4" t="s">
+      <c r="L73" s="15" t="s">
         <v>702</v>
       </c>
     </row>
@@ -5944,7 +5952,7 @@
       <c r="K74" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="L74" s="4" t="s">
+      <c r="L74" s="15" t="s">
         <v>703</v>
       </c>
     </row>
@@ -5979,7 +5987,7 @@
       <c r="K75" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="L75" s="4" t="s">
+      <c r="L75" s="15" t="s">
         <v>704</v>
       </c>
     </row>
@@ -6011,7 +6019,7 @@
       <c r="K76" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="L76" s="4">
+      <c r="L76" s="15">
         <v>4</v>
       </c>
     </row>
@@ -6046,7 +6054,7 @@
       <c r="K77" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="L77" s="4">
+      <c r="L77" s="15">
         <v>5</v>
       </c>
     </row>
@@ -6081,7 +6089,7 @@
       <c r="K78" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="L78" s="4">
+      <c r="L78" s="15">
         <v>6</v>
       </c>
     </row>
@@ -6116,7 +6124,7 @@
       <c r="K79" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="L79" s="4">
+      <c r="L79" s="15">
         <v>7</v>
       </c>
     </row>
@@ -6154,7 +6162,7 @@
       <c r="K80" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="L80" s="4">
+      <c r="L80" s="15">
         <v>8</v>
       </c>
     </row>
@@ -6192,7 +6200,7 @@
       <c r="K81" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="L81" s="4">
+      <c r="L81" s="15">
         <v>9</v>
       </c>
     </row>
@@ -7801,7 +7809,7 @@
       <c r="J133" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="L133" s="4" t="s">
+      <c r="L133" s="15" t="s">
         <v>706</v>
       </c>
     </row>
@@ -7831,10 +7839,10 @@
         <v>265</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="L134" s="4">
-        <v>125</v>
+        <v>784</v>
+      </c>
+      <c r="L134" s="15" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -7865,7 +7873,7 @@
       <c r="J135" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="L135" s="4">
+      <c r="L135" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7897,7 +7905,7 @@
       <c r="J136" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="L136" s="4">
+      <c r="L136" s="15">
         <v>12</v>
       </c>
     </row>
@@ -7926,7 +7934,7 @@
       <c r="I137" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="L137" s="4">
+      <c r="L137" s="15">
         <v>13</v>
       </c>
     </row>
@@ -7958,7 +7966,7 @@
       <c r="J138" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="L138" s="4">
+      <c r="L138" s="15">
         <v>14</v>
       </c>
     </row>
@@ -7993,7 +8001,7 @@
       <c r="J139" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="L139" s="4">
+      <c r="L139" s="15">
         <v>15</v>
       </c>
     </row>
@@ -8025,7 +8033,7 @@
       <c r="J140" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="L140" s="4">
+      <c r="L140" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8054,7 +8062,7 @@
       <c r="I141" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="L141">
+      <c r="L141" s="1">
         <v>57</v>
       </c>
     </row>
@@ -8086,7 +8094,7 @@
       <c r="J142" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="L142">
+      <c r="L142" s="1">
         <v>58</v>
       </c>
     </row>
@@ -8121,7 +8129,7 @@
       <c r="J143" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="L143">
+      <c r="L143" s="1">
         <v>59</v>
       </c>
     </row>
@@ -8163,7 +8171,7 @@
       <c r="I145" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L145" s="4">
+      <c r="L145" s="15">
         <v>20</v>
       </c>
     </row>
@@ -8195,7 +8203,7 @@
       <c r="J146" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="L146" s="4">
+      <c r="L146" s="15">
         <v>21</v>
       </c>
     </row>
@@ -8230,7 +8238,7 @@
       <c r="J147" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="L147" s="4">
+      <c r="L147" s="15">
         <v>22</v>
       </c>
     </row>
@@ -8259,7 +8267,7 @@
       <c r="I148" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L148" s="4">
+      <c r="L148" s="15">
         <v>23</v>
       </c>
     </row>
@@ -8288,7 +8296,7 @@
       <c r="I149" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L149" s="4">
+      <c r="L149" s="15">
         <v>24</v>
       </c>
     </row>
@@ -8320,7 +8328,7 @@
       <c r="I150" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L150" s="4">
+      <c r="L150" s="15">
         <v>25</v>
       </c>
     </row>
@@ -8352,7 +8360,7 @@
       <c r="J151" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="L151" s="4">
+      <c r="L151" s="15">
         <v>26</v>
       </c>
     </row>
@@ -8384,7 +8392,7 @@
       <c r="J152" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="L152" s="4">
+      <c r="L152" s="15">
         <v>27</v>
       </c>
     </row>
@@ -8416,7 +8424,7 @@
       <c r="J153" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="L153" s="4">
+      <c r="L153" s="15">
         <v>28</v>
       </c>
     </row>
@@ -8448,7 +8456,7 @@
       <c r="J154" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="L154" s="4">
+      <c r="L154" s="15">
         <v>29</v>
       </c>
     </row>
@@ -8483,7 +8491,7 @@
       <c r="J155" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="L155" s="4">
+      <c r="L155" s="15">
         <v>30</v>
       </c>
     </row>
@@ -8512,7 +8520,7 @@
       <c r="I156" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="L156" s="4">
+      <c r="L156" s="15">
         <v>31</v>
       </c>
     </row>
@@ -8544,7 +8552,7 @@
       <c r="J157" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="L157" s="4">
+      <c r="L157" s="15">
         <v>32</v>
       </c>
     </row>
@@ -8579,7 +8587,7 @@
       <c r="J158" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="L158" s="4">
+      <c r="L158" s="15">
         <v>33</v>
       </c>
     </row>
@@ -8608,7 +8616,7 @@
       <c r="I159" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L159" s="4">
+      <c r="L159" s="15">
         <v>34</v>
       </c>
     </row>
@@ -8640,7 +8648,7 @@
       <c r="J160" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="L160" s="4">
+      <c r="L160" s="15">
         <v>35</v>
       </c>
     </row>
@@ -8675,7 +8683,7 @@
       <c r="J161" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="L161" s="4">
+      <c r="L161" s="15">
         <v>36</v>
       </c>
     </row>
@@ -8707,7 +8715,7 @@
       <c r="J162" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="L162" s="4">
+      <c r="L162" s="15">
         <v>37</v>
       </c>
     </row>
@@ -8739,7 +8747,7 @@
       <c r="J163" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="L163" s="4">
+      <c r="L163" s="15">
         <v>38</v>
       </c>
     </row>
@@ -8774,7 +8782,7 @@
       <c r="J164" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="L164" s="4">
+      <c r="L164" s="15">
         <v>39</v>
       </c>
     </row>
@@ -8803,7 +8811,7 @@
       <c r="I165" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="L165" s="4">
+      <c r="L165" s="15">
         <v>40</v>
       </c>
     </row>
@@ -8835,7 +8843,7 @@
       <c r="J166" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="L166" s="4">
+      <c r="L166" s="15">
         <v>41</v>
       </c>
     </row>
@@ -8867,7 +8875,7 @@
       <c r="J167" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="L167" s="4">
+      <c r="L167" s="15">
         <v>42</v>
       </c>
     </row>
@@ -8899,7 +8907,7 @@
       <c r="J168" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="L168" s="4">
+      <c r="L168" s="15">
         <v>43</v>
       </c>
     </row>
@@ -8937,7 +8945,7 @@
       <c r="K169" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="L169" s="4">
+      <c r="L169" s="15">
         <v>44</v>
       </c>
     </row>
@@ -8969,7 +8977,7 @@
       <c r="J170" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="L170" s="4">
+      <c r="L170" s="15">
         <v>45</v>
       </c>
     </row>
@@ -9001,7 +9009,7 @@
       <c r="J171" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="L171" s="4">
+      <c r="L171" s="15">
         <v>46</v>
       </c>
     </row>
@@ -9033,7 +9041,7 @@
       <c r="J172" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="L172" s="4">
+      <c r="L172" s="15">
         <v>47</v>
       </c>
     </row>
@@ -9065,7 +9073,7 @@
       <c r="J173" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="L173" s="4">
+      <c r="L173" s="15">
         <v>48</v>
       </c>
     </row>
@@ -9100,7 +9108,7 @@
       <c r="J174" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="L174" s="4">
+      <c r="L174" s="15">
         <v>49</v>
       </c>
     </row>
@@ -9129,7 +9137,7 @@
       <c r="I175" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="L175" s="4">
+      <c r="L175" s="15">
         <v>17</v>
       </c>
     </row>
@@ -9161,7 +9169,7 @@
       <c r="J176" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="L176" s="4">
+      <c r="L176" s="15">
         <v>18</v>
       </c>
     </row>
@@ -9193,7 +9201,7 @@
       <c r="J177" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="L177" s="4">
+      <c r="L177" s="15">
         <v>19</v>
       </c>
     </row>
@@ -9225,7 +9233,7 @@
       <c r="J178" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="L178">
+      <c r="L178" s="1">
         <v>50</v>
       </c>
     </row>
@@ -9260,7 +9268,7 @@
       <c r="J179" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="L179">
+      <c r="L179" s="1">
         <v>51</v>
       </c>
     </row>
@@ -9289,7 +9297,7 @@
       <c r="I180" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="L180">
+      <c r="L180" s="1">
         <v>52</v>
       </c>
     </row>
@@ -9321,7 +9329,7 @@
       <c r="J181" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="L181">
+      <c r="L181" s="1">
         <v>53</v>
       </c>
     </row>
@@ -9353,7 +9361,7 @@
       <c r="J182" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="L182">
+      <c r="L182" s="1">
         <v>54</v>
       </c>
     </row>
@@ -9385,7 +9393,7 @@
       <c r="J183" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="L183">
+      <c r="L183" s="1">
         <v>55</v>
       </c>
     </row>
@@ -9420,7 +9428,7 @@
       <c r="J184" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="L184">
+      <c r="L184" s="1">
         <v>56</v>
       </c>
     </row>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1406F311-DD0C-4348-868E-5DAD6A72D110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D47249C-E277-411D-A93A-6E6AA1553FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
+    <workbookView xWindow="28680" yWindow="6075" windowWidth="29040" windowHeight="15840" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="ConstructorMechType" sheetId="8" r:id="rId5"/>
     <sheet name="ConstructorLevel" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2955,11 +2955,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>124,125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>physicalDamage + 2,electricPower + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124,139</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3455,8 +3455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
   <dimension ref="A1:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J137" sqref="J137"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K137" sqref="K137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7839,10 +7839,10 @@
         <v>265</v>
       </c>
       <c r="J134" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="L134" s="15" t="s">
         <v>784</v>
-      </c>
-      <c r="L134" s="15" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D47249C-E277-411D-A93A-6E6AA1553FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0887704A-CFC2-4A3D-9D3B-E74C81752D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6075" windowWidth="29040" windowHeight="15840" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="ConstructorMechType" sheetId="8" r:id="rId5"/>
     <sheet name="ConstructorLevel" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2959,7 +2959,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>124,139</t>
+    <t>124,139,16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3455,8 +3455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
   <dimension ref="A1:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K137" sqref="K137"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M137" sqref="M137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0887704A-CFC2-4A3D-9D3B-E74C81752D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D5F141-E282-41ED-9832-93A6BB1F66C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
@@ -2959,7 +2959,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>124,139,16</t>
+    <t>142,139,16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3455,8 +3455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
   <dimension ref="A1:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M137" sqref="M137"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L134" sqref="L134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D5F141-E282-41ED-9832-93A6BB1F66C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535F0924-7FC6-4792-8AA3-06A43B71A6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
+    <workbookView xWindow="45405" yWindow="480" windowWidth="28800" windowHeight="27285" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -2959,7 +2959,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>142,139,16</t>
+    <t>142,139,143</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3456,7 +3456,7 @@
   <dimension ref="A1:V204"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L134" sqref="L134"/>
+      <selection activeCell="P108" sqref="P108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535F0924-7FC6-4792-8AA3-06A43B71A6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A853233-CB3A-413D-99A7-72EEF2960EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45405" yWindow="480" windowWidth="28800" windowHeight="27285" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
+    <workbookView xWindow="50550" yWindow="-1095" windowWidth="28800" windowHeight="27285" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -2959,7 +2959,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>142,139,143</t>
+    <t>12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3455,8 +3455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
   <dimension ref="A1:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P108" sqref="P108"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J124" sqref="J124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6019,9 +6019,6 @@
       <c r="K76" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="L76" s="15">
-        <v>4</v>
-      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
@@ -6054,9 +6051,6 @@
       <c r="K77" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="L77" s="15">
-        <v>5</v>
-      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
@@ -6089,9 +6083,6 @@
       <c r="K78" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="L78" s="15">
-        <v>6</v>
-      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -6124,9 +6115,6 @@
       <c r="K79" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="L79" s="15">
-        <v>7</v>
-      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
@@ -6162,11 +6150,8 @@
       <c r="K80" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="L80" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>74</v>
       </c>
@@ -6200,11 +6185,8 @@
       <c r="K81" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="L81" s="15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -6217,7 +6199,7 @@
       <c r="J82" s="14"/>
       <c r="K82" s="16"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>75</v>
       </c>
@@ -6246,7 +6228,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>76</v>
       </c>
@@ -6275,7 +6257,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>77</v>
       </c>
@@ -6307,7 +6289,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>78</v>
       </c>
@@ -6339,7 +6321,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>79</v>
       </c>
@@ -6371,7 +6353,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>80</v>
       </c>
@@ -6406,7 +6388,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>81</v>
       </c>
@@ -6438,7 +6420,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>82</v>
       </c>
@@ -6470,7 +6452,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>83</v>
       </c>
@@ -6505,7 +6487,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>84</v>
       </c>
@@ -6537,7 +6519,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>85</v>
       </c>
@@ -6569,7 +6551,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>86</v>
       </c>
@@ -6601,7 +6583,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>87</v>
       </c>
@@ -6633,7 +6615,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>88</v>
       </c>
@@ -7905,9 +7887,6 @@
       <c r="J136" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="L136" s="15">
-        <v>12</v>
-      </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137">
@@ -7934,9 +7913,6 @@
       <c r="I137" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="L137" s="15">
-        <v>13</v>
-      </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138">
@@ -7966,9 +7942,6 @@
       <c r="J138" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="L138" s="15">
-        <v>14</v>
-      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139">
@@ -8001,9 +7974,6 @@
       <c r="J139" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="L139" s="15">
-        <v>15</v>
-      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140">
@@ -8033,9 +8003,6 @@
       <c r="J140" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="L140" s="15">
-        <v>16</v>
-      </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141">
@@ -8062,9 +8029,7 @@
       <c r="I141" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="L141" s="1">
-        <v>57</v>
-      </c>
+      <c r="L141" s="1"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142">
@@ -8094,9 +8059,7 @@
       <c r="J142" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="L142" s="1">
-        <v>58</v>
-      </c>
+      <c r="L142" s="1"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143">
@@ -8129,9 +8092,7 @@
       <c r="J143" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="L143" s="1">
-        <v>59</v>
-      </c>
+      <c r="L143" s="1"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="12"/>
@@ -8146,7 +8107,7 @@
       <c r="J144" s="14"/>
       <c r="K144" s="16"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>133</v>
       </c>
@@ -8171,11 +8132,8 @@
       <c r="I145" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L145" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>134</v>
       </c>
@@ -8203,11 +8161,8 @@
       <c r="J146" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="L146" s="15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>135</v>
       </c>
@@ -8238,11 +8193,8 @@
       <c r="J147" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="L147" s="15">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>136</v>
       </c>
@@ -8267,11 +8219,8 @@
       <c r="I148" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L148" s="15">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>137</v>
       </c>
@@ -8296,11 +8245,8 @@
       <c r="I149" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L149" s="15">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>138</v>
       </c>
@@ -8328,11 +8274,8 @@
       <c r="I150" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L150" s="15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>139</v>
       </c>
@@ -8360,11 +8303,8 @@
       <c r="J151" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="L151" s="15">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>140</v>
       </c>
@@ -8392,11 +8332,8 @@
       <c r="J152" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="L152" s="15">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>141</v>
       </c>
@@ -8424,11 +8361,8 @@
       <c r="J153" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="L153" s="15">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>142</v>
       </c>
@@ -8456,11 +8390,8 @@
       <c r="J154" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="L154" s="15">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>143</v>
       </c>
@@ -8491,11 +8422,8 @@
       <c r="J155" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="L155" s="15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>144</v>
       </c>
@@ -8520,11 +8448,8 @@
       <c r="I156" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="L156" s="15">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>145</v>
       </c>
@@ -8552,11 +8477,8 @@
       <c r="J157" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="L157" s="15">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>146</v>
       </c>
@@ -8587,11 +8509,8 @@
       <c r="J158" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="L158" s="15">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>147</v>
       </c>
@@ -8616,11 +8535,8 @@
       <c r="I159" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L159" s="15">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>148</v>
       </c>
@@ -8648,11 +8564,8 @@
       <c r="J160" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="L160" s="15">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>149</v>
       </c>
@@ -8683,11 +8596,8 @@
       <c r="J161" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="L161" s="15">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>150</v>
       </c>
@@ -8715,11 +8625,8 @@
       <c r="J162" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="L162" s="15">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>151</v>
       </c>
@@ -8747,11 +8654,8 @@
       <c r="J163" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="L163" s="15">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>152</v>
       </c>
@@ -8782,11 +8686,8 @@
       <c r="J164" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="L164" s="15">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>153</v>
       </c>
@@ -8811,11 +8712,8 @@
       <c r="I165" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="L165" s="15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>154</v>
       </c>
@@ -8843,11 +8741,8 @@
       <c r="J166" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="L166" s="15">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>155</v>
       </c>
@@ -8875,11 +8770,8 @@
       <c r="J167" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="L167" s="15">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>156</v>
       </c>
@@ -8907,11 +8799,8 @@
       <c r="J168" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="L168" s="15">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>157</v>
       </c>
@@ -8945,11 +8834,8 @@
       <c r="K169" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="L169" s="15">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>158</v>
       </c>
@@ -8977,11 +8863,8 @@
       <c r="J170" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="L170" s="15">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>159</v>
       </c>
@@ -9009,11 +8892,8 @@
       <c r="J171" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="L171" s="15">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>160</v>
       </c>
@@ -9041,11 +8921,8 @@
       <c r="J172" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="L172" s="15">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>161</v>
       </c>
@@ -9073,11 +8950,8 @@
       <c r="J173" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="L173" s="15">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>162</v>
       </c>
@@ -9108,11 +8982,8 @@
       <c r="J174" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="L174" s="15">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>163</v>
       </c>
@@ -9137,11 +9008,8 @@
       <c r="I175" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="L175" s="15">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>164</v>
       </c>
@@ -9168,9 +9036,6 @@
       </c>
       <c r="J176" s="4" t="s">
         <v>633</v>
-      </c>
-      <c r="L176" s="15">
-        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
@@ -9201,9 +9066,6 @@
       <c r="J177" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="L177" s="15">
-        <v>19</v>
-      </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178">
@@ -9233,9 +9095,7 @@
       <c r="J178" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="L178" s="1">
-        <v>50</v>
-      </c>
+      <c r="L178" s="1"/>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179">
@@ -9268,9 +9128,7 @@
       <c r="J179" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="L179" s="1">
-        <v>51</v>
-      </c>
+      <c r="L179" s="1"/>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180">
@@ -9297,9 +9155,7 @@
       <c r="I180" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="L180" s="1">
-        <v>52</v>
-      </c>
+      <c r="L180" s="1"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181">
@@ -9329,9 +9185,7 @@
       <c r="J181" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="L181" s="1">
-        <v>53</v>
-      </c>
+      <c r="L181" s="1"/>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182">
@@ -9361,9 +9215,7 @@
       <c r="J182" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="L182" s="1">
-        <v>54</v>
-      </c>
+      <c r="L182" s="1"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183">
@@ -9393,9 +9245,7 @@
       <c r="J183" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="L183" s="1">
-        <v>55</v>
-      </c>
+      <c r="L183" s="1"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184">
@@ -9428,9 +9278,7 @@
       <c r="J184" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="L184" s="1">
-        <v>56</v>
-      </c>
+      <c r="L184" s="1"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E185" s="17"/>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A853233-CB3A-413D-99A7-72EEF2960EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D37B313-8DD6-4C43-BBA1-935FCE941F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50550" yWindow="-1095" windowWidth="28800" windowHeight="27285" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="ConstructorMechType" sheetId="8" r:id="rId5"/>
     <sheet name="ConstructorLevel" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2959,7 +2959,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12</t>
+    <t>22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3455,8 +3455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
   <dimension ref="A1:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J124" sqref="J124"/>
+    <sheetView tabSelected="1" topLeftCell="C118" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L135" sqref="L135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D37B313-8DD6-4C43-BBA1-935FCE941F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834425E2-D5E2-4363-B850-953FD29E5AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
+    <workbookView xWindow="42390" yWindow="-1140" windowWidth="28800" windowHeight="27285" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="ConstructorMechType" sheetId="8" r:id="rId5"/>
     <sheet name="ConstructorLevel" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2959,7 +2959,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22</t>
+    <t>31,12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3455,8 +3455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
   <dimension ref="A1:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C118" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L135" sqref="L135"/>
+    <sheetView tabSelected="1" topLeftCell="C109" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M143" sqref="M143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834425E2-D5E2-4363-B850-953FD29E5AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8B0760-CAFC-4A14-879C-F27165014EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42390" yWindow="-1140" windowWidth="28800" windowHeight="27285" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
+    <workbookView xWindow="28680" yWindow="6075" windowWidth="29040" windowHeight="15840" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="ConstructorMechType" sheetId="8" r:id="rId5"/>
     <sheet name="ConstructorLevel" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2959,7 +2959,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>31,12</t>
+    <t>57,12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3455,8 +3455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
   <dimension ref="A1:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C109" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M143" sqref="M143"/>
+    <sheetView tabSelected="1" topLeftCell="D121" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M138" sqref="M138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8B0760-CAFC-4A14-879C-F27165014EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC19DA3F-BAF9-40B5-AE2F-F16E8491D4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="6075" windowWidth="29040" windowHeight="15840" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
@@ -25,12 +25,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="795">
   <si>
     <t>名字</t>
   </si>
@@ -1250,1716 +1261,1757 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Chassis/Chassis_Carrier_Lvl2</t>
+  </si>
+  <si>
+    <t>Chassis/Chassis_Tank_Lvl1</t>
+  </si>
+  <si>
+    <t>Chassis/Chassis_Tank_Lvl2</t>
+  </si>
+  <si>
+    <t>Chassis/Chassis_Tank_Lvl3</t>
+  </si>
+  <si>
+    <t>Chassis/Legs_Spider_Lt</t>
+  </si>
+  <si>
+    <t>Chassis/Legs_Spider_Med</t>
+  </si>
+  <si>
+    <t>Chassis/Legs_Spider_Hvy</t>
+  </si>
+  <si>
+    <t>Chassis/Legs_Tracks_Lvl1</t>
+  </si>
+  <si>
+    <t>Chassis/Legs_Tracks_Lvl2</t>
+  </si>
+  <si>
+    <t>Chassis/Legs_Tracks_Lvl3</t>
+  </si>
+  <si>
+    <t>Chassis/Walker_Legs_Lt</t>
+  </si>
+  <si>
+    <t>Chassis/Walker_Legs_Med</t>
+  </si>
+  <si>
+    <t>Chassis/Walker_Legs_Hvy</t>
+  </si>
+  <si>
+    <t>Cockpit/Cockpit_Bot_Round_Lvl1</t>
+  </si>
+  <si>
+    <t>Cockpit/Cockpit_Bot_Round_Lvl2</t>
+  </si>
+  <si>
+    <t>Cockpit/Cockpit_Bot_Spy</t>
+  </si>
+  <si>
+    <t>Cockpit/Cockpit_Bot_Wedge_Lvl1</t>
+  </si>
+  <si>
+    <t>Cockpit/Cockpit_Bot_Wedge_Lvl2</t>
+  </si>
+  <si>
+    <t>Cockpit/Cockpit_Bulldog</t>
+  </si>
+  <si>
+    <t>Cockpit/Cockpit_Flybot</t>
+  </si>
+  <si>
+    <t>Cockpit/Cockpit_Flyer</t>
+  </si>
+  <si>
+    <t>Cockpit/Cockpit_Gunbot</t>
+  </si>
+  <si>
+    <t>Cockpit/Cockpit_Gunner</t>
+  </si>
+  <si>
+    <t>Cockpit/Cockpit_Humanoid_Lvl1</t>
+  </si>
+  <si>
+    <t>Cockpit/Cockpit_Humanoid_Lvl2</t>
+  </si>
+  <si>
+    <t>Cockpit/Cockpit_Humanoid_Lvl3</t>
+  </si>
+  <si>
+    <t>Cockpit/Cockpit_Moto</t>
+  </si>
+  <si>
+    <t>Cockpit/Cockpit_Rabbit_No_Interior</t>
+  </si>
+  <si>
+    <t>Cockpit/Cockpit_Rhino_No_Interior</t>
+  </si>
+  <si>
+    <t>Cockpit/Cockpit_Roadhog_No_Interior</t>
+  </si>
+  <si>
+    <t>Cockpit/Cockpit_Shuttle_No_Interior</t>
+  </si>
+  <si>
+    <t>Cockpit/Cockpit_Trooper</t>
+  </si>
+  <si>
+    <t>Cockpit/Cockpit_Trucker_No_Interior</t>
+  </si>
+  <si>
+    <t>Backpack/Backpack_Box_Container</t>
+  </si>
+  <si>
+    <t>Backpack/Backpack_Box_Container_2</t>
+  </si>
+  <si>
+    <t>Backpack/Backpack_Dish_Lvl1</t>
+  </si>
+  <si>
+    <t>Backpack/Backpack_Dish_Lvl2</t>
+  </si>
+  <si>
+    <t>Backpack/Backpack_Dish_Lvl3</t>
+  </si>
+  <si>
+    <t>Backpack/Backpack_Gun</t>
+  </si>
+  <si>
+    <t>Backpack/Backpack_Hussar_Lt</t>
+  </si>
+  <si>
+    <t>Backpack/Backpack_Hussar_Med</t>
+  </si>
+  <si>
+    <t>Backpack/Backpack_Lt_Motor</t>
+  </si>
+  <si>
+    <t>Backpack/Backpack_Med_Frame</t>
+  </si>
+  <si>
+    <t>Backpack/Backpack_Med_Safari</t>
+  </si>
+  <si>
+    <t>Backpack/Backpack_MineLayer</t>
+  </si>
+  <si>
+    <t>Backpack/Backpack_Rack</t>
+  </si>
+  <si>
+    <t>Backpack/Backpack_Radar</t>
+  </si>
+  <si>
+    <t>Backpack/Backpack_Radio</t>
+  </si>
+  <si>
+    <t>Backpack/Backpack_Tank_Lt</t>
+  </si>
+  <si>
+    <t>Backpack/Backpack_Tank_Med</t>
+  </si>
+  <si>
+    <t>Backpack/Backpack_Tank_Hvy</t>
+  </si>
+  <si>
+    <t>WeaponPlatform/Cockpit_Gun</t>
+  </si>
+  <si>
+    <t>WeaponPlatform/Cockpit_Gun_2x</t>
+  </si>
+  <si>
+    <t>WeaponPlatform/Cockpit_Gun_Flat_Part</t>
+  </si>
+  <si>
+    <t>WeaponPlatform/Cockpit_Gun_Mount_2x</t>
+  </si>
+  <si>
+    <t>WeaponPlatform/Top_Weapon_Platform</t>
+  </si>
+  <si>
+    <t>WeaponPlatform/Top_Weapon_Platform_2X</t>
+  </si>
+  <si>
+    <t>Cockpit_Weapon/Cockpit_Weapon_Mortar_Lvl2</t>
+  </si>
+  <si>
+    <t>Cockpit_Weapon/Cockpit_Weapon_Mortar_Lvl3</t>
+  </si>
+  <si>
+    <t>Cockpit_Weapon/Cockpit_Weapon_Raygun_Lvl1</t>
+  </si>
+  <si>
+    <t>Cockpit_Weapon/Cockpit_Weapon_Raygun_Lvl2</t>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Armor_Ammo_Lvl1</t>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Armor_Ammo_Lvl2</t>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Armor_Ammo_Lvl3</t>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Armor_Lvl1</t>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Armor_Lvl2</t>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Armor_Lvl3</t>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Barrier</t>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Bot</t>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Cobra</t>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Diablo</t>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Extender</t>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Hog</t>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Ox</t>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Plates</t>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Rhino</t>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Saucer</t>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Skinny_Up</t>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Tank</t>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Visor_Lvl2</t>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Visor_Lvl3</t>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Visor_Simple_Lvl1</t>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Visor_Simple_Lvl2</t>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Visor_Simple_Lvl3</t>
+  </si>
+  <si>
+    <t>Base/Shoulders_Armor_Ammo_Lvl1</t>
+  </si>
+  <si>
+    <t>Base/Shoulders_Armor_Ammo_Lvl2</t>
+  </si>
+  <si>
+    <t>Base/Shoulders_Armor_Ammo_Lvl3</t>
+  </si>
+  <si>
+    <t>Base/Shoulders_Armor_Lvl1</t>
+  </si>
+  <si>
+    <t>Base/Shoulders_Armor_Lvl2</t>
+  </si>
+  <si>
+    <t>Base/Shoulders_Armor_Lvl3</t>
+  </si>
+  <si>
+    <t>Base/Shoulders_Diablo</t>
+  </si>
+  <si>
+    <t>Base/Shoulders_Hog</t>
+  </si>
+  <si>
+    <t>Base/Shoulders_Med_Bot</t>
+  </si>
+  <si>
+    <t>Base/Shoulders_Med_Cobra</t>
+  </si>
+  <si>
+    <t>Base/Shoulders_Med_Tank</t>
+  </si>
+  <si>
+    <t>Base/Shoulders_Ox</t>
+  </si>
+  <si>
+    <t>Base/Shoulders_Plates</t>
+  </si>
+  <si>
+    <t>Base/Shoulders_Rhino</t>
+  </si>
+  <si>
+    <t>Base/Shoulders_Saucer</t>
+  </si>
+  <si>
+    <t>Base/Shoulders_Skinny_Up</t>
+  </si>
+  <si>
+    <t>Arm/Arm_Weapon_Lt</t>
+  </si>
+  <si>
+    <t>Arm/Arm_Weapon_Med</t>
+  </si>
+  <si>
+    <t>Arm/Arm_Weapon_Hvy</t>
+  </si>
+  <si>
+    <t>Arm/Arms_NoHand_lt_L</t>
+  </si>
+  <si>
+    <t>Arm/Arms_NoHand_Med_L</t>
+  </si>
+  <si>
+    <t>Arm/Arms_NoHand_Hvy_L</t>
+  </si>
+  <si>
+    <t>Gadget/Gadget_Weapon_Minigun_Lvl1</t>
+  </si>
+  <si>
+    <t>Gadget/Gadget_Weapon_Minigun_Lvl2</t>
+  </si>
+  <si>
+    <t>Gadget/Gadget_Weapon_Minigun_Lvl3</t>
+  </si>
+  <si>
+    <t>Gadget/Gadget_Weapon_Shotgun_Lvl1</t>
+  </si>
+  <si>
+    <t>Gadget/Gadget_Weapon_Shotgun_Lvl2</t>
+  </si>
+  <si>
+    <t>Gadget/Gadget_Weapon_Shotgun_Lvl3</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Bazooka_Lvl1</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Bazooka_Lvl2</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Bazooka_Lvl3</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Bazooka_Simple_Lvl1</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Bazooka_Simple_Lvl2</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Bazooka_Simple_Lvl3</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_DoubleGun_lvl2</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_DoubleGun_lvl3</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_DoubleGun_lvl4</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_DoubleGun_lvl5</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_GLauncher_lvl2</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_GLauncher_lvl3</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Plasma_Lvl1</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Plasma_Lvl2</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Plasma_Lvl3</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Radar_Lvl1</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Radar_Lvl2</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Radar_Lvl3</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Shock_Rifle_lvl2</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Shock_Rifle_lvl3</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Shock_Rifle_lvl4</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Shock_Rifle_lvl5</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Shocker_lvl1</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Shocker_lvl2</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Shocker_lvl3</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Shocker_lvl4</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Shocker_lvl5</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Shotgun_Lvl1</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Shotgun_Lvl2</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Shotgun_Lvl3</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Shotgun_Lvl4</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Shotgun_Lvl5</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Sniper_lvl2</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Sniper_lvl3</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Sniper_lvl4</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Sniper_lvl5</t>
+  </si>
+  <si>
+    <t>Shield/Weapon_Energy_Shield_Lvl1</t>
+  </si>
+  <si>
+    <t>Shield/Weapon_Energy_Shield_Lvl2</t>
+  </si>
+  <si>
+    <t>Shield/Weapon_Energy_Shield_Lvl3</t>
+  </si>
+  <si>
+    <t>Shield/Weapon_Shield_Lvl1</t>
+  </si>
+  <si>
+    <t>Shield/Weapon_Shield_Lvl2</t>
+  </si>
+  <si>
+    <t>Shield/Weapon_Shield_Lvl3</t>
+  </si>
+  <si>
+    <t>Shield/Weapon_Shield_Nimbus</t>
+  </si>
+  <si>
+    <t>Shield/Weapon_TankShield_Lvl1</t>
+  </si>
+  <si>
+    <t>Shield/Weapon_TankShield_Lvl2</t>
+  </si>
+  <si>
+    <t>Shield/Weapon_TankShield_Lvl3</t>
+  </si>
+  <si>
+    <t>Antenna/Antenna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antenna</t>
+  </si>
+  <si>
+    <t>Antenna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antenna/Antenna_Long_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antenna/Antenna_Long_2</t>
+  </si>
+  <si>
+    <t>Antenna/Antenna_Short_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antenna/Antenna_Short_2</t>
+  </si>
+  <si>
+    <t>Antenna_Long_1</t>
+  </si>
+  <si>
+    <t>Antenna_Long_2</t>
+  </si>
+  <si>
+    <t>Antenna_Short_1</t>
+  </si>
+  <si>
+    <t>Antenna_Short_2</t>
+  </si>
+  <si>
+    <t>maxMana + 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMana + 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMana + 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMana + 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHealth + 20</t>
+  </si>
+  <si>
+    <t>maxHealth + 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHealth + 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage + 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireDamage + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireDamage + 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHealth + 40,maxArmor + 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manaRegeneration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,6;2,7;2,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,9;2,10;2,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,12;1,13;1,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,15;2,16;2,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,18;1,19;1,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,40;3,41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargingDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充能延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamageApplyRate</t>
+  </si>
+  <si>
+    <t>fireDamageApplyRate</t>
+  </si>
+  <si>
+    <t>iceDamageApplyRate</t>
+  </si>
+  <si>
+    <t>lightingDamageApplyRate</t>
+  </si>
+  <si>
+    <t>acidDamageApplyRate</t>
+  </si>
+  <si>
+    <t>nonCritChange</t>
+  </si>
+  <si>
+    <t>2,27;2,28;2,29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,36;3,37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,44;3,45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,48;3,49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,52;3,53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,50;3,51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,33;1,34;1,35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,54;3,55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,56;3,57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chassis/Legs_Tracks_Lvl0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage + 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castDelay * -0.1,chargingDelay * -0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castDelay * -0.15,chargingDelay * -0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castDelay * -0.2,chargingDelay * -0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castDelay * -0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castDelay * -0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castDelay * -0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMS I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMS II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMS III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryPod I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryPod II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryPod III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiabloPad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HogPad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OxPad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RhinoPad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlounderPad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidepod/HalfShoulder_Visor_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS Cannon I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS Cannon II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS Cannon III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS Cannon I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS Cannon II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS Cannon III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDB I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTB I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDB II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTB II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ray Pulse Emitter I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ray Pulse Emitter II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ray Pulse Emitter III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STH III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STH II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STH I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StandardPlatform II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoolPlatform II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StandardPlatform I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoolPlatform I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeatPlatform I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeatPlatform II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerPack I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerPack II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerPack III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scanner III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scanner II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scanner I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmmunitionPack I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmmunitionPack II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edge I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edge II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hunter II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hunter I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryBP I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryBP II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryBP III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMB I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMB II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMB III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiabloBP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HogBP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTB I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTB II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imam II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scapula II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judge II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judge I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scapula I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imam I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OxBP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlounderBP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RhinoBP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MK-LH Arm I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MK-G Arm I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MK-LH Arm II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MK-G Arm II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MK-LH Arm III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MK-G Arm III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMC I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMC II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LWC I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LWC II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Titan II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Titan I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Titan III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hossar II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hossar I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 20,maxHealth + 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 40,maxHealth + 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hand Saw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget_Hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget/Gadget_Hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget/Gadget_Hand_Gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget/Gadget_Hand_Saw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget/Gadget_Weapon_Flamethrower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget/Gadget_Weapon_Launcher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTW-F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTW-L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTW-P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget Minigun I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget Minigun II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget Minigun III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget/Gadget_Weapon_Shocker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage + 2</t>
+  </si>
+  <si>
+    <t>physicalDamage + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireDamage + 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightingDamage + 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combustion Cannon I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combustion Cannon II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combustion Cannon III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCM-D Machine Gun I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCM-D Machine Gun II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCM-D Machine Gun III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCM-D Machine Gun IV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCM-D Machine Gun V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS-D Machine Gun II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS-D Machine Gun III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HFEW Emitter I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HFEW Emitter II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HFEW Emitter III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shock Rifle I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shock Rifle II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shock Rifle III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shock Rifle IV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shock Rifle V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micro Shocker I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP Shocker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micro Shocker II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micro Shocker III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micro Shocker IV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micro Shocker V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shot Rifle I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shot Rifle II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shot Rifle III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shot Rifle IV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shot Rifle V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sniper I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sniper II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sniper III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sniper IV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sniper V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage + 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acidDamage + 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceDamage + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceDamage + 3</t>
+  </si>
+  <si>
+    <t>iceDamage + 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage + 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage + 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage + 24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Shield I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Shield II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Shield III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nimbus Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mecha Shield I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mecha Shield II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mecha Shield III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 60,moveSpeed - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 40,moveSpeed - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 120,moveSpeed - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 30,physicalDamageApplyRate * -0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cockpit_Weapon/Cockpit_Weapon_DoubleGun_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cockpit_Weapon/Cockpit_Weapon_DoubleGun_Lvl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cockpit_Weapon/Cockpit_Weapon_DoubleGun_Lvl3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cockpit_Weapon/Cockpit_Weapon_Mortar_Lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cockpit_Weapon/Cockpit_Weapon_Raygun_Lvl3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon/Weapon_DoubleGun_lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon/Weapon_GLauncher_lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Shock_Rifle_lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightingDamage + 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightingDamage + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rocket Cannon I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rocket Cannon II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rocket Cannon III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS-G Machine Gun I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid Plasma Rifle I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid Plasma Rifle II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid Plasma Rifle III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon/Weapon_Sniper_lvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acidDamage + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightingDamage + 1,fireDamage + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightingDamage + 2,fireDamage + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightingDamage + 3,fireDamage + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightingDamage + 5,fireDamage + 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acidDamage + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acidDamage + 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acidDamage + 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲和机体提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源和能源恢复提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素伤害提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升暴击几率和伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避提升,闪避后下一次攻击物理伤害增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到攻击后，有几率提升伤害抗性并增强恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援机伤害增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔减少施法延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时有概率减少目标伤害抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时增加目标充能延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤支援机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反弹受到的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结束后恢复机体值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能有概率额外释放一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击后增加物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#C909AE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget Shotgun I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget Shotgun II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget Shotgun III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 30,maxHealth + 50,maxMana + 30,moveSpeed + 5,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 60,maxHealth + 100,maxMana + 30,moveSpeed + 5,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 30,maxHealth + 50,maxMana + 40,moveSpeed + 8,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 60,maxHealth + 100,maxMana + 40,moveSpeed + 8,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 100,maxHealth + 200,maxMana + 40,moveSpeed + 8,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 20,maxHealth + 40,maxMana + 30,moveSpeed + 4,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 40,maxHealth + 80,maxMana + 30,moveSpeed + 4,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 80,maxHealth + 160,maxMana + 30,moveSpeed + 4,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 40,maxHealth + 60,maxMana + 20,moveSpeed + 4,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 80,maxHealth + 120,maxMana + 20,moveSpeed + 4,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 150,maxHealth + 240,maxMana + 20,moveSpeed + 4,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHealth + 20,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHealth + 50,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 10,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 40,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 20,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 60,electricPower + 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critMultiple + 1,electricPower + 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critMultiple + 0.3,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critMultiple + 0.5,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHealth + 120,electricPower + 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitRate * -0.1,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitRate * -0.15,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitRate * -0.2,electricPower + 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricPower + 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricPower + 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorRegeneration + 2,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorRegeneration + 9,electricPower + 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorRegeneration + 4,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 55,maxHealth + 20,maxMana + 30,moveSpeed + 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 100,maxHealth + 60,maxMana + 40,moveSpeed + 6,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 80,maxHealth + 70,maxMana + 40,moveSpeed + 4,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 200,maxHealth + 100,maxMana + 40,moveSpeed + 4,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 50,moveSpeed - 1,fireDamageApplyRate * -0.15,iceDamageApplyRate * -0.15,lightingDamageApplyRate * -0.15,acidDamageApplyRate * -0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 30,moveSpeed - 1,fireDamageApplyRate * -0.1,iceDamageApplyRate * -0.1,lightingDamageApplyRate * -0.1,acidDamageApplyRate * -0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 80,moveSpeed - 1,fireDamageApplyRate * -0.2,iceDamageApplyRate * -0.2,lightingDamageApplyRate * -0.2,acidDamageApplyRate * -0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage + 2,electricPower + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Chassis/Chassis_Carrier_Lvl1</t>
-  </si>
-  <si>
-    <t>Chassis/Chassis_Carrier_Lvl2</t>
-  </si>
-  <si>
-    <t>Chassis/Chassis_Tank_Lvl1</t>
-  </si>
-  <si>
-    <t>Chassis/Chassis_Tank_Lvl2</t>
-  </si>
-  <si>
-    <t>Chassis/Chassis_Tank_Lvl3</t>
-  </si>
-  <si>
-    <t>Chassis/Legs_Spider_Lt</t>
-  </si>
-  <si>
-    <t>Chassis/Legs_Spider_Med</t>
-  </si>
-  <si>
-    <t>Chassis/Legs_Spider_Hvy</t>
-  </si>
-  <si>
-    <t>Chassis/Legs_Tracks_Lvl1</t>
-  </si>
-  <si>
-    <t>Chassis/Legs_Tracks_Lvl2</t>
-  </si>
-  <si>
-    <t>Chassis/Legs_Tracks_Lvl3</t>
-  </si>
-  <si>
-    <t>Chassis/Walker_Legs_Lt</t>
-  </si>
-  <si>
-    <t>Chassis/Walker_Legs_Med</t>
-  </si>
-  <si>
-    <t>Chassis/Walker_Legs_Hvy</t>
-  </si>
-  <si>
-    <t>Cockpit/Cockpit_Bot_Round_Lvl1</t>
-  </si>
-  <si>
-    <t>Cockpit/Cockpit_Bot_Round_Lvl2</t>
-  </si>
-  <si>
-    <t>Cockpit/Cockpit_Bot_Spy</t>
-  </si>
-  <si>
-    <t>Cockpit/Cockpit_Bot_Wedge_Lvl1</t>
-  </si>
-  <si>
-    <t>Cockpit/Cockpit_Bot_Wedge_Lvl2</t>
-  </si>
-  <si>
-    <t>Cockpit/Cockpit_Bulldog</t>
-  </si>
-  <si>
-    <t>Cockpit/Cockpit_Flybot</t>
-  </si>
-  <si>
-    <t>Cockpit/Cockpit_Flyer</t>
-  </si>
-  <si>
-    <t>Cockpit/Cockpit_Gunbot</t>
-  </si>
-  <si>
-    <t>Cockpit/Cockpit_Gunner</t>
-  </si>
-  <si>
-    <t>Cockpit/Cockpit_Humanoid_Lvl1</t>
-  </si>
-  <si>
-    <t>Cockpit/Cockpit_Humanoid_Lvl2</t>
-  </si>
-  <si>
-    <t>Cockpit/Cockpit_Humanoid_Lvl3</t>
-  </si>
-  <si>
-    <t>Cockpit/Cockpit_Moto</t>
-  </si>
-  <si>
-    <t>Cockpit/Cockpit_Rabbit_No_Interior</t>
-  </si>
-  <si>
-    <t>Cockpit/Cockpit_Rhino_No_Interior</t>
-  </si>
-  <si>
-    <t>Cockpit/Cockpit_Roadhog_No_Interior</t>
-  </si>
-  <si>
-    <t>Cockpit/Cockpit_Shuttle_No_Interior</t>
-  </si>
-  <si>
-    <t>Cockpit/Cockpit_Trooper</t>
-  </si>
-  <si>
-    <t>Cockpit/Cockpit_Trucker_No_Interior</t>
-  </si>
-  <si>
-    <t>Backpack/Backpack_Box_Container</t>
-  </si>
-  <si>
-    <t>Backpack/Backpack_Box_Container_2</t>
-  </si>
-  <si>
-    <t>Backpack/Backpack_Dish_Lvl1</t>
-  </si>
-  <si>
-    <t>Backpack/Backpack_Dish_Lvl2</t>
-  </si>
-  <si>
-    <t>Backpack/Backpack_Dish_Lvl3</t>
-  </si>
-  <si>
-    <t>Backpack/Backpack_Gun</t>
-  </si>
-  <si>
-    <t>Backpack/Backpack_Hussar_Lt</t>
-  </si>
-  <si>
-    <t>Backpack/Backpack_Hussar_Med</t>
-  </si>
-  <si>
-    <t>Backpack/Backpack_Lt_Motor</t>
-  </si>
-  <si>
-    <t>Backpack/Backpack_Med_Frame</t>
-  </si>
-  <si>
-    <t>Backpack/Backpack_Med_Safari</t>
-  </si>
-  <si>
-    <t>Backpack/Backpack_MineLayer</t>
-  </si>
-  <si>
-    <t>Backpack/Backpack_Rack</t>
-  </si>
-  <si>
-    <t>Backpack/Backpack_Radar</t>
-  </si>
-  <si>
-    <t>Backpack/Backpack_Radio</t>
-  </si>
-  <si>
-    <t>Backpack/Backpack_Tank_Lt</t>
-  </si>
-  <si>
-    <t>Backpack/Backpack_Tank_Med</t>
-  </si>
-  <si>
-    <t>Backpack/Backpack_Tank_Hvy</t>
-  </si>
-  <si>
-    <t>WeaponPlatform/Cockpit_Gun</t>
-  </si>
-  <si>
-    <t>WeaponPlatform/Cockpit_Gun_2x</t>
-  </si>
-  <si>
-    <t>WeaponPlatform/Cockpit_Gun_Flat_Part</t>
-  </si>
-  <si>
-    <t>WeaponPlatform/Cockpit_Gun_Mount_2x</t>
-  </si>
-  <si>
-    <t>WeaponPlatform/Top_Weapon_Platform</t>
-  </si>
-  <si>
-    <t>WeaponPlatform/Top_Weapon_Platform_2X</t>
-  </si>
-  <si>
-    <t>Cockpit_Weapon/Cockpit_Weapon_Mortar_Lvl2</t>
-  </si>
-  <si>
-    <t>Cockpit_Weapon/Cockpit_Weapon_Mortar_Lvl3</t>
-  </si>
-  <si>
-    <t>Cockpit_Weapon/Cockpit_Weapon_Raygun_Lvl1</t>
-  </si>
-  <si>
-    <t>Cockpit_Weapon/Cockpit_Weapon_Raygun_Lvl2</t>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Armor_Ammo_Lvl1</t>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Armor_Ammo_Lvl2</t>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Armor_Ammo_Lvl3</t>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Armor_Lvl1</t>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Armor_Lvl2</t>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Armor_Lvl3</t>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Barrier</t>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Bot</t>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Cobra</t>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Diablo</t>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Extender</t>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Hog</t>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Ox</t>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Plates</t>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Rhino</t>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Saucer</t>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Skinny_Up</t>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Tank</t>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Visor_Lvl2</t>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Visor_Lvl3</t>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Visor_Simple_Lvl1</t>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Visor_Simple_Lvl2</t>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Visor_Simple_Lvl3</t>
-  </si>
-  <si>
-    <t>Base/Shoulders_Armor_Ammo_Lvl1</t>
-  </si>
-  <si>
-    <t>Base/Shoulders_Armor_Ammo_Lvl2</t>
-  </si>
-  <si>
-    <t>Base/Shoulders_Armor_Ammo_Lvl3</t>
-  </si>
-  <si>
-    <t>Base/Shoulders_Armor_Lvl1</t>
-  </si>
-  <si>
-    <t>Base/Shoulders_Armor_Lvl2</t>
-  </si>
-  <si>
-    <t>Base/Shoulders_Armor_Lvl3</t>
-  </si>
-  <si>
-    <t>Base/Shoulders_Diablo</t>
-  </si>
-  <si>
-    <t>Base/Shoulders_Hog</t>
-  </si>
-  <si>
-    <t>Base/Shoulders_Med_Bot</t>
-  </si>
-  <si>
-    <t>Base/Shoulders_Med_Cobra</t>
-  </si>
-  <si>
-    <t>Base/Shoulders_Med_Tank</t>
-  </si>
-  <si>
-    <t>Base/Shoulders_Ox</t>
-  </si>
-  <si>
-    <t>Base/Shoulders_Plates</t>
-  </si>
-  <si>
-    <t>Base/Shoulders_Rhino</t>
-  </si>
-  <si>
-    <t>Base/Shoulders_Saucer</t>
-  </si>
-  <si>
-    <t>Base/Shoulders_Skinny_Up</t>
-  </si>
-  <si>
-    <t>Arm/Arm_Weapon_Lt</t>
-  </si>
-  <si>
-    <t>Arm/Arm_Weapon_Med</t>
-  </si>
-  <si>
-    <t>Arm/Arm_Weapon_Hvy</t>
-  </si>
-  <si>
-    <t>Arm/Arms_NoHand_lt_L</t>
-  </si>
-  <si>
-    <t>Arm/Arms_NoHand_Med_L</t>
-  </si>
-  <si>
-    <t>Arm/Arms_NoHand_Hvy_L</t>
-  </si>
-  <si>
-    <t>Gadget/Gadget_Weapon_Minigun_Lvl1</t>
-  </si>
-  <si>
-    <t>Gadget/Gadget_Weapon_Minigun_Lvl2</t>
-  </si>
-  <si>
-    <t>Gadget/Gadget_Weapon_Minigun_Lvl3</t>
-  </si>
-  <si>
-    <t>Gadget/Gadget_Weapon_Shotgun_Lvl1</t>
-  </si>
-  <si>
-    <t>Gadget/Gadget_Weapon_Shotgun_Lvl2</t>
-  </si>
-  <si>
-    <t>Gadget/Gadget_Weapon_Shotgun_Lvl3</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Bazooka_Lvl1</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Bazooka_Lvl2</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Bazooka_Lvl3</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Bazooka_Simple_Lvl1</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Bazooka_Simple_Lvl2</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Bazooka_Simple_Lvl3</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_DoubleGun_lvl2</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_DoubleGun_lvl3</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_DoubleGun_lvl4</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_DoubleGun_lvl5</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_GLauncher_lvl2</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_GLauncher_lvl3</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Plasma_Lvl1</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Plasma_Lvl2</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Plasma_Lvl3</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Radar_Lvl1</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Radar_Lvl2</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Radar_Lvl3</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Shock_Rifle_lvl2</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Shock_Rifle_lvl3</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Shock_Rifle_lvl4</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Shock_Rifle_lvl5</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Shocker_lvl1</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Shocker_lvl2</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Shocker_lvl3</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Shocker_lvl4</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Shocker_lvl5</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Shotgun_Lvl1</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Shotgun_Lvl2</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Shotgun_Lvl3</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Shotgun_Lvl4</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Shotgun_Lvl5</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Sniper_lvl2</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Sniper_lvl3</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Sniper_lvl4</t>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Sniper_lvl5</t>
-  </si>
-  <si>
-    <t>Shield/Weapon_Energy_Shield_Lvl1</t>
-  </si>
-  <si>
-    <t>Shield/Weapon_Energy_Shield_Lvl2</t>
-  </si>
-  <si>
-    <t>Shield/Weapon_Energy_Shield_Lvl3</t>
-  </si>
-  <si>
-    <t>Shield/Weapon_Shield_Lvl1</t>
-  </si>
-  <si>
-    <t>Shield/Weapon_Shield_Lvl2</t>
-  </si>
-  <si>
-    <t>Shield/Weapon_Shield_Lvl3</t>
-  </si>
-  <si>
-    <t>Shield/Weapon_Shield_Nimbus</t>
-  </si>
-  <si>
-    <t>Shield/Weapon_TankShield_Lvl1</t>
-  </si>
-  <si>
-    <t>Shield/Weapon_TankShield_Lvl2</t>
-  </si>
-  <si>
-    <t>Shield/Weapon_TankShield_Lvl3</t>
-  </si>
-  <si>
-    <t>Antenna/Antenna</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Antenna</t>
-  </si>
-  <si>
-    <t>Antenna</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Antenna/Antenna_Long_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Antenna/Antenna_Long_2</t>
-  </si>
-  <si>
-    <t>Antenna/Antenna_Short_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Antenna/Antenna_Short_2</t>
-  </si>
-  <si>
-    <t>Antenna_Long_1</t>
-  </si>
-  <si>
-    <t>Antenna_Long_2</t>
-  </si>
-  <si>
-    <t>Antenna_Short_1</t>
-  </si>
-  <si>
-    <t>Antenna_Short_2</t>
-  </si>
-  <si>
-    <t>maxMana + 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxMana + 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxMana + 50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxMana + 40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHealth + 20</t>
-  </si>
-  <si>
-    <t>maxHealth + 40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHealth + 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalDamage + 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fireDamage + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fireDamage + 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHealth + 40,maxArmor + 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxMana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manaRegeneration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源恢复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,6;2,7;2,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,9;2,10;2,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,12;1,13;1,14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,15;2,16;2,17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,18;1,19;1,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,40;3,41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castDelay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargingDelay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法延迟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充能延迟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击命中率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalDamageApplyRate</t>
-  </si>
-  <si>
-    <t>fireDamageApplyRate</t>
-  </si>
-  <si>
-    <t>iceDamageApplyRate</t>
-  </si>
-  <si>
-    <t>lightingDamageApplyRate</t>
-  </si>
-  <si>
-    <t>acidDamageApplyRate</t>
-  </si>
-  <si>
-    <t>nonCritChange</t>
-  </si>
-  <si>
-    <t>2,27;2,28;2,29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,36;3,37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,44;3,45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,48;3,49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,52;3,53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,50;3,51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,33;1,34;1,35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,54;3,55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,56;3,57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chassis/Legs_Tracks_Lvl0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalDamage + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalDamage + 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castDelay * -0.1,chargingDelay * -0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castDelay * -0.15,chargingDelay * -0.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castDelay * -0.2,chargingDelay * -0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castDelay * -0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castDelay * -0.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castDelay * -0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GMS I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GMS II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GMS III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatteryPod I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatteryPod II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatteryPod III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiabloPad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HogPad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OxPad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RhinoPad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlounderPad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sidepod/HalfShoulder_Visor_Lvl1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSS Cannon I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSS Cannon II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSS Cannon III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTS Cannon I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTS Cannon II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTS Cannon III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MDB I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTB I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MDB II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTB II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ray Pulse Emitter I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ray Pulse Emitter II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ray Pulse Emitter III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STH III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STH II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STH I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StandardPlatform II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoolPlatform II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StandardPlatform I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoolPlatform I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SeatPlatform I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SeatPlatform II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PowerPack I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PowerPack II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PowerPack III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scanner III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scanner II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scanner I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AmmunitionPack I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AmmunitionPack II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edge I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edge II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hunter II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hunter I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatteryBP I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatteryBP II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatteryBP III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GMB I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GMB II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GMB III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiabloBP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HogBP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MTB I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MTB II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Imam II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scapula II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Judge II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Judge I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scapula I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Imam I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OxBP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlounderBP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RhinoBP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MK-LH Arm I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MK-G Arm I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MK-LH Arm II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MK-G Arm II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MK-LH Arm III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MK-G Arm III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GMC I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GMC II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LWC I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LWC II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Titan II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Titan I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Titan III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hossar II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hossar I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 20,maxHealth + 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 40,maxHealth + 40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hand Saw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gadget_Hand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gadget/Gadget_Hand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gadget/Gadget_Hand_Gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gadget/Gadget_Hand_Saw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gadget/Gadget_Weapon_Flamethrower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gadget/Gadget_Weapon_Launcher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTW-F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTW-L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTW-P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gadget Minigun I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gadget Minigun II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gadget Minigun III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gadget/Gadget_Weapon_Shocker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalDamage + 2</t>
-  </si>
-  <si>
-    <t>physicalDamage + 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fireDamage + 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalDamage + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lightingDamage + 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combustion Cannon I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combustion Cannon II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combustion Cannon III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LCM-D Machine Gun I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LCM-D Machine Gun II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LCM-D Machine Gun III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LCM-D Machine Gun IV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LCM-D Machine Gun V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS-D Machine Gun II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS-D Machine Gun III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HFEW Emitter I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HFEW Emitter II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HFEW Emitter III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shock Rifle I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shock Rifle II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shock Rifle III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shock Rifle IV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shock Rifle V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Micro Shocker I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP Shocker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Micro Shocker II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Micro Shocker III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Micro Shocker IV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Micro Shocker V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shot Rifle I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shot Rifle II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shot Rifle III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shot Rifle IV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shot Rifle V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sniper I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sniper II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sniper III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sniper IV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sniper V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalDamage + 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acidDamage + 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iceDamage + 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iceDamage + 3</t>
-  </si>
-  <si>
-    <t>iceDamage + 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalDamage + 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalDamage + 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalDamage + 24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energy Shield I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energy Shield II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energy Shield III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nimbus Shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mecha Shield I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mecha Shield II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mecha Shield III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 60,moveSpeed - 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 40,moveSpeed - 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 120,moveSpeed - 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 30,physicalDamageApplyRate * -0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cockpit_Weapon/Cockpit_Weapon_DoubleGun_Lvl1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cockpit_Weapon/Cockpit_Weapon_DoubleGun_Lvl2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cockpit_Weapon/Cockpit_Weapon_DoubleGun_Lvl3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cockpit_Weapon/Cockpit_Weapon_Mortar_Lvl1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cockpit_Weapon/Cockpit_Weapon_Raygun_Lvl3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon/Weapon_DoubleGun_lvl1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon/Weapon_GLauncher_lvl1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Shock_Rifle_lvl1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lightingDamage + 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lightingDamage + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rocket Cannon I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rocket Cannon II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rocket Cannon III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS-G Machine Gun I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acid Plasma Rifle I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acid Plasma Rifle II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acid Plasma Rifle III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon/Weapon_Sniper_lvl1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acidDamage + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lightingDamage + 1,fireDamage + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lightingDamage + 2,fireDamage + 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lightingDamage + 3,fireDamage + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lightingDamage + 5,fireDamage + 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acidDamage + 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acidDamage + 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acidDamage + 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲和机体提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源和能源恢复提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素伤害提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升暴击几率和伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避提升,闪避后下一次攻击物理伤害增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到攻击后，有几率提升伤害抗性并增强恢复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支援机伤害增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间隔减少施法延迟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击时有概率减少目标伤害抗性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击时增加目标充能延迟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤支援机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反弹受到的伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗结束后恢复机体值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能有概率额外释放一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击后增加物理伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#C909AE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gadget Shotgun I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gadget Shotgun II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gadget Shotgun III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 30,maxHealth + 50,maxMana + 30,moveSpeed + 5,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 60,maxHealth + 100,maxMana + 30,moveSpeed + 5,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 30,maxHealth + 50,maxMana + 40,moveSpeed + 8,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 60,maxHealth + 100,maxMana + 40,moveSpeed + 8,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 100,maxHealth + 200,maxMana + 40,moveSpeed + 8,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 20,maxHealth + 40,maxMana + 30,moveSpeed + 4,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 40,maxHealth + 80,maxMana + 30,moveSpeed + 4,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 80,maxHealth + 160,maxMana + 30,moveSpeed + 4,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 40,maxHealth + 60,maxMana + 20,moveSpeed + 4,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 80,maxHealth + 120,maxMana + 20,moveSpeed + 4,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 150,maxHealth + 240,maxMana + 20,moveSpeed + 4,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHealth + 20,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHealth + 50,electricPower + 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 10,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 40,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 20,electricPower + 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 60,electricPower + 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>critMultiple + 1,electricPower + 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>critMultiple + 0.3,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>critMultiple + 0.5,electricPower + 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHealth + 120,electricPower + 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitRate * -0.1,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitRate * -0.15,electricPower + 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitRate * -0.2,electricPower + 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>electricPower + 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>electricPower + 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>armorRegeneration + 2,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>armorRegeneration + 9,electricPower + 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>armorRegeneration + 4,electricPower + 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 55,maxHealth + 20,maxMana + 30,moveSpeed + 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 100,maxHealth + 60,maxMana + 40,moveSpeed + 6,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 80,maxHealth + 70,maxMana + 40,moveSpeed + 4,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 200,maxHealth + 100,maxMana + 40,moveSpeed + 4,electricPower + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 50,moveSpeed - 1,fireDamageApplyRate * -0.15,iceDamageApplyRate * -0.15,lightingDamageApplyRate * -0.15,acidDamageApplyRate * -0.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 30,moveSpeed - 1,fireDamageApplyRate * -0.1,iceDamageApplyRate * -0.1,lightingDamageApplyRate * -0.1,acidDamageApplyRate * -0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 80,moveSpeed - 1,fireDamageApplyRate * -0.2,iceDamageApplyRate * -0.2,lightingDamageApplyRate * -0.2,acidDamageApplyRate * -0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalDamage + 2,electricPower + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>57,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chassis/Chassis_Support_Fighter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support_Fighter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support_Worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chassis/Chassis_Support_Worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 15,maxHealth + 20,maxMana + 30,moveSpeed + 5,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 20,maxHealth + 30,maxMana + 30,moveSpeed + 5,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chassis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>302,303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201,12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3453,10 +3505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
-  <dimension ref="A1:V204"/>
+  <dimension ref="A1:V207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D121" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M138" sqref="M138"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I141" sqref="I141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3469,7 +3522,7 @@
     <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="3.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="41.75" style="4" customWidth="1"/>
     <col min="11" max="11" width="24.375" style="15" customWidth="1"/>
     <col min="12" max="12" width="10.375" style="15" customWidth="1"/>
@@ -3492,7 +3545,7 @@
         <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
@@ -3534,7 +3587,7 @@
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>83</v>
@@ -3613,10 +3666,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C4" t="s">
-        <v>313</v>
+        <v>784</v>
       </c>
       <c r="D4" t="s">
         <v>220</v>
@@ -3634,7 +3687,7 @@
         <v>141</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>311</v>
@@ -3663,10 +3716,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D5" t="s">
         <v>220</v>
@@ -3684,7 +3737,7 @@
         <v>141</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>311</v>
@@ -3714,10 +3767,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D6" t="s">
         <v>220</v>
@@ -3735,7 +3788,7 @@
         <v>141</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>312</v>
@@ -3766,10 +3819,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D7" t="s">
         <v>220</v>
@@ -3787,7 +3840,7 @@
         <v>141</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>312</v>
@@ -3821,7 +3874,7 @@
         <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D8" t="s">
         <v>220</v>
@@ -3842,7 +3895,7 @@
         <v>141</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>251</v>
@@ -3876,7 +3929,7 @@
         <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D9" t="s">
         <v>220</v>
@@ -3894,7 +3947,7 @@
         <v>141</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>251</v>
@@ -3928,7 +3981,7 @@
         <v>166</v>
       </c>
       <c r="C10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D10" t="s">
         <v>220</v>
@@ -3946,7 +3999,7 @@
         <v>141</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>251</v>
@@ -3979,7 +4032,7 @@
         <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D11" t="s">
         <v>220</v>
@@ -4000,7 +4053,7 @@
         <v>141</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>251</v>
@@ -4028,7 +4081,7 @@
         <v>168</v>
       </c>
       <c r="C12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D12" t="s">
         <v>220</v>
@@ -4046,7 +4099,7 @@
         <v>141</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>251</v>
@@ -4063,10 +4116,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D13" t="s">
         <v>220</v>
@@ -4084,7 +4137,7 @@
         <v>141</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>251</v>
@@ -4095,10 +4148,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D14" t="s">
         <v>220</v>
@@ -4116,7 +4169,7 @@
         <v>141</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>251</v>
@@ -4132,7 +4185,7 @@
         <v>171</v>
       </c>
       <c r="C15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D15" t="s">
         <v>220</v>
@@ -4150,7 +4203,7 @@
         <v>141</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>251</v>
@@ -4166,7 +4219,7 @@
         <v>172</v>
       </c>
       <c r="C16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D16" t="s">
         <v>220</v>
@@ -4184,7 +4237,7 @@
         <v>143</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>252</v>
@@ -4207,7 +4260,7 @@
         <v>173</v>
       </c>
       <c r="C17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D17" t="s">
         <v>220</v>
@@ -4225,7 +4278,7 @@
         <v>143</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>252</v>
@@ -4248,7 +4301,7 @@
         <v>174</v>
       </c>
       <c r="C18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D18" t="s">
         <v>220</v>
@@ -4269,16 +4322,16 @@
         <v>143</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>252</v>
       </c>
       <c r="N18" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>495</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>220</v>
@@ -4314,7 +4367,7 @@
         <v>177</v>
       </c>
       <c r="C20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D20" t="s">
         <v>91</v>
@@ -4332,7 +4385,7 @@
         <v>142</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>253</v>
@@ -4355,7 +4408,7 @@
         <v>176</v>
       </c>
       <c r="C21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D21" t="s">
         <v>91</v>
@@ -4396,7 +4449,7 @@
         <v>175</v>
       </c>
       <c r="C22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D22" t="s">
         <v>91</v>
@@ -4414,7 +4467,7 @@
         <v>142</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>253</v>
@@ -4429,10 +4482,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D23" t="s">
         <v>91</v>
@@ -4450,16 +4503,16 @@
         <v>142</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>253</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>219</v>
@@ -4470,10 +4523,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D24" t="s">
         <v>91</v>
@@ -4491,16 +4544,16 @@
         <v>142</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K24" s="15" t="s">
         <v>253</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>188</v>
@@ -4514,7 +4567,7 @@
         <v>178</v>
       </c>
       <c r="C25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D25" t="s">
         <v>91</v>
@@ -4532,7 +4585,7 @@
         <v>143</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>254</v>
@@ -4549,7 +4602,7 @@
         <v>179</v>
       </c>
       <c r="C26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D26" t="s">
         <v>91</v>
@@ -4570,16 +4623,16 @@
         <v>141</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K26" s="15" t="s">
         <v>253</v>
       </c>
       <c r="N26" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>89</v>
@@ -4593,7 +4646,7 @@
         <v>180</v>
       </c>
       <c r="C27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D27" t="s">
         <v>91</v>
@@ -4614,13 +4667,13 @@
         <v>141</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>253</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>63</v>
@@ -4637,7 +4690,7 @@
         <v>302</v>
       </c>
       <c r="C28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D28" t="s">
         <v>91</v>
@@ -4655,7 +4708,7 @@
         <v>141</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K28" s="15" t="s">
         <v>253</v>
@@ -4675,7 +4728,7 @@
         <v>303</v>
       </c>
       <c r="C29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D29" t="s">
         <v>91</v>
@@ -4693,7 +4746,7 @@
         <v>141</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K29" s="15" t="s">
         <v>253</v>
@@ -4704,10 +4757,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D30" t="s">
         <v>91</v>
@@ -4725,7 +4778,7 @@
         <v>143</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K30" s="15" t="s">
         <v>254</v>
@@ -4742,10 +4795,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D31" t="s">
         <v>91</v>
@@ -4763,16 +4816,16 @@
         <v>143</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K31" s="15" t="s">
         <v>254</v>
       </c>
       <c r="N31" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -4780,10 +4833,10 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D32" t="s">
         <v>91</v>
@@ -4804,7 +4857,7 @@
         <v>143</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K32" s="15" t="s">
         <v>254</v>
@@ -4824,7 +4877,7 @@
         <v>181</v>
       </c>
       <c r="C33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D33" t="s">
         <v>91</v>
@@ -4845,7 +4898,7 @@
         <v>141</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K33" s="15" t="s">
         <v>253</v>
@@ -4865,7 +4918,7 @@
         <v>183</v>
       </c>
       <c r="C34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D34" t="s">
         <v>91</v>
@@ -4883,7 +4936,7 @@
         <v>143</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K34" s="15" t="s">
         <v>253</v>
@@ -4897,7 +4950,7 @@
         <v>182</v>
       </c>
       <c r="C35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D35" t="s">
         <v>91</v>
@@ -4915,7 +4968,7 @@
         <v>143</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K35" s="15" t="s">
         <v>253</v>
@@ -4935,7 +4988,7 @@
         <v>185</v>
       </c>
       <c r="C36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D36" t="s">
         <v>91</v>
@@ -4973,7 +5026,7 @@
         <v>184</v>
       </c>
       <c r="C37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D37" t="s">
         <v>91</v>
@@ -4991,7 +5044,7 @@
         <v>143</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="K37" s="15" t="s">
         <v>253</v>
@@ -5011,7 +5064,7 @@
         <v>186</v>
       </c>
       <c r="C38" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D38" t="s">
         <v>91</v>
@@ -5032,7 +5085,7 @@
         <v>133</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="K38" s="15" t="s">
         <v>253</v>
@@ -5052,7 +5105,7 @@
         <v>187</v>
       </c>
       <c r="C39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D39" t="s">
         <v>91</v>
@@ -5070,7 +5123,7 @@
         <v>133</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K39" s="15" t="s">
         <v>253</v>
@@ -5100,10 +5153,10 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D41" t="s">
         <v>87</v>
@@ -5121,10 +5174,10 @@
         <v>143</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>73</v>
@@ -5135,10 +5188,10 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D42" t="s">
         <v>87</v>
@@ -5156,10 +5209,10 @@
         <v>143</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>74</v>
@@ -5170,10 +5223,10 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D43" t="s">
         <v>87</v>
@@ -5191,10 +5244,10 @@
         <v>143</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>75</v>
@@ -5205,10 +5258,10 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C44" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D44" t="s">
         <v>87</v>
@@ -5226,10 +5279,10 @@
         <v>143</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>76</v>
@@ -5240,10 +5293,10 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C45" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D45" t="s">
         <v>87</v>
@@ -5264,10 +5317,10 @@
         <v>143</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>77</v>
@@ -5281,7 +5334,7 @@
         <v>189</v>
       </c>
       <c r="C49" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D49" t="s">
         <v>87</v>
@@ -5302,7 +5355,7 @@
         <v>141</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K49" s="15" t="s">
         <v>255</v>
@@ -5313,10 +5366,10 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C50" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D50" t="s">
         <v>87</v>
@@ -5334,7 +5387,7 @@
         <v>141</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K50" s="15" t="s">
         <v>256</v>
@@ -5345,10 +5398,10 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D51" t="s">
         <v>87</v>
@@ -5369,7 +5422,7 @@
         <v>141</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K51" s="15" t="s">
         <v>256</v>
@@ -5383,7 +5436,7 @@
         <v>190</v>
       </c>
       <c r="C52" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D52" t="s">
         <v>87</v>
@@ -5401,7 +5454,7 @@
         <v>134</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -5412,7 +5465,7 @@
         <v>191</v>
       </c>
       <c r="C53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D53" t="s">
         <v>87</v>
@@ -5430,7 +5483,7 @@
         <v>134</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K53" s="15" t="s">
         <v>256</v>
@@ -5444,7 +5497,7 @@
         <v>192</v>
       </c>
       <c r="C54" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D54" t="s">
         <v>87</v>
@@ -5462,7 +5515,7 @@
         <v>134</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K54" s="15" t="s">
         <v>256</v>
@@ -5476,7 +5529,7 @@
         <v>193</v>
       </c>
       <c r="C55" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D55" t="s">
         <v>87</v>
@@ -5497,7 +5550,7 @@
         <v>142</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -5508,7 +5561,7 @@
         <v>194</v>
       </c>
       <c r="C56" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D56" t="s">
         <v>87</v>
@@ -5526,7 +5579,7 @@
         <v>143</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -5537,7 +5590,7 @@
         <v>195</v>
       </c>
       <c r="C57" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D57" t="s">
         <v>87</v>
@@ -5558,7 +5611,7 @@
         <v>143</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -5569,7 +5622,7 @@
         <v>196</v>
       </c>
       <c r="C58" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D58" t="s">
         <v>87</v>
@@ -5587,7 +5640,7 @@
         <v>143</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -5595,10 +5648,10 @@
         <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C62" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D62" t="s">
         <v>87</v>
@@ -5616,7 +5669,7 @@
         <v>143</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K62" s="15" t="s">
         <v>256</v>
@@ -5627,10 +5680,10 @@
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C63" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D63" t="s">
         <v>87</v>
@@ -5648,7 +5701,7 @@
         <v>143</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K63" s="15" t="s">
         <v>256</v>
@@ -5659,10 +5712,10 @@
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C64" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D64" t="s">
         <v>87</v>
@@ -5683,7 +5736,7 @@
         <v>143</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K64" s="15" t="s">
         <v>256</v>
@@ -5707,10 +5760,10 @@
         <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C66" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D66" t="s">
         <v>226</v>
@@ -5725,7 +5778,7 @@
         <v>141</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K66" s="15" t="s">
         <v>257</v>
@@ -5736,10 +5789,10 @@
         <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D67" t="s">
         <v>225</v>
@@ -5754,7 +5807,7 @@
         <v>141</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K67" s="15" t="s">
         <v>258</v>
@@ -5765,10 +5818,10 @@
         <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D68" t="s">
         <v>225</v>
@@ -5783,7 +5836,7 @@
         <v>141</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K68" s="15" t="s">
         <v>259</v>
@@ -5794,10 +5847,10 @@
         <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D69" t="s">
         <v>225</v>
@@ -5812,7 +5865,7 @@
         <v>142</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K69" s="15" t="s">
         <v>260</v>
@@ -5823,10 +5876,10 @@
         <v>64</v>
       </c>
       <c r="B70" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C70" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D70" t="s">
         <v>225</v>
@@ -5841,7 +5894,7 @@
         <v>141</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K70" s="15" t="s">
         <v>255</v>
@@ -5852,10 +5905,10 @@
         <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C71" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D71" t="s">
         <v>225</v>
@@ -5870,7 +5923,7 @@
         <v>141</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K71" s="15" t="s">
         <v>260</v>
@@ -5894,10 +5947,10 @@
         <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C73" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D73" t="s">
         <v>93</v>
@@ -5918,7 +5971,7 @@
         <v>254</v>
       </c>
       <c r="L73" s="15" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -5926,10 +5979,10 @@
         <v>67</v>
       </c>
       <c r="B74" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C74" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D74" t="s">
         <v>198</v>
@@ -5947,13 +6000,13 @@
         <v>142</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K74" s="15" t="s">
         <v>254</v>
       </c>
       <c r="L74" s="15" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -5961,10 +6014,10 @@
         <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C75" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D75" t="s">
         <v>198</v>
@@ -5982,13 +6035,13 @@
         <v>142</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K75" s="15" t="s">
         <v>254</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -5999,7 +6052,7 @@
         <v>308</v>
       </c>
       <c r="C76" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D76" t="s">
         <v>198</v>
@@ -6028,7 +6081,7 @@
         <v>309</v>
       </c>
       <c r="C77" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D77" t="s">
         <v>198</v>
@@ -6046,7 +6099,7 @@
         <v>142</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K77" s="15" t="s">
         <v>254</v>
@@ -6060,7 +6113,7 @@
         <v>310</v>
       </c>
       <c r="C78" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D78" t="s">
         <v>198</v>
@@ -6078,7 +6131,7 @@
         <v>142</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K78" s="15" t="s">
         <v>254</v>
@@ -6089,10 +6142,10 @@
         <v>72</v>
       </c>
       <c r="B79" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C79" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D79" t="s">
         <v>198</v>
@@ -6121,10 +6174,10 @@
         <v>73</v>
       </c>
       <c r="B80" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C80" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D80" t="s">
         <v>198</v>
@@ -6145,7 +6198,7 @@
         <v>142</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="K80" s="15" t="s">
         <v>254</v>
@@ -6156,10 +6209,10 @@
         <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C81" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D81" t="s">
         <v>198</v>
@@ -6180,7 +6233,7 @@
         <v>142</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K81" s="15" t="s">
         <v>254</v>
@@ -6204,10 +6257,10 @@
         <v>75</v>
       </c>
       <c r="B83" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C83" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D83" t="s">
         <v>221</v>
@@ -6225,7 +6278,7 @@
         <v>142</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
@@ -6233,10 +6286,10 @@
         <v>76</v>
       </c>
       <c r="B84" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C84" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D84" t="s">
         <v>221</v>
@@ -6254,7 +6307,7 @@
         <v>142</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
@@ -6262,10 +6315,10 @@
         <v>77</v>
       </c>
       <c r="B85" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C85" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D85" t="s">
         <v>221</v>
@@ -6286,7 +6339,7 @@
         <v>142</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
@@ -6294,10 +6347,10 @@
         <v>78</v>
       </c>
       <c r="B86" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C86" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D86" t="s">
         <v>221</v>
@@ -6315,7 +6368,7 @@
         <v>142</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K86" s="15" t="s">
         <v>261</v>
@@ -6326,10 +6379,10 @@
         <v>79</v>
       </c>
       <c r="B87" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C87" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D87" t="s">
         <v>221</v>
@@ -6347,7 +6400,7 @@
         <v>142</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K87" s="15" t="s">
         <v>261</v>
@@ -6358,10 +6411,10 @@
         <v>80</v>
       </c>
       <c r="B88" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C88" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D88" t="s">
         <v>221</v>
@@ -6382,7 +6435,7 @@
         <v>142</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K88" s="15" t="s">
         <v>261</v>
@@ -6393,10 +6446,10 @@
         <v>81</v>
       </c>
       <c r="B89" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C89" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D89" t="s">
         <v>221</v>
@@ -6414,7 +6467,7 @@
         <v>142</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K89" s="15" t="s">
         <v>261</v>
@@ -6425,10 +6478,10 @@
         <v>82</v>
       </c>
       <c r="B90" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C90" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D90" t="s">
         <v>221</v>
@@ -6446,7 +6499,7 @@
         <v>141</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K90" s="15" t="s">
         <v>261</v>
@@ -6457,10 +6510,10 @@
         <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C91" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D91" t="s">
         <v>221</v>
@@ -6481,7 +6534,7 @@
         <v>141</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K91" s="15" t="s">
         <v>261</v>
@@ -6492,10 +6545,10 @@
         <v>84</v>
       </c>
       <c r="B92" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C92" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D92" t="s">
         <v>221</v>
@@ -6513,7 +6566,7 @@
         <v>143</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K92" s="15" t="s">
         <v>261</v>
@@ -6524,10 +6577,10 @@
         <v>85</v>
       </c>
       <c r="B93" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C93" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D93" t="s">
         <v>221</v>
@@ -6545,7 +6598,7 @@
         <v>141</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K93" s="15" t="s">
         <v>261</v>
@@ -6556,10 +6609,10 @@
         <v>86</v>
       </c>
       <c r="B94" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C94" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D94" t="s">
         <v>221</v>
@@ -6577,7 +6630,7 @@
         <v>143</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K94" s="15" t="s">
         <v>261</v>
@@ -6588,10 +6641,10 @@
         <v>87</v>
       </c>
       <c r="B95" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C95" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D95" t="s">
         <v>221</v>
@@ -6609,7 +6662,7 @@
         <v>143</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K95" s="15" t="s">
         <v>261</v>
@@ -6620,10 +6673,10 @@
         <v>88</v>
       </c>
       <c r="B96" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C96" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D96" t="s">
         <v>221</v>
@@ -6641,7 +6694,7 @@
         <v>142</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K96" s="15" t="s">
         <v>261</v>
@@ -6652,10 +6705,10 @@
         <v>89</v>
       </c>
       <c r="B97" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C97" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D97" t="s">
         <v>221</v>
@@ -6673,7 +6726,7 @@
         <v>143</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K97" s="15" t="s">
         <v>261</v>
@@ -6684,10 +6737,10 @@
         <v>90</v>
       </c>
       <c r="B98" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C98" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D98" t="s">
         <v>221</v>
@@ -6705,7 +6758,7 @@
         <v>142</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K98" s="15" t="s">
         <v>261</v>
@@ -6716,10 +6769,10 @@
         <v>91</v>
       </c>
       <c r="B99" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C99" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D99" t="s">
         <v>221</v>
@@ -6737,7 +6790,7 @@
         <v>143</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K99" s="15" t="s">
         <v>261</v>
@@ -6748,10 +6801,10 @@
         <v>92</v>
       </c>
       <c r="B100" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C100" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D100" t="s">
         <v>221</v>
@@ -6772,7 +6825,7 @@
         <v>141</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K100" s="15" t="s">
         <v>261</v>
@@ -6783,10 +6836,10 @@
         <v>93</v>
       </c>
       <c r="B101" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C101" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D101" t="s">
         <v>221</v>
@@ -6804,7 +6857,7 @@
         <v>142</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K101" s="15" t="s">
         <v>261</v>
@@ -6815,10 +6868,10 @@
         <v>94</v>
       </c>
       <c r="B102" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C102" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D102" t="s">
         <v>221</v>
@@ -6836,7 +6889,7 @@
         <v>142</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K102" s="15" t="s">
         <v>261</v>
@@ -6847,10 +6900,10 @@
         <v>95</v>
       </c>
       <c r="B103" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C103" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D103" t="s">
         <v>221</v>
@@ -6871,7 +6924,7 @@
         <v>142</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K103" s="15" t="s">
         <v>261</v>
@@ -6882,10 +6935,10 @@
         <v>96</v>
       </c>
       <c r="B104" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C104" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D104" t="s">
         <v>221</v>
@@ -6903,7 +6956,7 @@
         <v>142</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K104" s="15" t="s">
         <v>261</v>
@@ -6914,10 +6967,10 @@
         <v>97</v>
       </c>
       <c r="B105" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C105" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D105" t="s">
         <v>221</v>
@@ -6935,7 +6988,7 @@
         <v>142</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K105" s="15" t="s">
         <v>261</v>
@@ -6946,10 +6999,10 @@
         <v>98</v>
       </c>
       <c r="B106" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C106" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D106" t="s">
         <v>221</v>
@@ -6970,7 +7023,7 @@
         <v>142</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K106" s="15" t="s">
         <v>261</v>
@@ -6994,10 +7047,10 @@
         <v>99</v>
       </c>
       <c r="B108" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C108" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D108" t="s">
         <v>90</v>
@@ -7015,7 +7068,7 @@
         <v>142</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K108" s="15" t="s">
         <v>262</v>
@@ -7026,10 +7079,10 @@
         <v>100</v>
       </c>
       <c r="B109" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C109" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D109" t="s">
         <v>90</v>
@@ -7047,7 +7100,7 @@
         <v>142</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K109" s="15" t="s">
         <v>262</v>
@@ -7058,10 +7111,10 @@
         <v>101</v>
       </c>
       <c r="B110" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C110" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D110" t="s">
         <v>90</v>
@@ -7082,7 +7135,7 @@
         <v>142</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K110" s="15" t="s">
         <v>262</v>
@@ -7093,10 +7146,10 @@
         <v>102</v>
       </c>
       <c r="B111" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C111" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D111" t="s">
         <v>90</v>
@@ -7114,7 +7167,7 @@
         <v>142</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K111" s="15" t="s">
         <v>263</v>
@@ -7125,10 +7178,10 @@
         <v>103</v>
       </c>
       <c r="B112" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C112" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D112" t="s">
         <v>90</v>
@@ -7146,7 +7199,7 @@
         <v>142</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K112" s="15" t="s">
         <v>263</v>
@@ -7157,10 +7210,10 @@
         <v>104</v>
       </c>
       <c r="B113" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C113" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D113" t="s">
         <v>90</v>
@@ -7181,7 +7234,7 @@
         <v>142</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K113" s="15" t="s">
         <v>263</v>
@@ -7192,10 +7245,10 @@
         <v>105</v>
       </c>
       <c r="B114" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C114" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D114" t="s">
         <v>90</v>
@@ -7213,7 +7266,7 @@
         <v>143</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K114" s="15" t="s">
         <v>263</v>
@@ -7224,10 +7277,10 @@
         <v>106</v>
       </c>
       <c r="B115" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C115" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D115" t="s">
         <v>90</v>
@@ -7245,7 +7298,7 @@
         <v>143</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K115" s="15" t="s">
         <v>263</v>
@@ -7256,10 +7309,10 @@
         <v>107</v>
       </c>
       <c r="B116" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C116" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D116" t="s">
         <v>90</v>
@@ -7277,7 +7330,7 @@
         <v>141</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K116" s="15" t="s">
         <v>263</v>
@@ -7288,10 +7341,10 @@
         <v>108</v>
       </c>
       <c r="B117" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C117" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D117" t="s">
         <v>90</v>
@@ -7312,7 +7365,7 @@
         <v>141</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K117" s="15" t="s">
         <v>263</v>
@@ -7323,10 +7376,10 @@
         <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C118" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D118" t="s">
         <v>90</v>
@@ -7347,7 +7400,7 @@
         <v>141</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K118" s="15" t="s">
         <v>263</v>
@@ -7358,10 +7411,10 @@
         <v>110</v>
       </c>
       <c r="B119" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C119" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D119" t="s">
         <v>90</v>
@@ -7379,7 +7432,7 @@
         <v>143</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K119" s="15" t="s">
         <v>263</v>
@@ -7390,10 +7443,10 @@
         <v>111</v>
       </c>
       <c r="B120" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C120" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D120" t="s">
         <v>90</v>
@@ -7411,7 +7464,7 @@
         <v>142</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K120" s="15" t="s">
         <v>263</v>
@@ -7422,10 +7475,10 @@
         <v>112</v>
       </c>
       <c r="B121" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C121" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D121" t="s">
         <v>90</v>
@@ -7443,7 +7496,7 @@
         <v>143</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K121" s="15" t="s">
         <v>263</v>
@@ -7454,10 +7507,10 @@
         <v>113</v>
       </c>
       <c r="B122" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C122" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D122" t="s">
         <v>90</v>
@@ -7475,7 +7528,7 @@
         <v>142</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K122" s="15" t="s">
         <v>263</v>
@@ -7486,10 +7539,10 @@
         <v>114</v>
       </c>
       <c r="B123" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C123" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D123" t="s">
         <v>90</v>
@@ -7507,7 +7560,7 @@
         <v>143</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K123" s="15" t="s">
         <v>263</v>
@@ -7531,10 +7584,10 @@
         <v>115</v>
       </c>
       <c r="B125" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C125" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D125" t="s">
         <v>86</v>
@@ -7563,10 +7616,10 @@
         <v>116</v>
       </c>
       <c r="B126" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C126" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D126" t="s">
         <v>264</v>
@@ -7584,7 +7637,7 @@
         <v>143</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K126" s="15" t="s">
         <v>271</v>
@@ -7595,10 +7648,10 @@
         <v>117</v>
       </c>
       <c r="B127" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C127" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D127" t="s">
         <v>264</v>
@@ -7619,7 +7672,7 @@
         <v>143</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K127" s="15" t="s">
         <v>271</v>
@@ -7630,10 +7683,10 @@
         <v>118</v>
       </c>
       <c r="B128" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C128" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D128" t="s">
         <v>264</v>
@@ -7662,10 +7715,10 @@
         <v>119</v>
       </c>
       <c r="B129" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C129" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D129" t="s">
         <v>264</v>
@@ -7694,10 +7747,10 @@
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C130" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D130" t="s">
         <v>276</v>
@@ -7742,10 +7795,10 @@
         <v>121</v>
       </c>
       <c r="B132" t="s">
+        <v>616</v>
+      </c>
+      <c r="C132" t="s">
         <v>617</v>
-      </c>
-      <c r="C132" t="s">
-        <v>618</v>
       </c>
       <c r="D132" t="s">
         <v>277</v>
@@ -7768,10 +7821,10 @@
         <v>122</v>
       </c>
       <c r="B133" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C133" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D133" t="s">
         <v>273</v>
@@ -7789,10 +7842,10 @@
         <v>265</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L133" s="15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -7800,10 +7853,10 @@
         <v>123</v>
       </c>
       <c r="B134" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C134" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D134" t="s">
         <v>277</v>
@@ -7821,10 +7874,10 @@
         <v>265</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L134" s="15" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -7832,10 +7885,10 @@
         <v>124</v>
       </c>
       <c r="B135" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C135" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D135" t="s">
         <v>277</v>
@@ -7853,7 +7906,7 @@
         <v>265</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L135" s="15">
         <v>11</v>
@@ -7864,10 +7917,10 @@
         <v>125</v>
       </c>
       <c r="B136" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C136" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D136" t="s">
         <v>277</v>
@@ -7885,7 +7938,7 @@
         <v>265</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -7893,10 +7946,10 @@
         <v>126</v>
       </c>
       <c r="B137" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C137" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D137" t="s">
         <v>277</v>
@@ -7919,10 +7972,10 @@
         <v>127</v>
       </c>
       <c r="B138" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C138" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D138" t="s">
         <v>277</v>
@@ -7940,7 +7993,7 @@
         <v>265</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -7948,10 +8001,10 @@
         <v>128</v>
       </c>
       <c r="B139" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C139" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D139" t="s">
         <v>277</v>
@@ -7972,7 +8025,7 @@
         <v>265</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -7980,10 +8033,10 @@
         <v>129</v>
       </c>
       <c r="B140" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C140" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D140" t="s">
         <v>277</v>
@@ -8001,7 +8054,7 @@
         <v>265</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -8009,10 +8062,10 @@
         <v>130</v>
       </c>
       <c r="B141" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C141" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D141" t="s">
         <v>277</v>
@@ -8036,10 +8089,10 @@
         <v>131</v>
       </c>
       <c r="B142" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C142" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D142" t="s">
         <v>277</v>
@@ -8057,7 +8110,7 @@
         <v>265</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L142" s="1"/>
     </row>
@@ -8066,10 +8119,10 @@
         <v>132</v>
       </c>
       <c r="B143" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C143" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D143" t="s">
         <v>277</v>
@@ -8090,7 +8143,7 @@
         <v>265</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L143" s="1"/>
     </row>
@@ -8112,10 +8165,10 @@
         <v>133</v>
       </c>
       <c r="B145" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C145" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D145" t="s">
         <v>95</v>
@@ -8138,10 +8191,10 @@
         <v>134</v>
       </c>
       <c r="B146" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C146" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D146" t="s">
         <v>95</v>
@@ -8159,7 +8212,7 @@
         <v>142</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
@@ -8167,10 +8220,10 @@
         <v>135</v>
       </c>
       <c r="B147" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C147" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D147" t="s">
         <v>95</v>
@@ -8191,7 +8244,7 @@
         <v>142</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
@@ -8199,10 +8252,10 @@
         <v>136</v>
       </c>
       <c r="B148" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C148" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D148" t="s">
         <v>95</v>
@@ -8225,10 +8278,10 @@
         <v>137</v>
       </c>
       <c r="B149" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C149" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D149" t="s">
         <v>95</v>
@@ -8251,10 +8304,10 @@
         <v>138</v>
       </c>
       <c r="B150" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C150" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D150" t="s">
         <v>95</v>
@@ -8280,10 +8333,10 @@
         <v>139</v>
       </c>
       <c r="B151" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C151" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D151" t="s">
         <v>95</v>
@@ -8301,7 +8354,7 @@
         <v>141</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
@@ -8309,10 +8362,10 @@
         <v>140</v>
       </c>
       <c r="B152" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D152" t="s">
         <v>95</v>
@@ -8330,7 +8383,7 @@
         <v>141</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
@@ -8338,10 +8391,10 @@
         <v>141</v>
       </c>
       <c r="B153" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C153" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D153" t="s">
         <v>95</v>
@@ -8359,7 +8412,7 @@
         <v>141</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
@@ -8367,10 +8420,10 @@
         <v>142</v>
       </c>
       <c r="B154" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D154" t="s">
         <v>95</v>
@@ -8388,7 +8441,7 @@
         <v>141</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
@@ -8396,10 +8449,10 @@
         <v>143</v>
       </c>
       <c r="B155" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D155" t="s">
         <v>95</v>
@@ -8420,7 +8473,7 @@
         <v>141</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
@@ -8428,10 +8481,10 @@
         <v>144</v>
       </c>
       <c r="B156" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C156" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D156" t="s">
         <v>95</v>
@@ -8454,10 +8507,10 @@
         <v>145</v>
       </c>
       <c r="B157" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C157" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D157" t="s">
         <v>95</v>
@@ -8475,7 +8528,7 @@
         <v>141</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
@@ -8483,10 +8536,10 @@
         <v>146</v>
       </c>
       <c r="B158" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C158" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D158" t="s">
         <v>95</v>
@@ -8507,7 +8560,7 @@
         <v>141</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
@@ -8515,10 +8568,10 @@
         <v>147</v>
       </c>
       <c r="B159" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C159" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D159" t="s">
         <v>95</v>
@@ -8541,10 +8594,10 @@
         <v>148</v>
       </c>
       <c r="B160" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C160" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D160" t="s">
         <v>95</v>
@@ -8562,7 +8615,7 @@
         <v>142</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
@@ -8570,10 +8623,10 @@
         <v>149</v>
       </c>
       <c r="B161" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C161" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D161" t="s">
         <v>95</v>
@@ -8594,7 +8647,7 @@
         <v>142</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
@@ -8602,10 +8655,10 @@
         <v>150</v>
       </c>
       <c r="B162" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C162" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D162" t="s">
         <v>95</v>
@@ -8623,7 +8676,7 @@
         <v>142</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
@@ -8631,10 +8684,10 @@
         <v>151</v>
       </c>
       <c r="B163" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C163" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D163" t="s">
         <v>95</v>
@@ -8652,7 +8705,7 @@
         <v>142</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
@@ -8660,10 +8713,10 @@
         <v>152</v>
       </c>
       <c r="B164" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C164" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D164" t="s">
         <v>95</v>
@@ -8684,7 +8737,7 @@
         <v>142</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
@@ -8692,10 +8745,10 @@
         <v>153</v>
       </c>
       <c r="B165" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C165" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D165" t="s">
         <v>95</v>
@@ -8718,10 +8771,10 @@
         <v>154</v>
       </c>
       <c r="B166" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C166" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D166" t="s">
         <v>95</v>
@@ -8739,7 +8792,7 @@
         <v>141</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
@@ -8747,10 +8800,10 @@
         <v>155</v>
       </c>
       <c r="B167" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C167" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D167" t="s">
         <v>95</v>
@@ -8768,7 +8821,7 @@
         <v>141</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
@@ -8776,10 +8829,10 @@
         <v>156</v>
       </c>
       <c r="B168" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C168" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D168" t="s">
         <v>95</v>
@@ -8797,7 +8850,7 @@
         <v>141</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
@@ -8805,10 +8858,10 @@
         <v>157</v>
       </c>
       <c r="B169" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C169" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D169" t="s">
         <v>95</v>
@@ -8829,7 +8882,7 @@
         <v>141</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K169" s="15" t="s">
         <v>278</v>
@@ -8840,10 +8893,10 @@
         <v>158</v>
       </c>
       <c r="B170" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C170" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D170" t="s">
         <v>95</v>
@@ -8861,7 +8914,7 @@
         <v>141</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
@@ -8869,10 +8922,10 @@
         <v>159</v>
       </c>
       <c r="B171" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C171" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D171" t="s">
         <v>95</v>
@@ -8890,7 +8943,7 @@
         <v>141</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
@@ -8898,10 +8951,10 @@
         <v>160</v>
       </c>
       <c r="B172" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C172" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D172" t="s">
         <v>95</v>
@@ -8919,7 +8972,7 @@
         <v>141</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
@@ -8927,10 +8980,10 @@
         <v>161</v>
       </c>
       <c r="B173" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C173" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D173" t="s">
         <v>95</v>
@@ -8948,7 +9001,7 @@
         <v>141</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
@@ -8956,10 +9009,10 @@
         <v>162</v>
       </c>
       <c r="B174" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C174" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D174" t="s">
         <v>95</v>
@@ -8980,7 +9033,7 @@
         <v>141</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
@@ -8988,10 +9041,10 @@
         <v>163</v>
       </c>
       <c r="B175" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C175" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D175" t="s">
         <v>95</v>
@@ -9014,10 +9067,10 @@
         <v>164</v>
       </c>
       <c r="B176" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C176" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D176" t="s">
         <v>95</v>
@@ -9035,7 +9088,7 @@
         <v>143</v>
       </c>
       <c r="J176" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
@@ -9043,10 +9096,10 @@
         <v>165</v>
       </c>
       <c r="B177" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C177" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D177" t="s">
         <v>95</v>
@@ -9064,7 +9117,7 @@
         <v>143</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
@@ -9072,10 +9125,10 @@
         <v>166</v>
       </c>
       <c r="B178" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C178" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D178" t="s">
         <v>95</v>
@@ -9093,7 +9146,7 @@
         <v>143</v>
       </c>
       <c r="J178" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L178" s="1"/>
     </row>
@@ -9102,10 +9155,10 @@
         <v>167</v>
       </c>
       <c r="B179" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C179" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D179" t="s">
         <v>95</v>
@@ -9126,7 +9179,7 @@
         <v>143</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L179" s="1"/>
     </row>
@@ -9135,10 +9188,10 @@
         <v>168</v>
       </c>
       <c r="B180" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C180" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D180" t="s">
         <v>95</v>
@@ -9162,10 +9215,10 @@
         <v>169</v>
       </c>
       <c r="B181" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C181" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D181" t="s">
         <v>95</v>
@@ -9183,7 +9236,7 @@
         <v>141</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L181" s="1"/>
     </row>
@@ -9192,10 +9245,10 @@
         <v>170</v>
       </c>
       <c r="B182" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C182" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D182" t="s">
         <v>95</v>
@@ -9213,7 +9266,7 @@
         <v>141</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L182" s="1"/>
     </row>
@@ -9222,10 +9275,10 @@
         <v>171</v>
       </c>
       <c r="B183" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C183" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D183" t="s">
         <v>95</v>
@@ -9243,7 +9296,7 @@
         <v>141</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L183" s="1"/>
     </row>
@@ -9252,10 +9305,10 @@
         <v>172</v>
       </c>
       <c r="B184" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C184" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D184" t="s">
         <v>95</v>
@@ -9276,7 +9329,7 @@
         <v>141</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L184" s="1"/>
     </row>
@@ -9307,10 +9360,10 @@
         <v>176</v>
       </c>
       <c r="B189" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C189" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D189" t="s">
         <v>279</v>
@@ -9328,7 +9381,7 @@
         <v>142</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
@@ -9336,10 +9389,10 @@
         <v>177</v>
       </c>
       <c r="B190" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C190" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D190" t="s">
         <v>279</v>
@@ -9357,7 +9410,7 @@
         <v>142</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
@@ -9365,10 +9418,10 @@
         <v>178</v>
       </c>
       <c r="B191" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C191" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D191" t="s">
         <v>279</v>
@@ -9389,7 +9442,7 @@
         <v>142</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -9397,10 +9450,10 @@
         <v>179</v>
       </c>
       <c r="B192" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C192" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D192" t="s">
         <v>279</v>
@@ -9418,18 +9471,18 @@
         <v>142</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>180</v>
       </c>
       <c r="B193" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C193" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D193" t="s">
         <v>279</v>
@@ -9447,18 +9500,18 @@
         <v>142</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>181</v>
       </c>
       <c r="B194" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C194" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D194" t="s">
         <v>279</v>
@@ -9479,18 +9532,18 @@
         <v>142</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>182</v>
       </c>
       <c r="B195" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C195" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D195" t="s">
         <v>279</v>
@@ -9508,18 +9561,18 @@
         <v>142</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>183</v>
       </c>
       <c r="B196" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C196" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D196" t="s">
         <v>279</v>
@@ -9537,21 +9590,21 @@
         <v>142</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K196" s="15" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>184</v>
       </c>
       <c r="B197" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C197" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D197" t="s">
         <v>279</v>
@@ -9569,21 +9622,21 @@
         <v>142</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K197" s="15" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>185</v>
       </c>
       <c r="B198" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C198" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D198" t="s">
         <v>279</v>
@@ -9604,13 +9657,13 @@
         <v>142</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K198" s="15" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199" s="12"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
@@ -9623,18 +9676,18 @@
       <c r="J199" s="14"/>
       <c r="K199" s="16"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>186</v>
       </c>
       <c r="B200" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C200" t="s">
+        <v>471</v>
+      </c>
+      <c r="D200" t="s">
         <v>472</v>
-      </c>
-      <c r="D200" t="s">
-        <v>473</v>
       </c>
       <c r="E200" s="17">
         <v>1</v>
@@ -9649,18 +9702,18 @@
         <v>143</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>187</v>
       </c>
       <c r="B201" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C201" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D201" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E201" s="18">
         <v>2</v>
@@ -9675,18 +9728,18 @@
         <v>143</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>188</v>
       </c>
       <c r="B202" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C202" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D202" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E202" s="18">
         <v>2</v>
@@ -9701,18 +9754,18 @@
         <v>143</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>189</v>
       </c>
       <c r="B203" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C203" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D203" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E203" s="17">
         <v>1</v>
@@ -9727,18 +9780,18 @@
         <v>143</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>190</v>
       </c>
       <c r="B204" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C204" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D204" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E204" s="17">
         <v>1</v>
@@ -9751,6 +9804,71 @@
       </c>
       <c r="I204" s="1" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F205" s="13"/>
+      <c r="G205" s="13"/>
+      <c r="H205" s="13"/>
+      <c r="I205" s="13"/>
+      <c r="J205" s="14"/>
+      <c r="K205" s="16"/>
+      <c r="L205" s="16"/>
+      <c r="N205" s="13"/>
+      <c r="O205" s="13"/>
+      <c r="P205" s="13"/>
+      <c r="Q205" s="13"/>
+    </row>
+    <row r="206" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>301</v>
+      </c>
+      <c r="B206" t="s">
+        <v>786</v>
+      </c>
+      <c r="C206" t="s">
+        <v>785</v>
+      </c>
+      <c r="D206" t="s">
+        <v>791</v>
+      </c>
+      <c r="E206">
+        <v>-1</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J206" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="L206" s="15" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>302</v>
+      </c>
+      <c r="B207" t="s">
+        <v>787</v>
+      </c>
+      <c r="C207" t="s">
+        <v>788</v>
+      </c>
+      <c r="D207" t="s">
+        <v>220</v>
+      </c>
+      <c r="E207">
+        <v>-1</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J207" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="L207" s="15" t="s">
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -10840,10 +10958,10 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -10857,10 +10975,10 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -10874,10 +10992,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -10891,10 +11009,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -10908,10 +11026,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -10925,10 +11043,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -10942,10 +11060,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -10963,10 +11081,10 @@
         <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -10980,10 +11098,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -10997,10 +11115,10 @@
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -11014,10 +11132,10 @@
         <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -11031,10 +11149,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -11048,10 +11166,10 @@
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -11065,10 +11183,10 @@
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -11082,10 +11200,10 @@
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
   </sheetData>
@@ -11112,7 +11230,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -11130,7 +11248,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -11392,7 +11510,7 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C1" t="s">
         <v>105</v>
@@ -11461,7 +11579,7 @@
         <v>80</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC19DA3F-BAF9-40B5-AE2F-F16E8491D4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A985923D-9474-405B-8FC2-EF7B0488C328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6075" windowWidth="29040" windowHeight="15840" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
+    <workbookView xWindow="28680" yWindow="6435" windowWidth="29040" windowHeight="15840" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -25,23 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="796">
   <si>
     <t>名字</t>
   </si>
@@ -2999,10 +2988,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chassis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>301</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3012,6 +2997,13 @@
   </si>
   <si>
     <t>201,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isolate</t>
+  </si>
+  <si>
+    <t>Isolate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3508,8 +3500,8 @@
   <dimension ref="A1:V207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I141" sqref="I141"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J207" sqref="J207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4719,6 +4711,9 @@
       <c r="O28" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="Q28" s="1" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -7877,7 +7872,7 @@
         <v>782</v>
       </c>
       <c r="L134" s="15" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -9830,7 +9825,7 @@
         <v>785</v>
       </c>
       <c r="D206" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="E206">
         <v>-1</v>
@@ -9842,7 +9837,7 @@
         <v>789</v>
       </c>
       <c r="L206" s="15" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="207" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
@@ -9856,7 +9851,7 @@
         <v>788</v>
       </c>
       <c r="D207" t="s">
-        <v>220</v>
+        <v>794</v>
       </c>
       <c r="E207">
         <v>-1</v>
@@ -9868,7 +9863,7 @@
         <v>790</v>
       </c>
       <c r="L207" s="15" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -9877,15 +9872,18 @@
     <mergeCell ref="N1:S3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:H71 G83:H106 G108:H130 G73:H81 G132:H1048576" xr:uid="{887B8EE1-75F9-4DD5-A9B3-34D09B7ABD53}">
       <formula1>$P$5:$P$12</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F130 F132:F1048576" xr:uid="{70049EC0-6AD3-4E6A-BE5E-82D066390A45}">
       <formula1>$N$5:$N$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D130 D132:D1048576" xr:uid="{B7B2F877-0113-499B-ACFE-18AE178D0392}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D3" xr:uid="{B7B2F877-0113-499B-ACFE-18AE178D0392}">
       <formula1>$Q$16:$Q$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D1048576" xr:uid="{9ADFEEF9-0B67-4DEE-A48E-D4303A24C466}">
+      <formula1>$Q$16:$Q$29</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A985923D-9474-405B-8FC2-EF7B0488C328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E80A39-6E45-449E-9EE9-E19F82476723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="6435" windowWidth="29040" windowHeight="15840" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="818">
   <si>
     <t>名字</t>
   </si>
@@ -2964,10 +2964,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chassis/Chassis_Support_Fighter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Support_Fighter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2976,10 +2972,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chassis/Chassis_Support_Worker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>maxArmor + 15,maxHealth + 20,maxMana + 30,moveSpeed + 5,electricPower + 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3004,6 +2996,90 @@
   </si>
   <si>
     <t>Isolate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy_Droid_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy_Droid_02</t>
+  </si>
+  <si>
+    <t>Enemy_Droid_03</t>
+  </si>
+  <si>
+    <t>Enemy_Droid_04</t>
+  </si>
+  <si>
+    <t>Enemy_Droid_05</t>
+  </si>
+  <si>
+    <t>Isolate/Isolate_Enemy_Droid_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isolate/Isolate_Enemy_Droid_02</t>
+  </si>
+  <si>
+    <t>Isolate/Isolate_Enemy_Droid_03</t>
+  </si>
+  <si>
+    <t>Isolate/Isolate_Enemy_Droid_04</t>
+  </si>
+  <si>
+    <t>Isolate/Isolate_Support_Fighter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isolate/Isolate_Support_Worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 20,maxHealth + 30,maxMana + 40,moveSpeed + 4,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 20,maxHealth + 40,maxMana + 40,moveSpeed + 4,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 30,maxHealth + 60,maxMana + 40,moveSpeed + 4,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 30,maxHealth + 80,maxMana + 40,moveSpeed + 4,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 50,maxHealth + 100,maxMana + 40,moveSpeed + 4,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isolate/Isolate_Enemy_Droid_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isolate/IIsolate_Enemy_AssaultMech_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy_AssaultMech_01</t>
+  </si>
+  <si>
+    <t>Enemy_AssaultMech_02</t>
+  </si>
+  <si>
+    <t>Enemy_AssaultMech_03</t>
+  </si>
+  <si>
+    <t>Isolate/IIsolate_Enemy_AssaultMech_02</t>
+  </si>
+  <si>
+    <t>Isolate/IIsolate_Enemy_AssaultMech_03</t>
+  </si>
+  <si>
+    <t>maxArmor + 100,maxHealth + 200,maxMana + 40,moveSpeed + 6,electricPower + 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3497,11 +3573,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
-  <dimension ref="A1:V207"/>
+  <dimension ref="A1:V232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J207" sqref="J207"/>
+      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C230" sqref="C230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4712,7 +4788,7 @@
         <v>64</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -7872,7 +7948,7 @@
         <v>782</v>
       </c>
       <c r="L134" s="15" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -9819,13 +9895,13 @@
         <v>301</v>
       </c>
       <c r="B206" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C206" t="s">
-        <v>785</v>
+        <v>803</v>
       </c>
       <c r="D206" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E206">
         <v>-1</v>
@@ -9834,10 +9910,10 @@
         <v>783</v>
       </c>
       <c r="J206" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="L206" s="15" t="s">
         <v>789</v>
-      </c>
-      <c r="L206" s="15" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="207" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
@@ -9845,13 +9921,13 @@
         <v>302</v>
       </c>
       <c r="B207" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C207" t="s">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="D207" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E207">
         <v>-1</v>
@@ -9860,10 +9936,194 @@
         <v>783</v>
       </c>
       <c r="J207" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="L207" s="15" t="s">
         <v>790</v>
       </c>
-      <c r="L207" s="15" t="s">
+    </row>
+    <row r="225" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>320</v>
+      </c>
+      <c r="B225" t="s">
+        <v>794</v>
+      </c>
+      <c r="C225" t="s">
+        <v>799</v>
+      </c>
+      <c r="D225" t="s">
         <v>792</v>
+      </c>
+      <c r="E225">
+        <v>-1</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J225" s="4" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>321</v>
+      </c>
+      <c r="B226" t="s">
+        <v>795</v>
+      </c>
+      <c r="C226" t="s">
+        <v>800</v>
+      </c>
+      <c r="D226" t="s">
+        <v>792</v>
+      </c>
+      <c r="E226">
+        <v>-1</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J226" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>322</v>
+      </c>
+      <c r="B227" t="s">
+        <v>796</v>
+      </c>
+      <c r="C227" t="s">
+        <v>801</v>
+      </c>
+      <c r="D227" t="s">
+        <v>792</v>
+      </c>
+      <c r="E227">
+        <v>-1</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J227" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>323</v>
+      </c>
+      <c r="B228" t="s">
+        <v>797</v>
+      </c>
+      <c r="C228" t="s">
+        <v>802</v>
+      </c>
+      <c r="D228" t="s">
+        <v>792</v>
+      </c>
+      <c r="E228">
+        <v>-1</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J228" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>324</v>
+      </c>
+      <c r="B229" t="s">
+        <v>798</v>
+      </c>
+      <c r="C229" t="s">
+        <v>810</v>
+      </c>
+      <c r="D229" t="s">
+        <v>792</v>
+      </c>
+      <c r="E229">
+        <v>-1</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J229" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>325</v>
+      </c>
+      <c r="B230" t="s">
+        <v>812</v>
+      </c>
+      <c r="C230" t="s">
+        <v>811</v>
+      </c>
+      <c r="D230" t="s">
+        <v>792</v>
+      </c>
+      <c r="E230">
+        <v>-1</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J230" s="4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>326</v>
+      </c>
+      <c r="B231" t="s">
+        <v>813</v>
+      </c>
+      <c r="C231" t="s">
+        <v>815</v>
+      </c>
+      <c r="D231" t="s">
+        <v>792</v>
+      </c>
+      <c r="E231">
+        <v>-1</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J231" s="4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>327</v>
+      </c>
+      <c r="B232" t="s">
+        <v>814</v>
+      </c>
+      <c r="C232" t="s">
+        <v>816</v>
+      </c>
+      <c r="D232" t="s">
+        <v>792</v>
+      </c>
+      <c r="E232">
+        <v>-1</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J232" s="4" t="s">
+        <v>817</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E80A39-6E45-449E-9EE9-E19F82476723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A515C7-8651-4B67-A61F-CC9C7D6731E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6435" windowWidth="29040" windowHeight="15840" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
+    <workbookView xWindow="39240" yWindow="-2070" windowWidth="28800" windowHeight="27285" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="ConstructorMechType" sheetId="8" r:id="rId5"/>
     <sheet name="ConstructorLevel" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="841">
   <si>
     <t>名字</t>
   </si>
@@ -3060,26 +3060,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Isolate/IIsolate_Enemy_AssaultMech_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enemy_AssaultMech_01</t>
   </si>
   <si>
     <t>Enemy_AssaultMech_02</t>
   </si>
   <si>
+    <t>maxArmor + 100,maxHealth + 200,maxMana + 40,moveSpeed + 6,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Enemy_AssaultMech_03</t>
-  </si>
-  <si>
-    <t>Isolate/IIsolate_Enemy_AssaultMech_02</t>
-  </si>
-  <si>
-    <t>Isolate/IIsolate_Enemy_AssaultMech_03</t>
-  </si>
-  <si>
-    <t>maxArmor + 100,maxHealth + 200,maxMana + 40,moveSpeed + 6,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy_SpiderBot_Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy_SpiderBot_Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy_SpiderBot_Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy_SpiderBot_Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy_SpiderBot_Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 10,maxHealth + 10,maxMana + 20,moveSpeed + 7,electricPower + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isolate/Isolate_Enemy_Orb_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isolate/Isolate_Enemy_Orb_02</t>
+  </si>
+  <si>
+    <t>Isolate/Isolate_Enemy_Orb_03</t>
+  </si>
+  <si>
+    <t>Enemy_Orb_01</t>
+  </si>
+  <si>
+    <t>Enemy_Orb_02</t>
+  </si>
+  <si>
+    <t>Enemy_Orb_03</t>
+  </si>
+  <si>
+    <t>maxArmor + 30,maxHealth + 40,maxMana + 40,moveSpeed + 3,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 40,maxHealth + 60,maxMana + 40,moveSpeed + 3,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 50,maxHealth + 90,maxMana + 40,moveSpeed + 3,electricPower + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isolate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isolate/Isolate_Enemy_AssaultMech_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isolate/Isolate_Enemy_AssaultMech_02</t>
+  </si>
+  <si>
+    <t>Isolate/Isolate_Enemy_AssaultMech_03</t>
+  </si>
+  <si>
+    <t>Isolate/Isolate_Enemy_SK_SpiderBot_Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isolate/Isolate_Enemy_SK_SpiderBot_Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isolate/Isolate_Enemy_SK_SpiderBot_Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isolate/Isolate_Enemy_SK_SpiderBot_Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isolate/Isolate_Enemy_SK_SpiderBot_Acid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3573,11 +3661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
-  <dimension ref="A1:V232"/>
+  <dimension ref="A1:V240"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C230" sqref="C230"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C247" sqref="C247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9904,7 +9992,7 @@
         <v>792</v>
       </c>
       <c r="E206">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I206" s="1" t="s">
         <v>783</v>
@@ -9930,7 +10018,7 @@
         <v>792</v>
       </c>
       <c r="E207">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I207" s="1" t="s">
         <v>783</v>
@@ -9942,7 +10030,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>320</v>
       </c>
@@ -9956,7 +10044,7 @@
         <v>792</v>
       </c>
       <c r="E225">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I225" s="1" t="s">
         <v>142</v>
@@ -9964,8 +10052,11 @@
       <c r="J225" s="4" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="L225" s="15" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>321</v>
       </c>
@@ -9979,7 +10070,7 @@
         <v>792</v>
       </c>
       <c r="E226">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I226" s="1" t="s">
         <v>142</v>
@@ -9987,8 +10078,11 @@
       <c r="J226" s="4" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="L226" s="15" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>322</v>
       </c>
@@ -10002,7 +10096,7 @@
         <v>792</v>
       </c>
       <c r="E227">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I227" s="1" t="s">
         <v>135</v>
@@ -10010,8 +10104,11 @@
       <c r="J227" s="4" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="L227" s="15" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>323</v>
       </c>
@@ -10025,7 +10122,7 @@
         <v>792</v>
       </c>
       <c r="E228">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I228" s="1" t="s">
         <v>135</v>
@@ -10033,8 +10130,11 @@
       <c r="J228" s="4" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="L228" s="15" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>324</v>
       </c>
@@ -10048,7 +10148,7 @@
         <v>792</v>
       </c>
       <c r="E229">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I229" s="1" t="s">
         <v>135</v>
@@ -10056,54 +10156,60 @@
       <c r="J229" s="4" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="L229" s="15" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>325</v>
       </c>
       <c r="B230" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C230" t="s">
-        <v>811</v>
+        <v>833</v>
       </c>
       <c r="D230" t="s">
-        <v>792</v>
+        <v>831</v>
       </c>
       <c r="E230">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I230" s="1" t="s">
         <v>135</v>
       </c>
       <c r="J230" s="4" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+        <v>813</v>
+      </c>
+      <c r="L230" s="15" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>326</v>
       </c>
       <c r="B231" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C231" t="s">
-        <v>815</v>
+        <v>834</v>
       </c>
       <c r="D231" t="s">
         <v>792</v>
       </c>
       <c r="E231">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I231" s="1" t="s">
         <v>135</v>
       </c>
       <c r="J231" s="4" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>327</v>
       </c>
@@ -10111,19 +10217,203 @@
         <v>814</v>
       </c>
       <c r="C232" t="s">
-        <v>816</v>
+        <v>835</v>
       </c>
       <c r="D232" t="s">
         <v>792</v>
       </c>
       <c r="E232">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I232" s="1" t="s">
         <v>135</v>
       </c>
       <c r="J232" s="4" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>328</v>
+      </c>
+      <c r="B233" t="s">
+        <v>815</v>
+      </c>
+      <c r="C233" t="s">
+        <v>836</v>
+      </c>
+      <c r="D233" t="s">
+        <v>792</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J233" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>329</v>
+      </c>
+      <c r="B234" t="s">
+        <v>816</v>
+      </c>
+      <c r="C234" t="s">
+        <v>837</v>
+      </c>
+      <c r="D234" t="s">
+        <v>792</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J234" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>330</v>
+      </c>
+      <c r="B235" t="s">
         <v>817</v>
+      </c>
+      <c r="C235" t="s">
+        <v>838</v>
+      </c>
+      <c r="D235" t="s">
+        <v>792</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J235" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>331</v>
+      </c>
+      <c r="B236" t="s">
+        <v>818</v>
+      </c>
+      <c r="C236" t="s">
+        <v>839</v>
+      </c>
+      <c r="D236" t="s">
+        <v>792</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J236" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>332</v>
+      </c>
+      <c r="B237" t="s">
+        <v>819</v>
+      </c>
+      <c r="C237" t="s">
+        <v>840</v>
+      </c>
+      <c r="D237" t="s">
+        <v>792</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J237" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>333</v>
+      </c>
+      <c r="B238" t="s">
+        <v>824</v>
+      </c>
+      <c r="C238" t="s">
+        <v>821</v>
+      </c>
+      <c r="D238" t="s">
+        <v>792</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J238" s="4" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>334</v>
+      </c>
+      <c r="B239" t="s">
+        <v>825</v>
+      </c>
+      <c r="C239" t="s">
+        <v>822</v>
+      </c>
+      <c r="D239" t="s">
+        <v>792</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J239" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>335</v>
+      </c>
+      <c r="B240" t="s">
+        <v>826</v>
+      </c>
+      <c r="C240" t="s">
+        <v>823</v>
+      </c>
+      <c r="D240" t="s">
+        <v>792</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J240" s="4" t="s">
+        <v>829</v>
       </c>
     </row>
   </sheetData>
@@ -11473,10 +11763,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595AF412-15AC-4C77-928F-77193CE9ED81}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11744,6 +12034,22 @@
       <c r="D15">
         <f>B15*ConstructorLevel!$B$8</f>
         <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <f>B16*ConstructorLevel!$B$4</f>
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <f>B16*ConstructorLevel!$B$8</f>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A515C7-8651-4B67-A61F-CC9C7D6731E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6B2411-9447-4FB8-A0E2-FC2FC26035C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39240" yWindow="-2070" windowWidth="28800" windowHeight="27285" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
+    <workbookView xWindow="28680" yWindow="6435" windowWidth="29040" windowHeight="15840" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="ConstructorMechType" sheetId="8" r:id="rId5"/>
     <sheet name="ConstructorLevel" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2976,10 +2976,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxArmor + 20,maxHealth + 30,maxMana + 30,moveSpeed + 5,electricPower + 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>301</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2988,10 +2984,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>201,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Isolate</t>
   </si>
   <si>
@@ -3168,6 +3160,14 @@
   </si>
   <si>
     <t>Isolate/Isolate_Enemy_SK_SpiderBot_Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 20,maxHealth + 130,maxMana + 30,moveSpeed + 5,electricPower + 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3664,8 +3664,8 @@
   <dimension ref="A1:V240"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C247" sqref="C247"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J209" sqref="J209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4876,7 +4876,7 @@
         <v>64</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -8036,7 +8036,7 @@
         <v>782</v>
       </c>
       <c r="L134" s="15" t="s">
-        <v>791</v>
+        <v>839</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -9986,10 +9986,10 @@
         <v>785</v>
       </c>
       <c r="C206" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D206" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -10001,7 +10001,7 @@
         <v>787</v>
       </c>
       <c r="L206" s="15" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="207" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
@@ -10012,10 +10012,10 @@
         <v>786</v>
       </c>
       <c r="C207" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D207" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -10024,10 +10024,10 @@
         <v>783</v>
       </c>
       <c r="J207" s="4" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="L207" s="15" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10035,13 +10035,13 @@
         <v>320</v>
       </c>
       <c r="B225" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C225" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D225" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -10050,10 +10050,10 @@
         <v>142</v>
       </c>
       <c r="J225" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="L225" s="15" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="226" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10061,13 +10061,13 @@
         <v>321</v>
       </c>
       <c r="B226" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C226" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D226" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -10076,10 +10076,10 @@
         <v>142</v>
       </c>
       <c r="J226" s="4" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="L226" s="15" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="227" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10087,13 +10087,13 @@
         <v>322</v>
       </c>
       <c r="B227" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C227" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D227" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -10102,10 +10102,10 @@
         <v>135</v>
       </c>
       <c r="J227" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="L227" s="15" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="228" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10113,13 +10113,13 @@
         <v>323</v>
       </c>
       <c r="B228" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C228" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D228" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -10128,10 +10128,10 @@
         <v>135</v>
       </c>
       <c r="J228" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="L228" s="15" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10139,13 +10139,13 @@
         <v>324</v>
       </c>
       <c r="B229" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C229" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D229" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -10154,10 +10154,10 @@
         <v>135</v>
       </c>
       <c r="J229" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="L229" s="15" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="230" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10165,13 +10165,13 @@
         <v>325</v>
       </c>
       <c r="B230" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C230" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D230" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -10180,10 +10180,10 @@
         <v>135</v>
       </c>
       <c r="J230" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="L230" s="15" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="231" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10191,13 +10191,13 @@
         <v>326</v>
       </c>
       <c r="B231" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C231" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D231" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -10206,7 +10206,7 @@
         <v>135</v>
       </c>
       <c r="J231" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10214,13 +10214,13 @@
         <v>327</v>
       </c>
       <c r="B232" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C232" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D232" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -10229,7 +10229,7 @@
         <v>135</v>
       </c>
       <c r="J232" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="233" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10237,13 +10237,13 @@
         <v>328</v>
       </c>
       <c r="B233" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C233" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D233" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -10252,7 +10252,7 @@
         <v>135</v>
       </c>
       <c r="J233" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="234" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10260,13 +10260,13 @@
         <v>329</v>
       </c>
       <c r="B234" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C234" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D234" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -10275,7 +10275,7 @@
         <v>135</v>
       </c>
       <c r="J234" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="235" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10283,13 +10283,13 @@
         <v>330</v>
       </c>
       <c r="B235" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C235" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D235" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -10298,7 +10298,7 @@
         <v>135</v>
       </c>
       <c r="J235" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="236" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10306,13 +10306,13 @@
         <v>331</v>
       </c>
       <c r="B236" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C236" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D236" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -10321,7 +10321,7 @@
         <v>135</v>
       </c>
       <c r="J236" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="237" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10329,13 +10329,13 @@
         <v>332</v>
       </c>
       <c r="B237" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C237" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D237" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -10344,7 +10344,7 @@
         <v>135</v>
       </c>
       <c r="J237" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="238" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10352,13 +10352,13 @@
         <v>333</v>
       </c>
       <c r="B238" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C238" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D238" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E238">
         <v>1</v>
@@ -10367,7 +10367,7 @@
         <v>135</v>
       </c>
       <c r="J238" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10375,13 +10375,13 @@
         <v>334</v>
       </c>
       <c r="B239" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C239" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D239" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -10390,7 +10390,7 @@
         <v>135</v>
       </c>
       <c r="J239" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10398,13 +10398,13 @@
         <v>335</v>
       </c>
       <c r="B240" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C240" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D240" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         <v>135</v>
       </c>
       <c r="J240" s="4" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
   </sheetData>
@@ -12038,7 +12038,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B16">
         <v>3</v>

--- a/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ConstructorConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6B2411-9447-4FB8-A0E2-FC2FC26035C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3382AF-1A31-40BD-999B-43AEF2B2D0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6435" windowWidth="29040" windowHeight="15840" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
+    <workbookView xWindow="40425" yWindow="-1125" windowWidth="28800" windowHeight="27285" xr2:uid="{01A69C29-627E-4A73-ADC6-9511219C2DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructorBaseData" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="ConstructorMechType" sheetId="8" r:id="rId5"/>
     <sheet name="ConstructorLevel" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="839">
   <si>
     <t>名字</t>
   </si>
@@ -3121,15 +3121,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Isolate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3175,6 +3167,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3326,7 +3321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -3366,6 +3361,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3664,8 +3660,8 @@
   <dimension ref="A1:V240"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J209" sqref="J209"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L230" sqref="L230:L232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8036,7 +8032,7 @@
         <v>782</v>
       </c>
       <c r="L134" s="15" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -10024,7 +10020,7 @@
         <v>783</v>
       </c>
       <c r="J207" s="4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="L207" s="15" t="s">
         <v>789</v>
@@ -10052,8 +10048,8 @@
       <c r="J225" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="L225" s="15" t="s">
-        <v>828</v>
+      <c r="L225" s="25">
+        <v>401</v>
       </c>
     </row>
     <row r="226" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10078,8 +10074,8 @@
       <c r="J226" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="L226" s="15" t="s">
-        <v>828</v>
+      <c r="L226" s="25">
+        <v>401</v>
       </c>
     </row>
     <row r="227" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10104,8 +10100,8 @@
       <c r="J227" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="L227" s="15" t="s">
-        <v>828</v>
+      <c r="L227" s="25">
+        <v>402</v>
       </c>
     </row>
     <row r="228" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10130,8 +10126,8 @@
       <c r="J228" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="L228" s="15" t="s">
-        <v>828</v>
+      <c r="L228" s="25">
+        <v>402</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10156,8 +10152,8 @@
       <c r="J229" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="L229" s="15" t="s">
-        <v>828</v>
+      <c r="L229" s="25">
+        <v>403</v>
       </c>
     </row>
     <row r="230" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10168,10 +10164,10 @@
         <v>809</v>
       </c>
       <c r="C230" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D230" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -10182,8 +10178,8 @@
       <c r="J230" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="L230" s="15" t="s">
-        <v>830</v>
+      <c r="L230" s="25">
+        <v>407</v>
       </c>
     </row>
     <row r="231" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10194,7 +10190,7 @@
         <v>810</v>
       </c>
       <c r="C231" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D231" t="s">
         <v>790</v>
@@ -10207,6 +10203,9 @@
       </c>
       <c r="J231" s="4" t="s">
         <v>811</v>
+      </c>
+      <c r="L231" s="25">
+        <v>408</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10217,7 +10216,7 @@
         <v>812</v>
       </c>
       <c r="C232" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D232" t="s">
         <v>790</v>
@@ -10230,6 +10229,9 @@
       </c>
       <c r="J232" s="4" t="s">
         <v>811</v>
+      </c>
+      <c r="L232" s="25">
+        <v>409</v>
       </c>
     </row>
     <row r="233" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -10240,7 +10242,7 @@
         <v>813</v>
       </c>
       <c r="C233" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D233" t="s">
         <v>790</v>
@@ -10263,7 +10265,7 @@
         <v>814</v>
       </c>
       <c r="C234" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D234" t="s">
         <v>790</v>
@@ -10286,7 +10288,7 @@
         <v>815</v>
       </c>
       <c r="C235" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D235" t="s">
         <v>790</v>
@@ -10309,7 +10311,7 @@
         <v>816</v>
       </c>
       <c r="C236" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D236" t="s">
         <v>790</v>
@@ -10332,7 +10334,7 @@
         <v>817</v>
       </c>
       <c r="C237" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D237" t="s">
         <v>790</v>
@@ -10369,6 +10371,9 @@
       <c r="J238" s="4" t="s">
         <v>825</v>
       </c>
+      <c r="L238" s="25">
+        <v>404</v>
+      </c>
     </row>
     <row r="239" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A239">
@@ -10392,6 +10397,9 @@
       <c r="J239" s="4" t="s">
         <v>826</v>
       </c>
+      <c r="L239" s="25">
+        <v>405</v>
+      </c>
     </row>
     <row r="240" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A240">
@@ -10414,6 +10422,9 @@
       </c>
       <c r="J240" s="4" t="s">
         <v>827</v>
+      </c>
+      <c r="L240" s="25">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -12038,7 +12049,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B16">
         <v>3</v>
